--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="329">
   <si>
     <t>id</t>
   </si>
@@ -333,7 +333,7 @@
     <t>products/forerunner55/basic-42mm-white.png,products/forerunner55/basic-42mm-aqua.png,products/forerunner55/basic-42mm-gray.png</t>
   </si>
   <si>
-    <t>1.04" (26.3 mm)</t>
+    <t>1.04” (26.3 mm)</t>
   </si>
   <si>
     <t>GNSS</t>
@@ -372,7 +372,7 @@
     <t>products/forerunner165/music-43mm-white.png,products/forerunner165/music-43mm-aqua.png,products/forerunner165/music-43mm-lilac.png</t>
   </si>
   <si>
-    <t>1.2" (30.4 mm)</t>
+    <t>1.2” (30.4 mm)</t>
   </si>
   <si>
     <t>39g</t>
@@ -425,7 +425,7 @@
     <t>products/forerunner265/basic-46mm-white.png,products/forerunner265/basic-46mm-aqua.png,</t>
   </si>
   <si>
-    <t>1.3" (32.5 mm)</t>
+    <t>1.3” (32.5 mm)</t>
   </si>
   <si>
     <t>47g</t>
@@ -449,7 +449,7 @@
     <t>products/forerunner265s/s-46mm-black.png,products/forerunner265s/s-46mm-pink.png</t>
   </si>
   <si>
-    <t>1.1" (28.1 mm)</t>
+    <t>1.1” (28.1 mm)</t>
   </si>
   <si>
     <t>퀵릴리즈18mm</t>
@@ -479,7 +479,7 @@
     <t>products/forerunner965/basic-47mm-white.png,products/forerunner965/basic-47mm-ampyellow.png</t>
   </si>
   <si>
-    <t>1.4" (35.4 mm)</t>
+    <t>1.4” (35.4 mm)</t>
   </si>
   <si>
     <t>53g</t>
@@ -521,7 +521,7 @@
     <t>products/approachS70/basic-42mm-white.png</t>
   </si>
   <si>
-    <t>1.4" (35.41 mm)</t>
+    <t>1.4” (35.41 mm)</t>
   </si>
   <si>
     <t>56g</t>
@@ -557,7 +557,7 @@
     <t>products/approachs70gc/gc-42mm-white.png</t>
   </si>
   <si>
-    <t>1.2"(32.02mm)</t>
+    <t>1.2”(32.02mm)</t>
   </si>
   <si>
     <t>44g</t>
@@ -581,7 +581,7 @@
     <t>products/approachs50/basic-43mm-ivory.png</t>
   </si>
   <si>
-    <t>1.2"(30.4mm)</t>
+    <t>1.2”(30.4mm)</t>
   </si>
   <si>
     <t>29g</t>
@@ -617,7 +617,7 @@
     <t>흑백 MIP</t>
   </si>
   <si>
-    <t>0.9"(23 x 23mm)</t>
+    <t>0.9”(23 x 23mm)</t>
   </si>
   <si>
     <t>61g</t>
@@ -662,9 +662,6 @@
     <t>products/descentmk3/basic-43mm-gray.png</t>
   </si>
   <si>
-    <t>1.2” (30.4 mm)</t>
-  </si>
-  <si>
     <t>72g</t>
   </si>
   <si>
@@ -713,13 +710,13 @@
     <t>프리미엄 GPS 다이빙 컴퓨터</t>
   </si>
   <si>
-    <t>3" (inch)</t>
+    <t>3” (inch)</t>
   </si>
   <si>
     <t>products/descentx50i/basic-3inch-black.png</t>
   </si>
   <si>
-    <t>3.0"</t>
+    <t>3.0”</t>
   </si>
   <si>
     <t>280g</t>
@@ -776,7 +773,7 @@
     <t>products/instinct3/amoled-45mm-black.png</t>
   </si>
   <si>
-    <t>1.2" (30 mm)</t>
+    <t>1.2” (30 mm)</t>
   </si>
   <si>
     <t>18일</t>
@@ -794,7 +791,7 @@
     <t>products/instinct3/amoled-50mm-black.png</t>
   </si>
   <si>
-    <t>1.3" (33 mm)</t>
+    <t>1.3” (33 mm)</t>
   </si>
   <si>
     <t>59g</t>
@@ -1025,7 +1022,7 @@
     <t>main_img , sub_img</t>
   </si>
   <si>
-    <t>각 제품의 "products/fenix/속성명-사이즈-색상.png" 으로 경로 통일</t>
+    <t>각 제품의 ”products/fenix/속성명-사이즈-색상.png” 으로 경로 통일</t>
   </si>
   <si>
     <t>디센트 MK3, MK3i, X50i 작성 (특이점 / X50i 화면 크기 mm 표기 불가)</t>
@@ -4664,7 +4661,7 @@
         <v>48</v>
       </c>
       <c r="O21" s="20" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="P21" s="19" t="b">
         <v>1</v>
@@ -4673,16 +4670,16 @@
         <v>50</v>
       </c>
       <c r="R21" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="S21" s="20" t="s">
         <v>211</v>
-      </c>
-      <c r="S21" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="T21" s="20" t="s">
         <v>72</v>
       </c>
       <c r="U21" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="V21" s="24" t="b">
         <v>1</v>
@@ -4747,7 +4744,7 @@
         <v>39</v>
       </c>
       <c r="C22" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="40" t="s">
         <v>187</v>
@@ -4772,10 +4769,10 @@
         <v>45308.0</v>
       </c>
       <c r="L22" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="M22" s="10" t="s">
         <v>215</v>
-      </c>
-      <c r="M22" s="10" t="s">
-        <v>216</v>
       </c>
       <c r="N22" s="28" t="s">
         <v>48</v>
@@ -4790,10 +4787,10 @@
         <v>50</v>
       </c>
       <c r="R22" s="10" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="S22" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T22" s="10" t="s">
         <v>53</v>
@@ -4850,10 +4847,10 @@
         <v>0</v>
       </c>
       <c r="AL22" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM22" s="35" t="s">
         <v>218</v>
-      </c>
-      <c r="AM22" s="35" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="1">
@@ -4864,7 +4861,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>187</v>
@@ -4873,10 +4870,10 @@
         <v>206</v>
       </c>
       <c r="F23" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="G23" s="20" t="s">
         <v>221</v>
-      </c>
-      <c r="G23" s="20" t="s">
-        <v>222</v>
       </c>
       <c r="H23" s="36" t="s">
         <v>68</v>
@@ -4889,16 +4886,16 @@
         <v>45308.0</v>
       </c>
       <c r="L23" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="M23" s="20" t="s">
         <v>223</v>
-      </c>
-      <c r="M23" s="20" t="s">
-        <v>224</v>
       </c>
       <c r="N23" s="36" t="s">
         <v>48</v>
       </c>
       <c r="O23" s="20" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="P23" s="19" t="b">
         <v>1</v>
@@ -4907,10 +4904,10 @@
         <v>50</v>
       </c>
       <c r="R23" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="S23" s="20" t="s">
         <v>211</v>
-      </c>
-      <c r="S23" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="T23" s="20" t="s">
         <v>72</v>
@@ -4981,13 +4978,13 @@
         <v>39</v>
       </c>
       <c r="C24" s="44" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D24" s="45" t="s">
         <v>187</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F24" s="45" t="s">
         <v>76</v>
@@ -4996,7 +4993,7 @@
         <v>77</v>
       </c>
       <c r="H24" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I24" s="46">
         <v>2190000.0</v>
@@ -5006,16 +5003,16 @@
         <v>45638.0</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="N24" s="28" t="s">
         <v>48</v>
       </c>
       <c r="O24" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P24" s="9" t="b">
         <v>1</v>
@@ -5024,10 +5021,10 @@
         <v>50</v>
       </c>
       <c r="R24" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S24" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T24" s="10" t="s">
         <v>72</v>
@@ -5084,10 +5081,10 @@
         <v>0</v>
       </c>
       <c r="AL24" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="AM24" s="35" t="s">
         <v>231</v>
-      </c>
-      <c r="AM24" s="35" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="25" ht="30.0" customHeight="1">
@@ -5098,13 +5095,13 @@
         <v>39</v>
       </c>
       <c r="C25" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="D25" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="E25" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>235</v>
       </c>
       <c r="F25" s="20" t="s">
         <v>76</v>
@@ -5125,7 +5122,7 @@
         <v>45259.0</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="36" t="s">
@@ -5141,10 +5138,10 @@
         <v>50</v>
       </c>
       <c r="R25" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="S25" s="20" t="s">
         <v>237</v>
-      </c>
-      <c r="S25" s="20" t="s">
-        <v>238</v>
       </c>
       <c r="T25" s="20" t="s">
         <v>53</v>
@@ -5201,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM25" s="25" t="s">
         <v>239</v>
-      </c>
-      <c r="AM25" s="25" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="1">
@@ -5215,13 +5212,13 @@
         <v>39</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D26" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="F26" s="10" t="s">
         <v>76</v>
@@ -5240,7 +5237,7 @@
         <v>45692.0</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="28" t="s">
@@ -5259,7 +5256,7 @@
         <v>51</v>
       </c>
       <c r="S26" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T26" s="10" t="s">
         <v>53</v>
@@ -5316,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="AL26" s="10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AM26" s="35" t="s">
         <v>56</v>
@@ -5330,13 +5327,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="36" t="s">
+        <v>243</v>
+      </c>
+      <c r="D27" s="20" t="s">
         <v>244</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="E27" s="20" t="s">
         <v>245</v>
-      </c>
-      <c r="E27" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="F27" s="20" t="s">
         <v>76</v>
@@ -5355,14 +5352,14 @@
         <v>45692.0</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M27" s="19"/>
       <c r="N27" s="36" t="s">
         <v>48</v>
       </c>
       <c r="O27" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P27" s="16" t="b">
         <v>0</v>
@@ -5374,7 +5371,7 @@
         <v>150</v>
       </c>
       <c r="S27" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T27" s="20" t="s">
         <v>62</v>
@@ -5431,10 +5428,10 @@
         <v>0</v>
       </c>
       <c r="AL27" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM27" s="25" t="s">
         <v>249</v>
-      </c>
-      <c r="AM27" s="25" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="28" ht="30.0" customHeight="1">
@@ -5445,13 +5442,13 @@
         <v>39</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D28" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="F28" s="10" t="s">
         <v>76</v>
@@ -5460,7 +5457,7 @@
         <v>77</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I28" s="11">
         <v>739000.0</v>
@@ -5470,14 +5467,14 @@
         <v>45692.0</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="28" t="s">
         <v>48</v>
       </c>
       <c r="O28" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P28" s="16" t="b">
         <v>0</v>
@@ -5486,10 +5483,10 @@
         <v>50</v>
       </c>
       <c r="R28" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S28" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T28" s="10" t="s">
         <v>53</v>
@@ -5546,10 +5543,10 @@
         <v>0</v>
       </c>
       <c r="AL28" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="AM28" s="35" t="s">
         <v>256</v>
-      </c>
-      <c r="AM28" s="35" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="1">
@@ -5560,13 +5557,13 @@
         <v>39</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" s="20" t="s">
         <v>245</v>
-      </c>
-      <c r="E29" s="20" t="s">
-        <v>246</v>
       </c>
       <c r="F29" s="20" t="s">
         <v>76</v>
@@ -5585,14 +5582,14 @@
         <v>45692.0</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="M29" s="19"/>
       <c r="N29" s="20" t="s">
         <v>194</v>
       </c>
       <c r="O29" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P29" s="16" t="b">
         <v>0</v>
@@ -5601,10 +5598,10 @@
         <v>50</v>
       </c>
       <c r="R29" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="S29" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T29" s="20" t="s">
         <v>62</v>
@@ -5661,10 +5658,10 @@
         <v>1</v>
       </c>
       <c r="AL29" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="AM29" s="25" t="s">
         <v>262</v>
-      </c>
-      <c r="AM29" s="25" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="1">
@@ -5675,13 +5672,13 @@
         <v>39</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D30" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>245</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>246</v>
       </c>
       <c r="F30" s="10" t="s">
         <v>76</v>
@@ -5690,7 +5687,7 @@
         <v>77</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I30" s="11">
         <v>669000.0</v>
@@ -5700,14 +5697,14 @@
         <v>45692.0</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10" t="s">
         <v>194</v>
       </c>
       <c r="O30" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P30" s="16" t="b">
         <v>0</v>
@@ -5716,10 +5713,10 @@
         <v>50</v>
       </c>
       <c r="R30" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="S30" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T30" s="10" t="s">
         <v>53</v>
@@ -5776,10 +5773,10 @@
         <v>1</v>
       </c>
       <c r="AL30" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AM30" s="35" t="s">
         <v>268</v>
-      </c>
-      <c r="AM30" s="35" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="1">
@@ -5790,13 +5787,13 @@
         <v>39</v>
       </c>
       <c r="C31" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E31" s="20" t="s">
         <v>270</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E31" s="20" t="s">
-        <v>271</v>
       </c>
       <c r="F31" s="20" t="s">
         <v>76</v>
@@ -5805,7 +5802,7 @@
         <v>77</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I31" s="21">
         <v>459000.0</v>
@@ -5815,14 +5812,14 @@
         <v>45692.0</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M31" s="19"/>
       <c r="N31" s="20" t="s">
         <v>194</v>
       </c>
       <c r="O31" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P31" s="16" t="b">
         <v>0</v>
@@ -5831,10 +5828,10 @@
         <v>102</v>
       </c>
       <c r="R31" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S31" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T31" s="20" t="s">
         <v>72</v>
@@ -5894,7 +5891,7 @@
         <v>107</v>
       </c>
       <c r="AM31" s="25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="1">
@@ -5905,13 +5902,13 @@
         <v>39</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F32" s="10" t="s">
         <v>76</v>
@@ -5930,16 +5927,16 @@
         <v>45692.0</v>
       </c>
       <c r="L32" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="M32" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="M32" s="10" t="s">
-        <v>279</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>194</v>
       </c>
       <c r="O32" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P32" s="16" t="b">
         <v>0</v>
@@ -5948,10 +5945,10 @@
         <v>102</v>
       </c>
       <c r="R32" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S32" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T32" s="10" t="s">
         <v>62</v>
@@ -6022,22 +6019,22 @@
         <v>39</v>
       </c>
       <c r="C33" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="D33" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="E33" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="F33" s="20" t="s">
+      <c r="G33" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="G33" s="20" t="s">
-        <v>283</v>
-      </c>
       <c r="H33" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I33" s="21">
         <v>599000.0</v>
@@ -6049,14 +6046,14 @@
         <v>45047.0</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M33" s="19"/>
       <c r="N33" s="20" t="s">
         <v>194</v>
       </c>
       <c r="O33" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P33" s="16" t="b">
         <v>0</v>
@@ -6065,10 +6062,10 @@
         <v>50</v>
       </c>
       <c r="R33" s="20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S33" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T33" s="20" t="s">
         <v>53</v>
@@ -6125,10 +6122,10 @@
         <v>1</v>
       </c>
       <c r="AL33" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM33" s="25" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34" ht="30.0" customHeight="1">
@@ -6139,22 +6136,22 @@
         <v>39</v>
       </c>
       <c r="C34" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="F34" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="G34" s="10" t="s">
-        <v>289</v>
-      </c>
       <c r="H34" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I34" s="11">
         <v>719000.0</v>
@@ -6166,16 +6163,16 @@
         <v>45047.0</v>
       </c>
       <c r="L34" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="M34" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="M34" s="10" t="s">
-        <v>291</v>
       </c>
       <c r="N34" s="10" t="s">
         <v>194</v>
       </c>
       <c r="O34" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P34" s="16" t="b">
         <v>0</v>
@@ -6184,10 +6181,10 @@
         <v>50</v>
       </c>
       <c r="R34" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="S34" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T34" s="10" t="s">
         <v>53</v>
@@ -6244,10 +6241,10 @@
         <v>1</v>
       </c>
       <c r="AL34" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AM34" s="35" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="1">
@@ -6258,22 +6255,22 @@
         <v>39</v>
       </c>
       <c r="C35" s="53" t="s">
+        <v>291</v>
+      </c>
+      <c r="D35" s="53" t="s">
         <v>292</v>
       </c>
-      <c r="D35" s="53" t="s">
+      <c r="E35" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="E35" s="53" t="s">
+      <c r="F35" s="53" t="s">
         <v>294</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="G35" s="53" t="s">
         <v>295</v>
       </c>
-      <c r="G35" s="53" t="s">
+      <c r="H35" s="53" t="s">
         <v>296</v>
-      </c>
-      <c r="H35" s="53" t="s">
-        <v>297</v>
       </c>
       <c r="I35" s="54"/>
       <c r="J35" s="55"/>
@@ -6281,16 +6278,16 @@
         <v>45594.0</v>
       </c>
       <c r="L35" s="53" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" s="53" t="s">
         <v>298</v>
       </c>
-      <c r="M35" s="53" t="s">
+      <c r="N35" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="N35" s="53" t="s">
+      <c r="O35" s="53" t="s">
         <v>300</v>
-      </c>
-      <c r="O35" s="53" t="s">
-        <v>301</v>
       </c>
       <c r="P35" s="57" t="b">
         <v>1</v>
@@ -6305,7 +6302,7 @@
         <v>104</v>
       </c>
       <c r="T35" s="53" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="U35" s="53" t="s">
         <v>185</v>
@@ -6362,7 +6359,7 @@
         <v>107</v>
       </c>
       <c r="AM35" s="62" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -6426,17 +6423,17 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="67" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="68" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="D2" s="69" t="s">
         <v>305</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>306</v>
       </c>
       <c r="E2" s="66"/>
       <c r="F2" s="70" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G2" s="71"/>
       <c r="H2" s="71"/>
@@ -6451,14 +6448,14 @@
         <v>45671.0</v>
       </c>
       <c r="C3" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" s="76" t="s">
         <v>308</v>
-      </c>
-      <c r="D3" s="76" t="s">
-        <v>309</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="77" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G3" s="78"/>
       <c r="H3" s="78"/>
@@ -6473,17 +6470,17 @@
         <v>45671.0</v>
       </c>
       <c r="C4" s="75" t="s">
+        <v>310</v>
+      </c>
+      <c r="D4" s="82" t="s">
         <v>311</v>
-      </c>
-      <c r="D4" s="82" t="s">
-        <v>312</v>
       </c>
       <c r="E4" s="66"/>
       <c r="F4" s="83" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="84" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K4" s="85"/>
       <c r="L4" s="80"/>
@@ -6494,17 +6491,17 @@
         <v>45669.0</v>
       </c>
       <c r="C5" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="D5" s="87" t="s">
         <v>314</v>
-      </c>
-      <c r="D5" s="87" t="s">
-        <v>315</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="G5" s="84" t="s">
         <v>316</v>
-      </c>
-      <c r="G5" s="84" t="s">
-        <v>317</v>
       </c>
       <c r="K5" s="85"/>
       <c r="L5" s="80"/>
@@ -6515,17 +6512,17 @@
         <v>45671.0</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D6" s="76" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E6" s="66"/>
       <c r="F6" s="83" t="s">
+        <v>318</v>
+      </c>
+      <c r="G6" s="84" t="s">
         <v>319</v>
-      </c>
-      <c r="G6" s="84" t="s">
-        <v>320</v>
       </c>
       <c r="K6" s="85"/>
       <c r="L6" s="80"/>
@@ -6536,17 +6533,17 @@
         <v>45672.0</v>
       </c>
       <c r="C7" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7" s="66"/>
       <c r="F7" s="83" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="84" t="s">
         <v>322</v>
-      </c>
-      <c r="G7" s="84" t="s">
-        <v>323</v>
       </c>
       <c r="K7" s="85"/>
       <c r="L7" s="80"/>
@@ -6557,15 +6554,15 @@
         <v>45674.0</v>
       </c>
       <c r="C8" s="75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E8" s="66"/>
       <c r="F8" s="83"/>
       <c r="G8" s="84" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K8" s="85"/>
       <c r="L8" s="80"/>
@@ -6577,10 +6574,10 @@
       <c r="D9" s="90"/>
       <c r="E9" s="66"/>
       <c r="F9" s="83" t="s">
+        <v>325</v>
+      </c>
+      <c r="G9" s="84" t="s">
         <v>326</v>
-      </c>
-      <c r="G9" s="84" t="s">
-        <v>327</v>
       </c>
       <c r="K9" s="85"/>
       <c r="L9" s="80"/>
@@ -6592,10 +6589,10 @@
       <c r="D10" s="76"/>
       <c r="E10" s="66"/>
       <c r="F10" s="83" t="s">
+        <v>327</v>
+      </c>
+      <c r="G10" s="84" t="s">
         <v>328</v>
-      </c>
-      <c r="G10" s="84" t="s">
-        <v>329</v>
       </c>
       <c r="K10" s="85"/>
       <c r="L10" s="80"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="477">
   <si>
     <t>id</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>블랙,쉘핑크</t>
+  </si>
+  <si>
+    <t>#000000,#ffe8dc</t>
   </si>
   <si>
     <t>products/descentG2/basic-45mm-black.png</t>
@@ -5218,7 +5221,9 @@
       <c r="F21" s="19" t="s">
         <v>206</v>
       </c>
-      <c r="G21" s="19"/>
+      <c r="G21" s="19" t="s">
+        <v>207</v>
+      </c>
       <c r="H21" s="19" t="s">
         <v>196</v>
       </c>
@@ -5230,10 +5235,10 @@
         <v>45701.0</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M21" s="19" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N21" s="35" t="s">
         <v>47</v>
@@ -5257,7 +5262,7 @@
         <v>61</v>
       </c>
       <c r="U21" s="19" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="V21" s="24" t="b">
         <v>1</v>
@@ -5322,19 +5327,19 @@
         <v>9.832890652E9</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D22" s="38" t="s">
         <v>192</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H22" s="37" t="s">
         <v>67</v>
@@ -5347,10 +5352,10 @@
         <v>45308.0</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>47</v>
@@ -5365,16 +5370,16 @@
         <v>49</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T22" s="9" t="s">
         <v>71</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="V22" s="14" t="b">
         <v>1</v>
@@ -5439,13 +5444,13 @@
         <v>9.855771903E9</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D23" s="40" t="s">
         <v>192</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F23" s="40" t="s">
         <v>75</v>
@@ -5464,7 +5469,7 @@
         <v>45308.0</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M23" s="19"/>
       <c r="N23" s="35" t="s">
@@ -5480,10 +5485,10 @@
         <v>49</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="S23" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T23" s="19" t="s">
         <v>52</v>
@@ -5540,10 +5545,10 @@
         <v>0</v>
       </c>
       <c r="AL23" s="19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AM23" s="25" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="1">
@@ -5554,19 +5559,19 @@
         <v>5.0074635E7</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>192</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F24" s="42" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H24" s="26" t="s">
         <v>67</v>
@@ -5579,10 +5584,10 @@
         <v>45308.0</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>47</v>
@@ -5597,10 +5602,10 @@
         <v>49</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T24" s="9" t="s">
         <v>71</v>
@@ -5671,13 +5676,13 @@
         <v>1.1310815985E10</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D25" s="45" t="s">
         <v>192</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F25" s="45" t="s">
         <v>75</v>
@@ -5686,7 +5691,7 @@
         <v>76</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I25" s="46">
         <v>2190000.0</v>
@@ -5696,14 +5701,14 @@
         <v>45638.0</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M25" s="19"/>
       <c r="N25" s="35" t="s">
         <v>47</v>
       </c>
       <c r="O25" s="19" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="P25" s="23" t="b">
         <v>1</v>
@@ -5712,10 +5717,10 @@
         <v>49</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="T25" s="19" t="s">
         <v>71</v>
@@ -5772,10 +5777,10 @@
         <v>0</v>
       </c>
       <c r="AL25" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM25" s="25" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="1">
@@ -5786,13 +5791,13 @@
         <v>9.599823621E9</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>75</v>
@@ -5813,7 +5818,7 @@
         <v>45259.0</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="26" t="s">
@@ -5829,10 +5834,10 @@
         <v>49</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T26" s="9" t="s">
         <v>52</v>
@@ -5889,10 +5894,10 @@
         <v>0</v>
       </c>
       <c r="AL26" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM26" s="34" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="27" ht="30.0" customHeight="1">
@@ -5903,13 +5908,13 @@
         <v>1.1520029652E10</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F27" s="19" t="s">
         <v>75</v>
@@ -5928,7 +5933,7 @@
         <v>45692.0</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" s="23"/>
       <c r="N27" s="35" t="s">
@@ -5947,7 +5952,7 @@
         <v>50</v>
       </c>
       <c r="S27" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T27" s="19" t="s">
         <v>52</v>
@@ -6004,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="AL27" s="19" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM27" s="25" t="s">
         <v>55</v>
@@ -6018,13 +6023,13 @@
         <v>1.1427676811E10</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>75</v>
@@ -6043,14 +6048,14 @@
         <v>45692.0</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M28" s="13"/>
       <c r="N28" s="26" t="s">
         <v>47</v>
       </c>
       <c r="O28" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="P28" s="16" t="b">
         <v>0</v>
@@ -6062,7 +6067,7 @@
         <v>156</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T28" s="9" t="s">
         <v>61</v>
@@ -6119,10 +6124,10 @@
         <v>0</v>
       </c>
       <c r="AL28" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AM28" s="34" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="1">
@@ -6133,13 +6138,13 @@
         <v>1.1427677905E10</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F29" s="19" t="s">
         <v>75</v>
@@ -6148,7 +6153,7 @@
         <v>76</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I29" s="20">
         <v>739000.0</v>
@@ -6158,14 +6163,14 @@
         <v>45692.0</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M29" s="23"/>
       <c r="N29" s="35" t="s">
         <v>47</v>
       </c>
       <c r="O29" s="19" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P29" s="16" t="b">
         <v>0</v>
@@ -6174,10 +6179,10 @@
         <v>49</v>
       </c>
       <c r="R29" s="19" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S29" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T29" s="19" t="s">
         <v>52</v>
@@ -6234,10 +6239,10 @@
         <v>0</v>
       </c>
       <c r="AL29" s="19" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AM29" s="25" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="1">
@@ -6248,13 +6253,13 @@
         <v>1.1427679735E10</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>75</v>
@@ -6273,14 +6278,14 @@
         <v>45692.0</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="9" t="s">
         <v>199</v>
       </c>
       <c r="O30" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P30" s="16" t="b">
         <v>0</v>
@@ -6289,10 +6294,10 @@
         <v>49</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T30" s="9" t="s">
         <v>61</v>
@@ -6349,10 +6354,10 @@
         <v>1</v>
       </c>
       <c r="AL30" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM30" s="34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="1">
@@ -6363,13 +6368,13 @@
         <v>1.1427682377E10</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F31" s="19" t="s">
         <v>75</v>
@@ -6378,7 +6383,7 @@
         <v>76</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I31" s="20">
         <v>669000.0</v>
@@ -6388,14 +6393,14 @@
         <v>45692.0</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M31" s="23"/>
       <c r="N31" s="19" t="s">
         <v>199</v>
       </c>
       <c r="O31" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P31" s="16" t="b">
         <v>0</v>
@@ -6404,10 +6409,10 @@
         <v>49</v>
       </c>
       <c r="R31" s="19" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T31" s="19" t="s">
         <v>52</v>
@@ -6464,10 +6469,10 @@
         <v>1</v>
       </c>
       <c r="AL31" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM31" s="25" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="1">
@@ -6478,13 +6483,13 @@
         <v>1.1427671305E10</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>75</v>
@@ -6493,7 +6498,7 @@
         <v>76</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I32" s="10">
         <v>459000.0</v>
@@ -6503,14 +6508,14 @@
         <v>45692.0</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="9" t="s">
         <v>199</v>
       </c>
       <c r="O32" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P32" s="16" t="b">
         <v>0</v>
@@ -6519,10 +6524,10 @@
         <v>109</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T32" s="9" t="s">
         <v>71</v>
@@ -6582,7 +6587,7 @@
         <v>114</v>
       </c>
       <c r="AM32" s="34" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" ht="30.0" customHeight="1">
@@ -6593,13 +6598,13 @@
         <v>1.142777123E10</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F33" s="19" t="s">
         <v>75</v>
@@ -6618,16 +6623,16 @@
         <v>45692.0</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N33" s="19" t="s">
         <v>199</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="P33" s="16" t="b">
         <v>0</v>
@@ -6636,10 +6641,10 @@
         <v>109</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T33" s="19" t="s">
         <v>61</v>
@@ -6710,22 +6715,22 @@
         <v>9.280896681E9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I34" s="10">
         <v>599000.0</v>
@@ -6737,14 +6742,14 @@
         <v>45047.0</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M34" s="13"/>
       <c r="N34" s="9" t="s">
         <v>199</v>
       </c>
       <c r="O34" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P34" s="16" t="b">
         <v>0</v>
@@ -6753,10 +6758,10 @@
         <v>49</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T34" s="9" t="s">
         <v>52</v>
@@ -6813,10 +6818,10 @@
         <v>1</v>
       </c>
       <c r="AL34" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM34" s="34" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="1">
@@ -6827,22 +6832,22 @@
         <v>5.0074641E7</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I35" s="20">
         <v>719000.0</v>
@@ -6854,16 +6859,16 @@
         <v>45047.0</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N35" s="19" t="s">
         <v>199</v>
       </c>
       <c r="O35" s="19" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P35" s="16" t="b">
         <v>0</v>
@@ -6872,10 +6877,10 @@
         <v>49</v>
       </c>
       <c r="R35" s="19" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="T35" s="19" t="s">
         <v>52</v>
@@ -6932,10 +6937,10 @@
         <v>1</v>
       </c>
       <c r="AL35" s="19" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM35" s="25" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="1">
@@ -6946,22 +6951,22 @@
         <v>1.1061289692E10</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G36" s="53" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H36" s="53" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I36" s="54">
         <v>459000.0</v>
@@ -6971,16 +6976,16 @@
         <v>45594.0</v>
       </c>
       <c r="L36" s="53" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M36" s="53" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N36" s="53" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O36" s="53" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="P36" s="57" t="b">
         <v>1</v>
@@ -6995,7 +7000,7 @@
         <v>111</v>
       </c>
       <c r="T36" s="53" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="U36" s="53" t="s">
         <v>190</v>
@@ -7052,7 +7057,7 @@
         <v>114</v>
       </c>
       <c r="AM36" s="62" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7165,19 +7170,19 @@
         <v>36</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -7188,16 +7193,16 @@
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -7209,19 +7214,19 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O2" s="47" t="b">
         <v>0</v>
@@ -7251,16 +7256,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G3" s="20">
         <v>519000.0</v>
@@ -7270,19 +7275,19 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K3" s="19" t="s">
         <v>78</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O3" s="47" t="b">
         <v>0</v>
@@ -7300,7 +7305,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U3" s="25"/>
     </row>
@@ -7312,16 +7317,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G4" s="28">
         <v>659000.0</v>
@@ -7331,19 +7336,19 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O4" s="47" t="b">
         <v>0</v>
@@ -7361,7 +7366,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U4" s="31"/>
     </row>
@@ -7373,16 +7378,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G5" s="20">
         <v>659000.0</v>
@@ -7392,19 +7397,19 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K5" s="19" t="s">
         <v>78</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O5" s="47" t="b">
         <v>0</v>
@@ -7422,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U5" s="25"/>
     </row>
@@ -7434,16 +7439,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -7453,19 +7458,19 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>1</v>
@@ -7483,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="U6" s="34"/>
     </row>
@@ -7495,16 +7500,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G7" s="20">
         <v>799000.0</v>
@@ -7514,19 +7519,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K7" s="19" t="s">
         <v>78</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O7" s="19" t="b">
         <v>1</v>
@@ -7544,7 +7549,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="U7" s="25"/>
     </row>
@@ -7556,16 +7561,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -7577,19 +7582,19 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K8" s="9" t="s">
         <v>78</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
@@ -7607,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="U8" s="34"/>
     </row>
@@ -7619,16 +7624,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G9" s="20">
         <v>989000.0</v>
@@ -7640,19 +7645,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>78</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O9" s="19" t="b">
         <v>1</v>
@@ -7670,7 +7675,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="U9" s="25"/>
     </row>
@@ -7682,16 +7687,16 @@
         <v>1.0632515323E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G10" s="10">
         <v>1089000.0</v>
@@ -7701,19 +7706,19 @@
         <v>45496.0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
@@ -7743,16 +7748,16 @@
         <v>1.0632516764E10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G11" s="20">
         <v>1229000.0</v>
@@ -7762,19 +7767,19 @@
         <v>45496.0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O11" s="19" t="b">
         <v>1</v>
@@ -7804,16 +7809,16 @@
         <v>6.471040307E9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G12" s="10">
         <v>880000.0</v>
@@ -7825,12 +7830,12 @@
         <v>44256.0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="13"/>
@@ -7839,10 +7844,10 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -7853,16 +7858,16 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G13" s="20">
         <v>1390000.0</v>
@@ -7874,12 +7879,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="23"/>
@@ -7888,10 +7893,10 @@
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U13" s="25" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
@@ -7902,16 +7907,16 @@
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G14" s="10">
         <v>880000.0</v>
@@ -7923,12 +7928,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="13"/>
@@ -7937,10 +7942,10 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U14" s="34" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -7951,16 +7956,16 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G15" s="20">
         <v>1390000.0</v>
@@ -7972,12 +7977,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -7986,10 +7991,10 @@
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
       <c r="T15" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U15" s="25" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
@@ -8000,16 +8005,16 @@
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -8021,12 +8026,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="13"/>
@@ -8035,10 +8040,10 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -8049,16 +8054,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G17" s="20">
         <v>1590000.0</v>
@@ -8070,12 +8075,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="23"/>
@@ -8084,10 +8089,10 @@
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
       <c r="T17" s="19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
@@ -8098,16 +8103,16 @@
         <v>2.920696454E9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G18" s="10">
         <v>199000.0</v>
@@ -8119,15 +8124,15 @@
         <v>42979.0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -8136,7 +8141,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="9"/>
       <c r="U18" s="34" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -8147,16 +8152,16 @@
         <v>5.018655247E9</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G19" s="20">
         <v>258000.0</v>
@@ -8166,15 +8171,15 @@
         <v>44013.0</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -8192,16 +8197,16 @@
         <v>6.878093775E9</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G20" s="54">
         <v>529000.0</v>
@@ -8211,15 +8216,15 @@
         <v>44682.0</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="N20" s="53" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O20" s="57"/>
       <c r="P20" s="57"/>
@@ -8228,7 +8233,7 @@
       <c r="S20" s="57"/>
       <c r="T20" s="53"/>
       <c r="U20" s="62" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -8331,13 +8336,13 @@
         <v>18</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -8348,16 +8353,16 @@
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G2" s="10">
         <v>69000.0</v>
@@ -8367,19 +8372,19 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q2" s="34"/>
     </row>
@@ -8391,16 +8396,16 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G3" s="20">
         <v>69000.0</v>
@@ -8410,19 +8415,19 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q3" s="25"/>
     </row>
@@ -8434,16 +8439,16 @@
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" s="28">
         <v>121000.0</v>
@@ -8453,19 +8458,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q4" s="31"/>
     </row>
@@ -8477,16 +8482,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G5" s="20">
         <v>89000.0</v>
@@ -8499,16 +8504,16 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q5" s="25"/>
     </row>
@@ -8520,16 +8525,16 @@
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -8542,16 +8547,16 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="34"/>
     </row>
@@ -8563,16 +8568,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G7" s="20">
         <v>225000.0</v>
@@ -8588,13 +8593,13 @@
         <v>156</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q7" s="25"/>
     </row>
@@ -8606,16 +8611,16 @@
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -8628,19 +8633,19 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -8649,16 +8654,16 @@
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="G9" s="20">
         <v>398000.0</v>
@@ -8671,19 +8676,19 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
@@ -8694,16 +8699,16 @@
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -8716,19 +8721,19 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -8739,16 +8744,16 @@
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="G11" s="20">
         <v>789000.0</v>
@@ -8763,13 +8768,13 @@
       <c r="K11" s="35"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P11" s="19" t="s">
         <v>115</v>
@@ -8784,16 +8789,16 @@
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -8806,13 +8811,13 @@
       <c r="K12" s="26"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>115</v>
@@ -8827,16 +8832,16 @@
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="G13" s="20">
         <v>989000.0</v>
@@ -8851,16 +8856,16 @@
       <c r="K13" s="35"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q13" s="25"/>
     </row>
@@ -9093,17 +9098,17 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="76"/>
       <c r="B2" s="77" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E2" s="76"/>
       <c r="F2" s="80" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
@@ -9118,14 +9123,14 @@
         <v>45671.0</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="87" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G3" s="88"/>
       <c r="H3" s="88"/>
@@ -9140,17 +9145,17 @@
         <v>45671.0</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E4" s="76"/>
       <c r="F4" s="93" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="94" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="K4" s="95"/>
       <c r="L4" s="90"/>
@@ -9161,17 +9166,17 @@
         <v>45669.0</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E5" s="76"/>
       <c r="F5" s="93" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="G5" s="94" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="90"/>
@@ -9182,17 +9187,17 @@
         <v>45671.0</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E6" s="76"/>
       <c r="F6" s="93" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K6" s="95"/>
       <c r="L6" s="90"/>
@@ -9203,17 +9208,17 @@
         <v>45672.0</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E7" s="76"/>
       <c r="F7" s="93" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="K7" s="95"/>
       <c r="L7" s="90"/>
@@ -9224,15 +9229,15 @@
         <v>45674.0</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E8" s="76"/>
       <c r="F8" s="93"/>
       <c r="G8" s="94" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K8" s="95"/>
       <c r="L8" s="90"/>
@@ -9243,17 +9248,17 @@
         <v>45731.0</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E9" s="76"/>
       <c r="F9" s="93" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G9" s="94" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="K9" s="95"/>
       <c r="L9" s="90"/>
@@ -9265,10 +9270,10 @@
       <c r="D10" s="86"/>
       <c r="E10" s="76"/>
       <c r="F10" s="93" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K10" s="95"/>
       <c r="L10" s="90"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -149,7 +149,7 @@
     <t>gpsOnly</t>
   </si>
   <si>
-    <t>Fenix 8 AMOLED - 51mm</t>
+    <t>Fenix 8 AMOLED (51mm)</t>
   </si>
   <si>
     <t>멀티스포츠,아웃도어</t>
@@ -200,7 +200,7 @@
     <t>84시간</t>
   </si>
   <si>
-    <t>Fenix 8 AMOLED - 47mm</t>
+    <t>Fenix 8 AMOLED (47mm)</t>
   </si>
   <si>
     <t>47mm</t>
@@ -224,7 +224,7 @@
     <t>47시간</t>
   </si>
   <si>
-    <t>Fenix 8 AMOLED - 43mm</t>
+    <t>Fenix 8 AMOLED (43mm)</t>
   </si>
   <si>
     <t xml:space="preserve">소프트 골드  </t>
@@ -254,7 +254,7 @@
     <t>28시간</t>
   </si>
   <si>
-    <t>Fenix 8 SOLAR - 51mm</t>
+    <t>Fenix 8 SOLAR (51mm)</t>
   </si>
   <si>
     <t>블랙</t>
@@ -278,7 +278,7 @@
     <t>95시간+@</t>
   </si>
   <si>
-    <t>Fenix 8 SOLAR - 47mm</t>
+    <t>Fenix 8 SOLAR (47mm)</t>
   </si>
   <si>
     <t xml:space="preserve">블랙 </t>
@@ -293,7 +293,7 @@
     <t>67시간+@</t>
   </si>
   <si>
-    <t>Fenix 7 Pro</t>
+    <t>Fenix 7 Pro - Sapphire Solar</t>
   </si>
   <si>
     <t>고급 GPS 멀티스포츠 스마트워치</t>
@@ -524,7 +524,7 @@
     <t>120시간+@</t>
   </si>
   <si>
-    <t>Approach S70 - 47mm</t>
+    <t>Approach S70 (47mm)</t>
   </si>
   <si>
     <t>골프</t>
@@ -551,13 +551,13 @@
     <t>15시간</t>
   </si>
   <si>
-    <t>Approach S70 GC - 47mm</t>
+    <t>Approach S70 GC (47mm)</t>
   </si>
   <si>
     <t>products/approachs70/gc-47mm-black.png</t>
   </si>
   <si>
-    <t>Approach S70 GC - 42mm</t>
+    <t>Approach S70 GC (42mm)</t>
   </si>
   <si>
     <t>그레이,화이트</t>
@@ -692,7 +692,7 @@
     <t>스테인리스 스틸</t>
   </si>
   <si>
-    <t>Descent MK3i - 51mm</t>
+    <t>Descent MK3i (51mm)</t>
   </si>
   <si>
     <t>products/descentMk3/i-51mm-black.png</t>
@@ -707,7 +707,7 @@
     <t>76시간</t>
   </si>
   <si>
-    <t>Descent MK3i - 43mm</t>
+    <t>Descent MK3i (43mm)</t>
   </si>
   <si>
     <t>블랙,브론즈</t>
@@ -779,7 +779,7 @@
     <t>41일</t>
   </si>
   <si>
-    <t>Instinct 3 AMOLED - 45mm</t>
+    <t>Instinct 3 AMOLED (45mm)</t>
   </si>
   <si>
     <t>아웃도어</t>
@@ -800,7 +800,7 @@
     <t>32시간</t>
   </si>
   <si>
-    <t>Instinct 3 AMOLED - 50mm</t>
+    <t>Instinct 3 AMOLED (50mm)</t>
   </si>
   <si>
     <t>50mm</t>
@@ -821,7 +821,7 @@
     <t>40시간</t>
   </si>
   <si>
-    <t>Instinct 3 Solar - 45mm</t>
+    <t>Instinct 3 Solar (45mm)</t>
   </si>
   <si>
     <t>products/instinct3/solar-45mm-black.png</t>
@@ -839,7 +839,7 @@
     <t>130시간+@</t>
   </si>
   <si>
-    <t>Instinct 3 Solar - 50mm</t>
+    <t>Instinct 3 Solar (50mm)</t>
   </si>
   <si>
     <t>products/instinct3/solar-50mm-black.png</t>
@@ -857,7 +857,7 @@
     <t>260시간+@</t>
   </si>
   <si>
-    <t>Instinct E - 40mm</t>
+    <t>Instinct E (40mm)</t>
   </si>
   <si>
     <t>아웃도어 GPS 스마트워치</t>
@@ -878,7 +878,7 @@
     <t>21시간</t>
   </si>
   <si>
-    <t>Instinct E - 45mm</t>
+    <t>Instinct E (45mm)</t>
   </si>
   <si>
     <t>products/instinctE/basic-45mm-black.png</t>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="watch" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="cycling" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Watch" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Cycling" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sensor" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="⛔  Notice" sheetId="4" r:id="rId7"/>
   </sheets>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="459">
   <si>
     <t>id</t>
   </si>
@@ -68,9 +68,6 @@
     <t>main_img</t>
   </si>
   <si>
-    <t>subImg</t>
-  </si>
-  <si>
     <t>displayType</t>
   </si>
   <si>
@@ -101,7 +98,7 @@
     <t>swim</t>
   </si>
   <si>
-    <t>indoorSwim</t>
+    <t>poolOnly</t>
   </si>
   <si>
     <t>cycling</t>
@@ -167,10 +164,7 @@
     <t>51mm</t>
   </si>
   <si>
-    <t>products/fenix8/amoled-51mm-orange.png</t>
-  </si>
-  <si>
-    <t>products/fenix8/amoled-51mm-black.png</t>
+    <t>products/fenix8/amoled-51mm-orange.png,products/fenix8/amoled-51mm-black.png</t>
   </si>
   <si>
     <t>컬러 AMOLED</t>
@@ -206,10 +200,7 @@
     <t>47mm</t>
   </si>
   <si>
-    <t>products/fenix8/amoled-47mm-orange.png</t>
-  </si>
-  <si>
-    <t>products/fenix8/amoled-47mm-black.png</t>
+    <t>products/fenix8/amoled-47mm-orange.png,products/fenix8/amoled-47mm-black.png</t>
   </si>
   <si>
     <t>80g</t>
@@ -350,10 +341,7 @@
     <t>42mm</t>
   </si>
   <si>
-    <t>products/forerunner55/basic-42mm-black.png</t>
-  </si>
-  <si>
-    <t>products/forerunner55/basic-42mm-white.png,products/forerunner55/basic-42mm-aqua.png,products/forerunner55/basic-42mm-gray.png</t>
+    <t>products/forerunner55/basic-42mm-black.png,products/forerunner55/basic-42mm-white.png,products/forerunner55/basic-42mm-aqua.png,products/forerunner55/basic-42mm-gray.png</t>
   </si>
   <si>
     <t>1.04” (26.3 mm)</t>
@@ -389,10 +377,7 @@
     <t>#000000,#FFFFFF,#53e9e4,#df92ff</t>
   </si>
   <si>
-    <t>products/forerunner165/basic-43mm-black.png</t>
-  </si>
-  <si>
-    <t>products/forerunner165/basic-43mm-white.png,products/forerunner165/music-43mm-aqua.png,products/forerunner165/music-43mm-lilac.png</t>
+    <t>products/forerunner165/basic-43mm-black.png,products/forerunner165/basic-43mm-white.png,products/forerunner165/music-43mm-aqua.png,products/forerunner165/music-43mm-lilac.png</t>
   </si>
   <si>
     <t>1.2” (30.4 mm)</t>
@@ -419,7 +404,7 @@
     <t>#000000,#FFFFFF</t>
   </si>
   <si>
-    <t>products/forerunner165/basic-43mm-white.png</t>
+    <t>products/forerunner165/basic-43mm-black.,pngproducts/forerunner165/basic-43mm-white.png</t>
   </si>
   <si>
     <t>Forerunner 265</t>
@@ -437,10 +422,7 @@
     <t>46mm</t>
   </si>
   <si>
-    <t>products/forerunner265/basic-46mm-black.png</t>
-  </si>
-  <si>
-    <t>products/forerunner265/basic-46mm-white.png,products/forerunner265/basic-46mm-aqua.png,</t>
+    <t>products/forerunner265/basic-46mm-black.png,products/forerunner265/basic-46mm-white.png,products/forerunner265/basic-46mm-aqua.png,</t>
   </si>
   <si>
     <t>1.3” (32.5 mm)</t>
@@ -461,10 +443,7 @@
     <t>#000000,#FFFFFF,#f9ff4d</t>
   </si>
   <si>
-    <t>products/forerunner265/s-46mm-black.png</t>
-  </si>
-  <si>
-    <t>products/forerunner265/s-42mm-white.png,products/forerunner265/s-46mm-pink.png</t>
+    <t>products/forerunner265/s-46mm-black.png,products/forerunner265/s-42mm-white.png,products/forerunner265/s-46mm-pink.png</t>
   </si>
   <si>
     <t>1.1” (28.1 mm)</t>
@@ -491,10 +470,7 @@
     <t>블랙,화이트,앰프옐로우</t>
   </si>
   <si>
-    <t>products/forerunner965/basic-47mm-black.png</t>
-  </si>
-  <si>
-    <t>products/forerunner965/basic-47mm-white.png,products/forerunner965/basic-47mm-ampyellow.png</t>
+    <t>products/forerunner965/basic-47mm-black.png,products/forerunner965/basic-47mm-white.png,products/forerunner965/basic-47mm-ampyellow.png</t>
   </si>
   <si>
     <t>1.4” (35.4 mm)</t>
@@ -533,10 +509,7 @@
     <t>프리미엄 GPS 골프 스마트워치</t>
   </si>
   <si>
-    <t>products/approachs70/basic-47mm-black.png</t>
-  </si>
-  <si>
-    <t>products/approachS70/basic-42mm-white.png</t>
+    <t>products/approachs70/basic-47mm-black.png,products/approachS70/basic-42mm-white.png</t>
   </si>
   <si>
     <t>1.4” (35.41 mm)</t>
@@ -566,10 +539,7 @@
     <t>#D8D8D8,#FFFFFF</t>
   </si>
   <si>
-    <t>products/approachs70/gc-42mm-gray.png</t>
-  </si>
-  <si>
-    <t>products/approachs70/gc-42mm-white.png</t>
+    <t>products/approachs70/gc-42mm-gray.png,products/approachs70/gc-42mm-white.png</t>
   </si>
   <si>
     <t>1.2”(32.02mm)</t>
@@ -590,10 +560,7 @@
     <t>#000000,#FBF8EF</t>
   </si>
   <si>
-    <t>products/approachs50/basic-43mm-black.png</t>
-  </si>
-  <si>
-    <t>products/approachs50/basic-43mm-ivory.png</t>
+    <t>products/approachs50/basic-43mm-black.png,products/approachs50/basic-43mm-ivory.png</t>
   </si>
   <si>
     <t>1.2”(30.4mm)</t>
@@ -623,10 +590,7 @@
     <t>45mm</t>
   </si>
   <si>
-    <t>products/descentG1/solar-45mm-ocean.png</t>
-  </si>
-  <si>
-    <t>products/descentG1/solar-45mm-black.png</t>
+    <t>products/descentG1/solar-45mm-ocean.png,products/descentG1/solar-45mm-black.png</t>
   </si>
   <si>
     <t>흑백 MIP</t>
@@ -656,10 +620,7 @@
     <t>#000000,#ffe8dc</t>
   </si>
   <si>
-    <t>products/descentG2/basic-45mm-black.png</t>
-  </si>
-  <si>
-    <t>products/descentG2/basic-45mm-shellpink.png</t>
+    <t>products/descentG2/basic-45mm-black.png,products/descentG2/basic-45mm-shellpink.png</t>
   </si>
   <si>
     <t>강화섬유 해양 유입 플라스틱</t>
@@ -677,10 +638,7 @@
     <t>#D8D8D8</t>
   </si>
   <si>
-    <t>products/descentMk3/basic-43mm-gray.png</t>
-  </si>
-  <si>
-    <t>products/descentMk3/basic-43mm-black.png</t>
+    <t>products/descentMk3/basic-43mm-gray.png,products/descentMk3/basic-43mm-black.png</t>
   </si>
   <si>
     <t>72g</t>
@@ -716,10 +674,7 @@
     <t>#000000,#cba986</t>
   </si>
   <si>
-    <t>products/descentMk3/i-43mm-black.png</t>
-  </si>
-  <si>
-    <t>products/descentMk3/i-43mm-bronze.png</t>
+    <t>products/descentMk3/i-43mm-black.png,products/descentMk3/i-43mm-bronze.png</t>
   </si>
   <si>
     <t>Descent X50i</t>
@@ -881,10 +836,7 @@
     <t>Instinct E (45mm)</t>
   </si>
   <si>
-    <t>products/instinctE/basic-45mm-black.png</t>
-  </si>
-  <si>
-    <t>products/instinctE/basic-45mm-lime.png</t>
+    <t>products/instinctE/basic-45mm-black.png,products/instinctE/basic-45mm-lime.png</t>
   </si>
   <si>
     <t>48g</t>
@@ -917,10 +869,7 @@
     <t>#000000,#a59c7f</t>
   </si>
   <si>
-    <t>products/instinct2X/tactical-50mm-coyotetan.png</t>
-  </si>
-  <si>
-    <t>products/instinct2X/tactical-50mm-black.png</t>
+    <t>products/instinct2X/tactical-50mm-coyotetan.png,products/instinct2X/tactical-50mm-black.png</t>
   </si>
   <si>
     <t>Lily 2 Active</t>
@@ -941,10 +890,7 @@
     <t>38mm</t>
   </si>
   <si>
-    <t>products/lily2/active-38mm-green.png</t>
-  </si>
-  <si>
-    <t>products/lily2/active-38mm-purple.png,products/lily2/active-38mm-gold.png</t>
+    <t>products/lily2/active-38mm-green.png,products/lily2/active-38mm-purple.png,products/lily2/active-38mm-gold.png</t>
   </si>
   <si>
     <t>Liquid Crystal</t>
@@ -1010,7 +956,7 @@
     <t>Edge 540 Bundle</t>
   </si>
   <si>
-    <t>products/edge540bundle/basic-black.png</t>
+    <t>products/edge540/bundle-black.png</t>
   </si>
   <si>
     <t>Edge 540 Solar</t>
@@ -2476,12 +2422,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="4">
-    <tableStyle count="3" pivot="0" name="watch-style">
+    <tableStyle count="3" pivot="0" name="Watch-style">
       <tableStyleElement dxfId="2" type="headerRow"/>
       <tableStyleElement dxfId="3" type="firstRowStripe"/>
       <tableStyleElement dxfId="4" type="secondRowStripe"/>
     </tableStyle>
-    <tableStyle count="3" pivot="0" name="cycling-style">
+    <tableStyle count="3" pivot="0" name="Cycling-style">
       <tableStyleElement dxfId="2" type="headerRow"/>
       <tableStyleElement dxfId="3" type="firstRowStripe"/>
       <tableStyleElement dxfId="4" type="secondRowStripe"/>
@@ -2517,8 +2463,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AM36" displayName="표2" name="표2" id="1">
-  <tableColumns count="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AL36" displayName="표2" name="표2" id="1">
+  <tableColumns count="38">
     <tableColumn name="id" id="1"/>
     <tableColumn name="productNum" id="2"/>
     <tableColumn name="title" id="3"/>
@@ -2531,35 +2477,34 @@
     <tableColumn name="discount" id="10"/>
     <tableColumn name="release" id="11"/>
     <tableColumn name="main_img" id="12"/>
-    <tableColumn name="subImg" id="13"/>
-    <tableColumn name="displayType" id="14"/>
-    <tableColumn name="displaySize" id="15"/>
-    <tableColumn name="touch" id="16"/>
-    <tableColumn name="gps" id="17"/>
-    <tableColumn name="weight" id="18"/>
-    <tableColumn name="waterRating" id="19"/>
-    <tableColumn name="band" id="20"/>
-    <tableColumn name="bezelmaterial" id="21"/>
-    <tableColumn name="running" id="22"/>
-    <tableColumn name="swim" id="23"/>
-    <tableColumn name="indoorSwim" id="24"/>
-    <tableColumn name="cycling" id="25"/>
-    <tableColumn name="multisport" id="26"/>
-    <tableColumn name="hiking" id="27"/>
-    <tableColumn name="diving" id="28"/>
-    <tableColumn name="golf" id="29"/>
-    <tableColumn name="fitness" id="30"/>
-    <tableColumn name="flashlight" id="31"/>
-    <tableColumn name="music" id="32"/>
-    <tableColumn name="map" id="33"/>
-    <tableColumn name="altimeter" id="34"/>
-    <tableColumn name="sleep" id="35"/>
-    <tableColumn name="call" id="36"/>
-    <tableColumn name="solar" id="37"/>
-    <tableColumn name="smartwatch" id="38"/>
-    <tableColumn name="gpsOnly" id="39"/>
+    <tableColumn name="displayType" id="13"/>
+    <tableColumn name="displaySize" id="14"/>
+    <tableColumn name="touch" id="15"/>
+    <tableColumn name="gps" id="16"/>
+    <tableColumn name="weight" id="17"/>
+    <tableColumn name="waterRating" id="18"/>
+    <tableColumn name="band" id="19"/>
+    <tableColumn name="bezelmaterial" id="20"/>
+    <tableColumn name="running" id="21"/>
+    <tableColumn name="swim" id="22"/>
+    <tableColumn name="poolOnly" id="23"/>
+    <tableColumn name="cycling" id="24"/>
+    <tableColumn name="multisport" id="25"/>
+    <tableColumn name="hiking" id="26"/>
+    <tableColumn name="diving" id="27"/>
+    <tableColumn name="golf" id="28"/>
+    <tableColumn name="fitness" id="29"/>
+    <tableColumn name="flashlight" id="30"/>
+    <tableColumn name="music" id="31"/>
+    <tableColumn name="map" id="32"/>
+    <tableColumn name="altimeter" id="33"/>
+    <tableColumn name="sleep" id="34"/>
+    <tableColumn name="call" id="35"/>
+    <tableColumn name="solar" id="36"/>
+    <tableColumn name="smartwatch" id="37"/>
+    <tableColumn name="gpsOnly" id="38"/>
   </tableColumns>
-  <tableStyleInfo name="watch-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Watch-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -2588,7 +2533,7 @@
     <tableColumn name="gpsOnly" id="20"/>
     <tableColumn name="etc" id="21"/>
   </tableColumns>
-  <tableStyleInfo name="cycling-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Cycling-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -2837,7 +2782,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.88"/>
+    <col customWidth="1" min="1" max="1" width="6.38"/>
     <col customWidth="1" min="2" max="2" width="11.75"/>
     <col customWidth="1" min="3" max="3" width="16.38"/>
     <col customWidth="1" min="4" max="4" width="16.13"/>
@@ -2849,30 +2794,29 @@
     <col customWidth="1" min="10" max="10" width="14.88"/>
     <col customWidth="1" min="11" max="11" width="13.88"/>
     <col customWidth="1" min="12" max="12" width="21.63"/>
-    <col customWidth="1" min="13" max="13" width="40.25"/>
-    <col customWidth="1" min="14" max="15" width="13.88"/>
-    <col customWidth="1" min="16" max="16" width="9.5"/>
-    <col customWidth="1" min="17" max="17" width="14.25"/>
-    <col customWidth="1" min="18" max="18" width="11.5"/>
-    <col customWidth="1" min="19" max="19" width="14.13"/>
-    <col customWidth="1" min="20" max="20" width="13.38"/>
-    <col customWidth="1" min="21" max="21" width="15.0"/>
-    <col customWidth="1" min="22" max="22" width="14.38"/>
-    <col customWidth="1" min="23" max="23" width="12.38"/>
-    <col customWidth="1" min="24" max="24" width="17.25"/>
-    <col customWidth="1" min="25" max="25" width="14.38"/>
-    <col customWidth="1" min="26" max="26" width="16.25"/>
-    <col customWidth="1" min="27" max="27" width="14.38"/>
-    <col customWidth="1" min="28" max="30" width="14.25"/>
-    <col customWidth="1" min="31" max="31" width="12.13"/>
-    <col customWidth="1" min="32" max="32" width="9.63"/>
-    <col customWidth="1" min="33" max="33" width="8.63"/>
-    <col customWidth="1" min="34" max="34" width="11.88"/>
-    <col customWidth="1" min="35" max="35" width="9.25"/>
-    <col customWidth="1" min="36" max="36" width="7.88"/>
-    <col customWidth="1" min="37" max="37" width="9.0"/>
-    <col customWidth="1" min="38" max="38" width="13.88"/>
-    <col customWidth="1" min="39" max="39" width="11.88"/>
+    <col customWidth="1" min="13" max="14" width="13.88"/>
+    <col customWidth="1" min="15" max="15" width="9.5"/>
+    <col customWidth="1" min="16" max="16" width="14.25"/>
+    <col customWidth="1" min="17" max="17" width="11.5"/>
+    <col customWidth="1" min="18" max="18" width="14.13"/>
+    <col customWidth="1" min="19" max="19" width="13.38"/>
+    <col customWidth="1" min="20" max="20" width="15.0"/>
+    <col customWidth="1" min="21" max="21" width="14.38"/>
+    <col customWidth="1" min="22" max="22" width="12.38"/>
+    <col customWidth="1" min="23" max="23" width="17.25"/>
+    <col customWidth="1" min="24" max="24" width="14.38"/>
+    <col customWidth="1" min="25" max="25" width="16.25"/>
+    <col customWidth="1" min="26" max="26" width="14.38"/>
+    <col customWidth="1" min="27" max="29" width="14.25"/>
+    <col customWidth="1" min="30" max="30" width="12.13"/>
+    <col customWidth="1" min="31" max="31" width="9.63"/>
+    <col customWidth="1" min="32" max="32" width="8.63"/>
+    <col customWidth="1" min="33" max="33" width="11.88"/>
+    <col customWidth="1" min="34" max="34" width="9.25"/>
+    <col customWidth="1" min="35" max="35" width="7.88"/>
+    <col customWidth="1" min="36" max="36" width="9.0"/>
+    <col customWidth="1" min="37" max="37" width="13.88"/>
+    <col customWidth="1" min="38" max="38" width="11.88"/>
   </cols>
   <sheetData>
     <row r="1" ht="26.25" customHeight="1">
@@ -2915,10 +2859,10 @@
       <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -2933,10 +2877,10 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="3" t="s">
@@ -2963,7 +2907,7 @@
       <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
@@ -2975,23 +2919,20 @@
       <c r="AG1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AH1" s="6" t="s">
         <v>33</v>
       </c>
       <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="6" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>35</v>
       </c>
       <c r="AK1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AL1" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="AM1" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -3002,113 +2943,110 @@
         <v>1.0842668413E10</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="H2" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="I2" s="10">
         <v>1890000.0</v>
       </c>
       <c r="J2" s="11"/>
       <c r="K2" s="12">
-        <v>45906.0</v>
+        <v>45541.0</v>
       </c>
       <c r="L2" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="O2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="P2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="13" t="s">
+      <c r="R2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R2" s="9" t="s">
+      <c r="S2" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="T2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="U2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="AL2" s="17" t="s">
         <v>53</v>
-      </c>
-      <c r="V2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="W2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X2" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ2" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK2" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="AM2" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="1">
@@ -3119,113 +3057,110 @@
         <v>1.0842667031E10</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="H3" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I3" s="20">
         <v>1690000.0</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="22">
-        <v>45906.0</v>
+        <v>45541.0</v>
       </c>
       <c r="L3" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="19" t="s">
+      <c r="T3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="O3" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R3" s="19" t="s">
+      <c r="AL3" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="S3" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="T3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="V3" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="W3" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA3" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB3" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK3" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM3" s="25" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="1">
@@ -3236,111 +3171,110 @@
         <v>1.0842671027E10</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H4" s="26" t="s">
         <v>64</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>67</v>
       </c>
       <c r="I4" s="28">
         <v>1690000.0</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="12">
-        <v>45906.0</v>
+        <v>45541.0</v>
       </c>
       <c r="L4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="26" t="s">
+      <c r="T4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="U4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="P4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="R4" s="26" t="s">
+      <c r="AL4" s="31" t="s">
         <v>70</v>
-      </c>
-      <c r="S4" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="T4" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="U4" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="W4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ4" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM4" s="31" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" ht="30.0" customHeight="1">
@@ -3351,111 +3285,110 @@
         <v>1.0842673386E10</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D5" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="F5" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H5" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="20">
         <v>1890000.0</v>
       </c>
       <c r="J5" s="21"/>
       <c r="K5" s="22">
-        <v>45906.0</v>
+        <v>45541.0</v>
       </c>
       <c r="L5" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="R5" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="T5" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="M5" s="23"/>
-      <c r="N5" s="19" t="s">
+      <c r="AL5" s="25" t="s">
         <v>78</v>
-      </c>
-      <c r="O5" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R5" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="T5" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="U5" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="V5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="W5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X5" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK5" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL5" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="AM5" s="25" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="1">
@@ -3466,65 +3399,68 @@
         <v>1.0842674152E10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>41</v>
-      </c>
       <c r="F6" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="10">
         <v>1690000.0</v>
       </c>
       <c r="J6" s="11"/>
       <c r="K6" s="12">
-        <v>45906.0</v>
+        <v>45541.0</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="R6" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U6" s="9" t="s">
-        <v>53</v>
+      <c r="U6" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V6" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X6" s="15" t="b">
-        <v>0</v>
+      <c r="W6" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="Y6" s="14" t="b">
         <v>1</v>
@@ -3541,7 +3477,7 @@
       <c r="AC6" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD6" s="14" t="b">
+      <c r="AD6" s="13" t="b">
         <v>1</v>
       </c>
       <c r="AE6" s="13" t="b">
@@ -3562,14 +3498,11 @@
       <c r="AJ6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AK6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL6" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM6" s="34" t="s">
-        <v>86</v>
+      <c r="AK6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL6" s="34" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="7" ht="30.0" customHeight="1">
@@ -3580,22 +3513,22 @@
         <v>8.718519427E9</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F7" s="23" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G7" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H7" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I7" s="20">
         <v>1290000.0</v>
@@ -3603,87 +3536,89 @@
       <c r="J7" s="21">
         <v>799000.0</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="22">
+        <v>45059.0</v>
+      </c>
       <c r="L7" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="S7" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X7" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="O7" s="19" t="s">
+      <c r="AL7" s="25" t="s">
         <v>90</v>
-      </c>
-      <c r="P7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="R7" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="S7" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="V7" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="W7" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA7" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB7" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL7" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM7" s="25" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="8" ht="30.0" customHeight="1">
@@ -3694,110 +3629,110 @@
         <v>1.0842671678E10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I8" s="10">
         <v>1190000.0</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="12">
-        <v>45906.0</v>
+        <v>45541.0</v>
       </c>
       <c r="L8" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="O8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="S8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="U8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL8" s="34" t="s">
         <v>96</v>
-      </c>
-      <c r="N8" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="S8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U8" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="V8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="W8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB8" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM8" s="34" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -3808,22 +3743,22 @@
         <v>5.757072087E9</v>
       </c>
       <c r="C9" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="I9" s="20">
         <v>239000.0</v>
@@ -3835,88 +3770,85 @@
         <v>44378.0</v>
       </c>
       <c r="L9" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="O9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="M9" s="19" t="s">
+      <c r="R9" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="O9" s="19" t="s">
+      <c r="S9" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="P9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="19" t="s">
+      <c r="T9" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="U9" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V9" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="X9" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="S9" s="19" t="s">
+      <c r="AL9" s="25" t="s">
         <v>111</v>
-      </c>
-      <c r="T9" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="U9" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="V9" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="W9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM9" s="25" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
@@ -3927,22 +3859,22 @@
         <v>1.0006844027E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I10" s="10">
         <v>459000.0</v>
@@ -3952,88 +3884,85 @@
         <v>45323.0</v>
       </c>
       <c r="L10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="T10" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="U10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="M10" s="9" t="s">
+      <c r="AL10" s="34" t="s">
         <v>120</v>
-      </c>
-      <c r="N10" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="U10" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="V10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="W10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI10" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM10" s="34" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -4044,22 +3973,22 @@
         <v>1.0006842669E10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="H11" s="19" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I11" s="20">
         <v>399000.0</v>
@@ -4069,88 +3998,85 @@
         <v>45323.0</v>
       </c>
       <c r="L11" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q11" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="T11" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="U11" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V11" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="M11" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="N11" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="P11" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="R11" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="S11" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="T11" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="U11" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="V11" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="W11" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI11" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM11" s="25" t="s">
-        <v>125</v>
+      <c r="AL11" s="25" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" ht="30.0" customHeight="1">
@@ -4161,22 +4087,22 @@
         <v>8.255898505E9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I12" s="10">
         <v>589000.0</v>
@@ -4186,88 +4112,85 @@
         <v>44986.0</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="N12" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="O12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="P12" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="13" t="s">
-        <v>49</v>
+      <c r="Q12" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="R12" s="9" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="S12" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="T12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="U12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL12" s="34" t="s">
         <v>111</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="V12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="W12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG12" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI12" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ12" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AM12" s="34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -4278,22 +4201,22 @@
         <v>8.255898604E9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>102</v>
-      </c>
-      <c r="F13" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="I13" s="20">
         <v>589000.0</v>
@@ -4303,43 +4226,43 @@
         <v>44986.0</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>143</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P13" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="P13" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="23" t="s">
-        <v>49</v>
+      <c r="Q13" s="19" t="s">
+        <v>117</v>
       </c>
       <c r="R13" s="19" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="S13" s="19" t="s">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="T13" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="U13" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="U13" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V13" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W13" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X13" s="15" t="b">
-        <v>0</v>
+      <c r="W13" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Y13" s="24" t="b">
         <v>1</v>
@@ -4347,44 +4270,41 @@
       <c r="Z13" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AA13" s="24" t="b">
-        <v>1</v>
+      <c r="AA13" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="AB13" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AC13" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF13" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG13" s="16" t="b">
-        <v>0</v>
+      <c r="AC13" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="AH13" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AI13" s="23" t="b">
-        <v>1</v>
+      <c r="AI13" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ13" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK13" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="19" t="s">
-        <v>147</v>
-      </c>
-      <c r="AM13" s="25" t="s">
-        <v>148</v>
+      <c r="AK13" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL13" s="25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
@@ -4395,22 +4315,22 @@
         <v>8.313796209E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I14" s="10">
         <v>819000.0</v>
@@ -4420,43 +4340,43 @@
         <v>44986.0</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="M14" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="N14" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="O14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="P14" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="13" t="s">
-        <v>49</v>
+      <c r="Q14" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U14" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="U14" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V14" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W14" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X14" s="15" t="b">
-        <v>0</v>
+      <c r="W14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="Y14" s="14" t="b">
         <v>1</v>
@@ -4464,20 +4384,20 @@
       <c r="Z14" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AA14" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB14" s="15" t="b">
-        <v>0</v>
+      <c r="AA14" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AC14" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD14" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="16" t="b">
-        <v>0</v>
+      <c r="AD14" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="AF14" s="13" t="b">
         <v>1</v>
@@ -4488,20 +4408,17 @@
       <c r="AH14" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI14" s="13" t="b">
-        <v>1</v>
+      <c r="AI14" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ14" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK14" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="AM14" s="34" t="s">
-        <v>158</v>
+      <c r="AK14" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL14" s="34" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -4512,22 +4429,22 @@
         <v>1.0842664841E10</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>41</v>
-      </c>
       <c r="F15" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H15" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="20">
         <v>1490000.0</v>
@@ -4537,41 +4454,43 @@
         <v>45906.0</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>160</v>
-      </c>
-      <c r="M15" s="19"/>
+        <v>152</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="N15" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P15" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="O15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="R15" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="R15" s="19" t="s">
-        <v>161</v>
-      </c>
       <c r="S15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="T15" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="T15" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="U15" s="19" t="s">
-        <v>53</v>
+      <c r="U15" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V15" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W15" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X15" s="15" t="b">
-        <v>0</v>
+      <c r="W15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Y15" s="24" t="b">
         <v>1</v>
@@ -4579,16 +4498,16 @@
       <c r="Z15" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AA15" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB15" s="15" t="b">
-        <v>0</v>
+      <c r="AA15" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="AC15" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AD15" s="24" t="b">
+      <c r="AD15" s="23" t="b">
         <v>1</v>
       </c>
       <c r="AE15" s="23" t="b">
@@ -4603,20 +4522,17 @@
       <c r="AH15" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AI15" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ15" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL15" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM15" s="25" t="s">
-        <v>163</v>
+      <c r="AI15" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL15" s="25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
@@ -4627,22 +4543,22 @@
         <v>8.78227228E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I16" s="10">
         <v>990000.0</v>
@@ -4652,64 +4568,64 @@
         <v>45105.0</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="N16" s="26" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P16" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="P16" s="13" t="b">
-        <v>1</v>
-      </c>
       <c r="Q16" s="9" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U16" s="9" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+      <c r="U16" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V16" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W16" s="15" t="b">
-        <v>0</v>
+      <c r="W16" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="X16" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="Y16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB16" s="15" t="b">
-        <v>0</v>
+      <c r="Y16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AC16" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="16" t="b">
-        <v>0</v>
+      <c r="AD16" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="AF16" s="13" t="b">
         <v>1</v>
@@ -4720,20 +4636,17 @@
       <c r="AH16" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI16" s="13" t="b">
-        <v>1</v>
+      <c r="AI16" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ16" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK16" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM16" s="34" t="s">
-        <v>172</v>
+      <c r="AK16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL16" s="34" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -4744,22 +4657,22 @@
         <v>1.012849087E10</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H17" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I17" s="20">
         <v>1040000.0</v>
@@ -4769,62 +4682,64 @@
         <v>45105.0</v>
       </c>
       <c r="L17" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="M17" s="19"/>
-      <c r="N17" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="P17" s="23" t="b">
-        <v>1</v>
-      </c>
       <c r="Q17" s="19" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="R17" s="19" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="S17" s="19" t="s">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="T17" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="U17" s="19" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+      <c r="U17" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V17" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W17" s="15" t="b">
-        <v>0</v>
+      <c r="W17" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="X17" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="Y17" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z17" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB17" s="15" t="b">
-        <v>0</v>
+      <c r="Y17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="AC17" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AD17" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="16" t="b">
-        <v>0</v>
+      <c r="AD17" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="AF17" s="23" t="b">
         <v>1</v>
@@ -4835,20 +4750,17 @@
       <c r="AH17" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AI17" s="23" t="b">
-        <v>1</v>
+      <c r="AI17" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ17" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK17" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM17" s="25" t="s">
-        <v>172</v>
+      <c r="AK17" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL17" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
@@ -4859,22 +4771,22 @@
         <v>1.0128490872E10</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="I18" s="10">
         <v>998000.0</v>
@@ -4884,88 +4796,85 @@
         <v>45105.0</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="N18" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="P18" s="13" t="b">
-        <v>1</v>
+        <v>169</v>
+      </c>
+      <c r="M18" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="S18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T18" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="U18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="V18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="X18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL18" s="34" t="s">
         <v>111</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U18" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="V18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="W18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="X18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI18" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM18" s="34" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -4976,22 +4885,22 @@
         <v>1.1549203117E10</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="H19" s="35" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I19" s="20">
         <v>589000.0</v>
@@ -5001,61 +4910,61 @@
         <v>45720.0</v>
       </c>
       <c r="L19" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="N19" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>188</v>
-      </c>
-      <c r="P19" s="23" t="b">
-        <v>1</v>
+        <v>176</v>
+      </c>
+      <c r="M19" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="O19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="Q19" s="19" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="R19" s="19" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="S19" s="19" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="T19" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="U19" s="19" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="U19" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V19" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W19" s="15" t="b">
-        <v>0</v>
+      <c r="W19" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="X19" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="Y19" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z19" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="15" t="b">
-        <v>0</v>
+      <c r="Y19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="AC19" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AD19" s="24" t="b">
-        <v>1</v>
+      <c r="AD19" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AE19" s="16" t="b">
         <v>0</v>
@@ -5066,23 +4975,20 @@
       <c r="AG19" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AH19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="23" t="b">
-        <v>1</v>
+      <c r="AH19" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ19" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK19" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM19" s="25" t="s">
-        <v>172</v>
+      <c r="AK19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL19" s="25" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="1">
@@ -5093,22 +4999,22 @@
         <v>6.54177233E9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I20" s="10">
         <v>849000.0</v>
@@ -5118,43 +5024,43 @@
         <v>45308.0</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="P20" s="16" t="b">
-        <v>0</v>
+        <v>188</v>
+      </c>
+      <c r="O20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>203</v>
+        <v>191</v>
+      </c>
+      <c r="U20" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V20" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X20" s="15" t="b">
-        <v>0</v>
+      <c r="W20" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X20" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="Y20" s="14" t="b">
         <v>1</v>
@@ -5171,8 +5077,8 @@
       <c r="AC20" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD20" s="14" t="b">
-        <v>1</v>
+      <c r="AD20" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AE20" s="16" t="b">
         <v>0</v>
@@ -5180,26 +5086,23 @@
       <c r="AF20" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG20" s="16" t="b">
-        <v>0</v>
+      <c r="AG20" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="AH20" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI20" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ20" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AM20" s="34" t="s">
-        <v>204</v>
+      <c r="AI20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AL20" s="34" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="21" ht="30.0" customHeight="1">
@@ -5210,22 +5113,22 @@
         <v>1.1466050722E10</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F21" s="19" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="H21" s="19" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I21" s="20">
         <v>1039000.0</v>
@@ -5235,43 +5138,43 @@
         <v>45701.0</v>
       </c>
       <c r="L21" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="N21" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="O21" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="P21" s="23" t="b">
-        <v>1</v>
+        <v>196</v>
+      </c>
+      <c r="M21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="O21" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P21" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="R21" s="19" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="S21" s="19" t="s">
-        <v>202</v>
+        <v>58</v>
       </c>
       <c r="T21" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="U21" s="19" t="s">
-        <v>210</v>
+        <v>197</v>
+      </c>
+      <c r="U21" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V21" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W21" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X21" s="15" t="b">
-        <v>0</v>
+      <c r="W21" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Y21" s="24" t="b">
         <v>1</v>
@@ -5288,8 +5191,8 @@
       <c r="AC21" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AD21" s="24" t="b">
-        <v>1</v>
+      <c r="AD21" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AE21" s="16" t="b">
         <v>0</v>
@@ -5297,26 +5200,23 @@
       <c r="AF21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG21" s="16" t="b">
-        <v>0</v>
+      <c r="AG21" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="AH21" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AI21" s="23" t="b">
-        <v>1</v>
+      <c r="AI21" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ21" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK21" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM21" s="25" t="s">
-        <v>73</v>
+      <c r="AK21" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL21" s="25" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="30.0" customHeight="1">
@@ -5327,22 +5227,22 @@
         <v>9.832890652E9</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I22" s="39">
         <v>1790000.0</v>
@@ -5352,43 +5252,43 @@
         <v>45308.0</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="N22" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="M22" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O22" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P22" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>49</v>
+      <c r="Q22" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="R22" s="9" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U22" s="9" t="s">
-        <v>219</v>
+        <v>205</v>
+      </c>
+      <c r="U22" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V22" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W22" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X22" s="15" t="b">
-        <v>0</v>
+      <c r="W22" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X22" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="Y22" s="14" t="b">
         <v>1</v>
@@ -5405,11 +5305,11 @@
       <c r="AC22" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD22" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="16" t="b">
-        <v>0</v>
+      <c r="AD22" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="AF22" s="13" t="b">
         <v>1</v>
@@ -5420,20 +5320,17 @@
       <c r="AH22" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI22" s="13" t="b">
-        <v>1</v>
+      <c r="AI22" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ22" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK22" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM22" s="34" t="s">
-        <v>73</v>
+      <c r="AK22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL22" s="34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="1">
@@ -5444,22 +5341,22 @@
         <v>9.855771903E9</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H23" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I23" s="41">
         <v>2390000.0</v>
@@ -5469,41 +5366,43 @@
         <v>45308.0</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="M23" s="19"/>
-      <c r="N23" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O23" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="P23" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="23" t="s">
-        <v>49</v>
+      <c r="Q23" s="19" t="s">
+        <v>208</v>
       </c>
       <c r="R23" s="19" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="S23" s="19" t="s">
-        <v>218</v>
+        <v>50</v>
       </c>
       <c r="T23" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="U23" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="U23" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V23" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W23" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X23" s="15" t="b">
-        <v>0</v>
+      <c r="W23" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X23" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Y23" s="24" t="b">
         <v>1</v>
@@ -5520,7 +5419,7 @@
       <c r="AC23" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AD23" s="24" t="b">
+      <c r="AD23" s="23" t="b">
         <v>1</v>
       </c>
       <c r="AE23" s="23" t="b">
@@ -5535,20 +5434,17 @@
       <c r="AH23" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AI23" s="23" t="b">
-        <v>1</v>
+      <c r="AI23" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ23" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK23" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM23" s="25" t="s">
-        <v>224</v>
+      <c r="AK23" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL23" s="25" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="1">
@@ -5559,22 +5455,22 @@
         <v>5.0074635E7</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E24" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>226</v>
-      </c>
       <c r="G24" s="9" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I24" s="28">
         <v>1990000.0</v>
@@ -5584,43 +5480,43 @@
         <v>45308.0</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="M24" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="N24" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N24" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="O24" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P24" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O24" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="P24" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>49</v>
+      <c r="Q24" s="9" t="s">
+        <v>203</v>
       </c>
       <c r="R24" s="9" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U24" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="U24" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V24" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W24" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X24" s="15" t="b">
-        <v>0</v>
+      <c r="W24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X24" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="Y24" s="14" t="b">
         <v>1</v>
@@ -5637,7 +5533,7 @@
       <c r="AC24" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD24" s="14" t="b">
+      <c r="AD24" s="13" t="b">
         <v>1</v>
       </c>
       <c r="AE24" s="13" t="b">
@@ -5652,20 +5548,17 @@
       <c r="AH24" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI24" s="13" t="b">
-        <v>1</v>
+      <c r="AI24" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ24" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK24" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM24" s="34" t="s">
-        <v>73</v>
+      <c r="AK24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL24" s="34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" ht="30.0" customHeight="1">
@@ -5676,22 +5569,22 @@
         <v>1.1310815985E10</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D25" s="45" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="F25" s="45" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G25" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="I25" s="46">
         <v>2190000.0</v>
@@ -5701,32 +5594,34 @@
         <v>45638.0</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>233</v>
-      </c>
-      <c r="M25" s="19"/>
-      <c r="N25" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="M25" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P25" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O25" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="P25" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="23" t="s">
-        <v>49</v>
+      <c r="Q25" s="19" t="s">
+        <v>220</v>
       </c>
       <c r="R25" s="19" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="S25" s="19" t="s">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="T25" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="U25" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="U25" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="V25" s="15" t="b">
         <v>0</v>
@@ -5743,44 +5638,41 @@
       <c r="Z25" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AA25" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="24" t="b">
-        <v>1</v>
+      <c r="AA25" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="AC25" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AD25" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="16" t="b">
-        <v>0</v>
+      <c r="AD25" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="AG25" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AH25" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI25" s="47" t="b">
+      <c r="AH25" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="16" t="b">
         <v>0</v>
       </c>
       <c r="AJ25" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK25" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="AM25" s="25" t="s">
-        <v>237</v>
+      <c r="AK25" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="AL25" s="25" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="1">
@@ -5791,22 +5683,22 @@
         <v>9.599823621E9</v>
       </c>
       <c r="C26" s="26" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="10">
         <v>1890000.0</v>
@@ -5818,41 +5710,43 @@
         <v>45259.0</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="M26" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="O26" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="P26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O26" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="P26" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="13" t="s">
-        <v>49</v>
+      <c r="Q26" s="9" t="s">
+        <v>227</v>
       </c>
       <c r="R26" s="9" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U26" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="U26" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V26" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W26" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X26" s="15" t="b">
-        <v>0</v>
+      <c r="W26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X26" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="Y26" s="14" t="b">
         <v>1</v>
@@ -5860,16 +5754,16 @@
       <c r="Z26" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AA26" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB26" s="15" t="b">
-        <v>0</v>
+      <c r="AA26" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AC26" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD26" s="14" t="b">
+      <c r="AD26" s="13" t="b">
         <v>1</v>
       </c>
       <c r="AE26" s="13" t="b">
@@ -5884,20 +5778,17 @@
       <c r="AH26" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI26" s="13" t="b">
-        <v>1</v>
+      <c r="AI26" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ26" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK26" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM26" s="34" t="s">
-        <v>245</v>
+      <c r="AK26" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="AL26" s="34" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="27" ht="30.0" customHeight="1">
@@ -5908,22 +5799,22 @@
         <v>1.1520029652E10</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="F27" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H27" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I27" s="20">
         <v>2090000.0</v>
@@ -5933,86 +5824,85 @@
         <v>45692.0</v>
       </c>
       <c r="L27" s="19" t="s">
-        <v>247</v>
-      </c>
-      <c r="M27" s="23"/>
-      <c r="N27" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="M27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="O27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="P27" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O27" s="19" t="s">
+      <c r="Q27" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="P27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="23" t="s">
-        <v>49</v>
-      </c>
       <c r="R27" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="S27" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="19" t="s">
-        <v>243</v>
-      </c>
       <c r="T27" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="U27" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="U27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="V27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI27" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ27" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AL27" s="25" t="s">
         <v>53</v>
-      </c>
-      <c r="V27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="W27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X27" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ27" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="AM27" s="25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" ht="30.0" customHeight="1">
@@ -6023,22 +5913,22 @@
         <v>1.1427676811E10</v>
       </c>
       <c r="C28" s="26" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I28" s="10">
         <v>669000.0</v>
@@ -6048,41 +5938,43 @@
         <v>45692.0</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="M28" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="N28" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="O28" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="O28" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="P28" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>49</v>
+      <c r="Q28" s="9" t="s">
+        <v>148</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>243</v>
+        <v>58</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U28" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="U28" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V28" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W28" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X28" s="15" t="b">
-        <v>0</v>
+      <c r="W28" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X28" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="Y28" s="14" t="b">
         <v>1</v>
@@ -6090,44 +5982,41 @@
       <c r="Z28" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AA28" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB28" s="15" t="b">
-        <v>0</v>
+      <c r="AA28" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AC28" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD28" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="13" t="b">
-        <v>1</v>
+      <c r="AD28" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AF28" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG28" s="16" t="b">
-        <v>0</v>
+      <c r="AG28" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="AH28" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI28" s="13" t="b">
-        <v>1</v>
+      <c r="AI28" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ28" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK28" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="AM28" s="34" t="s">
-        <v>255</v>
+      <c r="AK28" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL28" s="34" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="1">
@@ -6138,22 +6027,22 @@
         <v>1.1427677905E10</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G29" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I29" s="20">
         <v>739000.0</v>
@@ -6163,41 +6052,43 @@
         <v>45692.0</v>
       </c>
       <c r="L29" s="19" t="s">
-        <v>258</v>
-      </c>
-      <c r="M29" s="23"/>
-      <c r="N29" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="M29" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="O29" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P29" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="O29" s="19" t="s">
-        <v>259</v>
-      </c>
-      <c r="P29" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="23" t="s">
-        <v>49</v>
+      <c r="Q29" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="R29" s="19" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="S29" s="19" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="T29" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="U29" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="U29" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V29" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W29" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X29" s="15" t="b">
-        <v>0</v>
+      <c r="W29" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X29" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Y29" s="24" t="b">
         <v>1</v>
@@ -6205,44 +6096,41 @@
       <c r="Z29" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AA29" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB29" s="15" t="b">
-        <v>0</v>
+      <c r="AA29" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="AC29" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AD29" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="23" t="b">
-        <v>1</v>
+      <c r="AD29" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AF29" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG29" s="16" t="b">
-        <v>0</v>
+      <c r="AG29" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="AH29" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AI29" s="23" t="b">
-        <v>1</v>
+      <c r="AI29" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ29" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK29" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="19" t="s">
-        <v>261</v>
-      </c>
-      <c r="AM29" s="25" t="s">
-        <v>262</v>
+      <c r="AK29" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="AL29" s="25" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="1">
@@ -6253,22 +6141,22 @@
         <v>1.1427679735E10</v>
       </c>
       <c r="C30" s="26" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I30" s="10">
         <v>589000.0</v>
@@ -6278,41 +6166,43 @@
         <v>45692.0</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="M30" s="9"/>
+        <v>249</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="N30" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="P30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="13" t="s">
-        <v>49</v>
+        <v>250</v>
+      </c>
+      <c r="O30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>251</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>266</v>
+        <v>228</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>243</v>
+        <v>58</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="U30" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="U30" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V30" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W30" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X30" s="15" t="b">
-        <v>0</v>
+      <c r="W30" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X30" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="Y30" s="14" t="b">
         <v>1</v>
@@ -6320,44 +6210,41 @@
       <c r="Z30" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AA30" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB30" s="15" t="b">
-        <v>0</v>
+      <c r="AA30" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AC30" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD30" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="13" t="b">
-        <v>1</v>
+      <c r="AD30" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AF30" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG30" s="16" t="b">
-        <v>0</v>
+      <c r="AG30" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="AH30" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI30" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ30" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL30" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="AM30" s="34" t="s">
-        <v>268</v>
+      <c r="AI30" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK30" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="AL30" s="34" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="1">
@@ -6368,22 +6255,22 @@
         <v>1.1427682377E10</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G31" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H31" s="19" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I31" s="20">
         <v>669000.0</v>
@@ -6393,41 +6280,43 @@
         <v>45692.0</v>
       </c>
       <c r="L31" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="M31" s="23"/>
+        <v>255</v>
+      </c>
+      <c r="M31" s="19" t="s">
+        <v>187</v>
+      </c>
       <c r="N31" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="O31" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="P31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="23" t="s">
-        <v>49</v>
+        <v>256</v>
+      </c>
+      <c r="O31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P31" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q31" s="19" t="s">
+        <v>257</v>
       </c>
       <c r="R31" s="19" t="s">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="S31" s="19" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="T31" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="U31" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="U31" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V31" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W31" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X31" s="15" t="b">
-        <v>0</v>
+      <c r="W31" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X31" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Y31" s="24" t="b">
         <v>1</v>
@@ -6435,44 +6324,41 @@
       <c r="Z31" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AA31" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB31" s="15" t="b">
-        <v>0</v>
+      <c r="AA31" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="AC31" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AD31" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="23" t="b">
-        <v>1</v>
+      <c r="AD31" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AF31" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG31" s="16" t="b">
-        <v>0</v>
+      <c r="AG31" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="AH31" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AI31" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ31" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK31" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL31" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM31" s="25" t="s">
-        <v>274</v>
+      <c r="AI31" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK31" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL31" s="25" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="1">
@@ -6483,22 +6369,22 @@
         <v>1.1427671305E10</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="I32" s="10">
         <v>459000.0</v>
@@ -6508,59 +6394,61 @@
         <v>45692.0</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="M32" s="13"/>
+        <v>263</v>
+      </c>
+      <c r="M32" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="N32" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O32" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="P32" s="16" t="b">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="O32" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="Q32" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="R32" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="S32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="T32" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="R32" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="S32" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="T32" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="U32" s="9" t="s">
-        <v>113</v>
+      <c r="U32" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V32" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W32" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X32" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="14" t="b">
-        <v>1</v>
+      <c r="W32" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X32" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA32" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="AB32" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AC32" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="14" t="b">
-        <v>1</v>
+      <c r="AC32" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AE32" s="16" t="b">
         <v>0</v>
@@ -6568,26 +6456,23 @@
       <c r="AF32" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG32" s="16" t="b">
-        <v>0</v>
+      <c r="AG32" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="AH32" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI32" s="13" t="b">
-        <v>1</v>
+      <c r="AI32" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ32" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK32" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM32" s="34" t="s">
-        <v>281</v>
+      <c r="AK32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL32" s="34" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="33" ht="30.0" customHeight="1">
@@ -6598,22 +6483,22 @@
         <v>1.142777123E10</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="I33" s="20">
         <v>459000.0</v>
@@ -6623,61 +6508,61 @@
         <v>45692.0</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>284</v>
+        <v>187</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="O33" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="P33" s="16" t="b">
-        <v>0</v>
+        <v>250</v>
+      </c>
+      <c r="O33" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P33" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="Q33" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="R33" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="S33" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="T33" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="R33" s="19" t="s">
-        <v>285</v>
-      </c>
-      <c r="S33" s="19" t="s">
-        <v>243</v>
-      </c>
-      <c r="T33" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="U33" s="19" t="s">
-        <v>113</v>
+      <c r="U33" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V33" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W33" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X33" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="24" t="b">
-        <v>1</v>
+      <c r="W33" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X33" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y33" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA33" s="15" t="b">
+        <v>0</v>
       </c>
       <c r="AB33" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AC33" s="15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="24" t="b">
-        <v>1</v>
+      <c r="AC33" s="24" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AE33" s="16" t="b">
         <v>0</v>
@@ -6685,26 +6570,23 @@
       <c r="AF33" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG33" s="16" t="b">
-        <v>0</v>
+      <c r="AG33" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="AH33" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AI33" s="23" t="b">
-        <v>1</v>
+      <c r="AI33" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AJ33" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AK33" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM33" s="25" t="s">
-        <v>148</v>
+      <c r="AK33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL33" s="25" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="34" ht="30.0" customHeight="1">
@@ -6715,22 +6597,22 @@
         <v>9.280896681E9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I34" s="10">
         <v>599000.0</v>
@@ -6742,41 +6624,43 @@
         <v>45047.0</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="M34" s="13"/>
+        <v>273</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>187</v>
+      </c>
       <c r="N34" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O34" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="P34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="13" t="s">
-        <v>49</v>
+        <v>256</v>
+      </c>
+      <c r="O34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q34" s="9" t="s">
+        <v>274</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U34" s="9" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="U34" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="V34" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="W34" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="X34" s="15" t="b">
-        <v>0</v>
+      <c r="W34" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X34" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="Y34" s="14" t="b">
         <v>1</v>
@@ -6784,44 +6668,41 @@
       <c r="Z34" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AA34" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB34" s="15" t="b">
-        <v>0</v>
+      <c r="AA34" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AC34" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AD34" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="13" t="b">
-        <v>1</v>
+      <c r="AD34" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AF34" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG34" s="16" t="b">
-        <v>0</v>
+      <c r="AG34" s="13" t="b">
+        <v>1</v>
       </c>
       <c r="AH34" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="AI34" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ34" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL34" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM34" s="34" t="s">
-        <v>291</v>
+      <c r="AI34" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK34" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL34" s="34" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="1">
@@ -6832,22 +6713,22 @@
         <v>5.0074641E7</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="F35" s="19" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
       <c r="H35" s="19" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I35" s="20">
         <v>719000.0</v>
@@ -6859,43 +6740,43 @@
         <v>45047.0</v>
       </c>
       <c r="L35" s="19" t="s">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="M35" s="19" t="s">
-        <v>296</v>
+        <v>187</v>
       </c>
       <c r="N35" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="O35" s="19" t="s">
-        <v>271</v>
-      </c>
-      <c r="P35" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="23" t="s">
-        <v>49</v>
+        <v>256</v>
+      </c>
+      <c r="O35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="P35" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q35" s="19" t="s">
+        <v>274</v>
       </c>
       <c r="R35" s="19" t="s">
-        <v>290</v>
+        <v>228</v>
       </c>
       <c r="S35" s="19" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="T35" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="U35" s="19" t="s">
-        <v>113</v>
+        <v>109</v>
+      </c>
+      <c r="U35" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="V35" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="W35" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="X35" s="15" t="b">
-        <v>0</v>
+      <c r="W35" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="X35" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="Y35" s="24" t="b">
         <v>1</v>
@@ -6903,44 +6784,41 @@
       <c r="Z35" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AA35" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="15" t="b">
-        <v>0</v>
+      <c r="AA35" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="24" t="b">
+        <v>1</v>
       </c>
       <c r="AC35" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="AD35" s="24" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="23" t="b">
-        <v>1</v>
+      <c r="AD35" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AF35" s="16" t="b">
         <v>0</v>
       </c>
-      <c r="AG35" s="16" t="b">
-        <v>0</v>
+      <c r="AG35" s="23" t="b">
+        <v>1</v>
       </c>
       <c r="AH35" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="AI35" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ35" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="23" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL35" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM35" s="25" t="s">
-        <v>291</v>
+      <c r="AI35" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK35" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL35" s="25" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="1">
@@ -6951,22 +6829,22 @@
         <v>1.1061289692E10</v>
       </c>
       <c r="C36" s="53" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="D36" s="53" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E36" s="53" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="F36" s="53" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G36" s="53" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="H36" s="53" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="I36" s="54">
         <v>459000.0</v>
@@ -6976,46 +6854,46 @@
         <v>45594.0</v>
       </c>
       <c r="L36" s="53" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="M36" s="53" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="N36" s="53" t="s">
-        <v>305</v>
-      </c>
-      <c r="O36" s="53" t="s">
-        <v>306</v>
-      </c>
-      <c r="P36" s="57" t="b">
-        <v>1</v>
+        <v>288</v>
+      </c>
+      <c r="O36" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="53" t="s">
+        <v>105</v>
       </c>
       <c r="Q36" s="53" t="s">
-        <v>109</v>
+        <v>178</v>
       </c>
       <c r="R36" s="53" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="S36" s="53" t="s">
-        <v>111</v>
+        <v>289</v>
       </c>
       <c r="T36" s="53" t="s">
-        <v>307</v>
-      </c>
-      <c r="U36" s="53" t="s">
-        <v>190</v>
+        <v>179</v>
+      </c>
+      <c r="U36" s="58" t="b">
+        <v>1</v>
       </c>
       <c r="V36" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="W36" s="59" t="b">
-        <v>0</v>
+      <c r="W36" s="58" t="b">
+        <v>1</v>
       </c>
       <c r="X36" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="Y36" s="58" t="b">
-        <v>1</v>
+      <c r="Y36" s="59" t="b">
+        <v>0</v>
       </c>
       <c r="Z36" s="59" t="b">
         <v>0</v>
@@ -7023,14 +6901,14 @@
       <c r="AA36" s="59" t="b">
         <v>0</v>
       </c>
-      <c r="AB36" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="60" t="b">
-        <v>1</v>
+      <c r="AB36" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="61" t="b">
+        <v>0</v>
       </c>
       <c r="AE36" s="61" t="b">
         <v>0</v>
@@ -7041,27 +6919,24 @@
       <c r="AG36" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="AH36" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="57" t="b">
-        <v>1</v>
+      <c r="AH36" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="61" t="b">
+        <v>0</v>
       </c>
       <c r="AJ36" s="61" t="b">
         <v>0</v>
       </c>
-      <c r="AK36" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="53" t="s">
-        <v>114</v>
-      </c>
-      <c r="AM36" s="62" t="s">
-        <v>308</v>
+      <c r="AK36" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL36" s="62" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AK36">
+  <conditionalFormatting sqref="A2:AJ36">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH(("false"),(A2))))</formula>
     </cfRule>
@@ -7099,7 +6974,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.75"/>
+    <col customWidth="1" min="1" max="1" width="6.38"/>
     <col customWidth="1" min="2" max="2" width="11.75"/>
     <col customWidth="1" min="3" max="3" width="16.38"/>
     <col customWidth="1" min="4" max="4" width="16.13"/>
@@ -7109,7 +6984,8 @@
     <col customWidth="1" min="8" max="8" width="14.88"/>
     <col customWidth="1" min="9" max="9" width="13.88"/>
     <col customWidth="1" min="10" max="10" width="21.63"/>
-    <col customWidth="1" min="11" max="12" width="13.88"/>
+    <col customWidth="1" min="11" max="11" width="13.88"/>
+    <col customWidth="1" min="12" max="12" width="13.38"/>
     <col customWidth="1" min="13" max="13" width="11.5"/>
     <col customWidth="1" min="14" max="14" width="14.13"/>
     <col customWidth="1" min="15" max="15" width="9.5"/>
@@ -7152,37 +7028,37 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>311</v>
+        <v>293</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -7193,16 +7069,16 @@
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>313</v>
+        <v>295</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -7214,19 +7090,19 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>317</v>
+        <v>299</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O2" s="47" t="b">
         <v>0</v>
@@ -7244,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U2" s="34"/>
     </row>
@@ -7256,16 +7132,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G3" s="20">
         <v>519000.0</v>
@@ -7275,19 +7151,19 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K3" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O3" s="47" t="b">
         <v>0</v>
@@ -7305,7 +7181,7 @@
         <v>1</v>
       </c>
       <c r="T3" s="19" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="U3" s="25"/>
     </row>
@@ -7317,16 +7193,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>325</v>
+        <v>307</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G4" s="28">
         <v>659000.0</v>
@@ -7336,19 +7212,19 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>326</v>
+        <v>308</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O4" s="47" t="b">
         <v>0</v>
@@ -7366,7 +7242,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="U4" s="31"/>
     </row>
@@ -7378,16 +7254,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>327</v>
+        <v>309</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G5" s="20">
         <v>659000.0</v>
@@ -7397,19 +7273,19 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M5" s="19" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O5" s="47" t="b">
         <v>0</v>
@@ -7427,7 +7303,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="19" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="U5" s="25"/>
     </row>
@@ -7439,16 +7315,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -7458,19 +7334,19 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>331</v>
+        <v>313</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>1</v>
@@ -7488,7 +7364,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="U6" s="34"/>
     </row>
@@ -7500,16 +7376,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="G7" s="20">
         <v>799000.0</v>
@@ -7519,19 +7395,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="19" t="s">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="K7" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="M7" s="19" t="s">
-        <v>335</v>
+        <v>317</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O7" s="19" t="b">
         <v>1</v>
@@ -7549,7 +7425,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="19" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="U7" s="25"/>
     </row>
@@ -7561,16 +7437,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>336</v>
+        <v>318</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -7582,19 +7458,19 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
@@ -7612,7 +7488,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>341</v>
+        <v>323</v>
       </c>
       <c r="U8" s="34"/>
     </row>
@@ -7624,16 +7500,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="G9" s="20">
         <v>989000.0</v>
@@ -7645,19 +7521,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="19" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L9" s="19" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="M9" s="19" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O9" s="19" t="b">
         <v>1</v>
@@ -7675,7 +7551,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="19" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="U9" s="25"/>
     </row>
@@ -7687,16 +7563,16 @@
         <v>1.0632515323E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="G10" s="10">
         <v>1089000.0</v>
@@ -7706,19 +7582,19 @@
         <v>45496.0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="K10" s="26" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
@@ -7736,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U10" s="34"/>
     </row>
@@ -7748,16 +7624,16 @@
         <v>1.0632516764E10</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>351</v>
+        <v>333</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>314</v>
+        <v>296</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>315</v>
+        <v>297</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="G11" s="20">
         <v>1229000.0</v>
@@ -7767,19 +7643,19 @@
         <v>45496.0</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="K11" s="35" t="s">
-        <v>349</v>
+        <v>331</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>339</v>
+        <v>321</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O11" s="19" t="b">
         <v>1</v>
@@ -7797,7 +7673,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="U11" s="25"/>
     </row>
@@ -7809,16 +7685,16 @@
         <v>6.471040307E9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G12" s="10">
         <v>880000.0</v>
@@ -7830,12 +7706,12 @@
         <v>44256.0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="K12" s="26"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="13"/>
@@ -7844,10 +7720,10 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="9" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="U12" s="34" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -7858,16 +7734,16 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G13" s="20">
         <v>1390000.0</v>
@@ -7879,12 +7755,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="19" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="K13" s="35"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="N13" s="19"/>
       <c r="O13" s="23"/>
@@ -7893,10 +7769,10 @@
       <c r="R13" s="23"/>
       <c r="S13" s="23"/>
       <c r="T13" s="19" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="U13" s="25" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
@@ -7907,16 +7783,16 @@
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G14" s="10">
         <v>880000.0</v>
@@ -7928,12 +7804,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="K14" s="26"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="13"/>
@@ -7942,10 +7818,10 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="9" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="U14" s="34" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -7956,16 +7832,16 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="G15" s="20">
         <v>1390000.0</v>
@@ -7977,12 +7853,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="19" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
       <c r="M15" s="19" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="N15" s="23"/>
       <c r="O15" s="23"/>
@@ -7991,10 +7867,10 @@
       <c r="R15" s="23"/>
       <c r="S15" s="23"/>
       <c r="T15" s="19" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="U15" s="25" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
@@ -8005,16 +7881,16 @@
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E16" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>355</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>373</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -8026,12 +7902,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="K16" s="26"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="13"/>
@@ -8040,10 +7916,10 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="9" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="U16" s="34" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -8054,16 +7930,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="F17" s="19" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="G17" s="20">
         <v>1590000.0</v>
@@ -8075,12 +7951,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="19"/>
       <c r="M17" s="19" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="N17" s="19"/>
       <c r="O17" s="23"/>
@@ -8089,10 +7965,10 @@
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
       <c r="T17" s="19" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="U17" s="25" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
@@ -8103,16 +7979,16 @@
         <v>2.920696454E9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="G18" s="10">
         <v>199000.0</v>
@@ -8124,15 +8000,15 @@
         <v>42979.0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="K18" s="26"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13"/>
@@ -8141,7 +8017,7 @@
       <c r="S18" s="13"/>
       <c r="T18" s="9"/>
       <c r="U18" s="34" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -8152,16 +8028,16 @@
         <v>5.018655247E9</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="G19" s="20">
         <v>258000.0</v>
@@ -8171,15 +8047,15 @@
         <v>44013.0</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="K19" s="35"/>
       <c r="L19" s="19"/>
       <c r="M19" s="19" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="N19" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O19" s="23"/>
       <c r="P19" s="23"/>
@@ -8197,16 +8073,16 @@
         <v>6.878093775E9</v>
       </c>
       <c r="C20" s="53" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D20" s="53" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E20" s="53" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="F20" s="53" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="G20" s="54">
         <v>529000.0</v>
@@ -8216,15 +8092,15 @@
         <v>44682.0</v>
       </c>
       <c r="J20" s="53" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="K20" s="53"/>
       <c r="L20" s="53"/>
       <c r="M20" s="53" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="N20" s="53" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O20" s="57"/>
       <c r="P20" s="57"/>
@@ -8233,7 +8109,7 @@
       <c r="S20" s="57"/>
       <c r="T20" s="53"/>
       <c r="U20" s="62" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -8275,7 +8151,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.75"/>
+    <col customWidth="1" min="1" max="1" width="6.38"/>
     <col customWidth="1" min="2" max="2" width="11.75"/>
     <col customWidth="1" min="3" max="3" width="16.38"/>
     <col customWidth="1" min="4" max="4" width="11.75"/>
@@ -8324,25 +8200,25 @@
         <v>11</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="M1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -8353,16 +8229,16 @@
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G2" s="10">
         <v>69000.0</v>
@@ -8372,19 +8248,19 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q2" s="34"/>
     </row>
@@ -8396,16 +8272,16 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G3" s="20">
         <v>69000.0</v>
@@ -8415,19 +8291,19 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="19" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
       <c r="N3" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P3" s="19" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q3" s="25"/>
     </row>
@@ -8439,16 +8315,16 @@
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="G4" s="28">
         <v>121000.0</v>
@@ -8458,19 +8334,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q4" s="31"/>
     </row>
@@ -8482,16 +8358,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="G5" s="20">
         <v>89000.0</v>
@@ -8504,16 +8380,16 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="N5" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O5" s="19" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P5" s="19" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="25"/>
     </row>
@@ -8525,16 +8401,16 @@
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -8547,16 +8423,16 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="34"/>
     </row>
@@ -8568,16 +8444,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="G7" s="20">
         <v>225000.0</v>
@@ -8590,16 +8466,16 @@
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="Q7" s="25"/>
     </row>
@@ -8611,16 +8487,16 @@
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -8633,37 +8509,39 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="34" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
-      <c r="A9" s="18"/>
+      <c r="A9" s="18">
+        <v>8.0</v>
+      </c>
       <c r="B9" s="19">
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="G9" s="20">
         <v>398000.0</v>
@@ -8676,39 +8554,39 @@
       <c r="K9" s="19"/>
       <c r="L9" s="19"/>
       <c r="M9" s="19" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="N9" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O9" s="19" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="P9" s="19" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="Q9" s="25" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
       <c r="A10" s="63">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="B10" s="9">
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -8721,39 +8599,39 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="Q10" s="34" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="18">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B11" s="19">
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>433</v>
+        <v>415</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="G11" s="20">
         <v>789000.0</v>
@@ -8768,37 +8646,37 @@
       <c r="K11" s="35"/>
       <c r="L11" s="19"/>
       <c r="M11" s="19" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P11" s="19" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="25"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
       <c r="A12" s="63">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B12" s="9">
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>439</v>
+        <v>421</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>435</v>
+        <v>417</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -8811,37 +8689,37 @@
       <c r="K12" s="26"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>441</v>
+        <v>423</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>442</v>
+        <v>424</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="34"/>
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="18">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="B13" s="19">
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="G13" s="20">
         <v>989000.0</v>
@@ -8856,22 +8734,22 @@
       <c r="K13" s="35"/>
       <c r="L13" s="19"/>
       <c r="M13" s="19" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="P13" s="19" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="25"/>
     </row>
     <row r="14" ht="30.0" customHeight="1">
       <c r="A14" s="63">
-        <v>12.0</v>
+        <v>13.0</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -8892,7 +8770,7 @@
     </row>
     <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="18">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -8913,7 +8791,7 @@
     </row>
     <row r="16" ht="30.0" customHeight="1">
       <c r="A16" s="63">
-        <v>14.0</v>
+        <v>15.0</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -8934,7 +8812,7 @@
     </row>
     <row r="17" ht="30.0" customHeight="1">
       <c r="A17" s="18">
-        <v>15.0</v>
+        <v>16.0</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -9098,17 +8976,17 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="76"/>
       <c r="B2" s="77" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="C2" s="78" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>451</v>
+        <v>433</v>
       </c>
       <c r="E2" s="76"/>
       <c r="F2" s="80" t="s">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
@@ -9123,14 +9001,14 @@
         <v>45671.0</v>
       </c>
       <c r="C3" s="85" t="s">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="E3" s="76"/>
       <c r="F3" s="87" t="s">
-        <v>455</v>
+        <v>437</v>
       </c>
       <c r="G3" s="88"/>
       <c r="H3" s="88"/>
@@ -9145,17 +9023,17 @@
         <v>45671.0</v>
       </c>
       <c r="C4" s="85" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D4" s="92" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="E4" s="76"/>
       <c r="F4" s="93" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="94" t="s">
-        <v>458</v>
+        <v>440</v>
       </c>
       <c r="K4" s="95"/>
       <c r="L4" s="90"/>
@@ -9166,17 +9044,17 @@
         <v>45669.0</v>
       </c>
       <c r="C5" s="85" t="s">
-        <v>459</v>
+        <v>441</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>460</v>
+        <v>442</v>
       </c>
       <c r="E5" s="76"/>
       <c r="F5" s="93" t="s">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="G5" s="94" t="s">
-        <v>462</v>
+        <v>444</v>
       </c>
       <c r="K5" s="95"/>
       <c r="L5" s="90"/>
@@ -9187,17 +9065,17 @@
         <v>45671.0</v>
       </c>
       <c r="C6" s="85" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>463</v>
+        <v>445</v>
       </c>
       <c r="E6" s="76"/>
       <c r="F6" s="93" t="s">
-        <v>464</v>
+        <v>446</v>
       </c>
       <c r="G6" s="94" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="K6" s="95"/>
       <c r="L6" s="90"/>
@@ -9208,17 +9086,17 @@
         <v>45672.0</v>
       </c>
       <c r="C7" s="85" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="E7" s="76"/>
       <c r="F7" s="93" t="s">
-        <v>467</v>
+        <v>449</v>
       </c>
       <c r="G7" s="94" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="K7" s="95"/>
       <c r="L7" s="90"/>
@@ -9229,15 +9107,15 @@
         <v>45674.0</v>
       </c>
       <c r="C8" s="85" t="s">
-        <v>456</v>
+        <v>438</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>469</v>
+        <v>451</v>
       </c>
       <c r="E8" s="76"/>
       <c r="F8" s="93"/>
       <c r="G8" s="94" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="K8" s="95"/>
       <c r="L8" s="90"/>
@@ -9248,17 +9126,17 @@
         <v>45731.0</v>
       </c>
       <c r="C9" s="85" t="s">
-        <v>471</v>
+        <v>453</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>472</v>
+        <v>454</v>
       </c>
       <c r="E9" s="76"/>
       <c r="F9" s="93" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="G9" s="94" t="s">
-        <v>474</v>
+        <v>456</v>
       </c>
       <c r="K9" s="95"/>
       <c r="L9" s="90"/>
@@ -9270,10 +9148,10 @@
       <c r="D10" s="86"/>
       <c r="E10" s="76"/>
       <c r="F10" s="93" t="s">
-        <v>475</v>
+        <v>457</v>
       </c>
       <c r="G10" s="94" t="s">
-        <v>476</v>
+        <v>458</v>
       </c>
       <c r="K10" s="95"/>
       <c r="L10" s="90"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -404,7 +404,7 @@
     <t>#000000,#FFFFFF</t>
   </si>
   <si>
-    <t>products/forerunner165/basic-43mm-black.,pngproducts/forerunner165/basic-43mm-white.png</t>
+    <t>products/forerunner165/basic-43mm-black.png,products/forerunner165/basic-43mm-white.png</t>
   </si>
   <si>
     <t>Forerunner 265</t>
@@ -2793,7 +2793,7 @@
     <col customWidth="1" min="9" max="9" width="12.25"/>
     <col customWidth="1" min="10" max="10" width="14.88"/>
     <col customWidth="1" min="11" max="11" width="13.88"/>
-    <col customWidth="1" min="12" max="12" width="21.63"/>
+    <col customWidth="1" min="12" max="12" width="63.88"/>
     <col customWidth="1" min="13" max="14" width="13.88"/>
     <col customWidth="1" min="15" max="15" width="9.5"/>
     <col customWidth="1" min="16" max="16" width="14.25"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -65,7 +65,7 @@
     <t>release</t>
   </si>
   <si>
-    <t>main_img</t>
+    <t>image</t>
   </si>
   <si>
     <t>displayType</t>
@@ -2476,7 +2476,7 @@
     <tableColumn name="price" id="9"/>
     <tableColumn name="discount" id="10"/>
     <tableColumn name="release" id="11"/>
-    <tableColumn name="main_img" id="12"/>
+    <tableColumn name="image" id="12"/>
     <tableColumn name="displayType" id="13"/>
     <tableColumn name="displaySize" id="14"/>
     <tableColumn name="touch" id="15"/>
@@ -2520,7 +2520,7 @@
     <tableColumn name="price" id="7"/>
     <tableColumn name="discount" id="8"/>
     <tableColumn name="release" id="9"/>
-    <tableColumn name="main_img" id="10"/>
+    <tableColumn name="image" id="10"/>
     <tableColumn name="displayType" id="11"/>
     <tableColumn name="displaySize" id="12"/>
     <tableColumn name="weight" id="13"/>
@@ -2549,7 +2549,7 @@
     <tableColumn name="price" id="7"/>
     <tableColumn name="discount" id="8"/>
     <tableColumn name="release" id="9"/>
-    <tableColumn name="main_img" id="10"/>
+    <tableColumn name="image" id="10"/>
     <tableColumn name="displayType" id="11"/>
     <tableColumn name="displaySize" id="12"/>
     <tableColumn name="weight" id="13"/>
@@ -2793,7 +2793,7 @@
     <col customWidth="1" min="9" max="9" width="12.25"/>
     <col customWidth="1" min="10" max="10" width="14.88"/>
     <col customWidth="1" min="11" max="11" width="13.88"/>
-    <col customWidth="1" min="12" max="12" width="63.88"/>
+    <col customWidth="1" min="12" max="12" width="29.25"/>
     <col customWidth="1" min="13" max="14" width="13.88"/>
     <col customWidth="1" min="15" max="15" width="9.5"/>
     <col customWidth="1" min="16" max="16" width="14.25"/>
@@ -4451,7 +4451,7 @@
       </c>
       <c r="J15" s="21"/>
       <c r="K15" s="22">
-        <v>45906.0</v>
+        <v>45541.0</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>152</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -6,7 +6,8 @@
     <sheet state="visible" name="Watch" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Cycling" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sensor" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="⛔  Notice" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="시트4" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="⛔  Notice" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -164,7 +165,7 @@
     <t>51mm</t>
   </si>
   <si>
-    <t>products/fenix8/amoled-51mm-orange.png,products/fenix8/amoled-51mm-black.png</t>
+    <t>products/fenix8/amoled-51mm-black.png,products/fenix8/amoled-51mm-orange.png</t>
   </si>
   <si>
     <t>컬러 AMOLED</t>
@@ -200,7 +201,7 @@
     <t>47mm</t>
   </si>
   <si>
-    <t>products/fenix8/amoled-47mm-orange.png,products/fenix8/amoled-47mm-black.png</t>
+    <t>products/fenix8/amoled-47mm-black.png,products/fenix8/amoled-47mm-orange.png</t>
   </si>
   <si>
     <t>80g</t>
@@ -590,7 +591,7 @@
     <t>45mm</t>
   </si>
   <si>
-    <t>products/descentG1/solar-45mm-ocean.png,products/descentG1/solar-45mm-black.png</t>
+    <t>products/descentG1/solar-45mm-black.png,products/descentG1/solar-45mm-ocean.png</t>
   </si>
   <si>
     <t>흑백 MIP</t>
@@ -869,7 +870,7 @@
     <t>#000000,#a59c7f</t>
   </si>
   <si>
-    <t>products/instinct2X/tactical-50mm-coyotetan.png,products/instinct2X/tactical-50mm-black.png</t>
+    <t>products/instinct2X/tactical-50mm-black.png,products/instinct2X/tactical-50mm-coyotetan.png</t>
   </si>
   <si>
     <t>Lily 2 Active</t>
@@ -2462,6 +2463,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AL36" displayName="표2" name="표2" id="1">
   <tableColumns count="38">
@@ -2791,7 +2796,7 @@
     <col customWidth="1" min="7" max="7" width="12.88"/>
     <col customWidth="1" min="8" max="8" width="8.13"/>
     <col customWidth="1" min="9" max="9" width="12.25"/>
-    <col customWidth="1" min="10" max="10" width="14.88"/>
+    <col customWidth="1" min="10" max="10" width="13.25"/>
     <col customWidth="1" min="11" max="11" width="13.88"/>
     <col customWidth="1" min="12" max="12" width="29.25"/>
     <col customWidth="1" min="13" max="14" width="13.88"/>
@@ -8948,6 +8953,20 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="2" width="12.38"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1051" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="448">
   <si>
     <t>id</t>
   </si>
@@ -238,12 +238,6 @@
     <t>Golf App 구독 시</t>
   </si>
   <si>
-    <t>29일</t>
-  </si>
-  <si>
-    <t>84시간</t>
-  </si>
-  <si>
     <t>Fenix 8 AMOLED (47mm)</t>
   </si>
   <si>
@@ -259,12 +253,6 @@
     <t>퀵핏 22mm</t>
   </si>
   <si>
-    <t>16일</t>
-  </si>
-  <si>
-    <t>47시간</t>
-  </si>
-  <si>
     <t>Fenix 8 AMOLED (43mm)</t>
   </si>
   <si>
@@ -289,12 +277,6 @@
     <t>퀵핏 20mm</t>
   </si>
   <si>
-    <t>10일</t>
-  </si>
-  <si>
-    <t>28시간</t>
-  </si>
-  <si>
     <t>Fenix 8 SOLAR (51mm)</t>
   </si>
   <si>
@@ -313,12 +295,6 @@
     <t>95g</t>
   </si>
   <si>
-    <t>30일+@</t>
-  </si>
-  <si>
-    <t>95시간+@</t>
-  </si>
-  <si>
     <t>Fenix 8 SOLAR (47mm)</t>
   </si>
   <si>
@@ -328,12 +304,6 @@
     <t>products/fenix8/solar-47mm-black.png</t>
   </si>
   <si>
-    <t>21일+@</t>
-  </si>
-  <si>
-    <t>67시간+@</t>
-  </si>
-  <si>
     <t>Fenix 7 Pro - Sapphire Solar</t>
   </si>
   <si>
@@ -349,12 +319,6 @@
     <t>73g</t>
   </si>
   <si>
-    <t>22일+@</t>
-  </si>
-  <si>
-    <t>73시간+@</t>
-  </si>
-  <si>
     <t>Fenix E</t>
   </si>
   <si>
@@ -373,9 +337,6 @@
     <t>스테인리스</t>
   </si>
   <si>
-    <t>42시간</t>
-  </si>
-  <si>
     <t>Foreruuner 55</t>
   </si>
   <si>
@@ -418,646 +379,562 @@
     <t>섬유강화 플라스틱</t>
   </si>
   <si>
-    <t>14일</t>
+    <t>Forerunner 165 Music</t>
+  </si>
+  <si>
+    <t>블랙,화이트,아쿠아,라일락</t>
+  </si>
+  <si>
+    <t>#000000,#FFFFFF,#52d6d8,#df92ff</t>
+  </si>
+  <si>
+    <t>products/forerunner165/basic-43mm-black.png,products/forerunner165/basic-43mm-white.png,products/forerunner165/music-43mm-aqua.png,products/forerunner165/music-43mm-lilac.png</t>
+  </si>
+  <si>
+    <t>1.2” (30.4 mm)</t>
+  </si>
+  <si>
+    <t>4GB</t>
+  </si>
+  <si>
+    <t>39g</t>
+  </si>
+  <si>
+    <t>퀵릴리즈 20mm</t>
+  </si>
+  <si>
+    <t>Forerunner 165</t>
+  </si>
+  <si>
+    <t>블랙,화이트</t>
+  </si>
+  <si>
+    <t>#000000,#FFFFFF</t>
+  </si>
+  <si>
+    <t>products/forerunner165/basic-43mm-black.png,products/forerunner165/basic-43mm-white.png</t>
+  </si>
+  <si>
+    <t>Forerunner 265</t>
+  </si>
+  <si>
+    <t>러닝,멀티스포츠</t>
+  </si>
+  <si>
+    <t>블랙,화이트,아쿠아</t>
+  </si>
+  <si>
+    <t>#000000,#FFFFFF,#52d6d8</t>
+  </si>
+  <si>
+    <t>46mm</t>
+  </si>
+  <si>
+    <t>products/forerunner265/basic-46mm-black.png,products/forerunner265/basic-46mm-white.png,products/forerunner265/basic-46mm-aqua.png,</t>
+  </si>
+  <si>
+    <t>1.3” (32.5 mm)</t>
+  </si>
+  <si>
+    <t>8GB</t>
+  </si>
+  <si>
+    <t>47g</t>
+  </si>
+  <si>
+    <t>Forerunner 265s</t>
+  </si>
+  <si>
+    <t>블랙,화이트,핑크</t>
+  </si>
+  <si>
+    <t>#000000,#FFFFFF,#ff9ec0</t>
+  </si>
+  <si>
+    <t>products/forerunner265/s-46mm-black.png,products/forerunner265/s-42mm-white.png,products/forerunner265/s-46mm-pink.png</t>
+  </si>
+  <si>
+    <t>1.1” (28.1 mm)</t>
+  </si>
+  <si>
+    <t>퀵릴리즈18mm</t>
+  </si>
+  <si>
+    <t>Forerunner 965</t>
+  </si>
+  <si>
+    <t>멀티스포츠</t>
+  </si>
+  <si>
+    <t>멀티스포츠 GPS 스마트워치</t>
+  </si>
+  <si>
+    <t>블랙,화이트,앰프옐로우</t>
+  </si>
+  <si>
+    <t>#000000,#FFFFFF,#f9ff4d</t>
+  </si>
+  <si>
+    <t>products/forerunner965/basic-47mm-black.png,products/forerunner965/basic-47mm-white.png,products/forerunner965/basic-47mm-ampyellow.png</t>
+  </si>
+  <si>
+    <t>1.4” (35.4 mm)</t>
+  </si>
+  <si>
+    <t>53g</t>
+  </si>
+  <si>
+    <t>Enduro 3</t>
+  </si>
+  <si>
+    <t>products/enduro3/solar-51mm-black.png</t>
+  </si>
+  <si>
+    <t>63g</t>
+  </si>
+  <si>
+    <t>Approach S70 (47mm)</t>
+  </si>
+  <si>
+    <t>골프</t>
+  </si>
+  <si>
+    <t>프리미엄 GPS 골프 스마트워치</t>
+  </si>
+  <si>
+    <t>products/approachs70/basic-47mm-black.png,products/approachS70/basic-42mm-white.png</t>
+  </si>
+  <si>
+    <t>1.4” (35.41 mm)</t>
+  </si>
+  <si>
+    <t>56g</t>
+  </si>
+  <si>
+    <t>세라믹</t>
+  </si>
+  <si>
+    <t>Approach S70 GC (47mm)</t>
+  </si>
+  <si>
+    <t>products/approachs70/gc-47mm-black.png</t>
+  </si>
+  <si>
+    <t>Approach S70 GC (42mm)</t>
+  </si>
+  <si>
+    <t>그레이,화이트</t>
+  </si>
+  <si>
+    <t>#D8D8D8,#FFFFFF</t>
+  </si>
+  <si>
+    <t>products/approachs70/gc-42mm-gray.png,products/approachs70/gc-42mm-white.png</t>
+  </si>
+  <si>
+    <t>1.2”(32.02mm)</t>
+  </si>
+  <si>
+    <t>44g</t>
+  </si>
+  <si>
+    <t>Approach S50</t>
+  </si>
+  <si>
+    <t>고급 GPS 골프 스마트워치</t>
+  </si>
+  <si>
+    <t>블랙,아이보리</t>
+  </si>
+  <si>
+    <t>#000000,#FBF8EF</t>
+  </si>
+  <si>
+    <t>products/approachs50/basic-43mm-black.png,products/approachs50/basic-43mm-ivory.png</t>
+  </si>
+  <si>
+    <t>1.2”(30.4mm)</t>
+  </si>
+  <si>
+    <t>29g</t>
+  </si>
+  <si>
+    <t>산화 알루미늄</t>
+  </si>
+  <si>
+    <t>Descent G1 Solar</t>
+  </si>
+  <si>
+    <t>다이빙</t>
+  </si>
+  <si>
+    <t>고급 다이빙 GPS 스마트워치</t>
+  </si>
+  <si>
+    <t>블랙,오션에디션</t>
+  </si>
+  <si>
+    <t>#000000,#95e5ee</t>
+  </si>
+  <si>
+    <t>45mm</t>
+  </si>
+  <si>
+    <t>products/descentG1/solar-45mm-black.png,products/descentG1/solar-45mm-ocean.png</t>
+  </si>
+  <si>
+    <t>모노크롬</t>
+  </si>
+  <si>
+    <t>0.9”(23 x 23mm)</t>
+  </si>
+  <si>
+    <t>32MB</t>
+  </si>
+  <si>
+    <t>61g</t>
+  </si>
+  <si>
+    <t>10ATM 다이빙</t>
+  </si>
+  <si>
+    <t>100M</t>
+  </si>
+  <si>
+    <t>실리콘</t>
+  </si>
+  <si>
+    <t>별도센서 호환 시</t>
+  </si>
+  <si>
+    <t>Descent G2</t>
+  </si>
+  <si>
+    <t>블랙,쉘핑크</t>
+  </si>
+  <si>
+    <t>#000000,#ffb5a1</t>
+  </si>
+  <si>
+    <t>products/descentG2/basic-45mm-black.png,products/descentG2/basic-45mm-shellpink.png</t>
+  </si>
+  <si>
+    <t>강화섬유 해양 유입 플라스틱</t>
+  </si>
+  <si>
+    <t>Descent MK3</t>
+  </si>
+  <si>
+    <t>프리미엄 GPS 다이빙 스마트워치</t>
+  </si>
+  <si>
+    <t>그레이</t>
+  </si>
+  <si>
+    <t>#D8D8D8</t>
+  </si>
+  <si>
+    <t>products/descentMk3/basic-43mm-gray.png,products/descentMk3/basic-43mm-black.png</t>
+  </si>
+  <si>
+    <t>72g</t>
+  </si>
+  <si>
+    <t>20 ATM 다이빙</t>
+  </si>
+  <si>
+    <t>스테인리스 스틸</t>
+  </si>
+  <si>
+    <t>Descent MK3i (51mm)</t>
+  </si>
+  <si>
+    <t>products/descentMk3/i-51mm-black.png</t>
+  </si>
+  <si>
+    <t>105.6g</t>
+  </si>
+  <si>
+    <t>200M</t>
+  </si>
+  <si>
+    <t>Descent MK3i (43mm)</t>
+  </si>
+  <si>
+    <t>블랙,브론즈</t>
+  </si>
+  <si>
+    <t>#000000,#cba986</t>
+  </si>
+  <si>
+    <t>products/descentMk3/i-43mm-black.png,products/descentMk3/i-43mm-bronze.png</t>
+  </si>
+  <si>
+    <t>Descent X50i</t>
+  </si>
+  <si>
+    <t>프리미엄 GPS 다이빙 컴퓨터</t>
+  </si>
+  <si>
+    <t>3” (inch)</t>
+  </si>
+  <si>
+    <t>products/descentX50i/basic-3inch-black.png</t>
+  </si>
+  <si>
+    <t>3.0”</t>
+  </si>
+  <si>
+    <t>280g</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tactix 7</t>
+  </si>
+  <si>
+    <t>전술</t>
+  </si>
+  <si>
+    <t>프리미엄 GPS 전술 스마트워치</t>
+  </si>
+  <si>
+    <t>products/tactix7/basic-51mm-black.png</t>
+  </si>
+  <si>
+    <t>96g</t>
+  </si>
+  <si>
+    <t>10 ATM</t>
+  </si>
+  <si>
+    <t>Tactix 8</t>
+  </si>
+  <si>
+    <t>products/tactix8/basic-51mm-black.png</t>
+  </si>
+  <si>
+    <t>Instinct 3 AMOLED (45mm)</t>
+  </si>
+  <si>
+    <t>아웃도어</t>
+  </si>
+  <si>
+    <t>고급 아웃도어 GPS 스마트워치</t>
+  </si>
+  <si>
+    <t>products/instinct3/amoled-45mm-black.png</t>
+  </si>
+  <si>
+    <t>1.2” (30 mm)</t>
+  </si>
+  <si>
+    <t>Instinct 3 AMOLED (50mm)</t>
+  </si>
+  <si>
+    <t>50mm</t>
+  </si>
+  <si>
+    <t>products/instinct3/amoled-50mm-black.png</t>
+  </si>
+  <si>
+    <t>1.3” (33 mm)</t>
+  </si>
+  <si>
+    <t>59g</t>
+  </si>
+  <si>
+    <t>Instinct 3 Solar (45mm)</t>
+  </si>
+  <si>
+    <t>products/instinct3/solar-45mm-black.png</t>
+  </si>
+  <si>
+    <t>0.9” (23 mm)</t>
+  </si>
+  <si>
+    <t>52g</t>
+  </si>
+  <si>
+    <t>Instinct 3 Solar (50mm)</t>
+  </si>
+  <si>
+    <t>products/instinct3/solar-50mm-black.png</t>
+  </si>
+  <si>
+    <t>1.1” (27 mm)</t>
+  </si>
+  <si>
+    <t>58g</t>
+  </si>
+  <si>
+    <t>Instinct E (40mm)</t>
+  </si>
+  <si>
+    <t>아웃도어 GPS 스마트워치</t>
+  </si>
+  <si>
+    <t>40mm</t>
+  </si>
+  <si>
+    <t>products/instinctE/basic-40mm-black.png</t>
+  </si>
+  <si>
+    <t>0.86” (22 mm)</t>
+  </si>
+  <si>
+    <t>128MB</t>
+  </si>
+  <si>
+    <t>41g</t>
+  </si>
+  <si>
+    <t>Instinct E (45mm)</t>
+  </si>
+  <si>
+    <t>products/instinctE/basic-45mm-black.png,products/instinctE/basic-45mm-lime.png</t>
+  </si>
+  <si>
+    <t>48g</t>
+  </si>
+  <si>
+    <t>Instinct 2X solar</t>
+  </si>
+  <si>
+    <t>그라파이트</t>
+  </si>
+  <si>
+    <t>#2E2E2E</t>
+  </si>
+  <si>
+    <t>products/instinct2X/solar-50mm-graphite.png</t>
+  </si>
+  <si>
+    <t>64MB</t>
+  </si>
+  <si>
+    <t>67g</t>
+  </si>
+  <si>
+    <t>Instinct 2X solar - Tactical</t>
+  </si>
+  <si>
+    <t>블랙,코요테탄</t>
+  </si>
+  <si>
+    <t>#000000,#a59c7f</t>
+  </si>
+  <si>
+    <t>products/instinct2X/tactical-50mm-black.png,products/instinct2X/tactical-50mm-coyotetan.png</t>
+  </si>
+  <si>
+    <t>Lily 2 Active</t>
+  </si>
+  <si>
+    <t>웰니스</t>
+  </si>
+  <si>
+    <t>피트니스 GPS 스마트워치</t>
+  </si>
+  <si>
+    <t>재스퍼그린, 퍼플자스민, 루나골드</t>
+  </si>
+  <si>
+    <t>#0B6138,#E3CEF6,#FBF8EF</t>
+  </si>
+  <si>
+    <t>38mm</t>
+  </si>
+  <si>
+    <t>products/lily2/active-38mm-green.png,products/lily2/active-38mm-purple.png,products/lily2/active-38mm-gold.png</t>
+  </si>
+  <si>
+    <t>Grayscale</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>1.00” x 0.84” (25.4 mm x 21.3 mm)</t>
+  </si>
+  <si>
+    <t>14일간의 활동 데이터</t>
+  </si>
+  <si>
+    <t>퀵릴리즈 18mm</t>
+  </si>
+  <si>
+    <t>voice</t>
+  </si>
+  <si>
+    <t>navigation</t>
+  </si>
+  <si>
+    <t>multiband</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>Edge 530</t>
+  </si>
+  <si>
+    <t>사이클링</t>
+  </si>
+  <si>
+    <t>GPS 사이클링 컴퓨터 속도계</t>
+  </si>
+  <si>
+    <t>57.8 x 85.1 x 19.6 mm</t>
+  </si>
+  <si>
+    <t>products/edge530/basic-black.png</t>
+  </si>
+  <si>
+    <t>컬러 MIP</t>
+  </si>
+  <si>
+    <t>2.6inch</t>
+  </si>
+  <si>
+    <t>75.8g</t>
+  </si>
+  <si>
+    <t>IPX7</t>
   </si>
   <si>
     <t>20시간</t>
   </si>
   <si>
-    <t>Forerunner 165 Music</t>
-  </si>
-  <si>
-    <t>블랙,화이트,아쿠아,라일락</t>
-  </si>
-  <si>
-    <t>#000000,#FFFFFF,#52d6d8,#df92ff</t>
-  </si>
-  <si>
-    <t>products/forerunner165/basic-43mm-black.png,products/forerunner165/basic-43mm-white.png,products/forerunner165/music-43mm-aqua.png,products/forerunner165/music-43mm-lilac.png</t>
-  </si>
-  <si>
-    <t>1.2” (30.4 mm)</t>
-  </si>
-  <si>
-    <t>4GB</t>
-  </si>
-  <si>
-    <t>39g</t>
-  </si>
-  <si>
-    <t>퀵릴리즈 20mm</t>
-  </si>
-  <si>
-    <t>11일</t>
-  </si>
-  <si>
-    <t>19시간</t>
-  </si>
-  <si>
-    <t>Forerunner 165</t>
-  </si>
-  <si>
-    <t>블랙,화이트</t>
-  </si>
-  <si>
-    <t>#000000,#FFFFFF</t>
-  </si>
-  <si>
-    <t>products/forerunner165/basic-43mm-black.png,products/forerunner165/basic-43mm-white.png</t>
-  </si>
-  <si>
-    <t>Forerunner 265</t>
-  </si>
-  <si>
-    <t>러닝,멀티스포츠</t>
-  </si>
-  <si>
-    <t>블랙,화이트,아쿠아</t>
-  </si>
-  <si>
-    <t>#000000,#FFFFFF,#52d6d8</t>
-  </si>
-  <si>
-    <t>46mm</t>
-  </si>
-  <si>
-    <t>products/forerunner265/basic-46mm-black.png,products/forerunner265/basic-46mm-white.png,products/forerunner265/basic-46mm-aqua.png,</t>
-  </si>
-  <si>
-    <t>1.3” (32.5 mm)</t>
-  </si>
-  <si>
-    <t>8GB</t>
-  </si>
-  <si>
-    <t>47g</t>
-  </si>
-  <si>
-    <t>13일</t>
-  </si>
-  <si>
-    <t>Forerunner 265s</t>
-  </si>
-  <si>
-    <t>블랙,화이트,핑크</t>
-  </si>
-  <si>
-    <t>#000000,#FFFFFF,#ff9ec0</t>
-  </si>
-  <si>
-    <t>products/forerunner265/s-46mm-black.png,products/forerunner265/s-42mm-white.png,products/forerunner265/s-46mm-pink.png</t>
-  </si>
-  <si>
-    <t>1.1” (28.1 mm)</t>
-  </si>
-  <si>
-    <t>퀵릴리즈18mm</t>
-  </si>
-  <si>
-    <t>15일</t>
-  </si>
-  <si>
-    <t>24시간</t>
-  </si>
-  <si>
-    <t>Forerunner 965</t>
-  </si>
-  <si>
-    <t>멀티스포츠</t>
-  </si>
-  <si>
-    <t>멀티스포츠 GPS 스마트워치</t>
-  </si>
-  <si>
-    <t>블랙,화이트,앰프옐로우</t>
-  </si>
-  <si>
-    <t>#000000,#FFFFFF,#f9ff4d</t>
-  </si>
-  <si>
-    <t>products/forerunner965/basic-47mm-black.png,products/forerunner965/basic-47mm-white.png,products/forerunner965/basic-47mm-ampyellow.png</t>
-  </si>
-  <si>
-    <t>1.4” (35.4 mm)</t>
-  </si>
-  <si>
-    <t>53g</t>
-  </si>
-  <si>
-    <t>23일</t>
-  </si>
-  <si>
-    <t>31시간</t>
-  </si>
-  <si>
-    <t>Enduro 3</t>
-  </si>
-  <si>
-    <t>products/enduro3/solar-51mm-black.png</t>
-  </si>
-  <si>
-    <t>63g</t>
-  </si>
-  <si>
-    <t>36일+@</t>
-  </si>
-  <si>
-    <t>120시간+@</t>
-  </si>
-  <si>
-    <t>Approach S70 (47mm)</t>
-  </si>
-  <si>
-    <t>골프</t>
-  </si>
-  <si>
-    <t>프리미엄 GPS 골프 스마트워치</t>
-  </si>
-  <si>
-    <t>products/approachs70/basic-47mm-black.png,products/approachS70/basic-42mm-white.png</t>
-  </si>
-  <si>
-    <t>1.4” (35.41 mm)</t>
-  </si>
-  <si>
-    <t>56g</t>
-  </si>
-  <si>
-    <t>세라믹</t>
-  </si>
-  <si>
-    <t>15시간</t>
-  </si>
-  <si>
-    <t>Approach S70 GC (47mm)</t>
-  </si>
-  <si>
-    <t>products/approachs70/gc-47mm-black.png</t>
-  </si>
-  <si>
-    <t>Approach S70 GC (42mm)</t>
-  </si>
-  <si>
-    <t>그레이,화이트</t>
-  </si>
-  <si>
-    <t>#D8D8D8,#FFFFFF</t>
-  </si>
-  <si>
-    <t>products/approachs70/gc-42mm-gray.png,products/approachs70/gc-42mm-white.png</t>
-  </si>
-  <si>
-    <t>1.2”(32.02mm)</t>
-  </si>
-  <si>
-    <t>44g</t>
-  </si>
-  <si>
-    <t>Approach S50</t>
-  </si>
-  <si>
-    <t>고급 GPS 골프 스마트워치</t>
-  </si>
-  <si>
-    <t>블랙,아이보리</t>
-  </si>
-  <si>
-    <t>#000000,#FBF8EF</t>
-  </si>
-  <si>
-    <t>products/approachs50/basic-43mm-black.png,products/approachs50/basic-43mm-ivory.png</t>
-  </si>
-  <si>
-    <t>1.2”(30.4mm)</t>
-  </si>
-  <si>
-    <t>29g</t>
-  </si>
-  <si>
-    <t>산화 알루미늄</t>
-  </si>
-  <si>
-    <t>Descent G1 Solar</t>
-  </si>
-  <si>
-    <t>다이빙</t>
-  </si>
-  <si>
-    <t>고급 다이빙 GPS 스마트워치</t>
-  </si>
-  <si>
-    <t>블랙,오션에디션</t>
-  </si>
-  <si>
-    <t>#000000,#95e5ee</t>
-  </si>
-  <si>
-    <t>45mm</t>
-  </si>
-  <si>
-    <t>products/descentG1/solar-45mm-black.png,products/descentG1/solar-45mm-ocean.png</t>
-  </si>
-  <si>
-    <t>모노크롬</t>
-  </si>
-  <si>
-    <t>0.9”(23 x 23mm)</t>
-  </si>
-  <si>
-    <t>32MB</t>
-  </si>
-  <si>
-    <t>61g</t>
-  </si>
-  <si>
-    <t>10ATM 다이빙</t>
-  </si>
-  <si>
-    <t>100M</t>
-  </si>
-  <si>
-    <t>실리콘</t>
-  </si>
-  <si>
-    <t>별도센서 호환 시</t>
-  </si>
-  <si>
-    <t>26시간+@</t>
-  </si>
-  <si>
-    <t>Descent G2</t>
-  </si>
-  <si>
-    <t>블랙,쉘핑크</t>
-  </si>
-  <si>
-    <t>#000000,#ffb5a1</t>
-  </si>
-  <si>
-    <t>products/descentG2/basic-45mm-black.png,products/descentG2/basic-45mm-shellpink.png</t>
-  </si>
-  <si>
-    <t>강화섬유 해양 유입 플라스틱</t>
-  </si>
-  <si>
-    <t>Descent MK3</t>
-  </si>
-  <si>
-    <t>프리미엄 GPS 다이빙 스마트워치</t>
-  </si>
-  <si>
-    <t>그레이</t>
-  </si>
-  <si>
-    <t>#D8D8D8</t>
-  </si>
-  <si>
-    <t>products/descentMk3/basic-43mm-gray.png,products/descentMk3/basic-43mm-black.png</t>
-  </si>
-  <si>
-    <t>72g</t>
-  </si>
-  <si>
-    <t>20 ATM 다이빙</t>
-  </si>
-  <si>
-    <t>스테인리스 스틸</t>
-  </si>
-  <si>
-    <t>Descent MK3i (51mm)</t>
-  </si>
-  <si>
-    <t>products/descentMk3/i-51mm-black.png</t>
-  </si>
-  <si>
-    <t>105.6g</t>
-  </si>
-  <si>
-    <t>200M</t>
-  </si>
-  <si>
-    <t>25일</t>
-  </si>
-  <si>
-    <t>76시간</t>
-  </si>
-  <si>
-    <t>Descent MK3i (43mm)</t>
-  </si>
-  <si>
-    <t>블랙,브론즈</t>
-  </si>
-  <si>
-    <t>#000000,#cba986</t>
-  </si>
-  <si>
-    <t>products/descentMk3/i-43mm-black.png,products/descentMk3/i-43mm-bronze.png</t>
-  </si>
-  <si>
-    <t>Descent X50i</t>
-  </si>
-  <si>
-    <t>프리미엄 GPS 다이빙 컴퓨터</t>
-  </si>
-  <si>
-    <t>3” (inch)</t>
-  </si>
-  <si>
-    <t>products/descentX50i/basic-3inch-black.png</t>
-  </si>
-  <si>
-    <t>3.0”</t>
-  </si>
-  <si>
-    <t>280g</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>16시간</t>
-  </si>
-  <si>
-    <t>Tactix 7</t>
-  </si>
-  <si>
-    <t>전술</t>
-  </si>
-  <si>
-    <t>프리미엄 GPS 전술 스마트워치</t>
-  </si>
-  <si>
-    <t>products/tactix7/basic-51mm-black.png</t>
-  </si>
-  <si>
-    <t>96g</t>
-  </si>
-  <si>
-    <t>10 ATM</t>
-  </si>
-  <si>
-    <t>31일</t>
-  </si>
-  <si>
-    <t>82시간</t>
-  </si>
-  <si>
-    <t>Tactix 8</t>
-  </si>
-  <si>
-    <t>products/tactix8/basic-51mm-black.png</t>
-  </si>
-  <si>
-    <t>41일</t>
-  </si>
-  <si>
-    <t>Instinct 3 AMOLED (45mm)</t>
-  </si>
-  <si>
-    <t>아웃도어</t>
-  </si>
-  <si>
-    <t>고급 아웃도어 GPS 스마트워치</t>
-  </si>
-  <si>
-    <t>products/instinct3/amoled-45mm-black.png</t>
-  </si>
-  <si>
-    <t>1.2” (30 mm)</t>
-  </si>
-  <si>
-    <t>18일</t>
+    <t>Edge 540</t>
+  </si>
+  <si>
+    <t>products/edge540/basic-black.png</t>
+  </si>
+  <si>
+    <t>80.3g</t>
+  </si>
+  <si>
+    <t>26시간</t>
+  </si>
+  <si>
+    <t>Edge 540 Bundle</t>
+  </si>
+  <si>
+    <t>products/edge540/bundle-black.png</t>
+  </si>
+  <si>
+    <t>Edge 540 Solar</t>
+  </si>
+  <si>
+    <t>products/edge540/solar-black.png</t>
+  </si>
+  <si>
+    <t>84.9g</t>
   </si>
   <si>
     <t>32시간</t>
-  </si>
-  <si>
-    <t>Instinct 3 AMOLED (50mm)</t>
-  </si>
-  <si>
-    <t>50mm</t>
-  </si>
-  <si>
-    <t>products/instinct3/amoled-50mm-black.png</t>
-  </si>
-  <si>
-    <t>1.3” (33 mm)</t>
-  </si>
-  <si>
-    <t>59g</t>
-  </si>
-  <si>
-    <t>24일</t>
-  </si>
-  <si>
-    <t>40시간</t>
-  </si>
-  <si>
-    <t>Instinct 3 Solar (45mm)</t>
-  </si>
-  <si>
-    <t>products/instinct3/solar-45mm-black.png</t>
-  </si>
-  <si>
-    <t>0.9” (23 mm)</t>
-  </si>
-  <si>
-    <t>52g</t>
-  </si>
-  <si>
-    <t>28일+@</t>
-  </si>
-  <si>
-    <t>130시간+@</t>
-  </si>
-  <si>
-    <t>Instinct 3 Solar (50mm)</t>
-  </si>
-  <si>
-    <t>products/instinct3/solar-50mm-black.png</t>
-  </si>
-  <si>
-    <t>1.1” (27 mm)</t>
-  </si>
-  <si>
-    <t>58g</t>
-  </si>
-  <si>
-    <t>40일+@</t>
-  </si>
-  <si>
-    <t>260시간+@</t>
-  </si>
-  <si>
-    <t>Instinct E (40mm)</t>
-  </si>
-  <si>
-    <t>아웃도어 GPS 스마트워치</t>
-  </si>
-  <si>
-    <t>40mm</t>
-  </si>
-  <si>
-    <t>products/instinctE/basic-40mm-black.png</t>
-  </si>
-  <si>
-    <t>0.86” (22 mm)</t>
-  </si>
-  <si>
-    <t>128MB</t>
-  </si>
-  <si>
-    <t>41g</t>
-  </si>
-  <si>
-    <t>21시간</t>
-  </si>
-  <si>
-    <t>Instinct E (45mm)</t>
-  </si>
-  <si>
-    <t>products/instinctE/basic-45mm-black.png,products/instinctE/basic-45mm-lime.png</t>
-  </si>
-  <si>
-    <t>48g</t>
-  </si>
-  <si>
-    <t>Instinct 2X solar</t>
-  </si>
-  <si>
-    <t>그라파이트</t>
-  </si>
-  <si>
-    <t>#2E2E2E</t>
-  </si>
-  <si>
-    <t>products/instinct2X/solar-50mm-graphite.png</t>
-  </si>
-  <si>
-    <t>64MB</t>
-  </si>
-  <si>
-    <t>67g</t>
-  </si>
-  <si>
-    <t>145시간+@</t>
-  </si>
-  <si>
-    <t>Instinct 2X solar - Tactical</t>
-  </si>
-  <si>
-    <t>블랙,코요테탄</t>
-  </si>
-  <si>
-    <t>#000000,#a59c7f</t>
-  </si>
-  <si>
-    <t>products/instinct2X/tactical-50mm-black.png,products/instinct2X/tactical-50mm-coyotetan.png</t>
-  </si>
-  <si>
-    <t>Lily 2 Active</t>
-  </si>
-  <si>
-    <t>웰니스</t>
-  </si>
-  <si>
-    <t>피트니스 GPS 스마트워치</t>
-  </si>
-  <si>
-    <t>재스퍼그린, 퍼플자스민, 루나골드</t>
-  </si>
-  <si>
-    <t>#0B6138,#E3CEF6,#FBF8EF</t>
-  </si>
-  <si>
-    <t>38mm</t>
-  </si>
-  <si>
-    <t>products/lily2/active-38mm-green.png,products/lily2/active-38mm-purple.png,products/lily2/active-38mm-gold.png</t>
-  </si>
-  <si>
-    <t>Grayscale</t>
-  </si>
-  <si>
-    <t>LCD</t>
-  </si>
-  <si>
-    <t>1.00” x 0.84” (25.4 mm x 21.3 mm)</t>
-  </si>
-  <si>
-    <t>14일간의 활동 데이터</t>
-  </si>
-  <si>
-    <t>퀵릴리즈 18mm</t>
-  </si>
-  <si>
-    <t>9시간</t>
-  </si>
-  <si>
-    <t>voice</t>
-  </si>
-  <si>
-    <t>navigation</t>
-  </si>
-  <si>
-    <t>multiband</t>
-  </si>
-  <si>
-    <t>etc</t>
-  </si>
-  <si>
-    <t>Edge 530</t>
-  </si>
-  <si>
-    <t>사이클링</t>
-  </si>
-  <si>
-    <t>GPS 사이클링 컴퓨터 속도계</t>
-  </si>
-  <si>
-    <t>57.8 x 85.1 x 19.6 mm</t>
-  </si>
-  <si>
-    <t>products/edge530/basic-black.png</t>
-  </si>
-  <si>
-    <t>컬러 MIP</t>
-  </si>
-  <si>
-    <t>2.6inch</t>
-  </si>
-  <si>
-    <t>75.8g</t>
-  </si>
-  <si>
-    <t>IPX7</t>
-  </si>
-  <si>
-    <t>Edge 540</t>
-  </si>
-  <si>
-    <t>products/edge540/basic-black.png</t>
-  </si>
-  <si>
-    <t>80.3g</t>
-  </si>
-  <si>
-    <t>26시간</t>
-  </si>
-  <si>
-    <t>Edge 540 Bundle</t>
-  </si>
-  <si>
-    <t>products/edge540/bundle-black.png</t>
-  </si>
-  <si>
-    <t>Edge 540 Solar</t>
-  </si>
-  <si>
-    <t>products/edge540/solar-black.png</t>
-  </si>
-  <si>
-    <t>84.9g</t>
   </si>
   <si>
     <t>Edge 840 Bundle</t>
@@ -2117,7 +1994,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2176,7 +2053,7 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2231,9 +2108,6 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2598,7 +2472,7 @@
     <tableColumn name="runningDynamics" id="44"/>
     <tableColumn name="greenContuer" id="45"/>
     <tableColumn name="pacePro" id="46"/>
-    <tableColumn name="tactical _x000a_" id="47"/>
+    <tableColumn name="tactical_x000a_" id="47"/>
     <tableColumn name="solar" id="48"/>
     <tableColumn name="smartwatch" id="49"/>
     <tableColumn name="gpsOnly" id="50"/>
@@ -3221,11 +3095,11 @@
       <c r="AV2" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW2" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="AX2" s="19" t="s">
-        <v>69</v>
+      <c r="AW2" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="AX2" s="19">
+        <v>84.0</v>
       </c>
     </row>
     <row r="3" ht="30.0" customHeight="1">
@@ -3236,7 +3110,7 @@
         <v>1.0842667031E10</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>51</v>
@@ -3251,7 +3125,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I3" s="22">
         <v>1690000.0</v>
@@ -3261,7 +3135,7 @@
         <v>45541.0</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>57</v>
@@ -3282,7 +3156,7 @@
         <v>61</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T3" s="26" t="s">
         <v>63</v>
@@ -3291,7 +3165,7 @@
         <v>64</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W3" s="21" t="s">
         <v>66</v>
@@ -3371,11 +3245,11 @@
       <c r="AV3" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW3" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX3" s="28" t="s">
-        <v>76</v>
+      <c r="AW3" s="21">
+        <v>16.0</v>
+      </c>
+      <c r="AX3" s="28">
+        <v>47.0</v>
       </c>
     </row>
     <row r="4" ht="30.0" customHeight="1">
@@ -3386,7 +3260,7 @@
         <v>1.0842671027E10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>51</v>
@@ -3395,13 +3269,13 @@
         <v>52</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I4" s="30">
         <v>1690000.0</v>
@@ -3411,7 +3285,7 @@
         <v>45541.0</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>57</v>
@@ -3423,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>60</v>
@@ -3432,7 +3306,7 @@
         <v>61</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="T4" s="31" t="s">
         <v>63</v>
@@ -3441,7 +3315,7 @@
         <v>64</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W4" s="33" t="s">
         <v>66</v>
@@ -3521,11 +3395,11 @@
       <c r="AV4" s="35" t="b">
         <v>0</v>
       </c>
-      <c r="AW4" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX4" s="36" t="s">
-        <v>86</v>
+      <c r="AW4" s="32">
+        <v>10.0</v>
+      </c>
+      <c r="AX4" s="36">
+        <v>28.0</v>
       </c>
     </row>
     <row r="5" ht="30.0" customHeight="1">
@@ -3536,7 +3410,7 @@
         <v>1.0842673386E10</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>51</v>
@@ -3545,10 +3419,10 @@
         <v>52</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>55</v>
@@ -3561,13 +3435,13 @@
         <v>45541.0</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>57</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O5" s="26" t="b">
         <v>1</v>
@@ -3582,7 +3456,7 @@
         <v>61</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="T5" s="26" t="s">
         <v>63</v>
@@ -3671,11 +3545,11 @@
       <c r="AV5" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AW5" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AX5" s="28" t="s">
-        <v>94</v>
+      <c r="AW5" s="21">
+        <v>30.0</v>
+      </c>
+      <c r="AX5" s="28">
+        <v>95.0</v>
       </c>
     </row>
     <row r="6" ht="30.0" customHeight="1">
@@ -3686,7 +3560,7 @@
         <v>1.0842674152E10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>51</v>
@@ -3695,13 +3569,13 @@
         <v>52</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I6" s="10">
         <v>1690000.0</v>
@@ -3711,19 +3585,19 @@
         <v>45541.0</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>57</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O6" s="14" t="b">
         <v>1</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>60</v>
@@ -3732,7 +3606,7 @@
         <v>61</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="T6" s="14" t="s">
         <v>63</v>
@@ -3741,7 +3615,7 @@
         <v>64</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>66</v>
@@ -3821,11 +3695,11 @@
       <c r="AV6" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AW6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX6" s="38" t="s">
-        <v>99</v>
+      <c r="AW6" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="AX6" s="19">
+        <v>67.0</v>
       </c>
     </row>
     <row r="7" ht="30.0" customHeight="1">
@@ -3836,22 +3710,22 @@
         <v>8.718519427E9</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I7" s="22">
         <v>1290000.0</v>
@@ -3863,19 +3737,19 @@
         <v>45059.0</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>57</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O7" s="26" t="b">
         <v>1</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="Q7" s="21" t="s">
         <v>60</v>
@@ -3884,14 +3758,14 @@
         <v>61</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="T7" s="26" t="s">
         <v>63</v>
       </c>
       <c r="U7" s="26"/>
       <c r="V7" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W7" s="21" t="s">
         <v>66</v>
@@ -3971,11 +3845,11 @@
       <c r="AV7" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AW7" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AX7" s="28" t="s">
-        <v>106</v>
+      <c r="AW7" s="21">
+        <v>22.0</v>
+      </c>
+      <c r="AX7" s="28">
+        <v>73.0</v>
       </c>
     </row>
     <row r="8" ht="30.0" customHeight="1">
@@ -3986,22 +3860,22 @@
         <v>1.0842671678E10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I8" s="10">
         <v>1190000.0</v>
@@ -4011,7 +3885,7 @@
         <v>45541.0</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>57</v>
@@ -4023,26 +3897,26 @@
         <v>1</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="R8" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>63</v>
       </c>
       <c r="U8" s="14"/>
       <c r="V8" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="X8" s="15" t="b">
         <v>1</v>
@@ -4119,11 +3993,11 @@
       <c r="AV8" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW8" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX8" s="38" t="s">
-        <v>113</v>
+      <c r="AW8" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="AX8" s="19">
+        <v>42.0</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -4134,22 +4008,22 @@
         <v>5.757072087E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I9" s="22">
         <v>239000.0</v>
@@ -4161,38 +4035,38 @@
         <v>44378.0</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>57</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O9" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="R9" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="W9" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X9" s="27" t="b">
         <v>1</v>
@@ -4269,11 +4143,11 @@
       <c r="AV9" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW9" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX9" s="28" t="s">
-        <v>129</v>
+      <c r="AW9" s="21">
+        <v>14.0</v>
+      </c>
+      <c r="AX9" s="28">
+        <v>20.0</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
@@ -4284,22 +4158,22 @@
         <v>1.0006844027E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E10" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>131</v>
-      </c>
       <c r="G10" s="9" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I10" s="10">
         <v>459000.0</v>
@@ -4309,7 +4183,7 @@
         <v>45323.0</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>57</v>
@@ -4321,26 +4195,26 @@
         <v>1</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X10" s="15" t="b">
         <v>1</v>
@@ -4417,11 +4291,11 @@
       <c r="AV10" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW10" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX10" s="38" t="s">
-        <v>139</v>
+      <c r="AW10" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="AX10" s="19">
+        <v>19.0</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -4432,22 +4306,22 @@
         <v>1.0006842669E10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I11" s="22">
         <v>399000.0</v>
@@ -4457,7 +4331,7 @@
         <v>45323.0</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>57</v>
@@ -4469,26 +4343,26 @@
         <v>1</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="W11" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X11" s="27" t="b">
         <v>1</v>
@@ -4565,11 +4439,11 @@
       <c r="AV11" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW11" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX11" s="28" t="s">
-        <v>139</v>
+      <c r="AW11" s="21">
+        <v>11.0</v>
+      </c>
+      <c r="AX11" s="28">
+        <v>19.0</v>
       </c>
     </row>
     <row r="12" ht="30.0" customHeight="1">
@@ -4580,22 +4454,22 @@
         <v>8.255898505E9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="I12" s="10">
         <v>589000.0</v>
@@ -4605,7 +4479,7 @@
         <v>44986.0</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>57</v>
@@ -4617,26 +4491,26 @@
         <v>1</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="R12" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X12" s="15" t="b">
         <v>1</v>
@@ -4713,11 +4587,11 @@
       <c r="AV12" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW12" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="AX12" s="38" t="s">
-        <v>129</v>
+      <c r="AW12" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="AX12" s="19">
+        <v>20.0</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -4728,22 +4602,22 @@
         <v>8.255898604E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="H13" s="21" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I13" s="22">
         <v>589000.0</v>
@@ -4753,7 +4627,7 @@
         <v>44986.0</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>57</v>
@@ -4765,26 +4639,26 @@
         <v>1</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="Q13" s="26" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="R13" s="26" t="s">
         <v>61</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="W13" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X13" s="27" t="b">
         <v>1</v>
@@ -4861,11 +4735,11 @@
       <c r="AV13" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW13" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="AX13" s="28" t="s">
-        <v>161</v>
+      <c r="AW13" s="21">
+        <v>15.0</v>
+      </c>
+      <c r="AX13" s="28">
+        <v>24.0</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
@@ -4876,22 +4750,22 @@
         <v>8.313796209E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I14" s="10">
         <v>819000.0</v>
@@ -4901,7 +4775,7 @@
         <v>44986.0</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>57</v>
@@ -4913,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="14" t="s">
         <v>60</v>
@@ -4922,14 +4796,14 @@
         <v>61</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W14" s="9" t="s">
         <v>66</v>
@@ -5009,11 +4883,11 @@
       <c r="AV14" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW14" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="AX14" s="38" t="s">
-        <v>171</v>
+      <c r="AW14" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="AX14" s="19">
+        <v>31.0</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -5024,7 +4898,7 @@
         <v>1.0842664841E10</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>51</v>
@@ -5033,10 +4907,10 @@
         <v>52</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>55</v>
@@ -5049,13 +4923,13 @@
         <v>45541.0</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>57</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O15" s="26" t="b">
         <v>1</v>
@@ -5070,7 +4944,7 @@
         <v>61</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="T15" s="26" t="s">
         <v>63</v>
@@ -5157,11 +5031,11 @@
       <c r="AV15" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AW15" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="AX15" s="28" t="s">
-        <v>176</v>
+      <c r="AW15" s="21">
+        <v>36.0</v>
+      </c>
+      <c r="AX15" s="28">
+        <v>120.0</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
@@ -5172,22 +5046,22 @@
         <v>8.78227228E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I16" s="10">
         <v>990000.0</v>
@@ -5197,7 +5071,7 @@
         <v>45105.0</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>57</v>
@@ -5209,26 +5083,26 @@
         <v>1</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>61</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="X16" s="15" t="b">
         <v>1</v>
@@ -5305,11 +5179,11 @@
       <c r="AV16" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW16" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX16" s="38" t="s">
-        <v>184</v>
+      <c r="AW16" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="AX16" s="19">
+        <v>15.0</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -5320,22 +5194,22 @@
         <v>1.012849087E10</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="22">
         <v>1040000.0</v>
@@ -5345,7 +5219,7 @@
         <v>45105.0</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>57</v>
@@ -5357,26 +5231,26 @@
         <v>1</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="R17" s="21" t="s">
         <v>61</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W17" s="21" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="X17" s="27" t="b">
         <v>1</v>
@@ -5453,11 +5327,11 @@
       <c r="AV17" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW17" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX17" s="28" t="s">
-        <v>184</v>
+      <c r="AW17" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="AX17" s="28">
+        <v>15.0</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
@@ -5468,22 +5342,22 @@
         <v>1.0128490872E10</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>188</v>
+        <v>163</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="I18" s="10">
         <v>998000.0</v>
@@ -5493,7 +5367,7 @@
         <v>45105.0</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>57</v>
@@ -5505,26 +5379,26 @@
         <v>1</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="Q18" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="R18" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="R18" s="9" t="s">
-        <v>123</v>
-      </c>
       <c r="S18" s="9" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="X18" s="15" t="b">
         <v>1</v>
@@ -5601,11 +5475,11 @@
       <c r="AV18" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX18" s="38" t="s">
-        <v>129</v>
+      <c r="AW18" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="AX18" s="19">
+        <v>20.0</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -5616,22 +5490,22 @@
         <v>1.1549203117E10</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I19" s="22">
         <v>589000.0</v>
@@ -5641,7 +5515,7 @@
         <v>45720.0</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>57</v>
@@ -5653,26 +5527,26 @@
         <v>1</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="X19" s="27" t="b">
         <v>1</v>
@@ -5749,11 +5623,11 @@
       <c r="AV19" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW19" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX19" s="28" t="s">
-        <v>184</v>
+      <c r="AW19" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="AX19" s="28">
+        <v>15.0</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="1">
@@ -5764,22 +5638,22 @@
         <v>6.54177233E9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="I20" s="10">
         <v>849000.0</v>
@@ -5789,40 +5663,40 @@
         <v>45308.0</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>207</v>
+        <v>182</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O20" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P20" s="9" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="Q20" s="9" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="R20" s="9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="S20" s="9" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
       <c r="T20" s="9" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="U20" s="9" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="V20" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W20" s="9" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="X20" s="15" t="b">
         <v>1</v>
@@ -5885,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="AR20" s="9" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="AS20" s="17" t="b">
         <v>0</v>
@@ -5899,11 +5773,11 @@
       <c r="AV20" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AW20" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AX20" s="38" t="s">
-        <v>216</v>
+      <c r="AW20" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="AX20" s="19">
+        <v>26.0</v>
       </c>
     </row>
     <row r="21" ht="30.0" customHeight="1">
@@ -5914,22 +5788,22 @@
         <v>1.1466050722E10</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="I21" s="22">
         <v>1039000.0</v>
@@ -5939,7 +5813,7 @@
         <v>45701.0</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>57</v>
@@ -5951,28 +5825,28 @@
         <v>1</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="V21" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W21" s="21" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="X21" s="27" t="b">
         <v>1</v>
@@ -6049,11 +5923,11 @@
       <c r="AV21" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW21" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX21" s="28" t="s">
-        <v>86</v>
+      <c r="AW21" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="AX21" s="28">
+        <v>28.0</v>
       </c>
     </row>
     <row r="22" ht="30.0" customHeight="1">
@@ -6064,24 +5938,24 @@
         <v>9.832890652E9</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>202</v>
+        <v>196</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>224</v>
+        <v>197</v>
+      </c>
+      <c r="F22" s="38" t="s">
+        <v>198</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="40">
+        <v>76</v>
+      </c>
+      <c r="I22" s="39">
         <v>1790000.0</v>
       </c>
       <c r="J22" s="11"/>
@@ -6089,7 +5963,7 @@
         <v>45308.0</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>57</v>
@@ -6101,7 +5975,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>60</v>
@@ -6110,19 +5984,19 @@
         <v>61</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="X22" s="15" t="b">
         <v>1</v>
@@ -6199,11 +6073,11 @@
       <c r="AV22" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW22" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX22" s="38" t="s">
-        <v>86</v>
+      <c r="AW22" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="AX22" s="19">
+        <v>28.0</v>
       </c>
     </row>
     <row r="23" ht="30.0" customHeight="1">
@@ -6214,24 +6088,24 @@
         <v>9.855771903E9</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>202</v>
+        <v>204</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>223</v>
-      </c>
-      <c r="F23" s="41" t="s">
-        <v>88</v>
+        <v>197</v>
+      </c>
+      <c r="F23" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="I23" s="42">
+      <c r="I23" s="41">
         <v>2390000.0</v>
       </c>
       <c r="J23" s="23"/>
@@ -6239,7 +6113,7 @@
         <v>45308.0</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="M23" s="25" t="s">
         <v>57</v>
@@ -6260,13 +6134,13 @@
         <v>61</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="V23" s="21" t="s">
         <v>65</v>
@@ -6349,11 +6223,11 @@
       <c r="AV23" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW23" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="AX23" s="28" t="s">
-        <v>235</v>
+      <c r="AW23" s="21">
+        <v>25.0</v>
+      </c>
+      <c r="AX23" s="28">
+        <v>76.0</v>
       </c>
     </row>
     <row r="24" ht="30.0" customHeight="1">
@@ -6364,22 +6238,22 @@
         <v>5.0074635E7</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="39" t="s">
-        <v>202</v>
+        <v>208</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>177</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>237</v>
+        <v>197</v>
+      </c>
+      <c r="F24" s="38" t="s">
+        <v>209</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I24" s="30">
         <v>1990000.0</v>
@@ -6389,7 +6263,7 @@
         <v>45308.0</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>57</v>
@@ -6401,7 +6275,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>60</v>
@@ -6410,16 +6284,16 @@
         <v>61</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>227</v>
+        <v>201</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W24" s="9" t="s">
         <v>66</v>
@@ -6499,11 +6373,11 @@
       <c r="AV24" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW24" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="AX24" s="38" t="s">
-        <v>86</v>
+      <c r="AW24" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="AX24" s="19">
+        <v>28.0</v>
       </c>
     </row>
     <row r="25" ht="30.0" customHeight="1">
@@ -6514,24 +6388,24 @@
         <v>1.1310815985E10</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="D25" s="41" t="s">
-        <v>202</v>
+        <v>212</v>
+      </c>
+      <c r="D25" s="40" t="s">
+        <v>177</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>241</v>
-      </c>
-      <c r="F25" s="41" t="s">
-        <v>88</v>
+        <v>213</v>
+      </c>
+      <c r="F25" s="40" t="s">
+        <v>82</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" s="41" t="s">
-        <v>242</v>
-      </c>
-      <c r="I25" s="43">
+        <v>83</v>
+      </c>
+      <c r="H25" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="I25" s="42">
         <v>2190000.0</v>
       </c>
       <c r="J25" s="23"/>
@@ -6539,7 +6413,7 @@
         <v>45638.0</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>57</v>
@@ -6551,7 +6425,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>244</v>
+        <v>216</v>
       </c>
       <c r="Q25" s="21" t="s">
         <v>60</v>
@@ -6560,19 +6434,19 @@
         <v>61</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W25" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X25" s="16" t="b">
         <v>0</v>
@@ -6650,10 +6524,10 @@
         <v>0</v>
       </c>
       <c r="AW25" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="AX25" s="28" t="s">
-        <v>247</v>
+        <v>218</v>
+      </c>
+      <c r="AX25" s="28">
+        <v>16.0</v>
       </c>
     </row>
     <row r="26" ht="30.0" customHeight="1">
@@ -6664,19 +6538,19 @@
         <v>9.599823621E9</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>55</v>
@@ -6687,11 +6561,11 @@
       <c r="J26" s="11">
         <v>1490000.0</v>
       </c>
-      <c r="K26" s="44">
+      <c r="K26" s="43">
         <v>45259.0</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>57</v>
@@ -6712,10 +6586,10 @@
         <v>61</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="9" t="s">
@@ -6799,11 +6673,11 @@
       <c r="AV26" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW26" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="AX26" s="38" t="s">
-        <v>255</v>
+      <c r="AW26" s="9">
+        <v>31.0</v>
+      </c>
+      <c r="AX26" s="19">
+        <v>82.0</v>
       </c>
     </row>
     <row r="27" ht="30.0" customHeight="1">
@@ -6814,19 +6688,19 @@
         <v>1.1520029652E10</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>55</v>
@@ -6839,7 +6713,7 @@
         <v>45692.0</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>57</v>
@@ -6863,7 +6737,7 @@
         <v>62</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U27" s="21" t="s">
         <v>64</v>
@@ -6949,11 +6823,11 @@
       <c r="AV27" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW27" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="AX27" s="28" t="s">
-        <v>69</v>
+      <c r="AW27" s="21">
+        <v>41.0</v>
+      </c>
+      <c r="AX27" s="28">
+        <v>84.0</v>
       </c>
     </row>
     <row r="28" ht="30.0" customHeight="1">
@@ -6964,32 +6838,32 @@
         <v>1.1427676811E10</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="I28" s="10">
         <v>669000.0</v>
       </c>
-      <c r="J28" s="45"/>
+      <c r="J28" s="44"/>
       <c r="K28" s="12">
         <v>45692.0</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>262</v>
+        <v>230</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>57</v>
@@ -7001,26 +6875,26 @@
         <v>0</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>263</v>
+        <v>231</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="R28" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X28" s="15" t="b">
         <v>1</v>
@@ -7097,11 +6971,11 @@
       <c r="AV28" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW28" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="AX28" s="38" t="s">
-        <v>265</v>
+      <c r="AW28" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="AX28" s="19">
+        <v>32.0</v>
       </c>
     </row>
     <row r="29" ht="30.0" customHeight="1">
@@ -7112,32 +6986,32 @@
         <v>1.1427677905E10</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="I29" s="22">
         <v>739000.0</v>
       </c>
-      <c r="J29" s="46"/>
+      <c r="J29" s="45"/>
       <c r="K29" s="24">
         <v>45692.0</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
       <c r="M29" s="25" t="s">
         <v>57</v>
@@ -7149,26 +7023,26 @@
         <v>0</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
       <c r="Q29" s="26" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="R29" s="26" t="s">
         <v>61</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21" t="s">
         <v>65</v>
       </c>
       <c r="W29" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X29" s="27" t="b">
         <v>1</v>
@@ -7245,11 +7119,11 @@
       <c r="AV29" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW29" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="AX29" s="28" t="s">
-        <v>272</v>
+      <c r="AW29" s="21">
+        <v>24.0</v>
+      </c>
+      <c r="AX29" s="28">
+        <v>40.0</v>
       </c>
     </row>
     <row r="30" ht="30.0" customHeight="1">
@@ -7260,63 +7134,63 @@
         <v>1.1427679735E10</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="I30" s="10">
         <v>589000.0</v>
       </c>
-      <c r="J30" s="45"/>
+      <c r="J30" s="44"/>
       <c r="K30" s="12">
         <v>45692.0</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O30" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="R30" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X30" s="15" t="b">
         <v>1</v>
@@ -7393,11 +7267,11 @@
       <c r="AV30" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AW30" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="AX30" s="38" t="s">
-        <v>278</v>
+      <c r="AW30" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="AX30" s="19">
+        <v>130.0</v>
       </c>
     </row>
     <row r="31" ht="30.0" customHeight="1">
@@ -7408,63 +7282,63 @@
         <v>1.1427682377E10</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>279</v>
+        <v>241</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>261</v>
+        <v>229</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="I31" s="22">
         <v>669000.0</v>
       </c>
-      <c r="J31" s="46"/>
+      <c r="J31" s="45"/>
       <c r="K31" s="24">
         <v>45692.0</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>280</v>
+        <v>242</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O31" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="Q31" s="26" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="R31" s="26" t="s">
         <v>61</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>282</v>
+        <v>244</v>
       </c>
       <c r="T31" s="21" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21" t="s">
         <v>65</v>
       </c>
       <c r="W31" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X31" s="27" t="b">
         <v>1</v>
@@ -7541,11 +7415,11 @@
       <c r="AV31" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AW31" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX31" s="28" t="s">
-        <v>284</v>
+      <c r="AW31" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="AX31" s="28">
+        <v>260.0</v>
       </c>
     </row>
     <row r="32" ht="30.0" customHeight="1">
@@ -7556,63 +7430,63 @@
         <v>1.1427671305E10</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="I32" s="10">
         <v>459000.0</v>
       </c>
-      <c r="J32" s="45"/>
+      <c r="J32" s="44"/>
       <c r="K32" s="12">
         <v>45692.0</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O32" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X32" s="15" t="b">
         <v>1</v>
@@ -7689,11 +7563,11 @@
       <c r="AV32" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW32" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX32" s="38" t="s">
-        <v>292</v>
+      <c r="AW32" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="AX32" s="19">
+        <v>21.0</v>
       </c>
     </row>
     <row r="33" ht="30.0" customHeight="1">
@@ -7704,63 +7578,63 @@
         <v>1.142777123E10</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="I33" s="22">
         <v>459000.0</v>
       </c>
-      <c r="J33" s="46"/>
+      <c r="J33" s="45"/>
       <c r="K33" s="24">
         <v>45692.0</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O33" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
       <c r="Q33" s="26" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="T33" s="21" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U33" s="21"/>
       <c r="V33" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="W33" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X33" s="27" t="b">
         <v>1</v>
@@ -7837,11 +7711,11 @@
       <c r="AV33" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AW33" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="AX33" s="28" t="s">
-        <v>161</v>
+      <c r="AW33" s="21">
+        <v>16.0</v>
+      </c>
+      <c r="AX33" s="28">
+        <v>24.0</v>
       </c>
     </row>
     <row r="34" ht="30.0" customHeight="1">
@@ -7852,22 +7726,22 @@
         <v>9.280896681E9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="I34" s="10">
         <v>599000.0</v>
@@ -7879,38 +7753,38 @@
         <v>45047.0</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O34" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="R34" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9" t="s">
         <v>65</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X34" s="15" t="b">
         <v>1</v>
@@ -7973,7 +7847,7 @@
         <v>1</v>
       </c>
       <c r="AR34" s="9" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="AS34" s="17" t="b">
         <v>0</v>
@@ -7987,11 +7861,11 @@
       <c r="AV34" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AW34" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX34" s="38" t="s">
-        <v>302</v>
+      <c r="AW34" s="9">
+        <v>40.0</v>
+      </c>
+      <c r="AX34" s="19">
+        <v>145.0</v>
       </c>
     </row>
     <row r="35" ht="30.0" customHeight="1">
@@ -8002,22 +7876,22 @@
         <v>5.0074641E7</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="I35" s="22">
         <v>719000.0</v>
@@ -8029,38 +7903,38 @@
         <v>45047.0</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="O35" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P35" s="21" t="s">
-        <v>281</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="26" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="R35" s="26" t="s">
         <v>61</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
       <c r="T35" s="21" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="U35" s="21"/>
       <c r="V35" s="21" t="s">
         <v>65</v>
       </c>
       <c r="W35" s="21" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="X35" s="27" t="b">
         <v>1</v>
@@ -8123,7 +7997,7 @@
         <v>1</v>
       </c>
       <c r="AR35" s="21" t="s">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="AS35" s="17" t="b">
         <v>0</v>
@@ -8137,159 +8011,159 @@
       <c r="AV35" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AW35" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="AX35" s="28" t="s">
-        <v>302</v>
+      <c r="AW35" s="21">
+        <v>40.0</v>
+      </c>
+      <c r="AX35" s="28">
+        <v>145.0</v>
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="1">
-      <c r="A36" s="47">
+      <c r="A36" s="46">
         <v>35.0</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="47">
         <v>1.1061289692E10</v>
       </c>
-      <c r="C36" s="49" t="s">
-        <v>307</v>
-      </c>
-      <c r="D36" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="E36" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="F36" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="G36" s="49" t="s">
-        <v>311</v>
-      </c>
-      <c r="H36" s="49" t="s">
-        <v>312</v>
-      </c>
-      <c r="I36" s="50">
+      <c r="C36" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D36" s="48" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36" s="48" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="48" t="s">
+        <v>268</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>269</v>
+      </c>
+      <c r="H36" s="48" t="s">
+        <v>270</v>
+      </c>
+      <c r="I36" s="49">
         <v>459000.0</v>
       </c>
-      <c r="J36" s="51"/>
-      <c r="K36" s="52">
+      <c r="J36" s="50"/>
+      <c r="K36" s="51">
         <v>45594.0</v>
       </c>
-      <c r="L36" s="49" t="s">
-        <v>313</v>
-      </c>
-      <c r="M36" s="49" t="s">
-        <v>314</v>
-      </c>
-      <c r="N36" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="O36" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="P36" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q36" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="R36" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="S36" s="49" t="s">
-        <v>199</v>
-      </c>
-      <c r="T36" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="U36" s="49"/>
-      <c r="V36" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="W36" s="49" t="s">
-        <v>200</v>
-      </c>
-      <c r="X36" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y36" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="55" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="54" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="56" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM36" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="58" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX36" s="59" t="s">
-        <v>319</v>
+      <c r="L36" s="48" t="s">
+        <v>271</v>
+      </c>
+      <c r="M36" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="N36" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="O36" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="P36" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q36" s="48" t="s">
+        <v>275</v>
+      </c>
+      <c r="R36" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="S36" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="T36" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="W36" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="X36" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG36" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="48">
+        <v>14.0</v>
+      </c>
+      <c r="AX36" s="58">
+        <v>9.0</v>
       </c>
     </row>
   </sheetData>
@@ -8403,39 +8277,39 @@
         <v>47</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="60">
+      <c r="A2" s="59">
         <v>1.0</v>
       </c>
       <c r="B2" s="9">
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -8447,19 +8321,19 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O2" s="17" t="b">
         <v>0</v>
@@ -8477,9 +8351,9 @@
         <v>0</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="U2" s="38"/>
+        <v>290</v>
+      </c>
+      <c r="U2" s="19"/>
     </row>
     <row r="3" ht="30.0" customHeight="1">
       <c r="A3" s="20">
@@ -8489,16 +8363,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>333</v>
+        <v>291</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="G3" s="22">
         <v>519000.0</v>
@@ -8508,19 +8382,19 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O3" s="17" t="b">
         <v>0</v>
@@ -8538,30 +8412,30 @@
         <v>1</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="U3" s="28"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="60">
+      <c r="A4" s="59">
         <v>3.0</v>
       </c>
       <c r="B4" s="32">
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="G4" s="61">
+        <v>284</v>
+      </c>
+      <c r="G4" s="60">
         <v>659000.0</v>
       </c>
       <c r="H4" s="11"/>
@@ -8569,19 +8443,19 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O4" s="17" t="b">
         <v>0</v>
@@ -8599,7 +8473,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
       <c r="U4" s="36"/>
     </row>
@@ -8611,16 +8485,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="G5" s="22">
         <v>659000.0</v>
@@ -8630,19 +8504,19 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O5" s="17" t="b">
         <v>0</v>
@@ -8660,28 +8534,28 @@
         <v>1</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="U5" s="28"/>
     </row>
     <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="60">
+      <c r="A6" s="59">
         <v>5.0</v>
       </c>
       <c r="B6" s="9">
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -8691,19 +8565,19 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>1</v>
@@ -8721,9 +8595,9 @@
         <v>1</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="U6" s="38"/>
+        <v>294</v>
+      </c>
+      <c r="U6" s="19"/>
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="20">
@@ -8733,16 +8607,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="G7" s="22">
         <v>799000.0</v>
@@ -8752,19 +8626,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O7" s="21" t="b">
         <v>1</v>
@@ -8782,28 +8656,28 @@
         <v>1</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="U7" s="28"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>7.0</v>
       </c>
       <c r="B8" s="9">
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -8815,19 +8689,19 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
@@ -8845,9 +8719,9 @@
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="U8" s="38"/>
+        <v>312</v>
+      </c>
+      <c r="U8" s="19"/>
     </row>
     <row r="9" ht="30.0" customHeight="1">
       <c r="A9" s="20">
@@ -8857,16 +8731,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="G9" s="22">
         <v>989000.0</v>
@@ -8878,19 +8752,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O9" s="21" t="b">
         <v>1</v>
@@ -8908,28 +8782,28 @@
         <v>1</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="U9" s="28"/>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>9.0</v>
       </c>
       <c r="B10" s="9">
         <v>1.0632515323E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="G10" s="10">
         <v>1089000.0</v>
@@ -8939,19 +8813,19 @@
         <v>45496.0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
@@ -8969,9 +8843,9 @@
         <v>1</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="U10" s="38"/>
+        <v>290</v>
+      </c>
+      <c r="U10" s="19"/>
     </row>
     <row r="11" ht="30.0" customHeight="1">
       <c r="A11" s="20">
@@ -8981,16 +8855,16 @@
         <v>1.0632516764E10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="G11" s="22">
         <v>1229000.0</v>
@@ -9000,19 +8874,19 @@
         <v>45496.0</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="K11" s="62" t="s">
-        <v>361</v>
+        <v>323</v>
+      </c>
+      <c r="K11" s="61" t="s">
+        <v>320</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O11" s="21" t="b">
         <v>1</v>
@@ -9030,28 +8904,28 @@
         <v>1</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="U11" s="28"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="60">
+      <c r="A12" s="59">
         <v>11.0</v>
       </c>
       <c r="B12" s="9">
         <v>6.471040307E9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="G12" s="10">
         <v>880000.0</v>
@@ -9063,12 +8937,12 @@
         <v>44256.0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -9077,10 +8951,10 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="U12" s="38" t="s">
-        <v>372</v>
+        <v>330</v>
+      </c>
+      <c r="U12" s="19" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -9091,16 +8965,16 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="G13" s="22">
         <v>1390000.0</v>
@@ -9112,12 +8986,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="K13" s="62"/>
+        <v>334</v>
+      </c>
+      <c r="K13" s="61"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="26"/>
@@ -9126,30 +9000,30 @@
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
       <c r="T13" s="21" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="60">
+      <c r="A14" s="59">
         <v>13.0</v>
       </c>
       <c r="B14" s="9">
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="G14" s="10">
         <v>880000.0</v>
@@ -9161,12 +9035,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -9175,10 +9049,10 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="U14" s="38" t="s">
-        <v>380</v>
+        <v>330</v>
+      </c>
+      <c r="U14" s="19" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -9189,16 +9063,16 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="G15" s="22">
         <v>1390000.0</v>
@@ -9210,12 +9084,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -9224,30 +9098,30 @@
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
       <c r="T15" s="21" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="60">
+      <c r="A16" s="59">
         <v>15.0</v>
       </c>
       <c r="B16" s="9">
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -9259,12 +9133,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -9273,10 +9147,10 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="9" t="s">
-        <v>371</v>
-      </c>
-      <c r="U16" s="38" t="s">
-        <v>388</v>
+        <v>330</v>
+      </c>
+      <c r="U16" s="19" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -9287,16 +9161,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="G17" s="22">
         <v>1590000.0</v>
@@ -9308,12 +9182,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="K17" s="62"/>
+        <v>349</v>
+      </c>
+      <c r="K17" s="61"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="26"/>
@@ -9322,30 +9196,30 @@
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="21" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="60">
+      <c r="A18" s="59">
         <v>17.0</v>
       </c>
       <c r="B18" s="9">
         <v>2.920696454E9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>392</v>
+        <v>351</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>393</v>
+        <v>352</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="G18" s="10">
         <v>199000.0</v>
@@ -9357,15 +9231,15 @@
         <v>42979.0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -9373,8 +9247,8 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="9"/>
-      <c r="U18" s="38" t="s">
-        <v>397</v>
+      <c r="U18" s="19" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -9385,16 +9259,16 @@
         <v>5.018655247E9</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>398</v>
+        <v>357</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>399</v>
-      </c>
-      <c r="F19" s="62" t="s">
-        <v>400</v>
+        <v>358</v>
+      </c>
+      <c r="F19" s="61" t="s">
+        <v>359</v>
       </c>
       <c r="G19" s="22">
         <v>258000.0</v>
@@ -9404,15 +9278,15 @@
         <v>44013.0</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="K19" s="62"/>
+        <v>360</v>
+      </c>
+      <c r="K19" s="61"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -9423,50 +9297,50 @@
       <c r="U19" s="28"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="63">
+      <c r="A20" s="62">
         <v>19.0</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <v>6.878093775E9</v>
       </c>
-      <c r="C20" s="49" t="s">
-        <v>403</v>
-      </c>
-      <c r="D20" s="49" t="s">
+      <c r="C20" s="48" t="s">
+        <v>362</v>
+      </c>
+      <c r="D20" s="48" t="s">
+        <v>325</v>
+      </c>
+      <c r="E20" s="48" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="48" t="s">
+        <v>364</v>
+      </c>
+      <c r="G20" s="49">
+        <v>529000.0</v>
+      </c>
+      <c r="H20" s="63"/>
+      <c r="I20" s="51">
+        <v>44682.0</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>365</v>
+      </c>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="E20" s="49" t="s">
-        <v>404</v>
-      </c>
-      <c r="F20" s="49" t="s">
-        <v>405</v>
-      </c>
-      <c r="G20" s="50">
-        <v>529000.0</v>
-      </c>
-      <c r="H20" s="64"/>
-      <c r="I20" s="52">
-        <v>44682.0</v>
-      </c>
-      <c r="J20" s="49" t="s">
-        <v>406</v>
-      </c>
-      <c r="K20" s="49"/>
-      <c r="L20" s="49"/>
-      <c r="M20" s="49" t="s">
-        <v>407</v>
-      </c>
-      <c r="N20" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="53"/>
-      <c r="S20" s="53"/>
-      <c r="T20" s="49"/>
-      <c r="U20" s="59" t="s">
-        <v>408</v>
+      <c r="N20" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="52"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="58" t="s">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -9569,33 +9443,33 @@
         <v>19</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>409</v>
+        <v>368</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="60">
+      <c r="A2" s="59">
         <v>1.0</v>
       </c>
       <c r="B2" s="9">
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>410</v>
+        <v>369</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>411</v>
+        <v>370</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="G2" s="10">
         <v>69000.0</v>
@@ -9605,21 +9479,21 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>412</v>
+        <v>371</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q2" s="38"/>
+        <v>373</v>
+      </c>
+      <c r="Q2" s="19"/>
     </row>
     <row r="3" ht="30.0" customHeight="1">
       <c r="A3" s="20">
@@ -9629,16 +9503,16 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="G3" s="22">
         <v>69000.0</v>
@@ -9648,42 +9522,42 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>417</v>
+        <v>376</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="60">
+      <c r="A4" s="59">
         <v>3.0</v>
       </c>
       <c r="B4" s="32">
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>418</v>
+        <v>377</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>419</v>
+        <v>378</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="G4" s="61">
+        <v>218</v>
+      </c>
+      <c r="G4" s="60">
         <v>121000.0</v>
       </c>
       <c r="H4" s="11"/>
@@ -9691,19 +9565,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="Q4" s="36"/>
     </row>
@@ -9715,16 +9589,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>421</v>
+        <v>380</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>424</v>
+        <v>383</v>
       </c>
       <c r="G5" s="22">
         <v>89000.0</v>
@@ -9737,37 +9611,37 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
     <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="60">
+      <c r="A6" s="59">
         <v>5.0</v>
       </c>
       <c r="B6" s="9">
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -9780,18 +9654,18 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q6" s="38"/>
+        <v>373</v>
+      </c>
+      <c r="Q6" s="19"/>
     </row>
     <row r="7" ht="30.0" customHeight="1">
       <c r="A7" s="20">
@@ -9801,16 +9675,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>422</v>
+        <v>381</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>423</v>
+        <v>382</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="G7" s="22">
         <v>225000.0</v>
@@ -9823,37 +9697,37 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="60">
+      <c r="A8" s="59">
         <v>7.0</v>
       </c>
       <c r="B8" s="9">
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -9866,19 +9740,19 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q8" s="38" t="s">
-        <v>437</v>
+        <v>395</v>
+      </c>
+      <c r="Q8" s="19" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -9889,16 +9763,16 @@
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="G9" s="22">
         <v>398000.0</v>
@@ -9911,39 +9785,39 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>413</v>
+        <v>372</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="60">
+      <c r="A10" s="59">
         <v>9.0</v>
       </c>
       <c r="B10" s="9">
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -9956,19 +9830,19 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q10" s="38" t="s">
-        <v>444</v>
+        <v>402</v>
+      </c>
+      <c r="Q10" s="19" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -9979,16 +9853,16 @@
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="G11" s="22">
         <v>789000.0</v>
@@ -10000,40 +9874,40 @@
         <v>43952.0</v>
       </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="62"/>
+      <c r="K11" s="61"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>129</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="28"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="60">
+      <c r="A12" s="59">
         <v>11.0</v>
       </c>
       <c r="B12" s="9">
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>447</v>
+        <v>406</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -10046,18 +9920,18 @@
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q12" s="38"/>
+        <v>290</v>
+      </c>
+      <c r="Q12" s="19"/>
     </row>
     <row r="13" ht="30.0" customHeight="1">
       <c r="A13" s="20">
@@ -10067,16 +9941,16 @@
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="G13" s="22">
         <v>989000.0</v>
@@ -10088,24 +9962,24 @@
         <v>44927.0</v>
       </c>
       <c r="J13" s="21"/>
-      <c r="K13" s="62"/>
+      <c r="K13" s="61"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="Q13" s="28"/>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="60">
+      <c r="A14" s="59">
         <v>13.0</v>
       </c>
       <c r="B14" s="9"/>
@@ -10123,7 +9997,7 @@
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
       <c r="P14" s="9"/>
-      <c r="Q14" s="38"/>
+      <c r="Q14" s="19"/>
     </row>
     <row r="15" ht="30.0" customHeight="1">
       <c r="A15" s="20">
@@ -10138,7 +10012,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="62"/>
+      <c r="K15" s="61"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -10147,7 +10021,7 @@
       <c r="Q15" s="28"/>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="60">
+      <c r="A16" s="59">
         <v>15.0</v>
       </c>
       <c r="B16" s="9"/>
@@ -10165,7 +10039,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
       <c r="P16" s="9"/>
-      <c r="Q16" s="38"/>
+      <c r="Q16" s="19"/>
     </row>
     <row r="17" ht="30.0" customHeight="1">
       <c r="A17" s="20">
@@ -10180,7 +10054,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="62"/>
+      <c r="K17" s="61"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -10189,7 +10063,7 @@
       <c r="Q17" s="28"/>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="60">
+      <c r="A18" s="59">
         <v>16.0</v>
       </c>
       <c r="B18" s="9"/>
@@ -10207,7 +10081,7 @@
       <c r="N18" s="9"/>
       <c r="O18" s="14"/>
       <c r="P18" s="9"/>
-      <c r="Q18" s="38"/>
+      <c r="Q18" s="19"/>
     </row>
     <row r="19" ht="30.0" customHeight="1">
       <c r="A19" s="20">
@@ -10222,7 +10096,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="62"/>
+      <c r="K19" s="61"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
@@ -10231,7 +10105,7 @@
       <c r="Q19" s="28"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="60">
+      <c r="A20" s="59">
         <v>18.0</v>
       </c>
       <c r="B20" s="9"/>
@@ -10249,28 +10123,28 @@
       <c r="N20" s="9"/>
       <c r="O20" s="14"/>
       <c r="P20" s="9"/>
-      <c r="Q20" s="38"/>
+      <c r="Q20" s="19"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="65">
+      <c r="A21" s="64">
         <v>19.0</v>
       </c>
-      <c r="B21" s="66"/>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="71"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="70"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:O21">
@@ -10331,423 +10205,423 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="72"/>
-      <c r="B1" s="72"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="L1" s="74"/>
+      <c r="A1" s="71"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="75"/>
-      <c r="B2" s="76" t="s">
-        <v>461</v>
-      </c>
-      <c r="C2" s="77" t="s">
-        <v>462</v>
-      </c>
-      <c r="D2" s="78" t="s">
-        <v>463</v>
-      </c>
-      <c r="E2" s="75"/>
-      <c r="F2" s="79" t="s">
-        <v>464</v>
-      </c>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="82"/>
+      <c r="A2" s="74"/>
+      <c r="B2" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="C2" s="76" t="s">
+        <v>421</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="78" t="s">
+        <v>423</v>
+      </c>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="81"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="75"/>
-      <c r="B3" s="83">
+      <c r="A3" s="74"/>
+      <c r="B3" s="82">
         <v>45671.0</v>
       </c>
-      <c r="C3" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="D3" s="85" t="s">
-        <v>466</v>
-      </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="86" t="s">
-        <v>467</v>
-      </c>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="88"/>
-      <c r="L3" s="89"/>
+      <c r="C3" s="83" t="s">
+        <v>424</v>
+      </c>
+      <c r="D3" s="84" t="s">
+        <v>425</v>
+      </c>
+      <c r="E3" s="74"/>
+      <c r="F3" s="85" t="s">
+        <v>426</v>
+      </c>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="90">
+      <c r="A4" s="74"/>
+      <c r="B4" s="89">
         <v>45671.0</v>
       </c>
-      <c r="C4" s="84" t="s">
-        <v>468</v>
-      </c>
-      <c r="D4" s="91" t="s">
-        <v>469</v>
-      </c>
-      <c r="E4" s="75"/>
-      <c r="F4" s="92" t="s">
+      <c r="C4" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="74"/>
+      <c r="F4" s="91" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="93" t="s">
-        <v>470</v>
-      </c>
-      <c r="K4" s="94"/>
-      <c r="L4" s="89"/>
+      <c r="G4" s="92" t="s">
+        <v>429</v>
+      </c>
+      <c r="K4" s="93"/>
+      <c r="L4" s="88"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="75"/>
-      <c r="B5" s="95">
+      <c r="A5" s="74"/>
+      <c r="B5" s="94">
         <v>45669.0</v>
       </c>
-      <c r="C5" s="84" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" s="96" t="s">
-        <v>472</v>
-      </c>
-      <c r="E5" s="75"/>
-      <c r="F5" s="92" t="s">
-        <v>473</v>
-      </c>
-      <c r="G5" s="93" t="s">
-        <v>474</v>
-      </c>
-      <c r="K5" s="94"/>
-      <c r="L5" s="89"/>
+      <c r="C5" s="83" t="s">
+        <v>430</v>
+      </c>
+      <c r="D5" s="95" t="s">
+        <v>431</v>
+      </c>
+      <c r="E5" s="74"/>
+      <c r="F5" s="91" t="s">
+        <v>432</v>
+      </c>
+      <c r="G5" s="92" t="s">
+        <v>433</v>
+      </c>
+      <c r="K5" s="93"/>
+      <c r="L5" s="88"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="75"/>
-      <c r="B6" s="90">
+      <c r="A6" s="74"/>
+      <c r="B6" s="89">
         <v>45671.0</v>
       </c>
-      <c r="C6" s="84" t="s">
-        <v>468</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>475</v>
-      </c>
-      <c r="E6" s="75"/>
-      <c r="F6" s="92" t="s">
-        <v>476</v>
-      </c>
-      <c r="G6" s="93" t="s">
-        <v>477</v>
-      </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="89"/>
+      <c r="C6" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="D6" s="84" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="91" t="s">
+        <v>435</v>
+      </c>
+      <c r="G6" s="92" t="s">
+        <v>436</v>
+      </c>
+      <c r="K6" s="93"/>
+      <c r="L6" s="88"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="75"/>
-      <c r="B7" s="95">
+      <c r="A7" s="74"/>
+      <c r="B7" s="94">
         <v>45672.0</v>
       </c>
-      <c r="C7" s="84" t="s">
-        <v>468</v>
-      </c>
-      <c r="D7" s="96" t="s">
-        <v>478</v>
-      </c>
-      <c r="E7" s="75"/>
-      <c r="F7" s="92" t="s">
-        <v>479</v>
-      </c>
-      <c r="G7" s="93" t="s">
-        <v>480</v>
-      </c>
-      <c r="K7" s="94"/>
-      <c r="L7" s="89"/>
+      <c r="C7" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="D7" s="95" t="s">
+        <v>437</v>
+      </c>
+      <c r="E7" s="74"/>
+      <c r="F7" s="91" t="s">
+        <v>438</v>
+      </c>
+      <c r="G7" s="92" t="s">
+        <v>439</v>
+      </c>
+      <c r="K7" s="93"/>
+      <c r="L7" s="88"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="83">
+      <c r="A8" s="74"/>
+      <c r="B8" s="82">
         <v>45674.0</v>
       </c>
-      <c r="C8" s="84" t="s">
-        <v>468</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>481</v>
-      </c>
-      <c r="E8" s="75"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="93" t="s">
-        <v>482</v>
-      </c>
-      <c r="K8" s="94"/>
-      <c r="L8" s="89"/>
+      <c r="C8" s="83" t="s">
+        <v>427</v>
+      </c>
+      <c r="D8" s="84" t="s">
+        <v>440</v>
+      </c>
+      <c r="E8" s="74"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="92" t="s">
+        <v>441</v>
+      </c>
+      <c r="K8" s="93"/>
+      <c r="L8" s="88"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="75"/>
-      <c r="B9" s="95">
+      <c r="A9" s="74"/>
+      <c r="B9" s="94">
         <v>45731.0</v>
       </c>
-      <c r="C9" s="84" t="s">
-        <v>483</v>
-      </c>
-      <c r="D9" s="96" t="s">
-        <v>484</v>
-      </c>
-      <c r="E9" s="75"/>
-      <c r="F9" s="92" t="s">
-        <v>485</v>
-      </c>
-      <c r="G9" s="93" t="s">
-        <v>486</v>
-      </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="89"/>
+      <c r="C9" s="83" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" s="95" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9" s="74"/>
+      <c r="F9" s="91" t="s">
+        <v>444</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>445</v>
+      </c>
+      <c r="K9" s="93"/>
+      <c r="L9" s="88"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="92" t="s">
-        <v>487</v>
-      </c>
-      <c r="G10" s="93" t="s">
-        <v>488</v>
-      </c>
-      <c r="K10" s="94"/>
-      <c r="L10" s="89"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="91" t="s">
+        <v>446</v>
+      </c>
+      <c r="G10" s="92" t="s">
+        <v>447</v>
+      </c>
+      <c r="K10" s="93"/>
+      <c r="L10" s="88"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="74"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="102"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="104"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="104"/>
+      <c r="A12" s="103"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="103"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="105"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="105"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="104"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="105"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="104"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="105"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="104"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="105"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="104"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="106"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="106"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="105"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="106"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="106"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="105"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="106"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="106"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="105"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="72"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="83"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="71"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="72"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="72"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="72"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="71"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="83"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="72"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="72"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="98"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="72"/>
+      <c r="A25" s="71"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="71"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="72"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="72"/>
+      <c r="A26" s="71"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="71"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="72"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="72"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="84"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="72"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="71"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="97"/>
-      <c r="C29" s="98"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="72"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="96"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="71"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="72"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="72"/>
+      <c r="A30" s="71"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="71"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="72"/>
+      <c r="A31" s="71"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="71"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="83"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="72"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="71"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="98"/>
-      <c r="D33" s="99"/>
-      <c r="E33" s="72"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="71"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="72"/>
+      <c r="A34" s="71"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="71"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="72"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="98"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="72"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="96"/>
+      <c r="C35" s="97"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="71"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="72"/>
-      <c r="B36" s="83"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="72"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="71"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="72"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="98"/>
-      <c r="D37" s="99"/>
-      <c r="E37" s="72"/>
+      <c r="A37" s="71"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="97"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="71"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="72"/>
-      <c r="B38" s="107"/>
-      <c r="C38" s="108"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="72"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="108"/>
+      <c r="E38" s="71"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="72"/>
-      <c r="B39" s="72"/>
-      <c r="C39" s="73"/>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="71"/>
+      <c r="E39" s="71"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="72"/>
-      <c r="B40" s="72"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="71"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="72"/>
-      <c r="C41" s="110"/>
-      <c r="E41" s="72"/>
+      <c r="A41" s="71"/>
+      <c r="C41" s="109"/>
+      <c r="E41" s="71"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="440">
   <si>
     <t>id</t>
   </si>
@@ -184,7 +184,7 @@
     <t>gpsOnly</t>
   </si>
   <si>
-    <t>Fenix 8 AMOLED (51mm)</t>
+    <t>Fenix 8 AMOLED</t>
   </si>
   <si>
     <t>멀티스포츠,아웃도어</t>
@@ -238,9 +238,6 @@
     <t>Golf App 구독 시</t>
   </si>
   <si>
-    <t>Fenix 8 AMOLED (47mm)</t>
-  </si>
-  <si>
     <t>47mm</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>퀵핏 22mm</t>
   </si>
   <si>
-    <t>Fenix 8 AMOLED (43mm)</t>
-  </si>
-  <si>
     <t xml:space="preserve">소프트 골드  </t>
   </si>
   <si>
@@ -277,7 +271,7 @@
     <t>퀵핏 20mm</t>
   </si>
   <si>
-    <t>Fenix 8 SOLAR (51mm)</t>
+    <t>Fenix 8 SOLAR</t>
   </si>
   <si>
     <t>블랙</t>
@@ -295,9 +289,6 @@
     <t>95g</t>
   </si>
   <si>
-    <t>Fenix 8 SOLAR (47mm)</t>
-  </si>
-  <si>
     <t xml:space="preserve">블랙 </t>
   </si>
   <si>
@@ -493,7 +484,7 @@
     <t>63g</t>
   </si>
   <si>
-    <t>Approach S70 (47mm)</t>
+    <t>Approach S70</t>
   </si>
   <si>
     <t>골프</t>
@@ -514,15 +505,12 @@
     <t>세라믹</t>
   </si>
   <si>
-    <t>Approach S70 GC (47mm)</t>
+    <t>Approach S70 GC</t>
   </si>
   <si>
     <t>products/approachs70/gc-47mm-black.png</t>
   </si>
   <si>
-    <t>Approach S70 GC (42mm)</t>
-  </si>
-  <si>
     <t>그레이,화이트</t>
   </si>
   <si>
@@ -646,7 +634,7 @@
     <t>스테인리스 스틸</t>
   </si>
   <si>
-    <t>Descent MK3i (51mm)</t>
+    <t>Descent MK3i</t>
   </si>
   <si>
     <t>products/descentMk3/i-51mm-black.png</t>
@@ -658,9 +646,6 @@
     <t>200M</t>
   </si>
   <si>
-    <t>Descent MK3i (43mm)</t>
-  </si>
-  <si>
     <t>블랙,브론즈</t>
   </si>
   <si>
@@ -676,7 +661,7 @@
     <t>프리미엄 GPS 다이빙 컴퓨터</t>
   </si>
   <si>
-    <t>3” (inch)</t>
+    <t>3inch</t>
   </si>
   <si>
     <t>products/descentX50i/basic-3inch-black.png</t>
@@ -715,7 +700,7 @@
     <t>products/tactix8/basic-51mm-black.png</t>
   </si>
   <si>
-    <t>Instinct 3 AMOLED (45mm)</t>
+    <t>Instinct 3 AMOLED</t>
   </si>
   <si>
     <t>아웃도어</t>
@@ -730,9 +715,6 @@
     <t>1.2” (30 mm)</t>
   </si>
   <si>
-    <t>Instinct 3 AMOLED (50mm)</t>
-  </si>
-  <si>
     <t>50mm</t>
   </si>
   <si>
@@ -745,7 +727,7 @@
     <t>59g</t>
   </si>
   <si>
-    <t>Instinct 3 Solar (45mm)</t>
+    <t>Instinct 3 Solar</t>
   </si>
   <si>
     <t>products/instinct3/solar-45mm-black.png</t>
@@ -757,9 +739,6 @@
     <t>52g</t>
   </si>
   <si>
-    <t>Instinct 3 Solar (50mm)</t>
-  </si>
-  <si>
     <t>products/instinct3/solar-50mm-black.png</t>
   </si>
   <si>
@@ -769,7 +748,7 @@
     <t>58g</t>
   </si>
   <si>
-    <t>Instinct E (40mm)</t>
+    <t>Instinct E</t>
   </si>
   <si>
     <t>아웃도어 GPS 스마트워치</t>
@@ -788,9 +767,6 @@
   </si>
   <si>
     <t>41g</t>
-  </si>
-  <si>
-    <t>Instinct E (45mm)</t>
   </si>
   <si>
     <t>products/instinctE/basic-45mm-black.png,products/instinctE/basic-45mm-lime.png</t>
@@ -3110,7 +3086,7 @@
         <v>1.0842667031E10</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>51</v>
@@ -3125,7 +3101,7 @@
         <v>54</v>
       </c>
       <c r="H3" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I3" s="22">
         <v>1690000.0</v>
@@ -3135,7 +3111,7 @@
         <v>45541.0</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M3" s="25" t="s">
         <v>57</v>
@@ -3156,7 +3132,7 @@
         <v>61</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T3" s="26" t="s">
         <v>63</v>
@@ -3165,7 +3141,7 @@
         <v>64</v>
       </c>
       <c r="V3" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W3" s="21" t="s">
         <v>66</v>
@@ -3260,7 +3236,7 @@
         <v>1.0842671027E10</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>51</v>
@@ -3269,13 +3245,13 @@
         <v>52</v>
       </c>
       <c r="F4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="I4" s="30">
         <v>1690000.0</v>
@@ -3285,7 +3261,7 @@
         <v>45541.0</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M4" s="13" t="s">
         <v>57</v>
@@ -3297,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="P4" s="13" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>60</v>
@@ -3306,7 +3282,7 @@
         <v>61</v>
       </c>
       <c r="S4" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="T4" s="31" t="s">
         <v>63</v>
@@ -3315,7 +3291,7 @@
         <v>64</v>
       </c>
       <c r="V4" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W4" s="33" t="s">
         <v>66</v>
@@ -3410,7 +3386,7 @@
         <v>1.0842673386E10</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>51</v>
@@ -3419,10 +3395,10 @@
         <v>52</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G5" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H5" s="21" t="s">
         <v>55</v>
@@ -3435,13 +3411,13 @@
         <v>45541.0</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M5" s="25" t="s">
         <v>57</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O5" s="26" t="b">
         <v>1</v>
@@ -3456,7 +3432,7 @@
         <v>61</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T5" s="26" t="s">
         <v>63</v>
@@ -3560,7 +3536,7 @@
         <v>1.0842674152E10</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>51</v>
@@ -3569,13 +3545,13 @@
         <v>52</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="10">
         <v>1690000.0</v>
@@ -3585,19 +3561,19 @@
         <v>45541.0</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M6" s="13" t="s">
         <v>57</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O6" s="14" t="b">
         <v>1</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="9" t="s">
         <v>60</v>
@@ -3606,7 +3582,7 @@
         <v>61</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="T6" s="14" t="s">
         <v>63</v>
@@ -3615,7 +3591,7 @@
         <v>64</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W6" s="9" t="s">
         <v>66</v>
@@ -3710,22 +3686,22 @@
         <v>8.718519427E9</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>51</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I7" s="22">
         <v>1290000.0</v>
@@ -3737,19 +3713,19 @@
         <v>45059.0</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M7" s="25" t="s">
         <v>57</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O7" s="26" t="b">
         <v>1</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="21" t="s">
         <v>60</v>
@@ -3758,14 +3734,14 @@
         <v>61</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="T7" s="26" t="s">
         <v>63</v>
       </c>
       <c r="U7" s="26"/>
       <c r="V7" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W7" s="21" t="s">
         <v>66</v>
@@ -3860,22 +3836,22 @@
         <v>1.0842671678E10</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I8" s="10">
         <v>1190000.0</v>
@@ -3885,7 +3861,7 @@
         <v>45541.0</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M8" s="13" t="s">
         <v>57</v>
@@ -3897,26 +3873,26 @@
         <v>1</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R8" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T8" s="14" t="s">
         <v>63</v>
       </c>
       <c r="U8" s="14"/>
       <c r="V8" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="X8" s="15" t="b">
         <v>1</v>
@@ -4008,22 +3984,22 @@
         <v>5.757072087E9</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="G9" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="H9" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="I9" s="22">
         <v>239000.0</v>
@@ -4035,38 +4011,38 @@
         <v>44378.0</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M9" s="25" t="s">
         <v>57</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O9" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P9" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q9" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="R9" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="Q9" s="21" t="s">
+      <c r="T9" s="21" t="s">
         <v>109</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="S9" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="T9" s="21" t="s">
-        <v>112</v>
       </c>
       <c r="U9" s="21"/>
       <c r="V9" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W9" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X9" s="27" t="b">
         <v>1</v>
@@ -4158,22 +4134,22 @@
         <v>1.0006844027E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I10" s="10">
         <v>459000.0</v>
@@ -4183,7 +4159,7 @@
         <v>45323.0</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M10" s="13" t="s">
         <v>57</v>
@@ -4195,26 +4171,26 @@
         <v>1</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R10" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U10" s="9"/>
       <c r="V10" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X10" s="15" t="b">
         <v>1</v>
@@ -4306,22 +4282,22 @@
         <v>1.0006842669E10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G11" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H11" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I11" s="22">
         <v>399000.0</v>
@@ -4331,7 +4307,7 @@
         <v>45323.0</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="M11" s="25" t="s">
         <v>57</v>
@@ -4343,26 +4319,26 @@
         <v>1</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q11" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U11" s="21"/>
       <c r="V11" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W11" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X11" s="27" t="b">
         <v>1</v>
@@ -4454,22 +4430,22 @@
         <v>8.255898505E9</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>131</v>
       </c>
       <c r="I12" s="10">
         <v>589000.0</v>
@@ -4479,7 +4455,7 @@
         <v>44986.0</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="M12" s="13" t="s">
         <v>57</v>
@@ -4491,26 +4467,26 @@
         <v>1</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Q12" s="14" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R12" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S12" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="T12" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U12" s="9"/>
       <c r="V12" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="W12" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X12" s="15" t="b">
         <v>1</v>
@@ -4602,22 +4578,22 @@
         <v>8.255898604E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E13" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" s="21" t="s">
         <v>103</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>106</v>
       </c>
       <c r="I13" s="22">
         <v>589000.0</v>
@@ -4627,7 +4603,7 @@
         <v>44986.0</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M13" s="25" t="s">
         <v>57</v>
@@ -4639,26 +4615,26 @@
         <v>1</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q13" s="26" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="R13" s="26" t="s">
         <v>61</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U13" s="21"/>
       <c r="V13" s="21" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="W13" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X13" s="27" t="b">
         <v>1</v>
@@ -4750,22 +4726,22 @@
         <v>8.313796209E9</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>146</v>
-      </c>
       <c r="H14" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I14" s="10">
         <v>819000.0</v>
@@ -4775,7 +4751,7 @@
         <v>44986.0</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>57</v>
@@ -4787,7 +4763,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q14" s="14" t="s">
         <v>60</v>
@@ -4796,14 +4772,14 @@
         <v>61</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T14" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U14" s="9"/>
       <c r="V14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W14" s="9" t="s">
         <v>66</v>
@@ -4898,7 +4874,7 @@
         <v>1.0842664841E10</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>51</v>
@@ -4907,10 +4883,10 @@
         <v>52</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G15" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H15" s="21" t="s">
         <v>55</v>
@@ -4923,13 +4899,13 @@
         <v>45541.0</v>
       </c>
       <c r="L15" s="21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M15" s="25" t="s">
         <v>57</v>
       </c>
       <c r="N15" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O15" s="26" t="b">
         <v>1</v>
@@ -4944,7 +4920,7 @@
         <v>61</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T15" s="26" t="s">
         <v>63</v>
@@ -5046,22 +5022,22 @@
         <v>8.78227228E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I16" s="10">
         <v>990000.0</v>
@@ -5071,7 +5047,7 @@
         <v>45105.0</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>57</v>
@@ -5083,26 +5059,26 @@
         <v>1</v>
       </c>
       <c r="P16" s="9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>61</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T16" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U16" s="9"/>
       <c r="V16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W16" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="X16" s="15" t="b">
         <v>1</v>
@@ -5194,22 +5170,22 @@
         <v>1.012849087E10</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I17" s="22">
         <v>1040000.0</v>
@@ -5219,7 +5195,7 @@
         <v>45105.0</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="M17" s="25" t="s">
         <v>57</v>
@@ -5231,26 +5207,26 @@
         <v>1</v>
       </c>
       <c r="P17" s="21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R17" s="21" t="s">
         <v>61</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U17" s="21"/>
       <c r="V17" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W17" s="21" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="X17" s="27" t="b">
         <v>1</v>
@@ -5342,22 +5318,22 @@
         <v>1.0128490872E10</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I18" s="10">
         <v>998000.0</v>
@@ -5367,7 +5343,7 @@
         <v>45105.0</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M18" s="13" t="s">
         <v>57</v>
@@ -5379,26 +5355,26 @@
         <v>1</v>
       </c>
       <c r="P18" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="T18" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U18" s="9"/>
       <c r="V18" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W18" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="X18" s="15" t="b">
         <v>1</v>
@@ -5490,22 +5466,22 @@
         <v>1.1549203117E10</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H19" s="25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I19" s="22">
         <v>589000.0</v>
@@ -5515,7 +5491,7 @@
         <v>45720.0</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="M19" s="25" t="s">
         <v>57</v>
@@ -5527,26 +5503,26 @@
         <v>1</v>
       </c>
       <c r="P19" s="21" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R19" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T19" s="21" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U19" s="21"/>
       <c r="V19" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W19" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="X19" s="27" t="b">
         <v>1</v>
@@ -5638,22 +5614,22 @@
         <v>6.54177233E9</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>177</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>181</v>
       </c>
       <c r="I20" s="10">
         <v>849000.0</v>
@@ -5663,103 +5639,103 @@
         <v>45308.0</v>
       </c>
       <c r="L20" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="O20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="S20" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="T20" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="N20" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="O20" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="P20" s="9" t="s">
+      <c r="U20" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="V20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="W20" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="R20" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="S20" s="9" t="s">
+      <c r="X20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="9" t="s">
         <v>186</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="U20" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="X20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AL20" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AO20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="AS20" s="17" t="b">
         <v>0</v>
@@ -5788,22 +5764,22 @@
         <v>1.1466050722E10</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D21" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="21" t="s">
         <v>177</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="21" t="s">
-        <v>181</v>
       </c>
       <c r="I21" s="22">
         <v>1039000.0</v>
@@ -5813,7 +5789,7 @@
         <v>45701.0</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="M21" s="25" t="s">
         <v>57</v>
@@ -5825,28 +5801,28 @@
         <v>1</v>
       </c>
       <c r="P21" s="21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q21" s="21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R21" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="U21" s="21" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="V21" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W21" s="21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="X21" s="27" t="b">
         <v>1</v>
@@ -5938,22 +5914,22 @@
         <v>9.832890652E9</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H22" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I22" s="39">
         <v>1790000.0</v>
@@ -5963,7 +5939,7 @@
         <v>45308.0</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>57</v>
@@ -5975,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="P22" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="9" t="s">
         <v>60</v>
@@ -5984,19 +5960,19 @@
         <v>61</v>
       </c>
       <c r="S22" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="T22" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U22" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="V22" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W22" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="X22" s="15" t="b">
         <v>1</v>
@@ -6088,19 +6064,19 @@
         <v>9.855771903E9</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D23" s="40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H23" s="21" t="s">
         <v>55</v>
@@ -6113,7 +6089,7 @@
         <v>45308.0</v>
       </c>
       <c r="L23" s="21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M23" s="25" t="s">
         <v>57</v>
@@ -6134,13 +6110,13 @@
         <v>61</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="V23" s="21" t="s">
         <v>65</v>
@@ -6238,22 +6214,22 @@
         <v>5.0074635E7</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I24" s="30">
         <v>1990000.0</v>
@@ -6263,7 +6239,7 @@
         <v>45308.0</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>57</v>
@@ -6275,7 +6251,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Q24" s="9" t="s">
         <v>60</v>
@@ -6284,16 +6260,16 @@
         <v>61</v>
       </c>
       <c r="S24" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="T24" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U24" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="V24" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W24" s="9" t="s">
         <v>66</v>
@@ -6388,22 +6364,22 @@
         <v>1.1310815985E10</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D25" s="40" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G25" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="I25" s="42">
         <v>2190000.0</v>
@@ -6413,7 +6389,7 @@
         <v>45638.0</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="M25" s="25" t="s">
         <v>57</v>
@@ -6425,7 +6401,7 @@
         <v>1</v>
       </c>
       <c r="P25" s="21" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="Q25" s="21" t="s">
         <v>60</v>
@@ -6434,19 +6410,19 @@
         <v>61</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="T25" s="21" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="V25" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W25" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X25" s="16" t="b">
         <v>0</v>
@@ -6524,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AX25" s="28">
         <v>16.0</v>
@@ -6538,19 +6514,19 @@
         <v>9.599823621E9</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>55</v>
@@ -6565,7 +6541,7 @@
         <v>45259.0</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>57</v>
@@ -6586,10 +6562,10 @@
         <v>61</v>
       </c>
       <c r="S26" s="9" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="T26" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U26" s="9"/>
       <c r="V26" s="9" t="s">
@@ -6688,19 +6664,19 @@
         <v>1.1520029652E10</v>
       </c>
       <c r="C27" s="25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G27" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>55</v>
@@ -6713,7 +6689,7 @@
         <v>45692.0</v>
       </c>
       <c r="L27" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M27" s="25" t="s">
         <v>57</v>
@@ -6737,7 +6713,7 @@
         <v>62</v>
       </c>
       <c r="T27" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U27" s="21" t="s">
         <v>64</v>
@@ -6838,22 +6814,22 @@
         <v>1.1427676811E10</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I28" s="10">
         <v>669000.0</v>
@@ -6863,7 +6839,7 @@
         <v>45692.0</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>57</v>
@@ -6875,26 +6851,26 @@
         <v>0</v>
       </c>
       <c r="P28" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="Q28" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R28" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S28" s="9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="T28" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U28" s="9"/>
       <c r="V28" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W28" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X28" s="15" t="b">
         <v>1</v>
@@ -6986,22 +6962,22 @@
         <v>1.1427677905E10</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G29" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H29" s="21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I29" s="22">
         <v>739000.0</v>
@@ -7011,7 +6987,7 @@
         <v>45692.0</v>
       </c>
       <c r="L29" s="21" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M29" s="25" t="s">
         <v>57</v>
@@ -7023,26 +6999,26 @@
         <v>0</v>
       </c>
       <c r="P29" s="21" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R29" s="26" t="s">
         <v>61</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="T29" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U29" s="21"/>
       <c r="V29" s="21" t="s">
         <v>65</v>
       </c>
       <c r="W29" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X29" s="27" t="b">
         <v>1</v>
@@ -7134,22 +7110,22 @@
         <v>1.1427679735E10</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I30" s="10">
         <v>589000.0</v>
@@ -7159,38 +7135,38 @@
         <v>45692.0</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="M30" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O30" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P30" s="9" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q30" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R30" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="T30" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U30" s="9"/>
       <c r="V30" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W30" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X30" s="15" t="b">
         <v>1</v>
@@ -7282,22 +7258,22 @@
         <v>1.1427682377E10</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G31" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H31" s="21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I31" s="22">
         <v>669000.0</v>
@@ -7307,38 +7283,38 @@
         <v>45692.0</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M31" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O31" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P31" s="21" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q31" s="26" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="R31" s="26" t="s">
         <v>61</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="T31" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U31" s="21"/>
       <c r="V31" s="21" t="s">
         <v>65</v>
       </c>
       <c r="W31" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X31" s="27" t="b">
         <v>1</v>
@@ -7430,22 +7406,22 @@
         <v>1.1427671305E10</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I32" s="10">
         <v>459000.0</v>
@@ -7455,38 +7431,38 @@
         <v>45692.0</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O32" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P32" s="9" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q32" s="14" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="R32" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S32" s="9" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="T32" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U32" s="9"/>
       <c r="V32" s="9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="W32" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X32" s="15" t="b">
         <v>1</v>
@@ -7578,22 +7554,22 @@
         <v>1.142777123E10</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="D33" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G33" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="I33" s="22">
         <v>459000.0</v>
@@ -7603,38 +7579,38 @@
         <v>45692.0</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="M33" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O33" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P33" s="21" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q33" s="26" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="T33" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U33" s="21"/>
       <c r="V33" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W33" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X33" s="27" t="b">
         <v>1</v>
@@ -7726,22 +7702,22 @@
         <v>9.280896681E9</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I34" s="10">
         <v>599000.0</v>
@@ -7753,38 +7729,38 @@
         <v>45047.0</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O34" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P34" s="9" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q34" s="14" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="R34" s="14" t="s">
         <v>61</v>
       </c>
       <c r="S34" s="9" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="T34" s="9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U34" s="9"/>
       <c r="V34" s="9" t="s">
         <v>65</v>
       </c>
       <c r="W34" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X34" s="15" t="b">
         <v>1</v>
@@ -7847,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="AR34" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AS34" s="17" t="b">
         <v>0</v>
@@ -7876,22 +7852,22 @@
         <v>5.0074641E7</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="H35" s="21" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="I35" s="22">
         <v>719000.0</v>
@@ -7903,38 +7879,38 @@
         <v>45047.0</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="M35" s="21" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O35" s="18" t="b">
         <v>0</v>
       </c>
       <c r="P35" s="21" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q35" s="26" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="R35" s="26" t="s">
         <v>61</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="T35" s="21" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="U35" s="21"/>
       <c r="V35" s="21" t="s">
         <v>65</v>
       </c>
       <c r="W35" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X35" s="27" t="b">
         <v>1</v>
@@ -7997,7 +7973,7 @@
         <v>1</v>
       </c>
       <c r="AR35" s="21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AS35" s="17" t="b">
         <v>0</v>
@@ -8026,22 +8002,22 @@
         <v>1.1061289692E10</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="G36" s="48" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H36" s="48" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="I36" s="49">
         <v>459000.0</v>
@@ -8051,38 +8027,38 @@
         <v>45594.0</v>
       </c>
       <c r="L36" s="48" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M36" s="48" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="N36" s="48" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="O36" s="52" t="b">
         <v>1</v>
       </c>
       <c r="P36" s="48" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="Q36" s="48" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="R36" s="48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="S36" s="48" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="T36" s="48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U36" s="48"/>
       <c r="V36" s="48" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="W36" s="48" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="X36" s="53" t="b">
         <v>1</v>
@@ -8277,19 +8253,19 @@
         <v>47</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -8300,16 +8276,16 @@
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -8321,19 +8297,19 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O2" s="17" t="b">
         <v>0</v>
@@ -8351,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="U2" s="19"/>
     </row>
@@ -8363,16 +8339,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G3" s="22">
         <v>519000.0</v>
@@ -8382,37 +8358,37 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="K3" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="N3" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="O3" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="T3" s="21" t="s">
         <v>286</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="O3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S3" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>294</v>
       </c>
       <c r="U3" s="28"/>
     </row>
@@ -8424,16 +8400,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G4" s="60">
         <v>659000.0</v>
@@ -8443,37 +8419,37 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="O4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T4" s="32" t="s">
         <v>286</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="O4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="S4" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="T4" s="32" t="s">
-        <v>294</v>
       </c>
       <c r="U4" s="36"/>
     </row>
@@ -8485,16 +8461,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G5" s="22">
         <v>659000.0</v>
@@ -8504,19 +8480,19 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O5" s="17" t="b">
         <v>0</v>
@@ -8534,7 +8510,7 @@
         <v>1</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="U5" s="28"/>
     </row>
@@ -8546,16 +8522,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -8565,37 +8541,37 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="K6" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="O6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="P6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="T6" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="O6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="P6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="R6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>294</v>
       </c>
       <c r="U6" s="19"/>
     </row>
@@ -8607,16 +8583,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G7" s="22">
         <v>799000.0</v>
@@ -8626,19 +8602,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O7" s="21" t="b">
         <v>1</v>
@@ -8656,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="U7" s="28"/>
     </row>
@@ -8668,16 +8644,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -8689,19 +8665,19 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
@@ -8719,7 +8695,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="U8" s="19"/>
     </row>
@@ -8731,16 +8707,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="G9" s="22">
         <v>989000.0</v>
@@ -8752,19 +8728,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O9" s="21" t="b">
         <v>1</v>
@@ -8782,7 +8758,7 @@
         <v>1</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="U9" s="28"/>
     </row>
@@ -8794,16 +8770,16 @@
         <v>1.0632515323E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G10" s="10">
         <v>1089000.0</v>
@@ -8813,19 +8789,19 @@
         <v>45496.0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
@@ -8843,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="U10" s="19"/>
     </row>
@@ -8855,16 +8831,16 @@
         <v>1.0632516764E10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="G11" s="22">
         <v>1229000.0</v>
@@ -8874,19 +8850,19 @@
         <v>45496.0</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="K11" s="61" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O11" s="21" t="b">
         <v>1</v>
@@ -8904,7 +8880,7 @@
         <v>1</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="U11" s="28"/>
     </row>
@@ -8916,16 +8892,16 @@
         <v>6.471040307E9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G12" s="10">
         <v>880000.0</v>
@@ -8937,12 +8913,12 @@
         <v>44256.0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -8951,10 +8927,10 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="9" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -8965,16 +8941,16 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>333</v>
-      </c>
       <c r="F13" s="21" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G13" s="22">
         <v>1390000.0</v>
@@ -8986,12 +8962,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="K13" s="61"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="26"/>
@@ -9000,10 +8976,10 @@
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
       <c r="T13" s="21" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
@@ -9014,16 +8990,16 @@
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G14" s="10">
         <v>880000.0</v>
@@ -9035,12 +9011,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -9049,10 +9025,10 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="9" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -9063,16 +9039,16 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>333</v>
-      </c>
       <c r="F15" s="21" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G15" s="22">
         <v>1390000.0</v>
@@ -9084,12 +9060,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -9098,10 +9074,10 @@
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
       <c r="T15" s="21" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
@@ -9112,16 +9088,16 @@
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -9133,12 +9109,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -9147,10 +9123,10 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="9" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -9161,16 +9137,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D17" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="E17" s="21" t="s">
-        <v>333</v>
-      </c>
       <c r="F17" s="21" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="G17" s="22">
         <v>1590000.0</v>
@@ -9182,12 +9158,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="K17" s="61"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="26"/>
@@ -9196,10 +9172,10 @@
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="21" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
@@ -9210,16 +9186,16 @@
         <v>2.920696454E9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G18" s="10">
         <v>199000.0</v>
@@ -9231,15 +9207,15 @@
         <v>42979.0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -9248,7 +9224,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="9"/>
       <c r="U18" s="19" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -9259,16 +9235,16 @@
         <v>5.018655247E9</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="F19" s="61" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="G19" s="22">
         <v>258000.0</v>
@@ -9278,15 +9254,15 @@
         <v>44013.0</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="K19" s="61"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -9304,16 +9280,16 @@
         <v>6.878093775E9</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="G20" s="49">
         <v>529000.0</v>
@@ -9323,15 +9299,15 @@
         <v>44682.0</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K20" s="48"/>
       <c r="L20" s="48"/>
       <c r="M20" s="48" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="N20" s="48" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
@@ -9340,7 +9316,7 @@
       <c r="S20" s="52"/>
       <c r="T20" s="48"/>
       <c r="U20" s="58" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -9443,13 +9419,13 @@
         <v>19</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>49</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -9460,16 +9436,16 @@
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G2" s="10">
         <v>69000.0</v>
@@ -9479,19 +9455,19 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q2" s="19"/>
     </row>
@@ -9503,16 +9479,16 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G3" s="22">
         <v>69000.0</v>
@@ -9522,19 +9498,19 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
@@ -9546,16 +9522,16 @@
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G4" s="60">
         <v>121000.0</v>
@@ -9565,19 +9541,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q4" s="36"/>
     </row>
@@ -9589,16 +9565,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="G5" s="22">
         <v>89000.0</v>
@@ -9611,16 +9587,16 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
@@ -9632,16 +9608,16 @@
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -9654,16 +9630,16 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q6" s="19"/>
     </row>
@@ -9675,16 +9651,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>381</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>389</v>
       </c>
       <c r="G7" s="22">
         <v>225000.0</v>
@@ -9697,16 +9673,16 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
@@ -9718,16 +9694,16 @@
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -9740,19 +9716,19 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -9763,16 +9739,16 @@
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="G9" s="22">
         <v>398000.0</v>
@@ -9785,19 +9761,19 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
@@ -9808,16 +9784,16 @@
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="D10" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>391</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>399</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -9830,19 +9806,19 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -9853,16 +9829,16 @@
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G11" s="22">
         <v>789000.0</v>
@@ -9877,16 +9853,16 @@
       <c r="K11" s="61"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="28"/>
     </row>
@@ -9898,16 +9874,16 @@
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -9920,16 +9896,16 @@
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Q12" s="19"/>
     </row>
@@ -9941,16 +9917,16 @@
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="G13" s="22">
         <v>989000.0</v>
@@ -9965,16 +9941,16 @@
       <c r="K13" s="61"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="Q13" s="28"/>
     </row>
@@ -10221,17 +10197,17 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="74"/>
       <c r="B2" s="75" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="D2" s="77" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="E2" s="74"/>
       <c r="F2" s="78" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="G2" s="79"/>
       <c r="H2" s="79"/>
@@ -10246,14 +10222,14 @@
         <v>45671.0</v>
       </c>
       <c r="C3" s="83" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D3" s="84" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="85" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="G3" s="86"/>
       <c r="H3" s="86"/>
@@ -10268,17 +10244,17 @@
         <v>45671.0</v>
       </c>
       <c r="C4" s="83" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D4" s="90" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="E4" s="74"/>
       <c r="F4" s="91" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="92" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K4" s="93"/>
       <c r="L4" s="88"/>
@@ -10289,17 +10265,17 @@
         <v>45669.0</v>
       </c>
       <c r="C5" s="83" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E5" s="74"/>
       <c r="F5" s="91" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="G5" s="92" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="K5" s="93"/>
       <c r="L5" s="88"/>
@@ -10310,17 +10286,17 @@
         <v>45671.0</v>
       </c>
       <c r="C6" s="83" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D6" s="84" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="91" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="G6" s="92" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="K6" s="93"/>
       <c r="L6" s="88"/>
@@ -10331,17 +10307,17 @@
         <v>45672.0</v>
       </c>
       <c r="C7" s="83" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D7" s="95" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E7" s="74"/>
       <c r="F7" s="91" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="G7" s="92" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="K7" s="93"/>
       <c r="L7" s="88"/>
@@ -10352,15 +10328,15 @@
         <v>45674.0</v>
       </c>
       <c r="C8" s="83" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="D8" s="84" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="E8" s="74"/>
       <c r="F8" s="91"/>
       <c r="G8" s="92" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="K8" s="93"/>
       <c r="L8" s="88"/>
@@ -10371,17 +10347,17 @@
         <v>45731.0</v>
       </c>
       <c r="C9" s="83" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="E9" s="74"/>
       <c r="F9" s="91" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="G9" s="92" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="K9" s="93"/>
       <c r="L9" s="88"/>
@@ -10393,10 +10369,10 @@
       <c r="D10" s="84"/>
       <c r="E10" s="74"/>
       <c r="F10" s="91" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G10" s="92" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="K10" s="93"/>
       <c r="L10" s="88"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="490">
   <si>
     <t>id</t>
   </si>
@@ -385,7 +385,7 @@
     <t>퀵릴리즈20mm</t>
   </si>
   <si>
-    <t>섬유강화 플라스틱</t>
+    <t>섬유 보강 폴리머 (FRP)</t>
   </si>
   <si>
     <t>Forerunner 165 Music</t>
@@ -601,7 +601,7 @@
     <t>디센트 G1 솔라</t>
   </si>
   <si>
-    <t>다이빙</t>
+    <t>다이빙,수영</t>
   </si>
   <si>
     <t>고급 다이빙 GPS 스마트워치</t>
@@ -742,7 +742,7 @@
     <t>택틱스7</t>
   </si>
   <si>
-    <t>전술</t>
+    <t>아웃도어,멀티스포츠</t>
   </si>
   <si>
     <t>프리미엄 GPS 전술 스마트워치</t>
@@ -886,18 +886,87 @@
     <t>products/instinct2X/tactical-50mm-black.png,products/instinct2X/tactical-50mm-coyotetan.png</t>
   </si>
   <si>
+    <t>Vivoactive 5</t>
+  </si>
+  <si>
+    <t>비보액티브 5</t>
+  </si>
+  <si>
+    <t>피트니스</t>
+  </si>
+  <si>
+    <t>피트니스 GPS 스마트워치</t>
+  </si>
+  <si>
+    <t>블랙,아이보리,네이비,오키드</t>
+  </si>
+  <si>
+    <t>#000000,#eae8e4,#28294a,#a084c2</t>
+  </si>
+  <si>
+    <t>products/vivoactive5/basic-42mm-black.png,products/vivoactive5/basic-42mm-ivory.png,products/vivoactive5/basic-42mm-navy.png,products/vivoactive5/basic-42mm-orchid.png</t>
+  </si>
+  <si>
+    <t>1.2" (30.4 mm)</t>
+  </si>
+  <si>
+    <t>36g</t>
+  </si>
+  <si>
+    <t>산화피막 알루미늄</t>
+  </si>
+  <si>
+    <t>Venu 3</t>
+  </si>
+  <si>
+    <t>베뉴3</t>
+  </si>
+  <si>
+    <t>#000000,#fff</t>
+  </si>
+  <si>
+    <t>products/venu3/basic-45mm-black.png,products/venu3/basic-45mm-white.png</t>
+  </si>
+  <si>
+    <t>1.4" (35.4 mm)</t>
+  </si>
+  <si>
+    <t>30g</t>
+  </si>
+  <si>
+    <t>퀵릴리즈 22mm</t>
+  </si>
+  <si>
+    <t>Venu 3s</t>
+  </si>
+  <si>
+    <t>베뉴3s</t>
+  </si>
+  <si>
+    <t>페블그레이,세이지그레이,프렌치그레이,더스트로즈,아이보리</t>
+  </si>
+  <si>
+    <t>#2c2c2c,#cfecdf,#aca79b,#ecb4b6,#eae8e4</t>
+  </si>
+  <si>
+    <t>41mm</t>
+  </si>
+  <si>
+    <t>products/venu3/s-41mm-pebblegray.png,products/venu3/s-41mm-sagegray.png,products/venu3/s-41mm-frenchgray.png,products/venu3/s-41mm-dustrose.png,products/venu3/s-45mm-ivory.png</t>
+  </si>
+  <si>
+    <t>27g</t>
+  </si>
+  <si>
+    <t>퀵릴리즈 18mm</t>
+  </si>
+  <si>
     <t>Lily 2 Active</t>
   </si>
   <si>
     <t>릴리 2 액티브</t>
   </si>
   <si>
-    <t>웰니스</t>
-  </si>
-  <si>
-    <t>피트니스 GPS 스마트워치</t>
-  </si>
-  <si>
     <t>재스퍼그린, 퍼플자스민, 루나골드</t>
   </si>
   <si>
@@ -920,9 +989,6 @@
   </si>
   <si>
     <t>14일간의 활동 데이터</t>
-  </si>
-  <si>
-    <t>퀵릴리즈 18mm</t>
   </si>
   <si>
     <t>voice</t>
@@ -1735,6 +1801,62 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
@@ -1760,20 +1882,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
@@ -1781,48 +1889,6 @@
       </right>
       <top style="thin">
         <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -2054,7 +2120,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="114">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2193,8 +2259,23 @@
     <xf borderId="9" fillId="0" fontId="4" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2241,12 +2322,6 @@
     <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -2266,6 +2341,9 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2484,7 +2562,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AY36" displayName="표2" name="표2" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AY39" displayName="표2" name="표2" id="1">
   <tableColumns count="51">
     <tableColumn name="id" id="1"/>
     <tableColumn name="productNum" id="2"/>
@@ -6067,7 +6145,7 @@
       <c r="D22" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="9" t="s">
         <v>189</v>
       </c>
       <c r="F22" s="9" t="s">
@@ -6220,7 +6298,7 @@
       <c r="D23" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="21" t="s">
         <v>189</v>
       </c>
       <c r="F23" s="21" t="s">
@@ -6373,7 +6451,7 @@
       <c r="D24" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="E24" s="38" t="s">
+      <c r="E24" s="9" t="s">
         <v>189</v>
       </c>
       <c r="F24" s="9" t="s">
@@ -6526,7 +6604,7 @@
       <c r="D25" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="E25" s="40" t="s">
+      <c r="E25" s="21" t="s">
         <v>189</v>
       </c>
       <c r="F25" s="21" t="s">
@@ -8185,167 +8263,620 @@
       </c>
     </row>
     <row r="36" ht="30.0" customHeight="1">
-      <c r="A36" s="46">
+      <c r="A36" s="8">
         <v>35.0</v>
       </c>
-      <c r="B36" s="47">
+      <c r="B36" s="13">
+        <v>9.53449277E9</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="10">
+        <v>429000.0</v>
+      </c>
+      <c r="K36" s="46"/>
+      <c r="L36" s="12">
+        <v>45245.0</v>
+      </c>
+      <c r="M36" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="S36" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T36" s="9" t="s">
+        <v>292</v>
+      </c>
+      <c r="U36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="X36" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y36" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="AY36" s="19">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="37" ht="30.0" customHeight="1">
+      <c r="A37" s="20">
+        <v>36.0</v>
+      </c>
+      <c r="B37" s="25">
+        <v>9.534769639E9</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E37" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="H37" s="21" t="s">
+        <v>296</v>
+      </c>
+      <c r="I37" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="J37" s="22">
+        <v>659000.0</v>
+      </c>
+      <c r="K37" s="49"/>
+      <c r="L37" s="24">
+        <v>45245.0</v>
+      </c>
+      <c r="M37" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="O37" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="R37" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="S37" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T37" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="U37" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="X37" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y37" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA37" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG37" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR37" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="21">
+        <v>14.0</v>
+      </c>
+      <c r="AY37" s="28">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="38" ht="30.0" customHeight="1">
+      <c r="A38" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="B38" s="13">
+        <v>9.534767189E9</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" s="10">
+        <v>659000.0</v>
+      </c>
+      <c r="K38" s="46"/>
+      <c r="L38" s="12">
+        <v>45245.0</v>
+      </c>
+      <c r="M38" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="R38" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="S38" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T38" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="U38" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="X38" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y38" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z38" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="47" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG38" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="AY38" s="19">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="39" ht="30.0" customHeight="1">
+      <c r="A39" s="51">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="52">
         <v>1.1061289692E10</v>
       </c>
-      <c r="C36" s="48" t="s">
-        <v>284</v>
-      </c>
-      <c r="D36" s="48" t="s">
-        <v>285</v>
-      </c>
-      <c r="E36" s="48" t="s">
+      <c r="C39" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="D39" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="E39" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F36" s="48" t="s">
+      <c r="F39" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="G36" s="48" t="s">
-        <v>288</v>
-      </c>
-      <c r="H36" s="48" t="s">
-        <v>289</v>
-      </c>
-      <c r="I36" s="48" t="s">
-        <v>290</v>
-      </c>
-      <c r="J36" s="49">
+      <c r="G39" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="I39" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="J39" s="54">
         <v>459000.0</v>
       </c>
-      <c r="K36" s="50"/>
-      <c r="L36" s="51">
+      <c r="K39" s="55"/>
+      <c r="L39" s="56">
         <v>45594.0</v>
       </c>
-      <c r="M36" s="48" t="s">
-        <v>291</v>
-      </c>
-      <c r="N36" s="48" t="s">
-        <v>292</v>
-      </c>
-      <c r="O36" s="48" t="s">
+      <c r="M39" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="N39" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="O39" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="P39" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="R39" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="S39" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="T39" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="U39" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="V39" s="53"/>
+      <c r="W39" s="53" t="s">
+        <v>308</v>
+      </c>
+      <c r="X39" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="P36" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="48" t="s">
-        <v>294</v>
-      </c>
-      <c r="R36" s="48" t="s">
-        <v>295</v>
-      </c>
-      <c r="S36" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="T36" s="48" t="s">
-        <v>185</v>
-      </c>
-      <c r="U36" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="V36" s="48"/>
-      <c r="W36" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="X36" s="48" t="s">
-        <v>186</v>
-      </c>
-      <c r="Y36" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB36" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="53" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG36" s="55" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH36" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="52" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM36" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="57" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="56" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX36" s="48">
+      <c r="Y39" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB39" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="53">
         <v>14.0</v>
       </c>
-      <c r="AY36" s="58">
+      <c r="AY39" s="63">
         <v>9.0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AW36">
+  <conditionalFormatting sqref="A2:AW39">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH(("false"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L36">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L39">
       <formula1>OR(NOT(ISERROR(DATEVALUE(L2))), AND(ISNUMBER(L2), LEFT(CELL("format", L2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="J2:K36">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="J2:K39">
       <formula1>AND(ISNUMBER(J2),(NOT(OR(NOT(ISERROR(DATEVALUE(J2))), AND(ISNUMBER(J2), LEFT(CELL("format", J2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -8446,39 +8977,39 @@
         <v>48</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="59">
+      <c r="A2" s="64">
         <v>1.0</v>
       </c>
       <c r="B2" s="9">
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -8490,19 +9021,19 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>308</v>
+        <v>330</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O2" s="17" t="b">
         <v>0</v>
@@ -8520,7 +9051,7 @@
         <v>0</v>
       </c>
       <c r="T2" s="9" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="U2" s="19"/>
     </row>
@@ -8532,16 +9063,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>311</v>
+        <v>333</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G3" s="22">
         <v>519000.0</v>
@@ -8551,19 +9082,19 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>312</v>
+        <v>334</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L3" s="21" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O3" s="17" t="b">
         <v>0</v>
@@ -8581,30 +9112,30 @@
         <v>1</v>
       </c>
       <c r="T3" s="21" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="U3" s="28"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="59">
+      <c r="A4" s="64">
         <v>3.0</v>
       </c>
       <c r="B4" s="32">
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="G4" s="60">
+        <v>326</v>
+      </c>
+      <c r="G4" s="65">
         <v>659000.0</v>
       </c>
       <c r="H4" s="11"/>
@@ -8612,19 +9143,19 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O4" s="17" t="b">
         <v>0</v>
@@ -8642,7 +9173,7 @@
         <v>1</v>
       </c>
       <c r="T4" s="32" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="U4" s="36"/>
     </row>
@@ -8654,16 +9185,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>317</v>
+        <v>339</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G5" s="22">
         <v>659000.0</v>
@@ -8673,19 +9204,19 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>318</v>
+        <v>340</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O5" s="17" t="b">
         <v>0</v>
@@ -8703,28 +9234,28 @@
         <v>1</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="U5" s="28"/>
     </row>
     <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="59">
+      <c r="A6" s="64">
         <v>5.0</v>
       </c>
       <c r="B6" s="9">
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -8734,19 +9265,19 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>323</v>
+        <v>345</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>1</v>
@@ -8764,7 +9295,7 @@
         <v>1</v>
       </c>
       <c r="T6" s="9" t="s">
-        <v>314</v>
+        <v>336</v>
       </c>
       <c r="U6" s="19"/>
     </row>
@@ -8776,16 +9307,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="D7" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>302</v>
-      </c>
       <c r="E7" s="21" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="G7" s="22">
         <v>799000.0</v>
@@ -8795,19 +9326,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O7" s="21" t="b">
         <v>1</v>
@@ -8825,28 +9356,28 @@
         <v>1</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>320</v>
+        <v>342</v>
       </c>
       <c r="U7" s="28"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="59">
+      <c r="A8" s="64">
         <v>7.0</v>
       </c>
       <c r="B8" s="9">
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -8858,20 +9389,20 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="M8" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>309</v>
-      </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
       </c>
@@ -8888,7 +9419,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="U8" s="19"/>
     </row>
@@ -8900,16 +9431,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="G9" s="22">
         <v>989000.0</v>
@@ -8921,19 +9452,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>335</v>
+        <v>357</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O9" s="21" t="b">
         <v>1</v>
@@ -8951,28 +9482,28 @@
         <v>1</v>
       </c>
       <c r="T9" s="21" t="s">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="U9" s="28"/>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="59">
+      <c r="A10" s="64">
         <v>9.0</v>
       </c>
       <c r="B10" s="9">
         <v>1.0632515323E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G10" s="10">
         <v>1089000.0</v>
@@ -8982,19 +9513,19 @@
         <v>45496.0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
       <c r="K10" s="32" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
@@ -9012,7 +9543,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="U10" s="19"/>
     </row>
@@ -9024,16 +9555,16 @@
         <v>1.0632516764E10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>342</v>
+        <v>364</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="G11" s="22">
         <v>1229000.0</v>
@@ -9043,19 +9574,19 @@
         <v>45496.0</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="K11" s="61" t="s">
-        <v>340</v>
+        <v>365</v>
+      </c>
+      <c r="K11" s="66" t="s">
+        <v>362</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>330</v>
+        <v>352</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O11" s="21" t="b">
         <v>1</v>
@@ -9073,28 +9604,28 @@
         <v>1</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="U11" s="28"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="59">
+      <c r="A12" s="64">
         <v>11.0</v>
       </c>
       <c r="B12" s="9">
         <v>6.471040307E9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="G12" s="10">
         <v>880000.0</v>
@@ -9106,12 +9637,12 @@
         <v>44256.0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -9120,10 +9651,10 @@
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
       <c r="T12" s="9" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -9134,16 +9665,16 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>352</v>
+        <v>374</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="G13" s="22">
         <v>1390000.0</v>
@@ -9155,12 +9686,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="K13" s="61"/>
+        <v>376</v>
+      </c>
+      <c r="K13" s="66"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="26"/>
@@ -9169,30 +9700,30 @@
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
       <c r="T13" s="21" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="59">
+      <c r="A14" s="64">
         <v>13.0</v>
       </c>
       <c r="B14" s="9">
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>356</v>
+        <v>378</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="G14" s="10">
         <v>880000.0</v>
@@ -9204,12 +9735,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -9218,10 +9749,10 @@
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
       <c r="T14" s="9" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -9232,16 +9763,16 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="G15" s="22">
         <v>1390000.0</v>
@@ -9253,12 +9784,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21" t="s">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -9267,30 +9798,30 @@
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
       <c r="T15" s="21" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="59">
+      <c r="A16" s="64">
         <v>15.0</v>
       </c>
       <c r="B16" s="9">
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -9302,12 +9833,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -9316,10 +9847,10 @@
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
       <c r="T16" s="9" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -9330,16 +9861,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="G17" s="22">
         <v>1590000.0</v>
@@ -9351,12 +9882,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>369</v>
-      </c>
-      <c r="K17" s="61"/>
+        <v>391</v>
+      </c>
+      <c r="K17" s="66"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="26"/>
@@ -9365,30 +9896,30 @@
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
       <c r="T17" s="21" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>367</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="59">
+      <c r="A18" s="64">
         <v>17.0</v>
       </c>
       <c r="B18" s="9">
         <v>2.920696454E9</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="G18" s="10">
         <v>199000.0</v>
@@ -9400,15 +9931,15 @@
         <v>42979.0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -9417,7 +9948,7 @@
       <c r="S18" s="14"/>
       <c r="T18" s="9"/>
       <c r="U18" s="19" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -9428,16 +9959,16 @@
         <v>5.018655247E9</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="F19" s="61" t="s">
-        <v>379</v>
+        <v>400</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>401</v>
       </c>
       <c r="G19" s="22">
         <v>258000.0</v>
@@ -9447,15 +9978,15 @@
         <v>44013.0</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="K19" s="61"/>
+        <v>402</v>
+      </c>
+      <c r="K19" s="66"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -9466,50 +9997,50 @@
       <c r="U19" s="28"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="62">
+      <c r="A20" s="67">
         <v>19.0</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="68">
         <v>6.878093775E9</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>382</v>
-      </c>
-      <c r="D20" s="48" t="s">
-        <v>345</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>383</v>
-      </c>
-      <c r="F20" s="48" t="s">
-        <v>384</v>
-      </c>
-      <c r="G20" s="49">
+      <c r="C20" s="68" t="s">
+        <v>404</v>
+      </c>
+      <c r="D20" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="68" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="68" t="s">
+        <v>406</v>
+      </c>
+      <c r="G20" s="69">
         <v>529000.0</v>
       </c>
-      <c r="H20" s="63"/>
-      <c r="I20" s="51">
+      <c r="H20" s="70"/>
+      <c r="I20" s="71">
         <v>44682.0</v>
       </c>
-      <c r="J20" s="48" t="s">
-        <v>385</v>
-      </c>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48" t="s">
-        <v>386</v>
-      </c>
-      <c r="N20" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="52"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="58" t="s">
-        <v>387</v>
+      <c r="J20" s="68" t="s">
+        <v>407</v>
+      </c>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="N20" s="68" t="s">
+        <v>331</v>
+      </c>
+      <c r="O20" s="72"/>
+      <c r="P20" s="72"/>
+      <c r="Q20" s="72"/>
+      <c r="R20" s="72"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="68"/>
+      <c r="U20" s="73" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -9612,30 +10143,30 @@
         <v>20</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="59">
+      <c r="A2" s="64">
         <v>1.0</v>
       </c>
       <c r="B2" s="9">
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>233</v>
@@ -9648,19 +10179,19 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="Q2" s="19"/>
     </row>
@@ -9672,13 +10203,13 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>233</v>
@@ -9691,42 +10222,42 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="59">
+      <c r="A4" s="64">
         <v>3.0</v>
       </c>
       <c r="B4" s="32">
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="G4" s="60">
+      <c r="G4" s="65">
         <v>121000.0</v>
       </c>
       <c r="H4" s="11"/>
@@ -9734,19 +10265,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="Q4" s="36"/>
     </row>
@@ -9758,16 +10289,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="G5" s="22">
         <v>89000.0</v>
@@ -9780,37 +10311,37 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
     <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="59">
+      <c r="A6" s="64">
         <v>5.0</v>
       </c>
       <c r="B6" s="9">
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -9826,13 +10357,13 @@
         <v>258</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="Q6" s="19"/>
     </row>
@@ -9844,16 +10375,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="G7" s="22">
         <v>225000.0</v>
@@ -9869,34 +10400,34 @@
         <v>157</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="59">
+      <c r="A8" s="64">
         <v>7.0</v>
       </c>
       <c r="B8" s="9">
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -9909,19 +10440,19 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="O8" s="9" t="s">
         <v>414</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>309</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>392</v>
-      </c>
       <c r="P8" s="9" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -9932,16 +10463,16 @@
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="G9" s="22">
         <v>398000.0</v>
@@ -9954,39 +10485,39 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="O9" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>309</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>392</v>
-      </c>
       <c r="P9" s="21" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="59">
+      <c r="A10" s="64">
         <v>9.0</v>
       </c>
       <c r="B10" s="9">
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -9999,19 +10530,19 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -10022,16 +10553,16 @@
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="G11" s="22">
         <v>789000.0</v>
@@ -10043,40 +10574,40 @@
         <v>43952.0</v>
       </c>
       <c r="J11" s="21"/>
-      <c r="K11" s="61"/>
+      <c r="K11" s="66"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="Q11" s="28"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="59">
+      <c r="A12" s="64">
         <v>11.0</v>
       </c>
       <c r="B12" s="9">
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -10089,16 +10620,16 @@
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>310</v>
+        <v>332</v>
       </c>
       <c r="Q12" s="19"/>
     </row>
@@ -10110,16 +10641,16 @@
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="G13" s="22">
         <v>989000.0</v>
@@ -10131,24 +10662,24 @@
         <v>44927.0</v>
       </c>
       <c r="J13" s="21"/>
-      <c r="K13" s="61"/>
+      <c r="K13" s="66"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>309</v>
+        <v>331</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="Q13" s="28"/>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="59">
+      <c r="A14" s="64">
         <v>13.0</v>
       </c>
       <c r="B14" s="9"/>
@@ -10181,7 +10712,7 @@
       <c r="H15" s="23"/>
       <c r="I15" s="24"/>
       <c r="J15" s="21"/>
-      <c r="K15" s="61"/>
+      <c r="K15" s="66"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21"/>
       <c r="N15" s="21"/>
@@ -10190,7 +10721,7 @@
       <c r="Q15" s="28"/>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="59">
+      <c r="A16" s="64">
         <v>15.0</v>
       </c>
       <c r="B16" s="9"/>
@@ -10223,7 +10754,7 @@
       <c r="H17" s="23"/>
       <c r="I17" s="24"/>
       <c r="J17" s="21"/>
-      <c r="K17" s="61"/>
+      <c r="K17" s="66"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21"/>
       <c r="N17" s="21"/>
@@ -10232,7 +10763,7 @@
       <c r="Q17" s="28"/>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="59">
+      <c r="A18" s="64">
         <v>16.0</v>
       </c>
       <c r="B18" s="9"/>
@@ -10265,7 +10796,7 @@
       <c r="H19" s="23"/>
       <c r="I19" s="24"/>
       <c r="J19" s="21"/>
-      <c r="K19" s="61"/>
+      <c r="K19" s="66"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21"/>
       <c r="N19" s="21"/>
@@ -10274,7 +10805,7 @@
       <c r="Q19" s="28"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="59">
+      <c r="A20" s="64">
         <v>18.0</v>
       </c>
       <c r="B20" s="9"/>
@@ -10295,25 +10826,25 @@
       <c r="Q20" s="19"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="64">
+      <c r="A21" s="51">
         <v>19.0</v>
       </c>
-      <c r="B21" s="65"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="65"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="65"/>
-      <c r="Q21" s="70"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
+      <c r="M21" s="53"/>
+      <c r="N21" s="53"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="53"/>
+      <c r="Q21" s="63"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:O21">
@@ -10374,423 +10905,423 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="71"/>
-      <c r="B1" s="71"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="74"/>
-      <c r="B2" s="75" t="s">
-        <v>440</v>
-      </c>
-      <c r="C2" s="76" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="77" t="s">
-        <v>442</v>
-      </c>
-      <c r="E2" s="74"/>
-      <c r="F2" s="78" t="s">
-        <v>443</v>
-      </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="81"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="79" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>463</v>
+      </c>
+      <c r="D2" s="81" t="s">
+        <v>464</v>
+      </c>
+      <c r="E2" s="78"/>
+      <c r="F2" s="82" t="s">
+        <v>465</v>
+      </c>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="74"/>
-      <c r="B3" s="82">
+      <c r="A3" s="78"/>
+      <c r="B3" s="86">
         <v>45671.0</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>444</v>
-      </c>
-      <c r="D3" s="84" t="s">
-        <v>445</v>
-      </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="85" t="s">
-        <v>446</v>
-      </c>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="88"/>
+      <c r="C3" s="87" t="s">
+        <v>466</v>
+      </c>
+      <c r="D3" s="88" t="s">
+        <v>467</v>
+      </c>
+      <c r="E3" s="78"/>
+      <c r="F3" s="89" t="s">
+        <v>468</v>
+      </c>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="92"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="74"/>
-      <c r="B4" s="89">
+      <c r="A4" s="78"/>
+      <c r="B4" s="93">
         <v>45671.0</v>
       </c>
-      <c r="C4" s="83" t="s">
-        <v>447</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>448</v>
-      </c>
-      <c r="E4" s="74"/>
-      <c r="F4" s="91" t="s">
+      <c r="C4" s="87" t="s">
+        <v>469</v>
+      </c>
+      <c r="D4" s="94" t="s">
+        <v>470</v>
+      </c>
+      <c r="E4" s="78"/>
+      <c r="F4" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="92" t="s">
-        <v>449</v>
-      </c>
-      <c r="K4" s="93"/>
-      <c r="L4" s="88"/>
+      <c r="G4" s="96" t="s">
+        <v>471</v>
+      </c>
+      <c r="K4" s="97"/>
+      <c r="L4" s="92"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="94">
+      <c r="A5" s="78"/>
+      <c r="B5" s="98">
         <v>45669.0</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>450</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>451</v>
-      </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="91" t="s">
-        <v>452</v>
-      </c>
-      <c r="G5" s="92" t="s">
-        <v>453</v>
-      </c>
-      <c r="K5" s="93"/>
-      <c r="L5" s="88"/>
+      <c r="C5" s="87" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="99" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="78"/>
+      <c r="F5" s="95" t="s">
+        <v>474</v>
+      </c>
+      <c r="G5" s="96" t="s">
+        <v>475</v>
+      </c>
+      <c r="K5" s="97"/>
+      <c r="L5" s="92"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="74"/>
-      <c r="B6" s="89">
+      <c r="A6" s="78"/>
+      <c r="B6" s="93">
         <v>45671.0</v>
       </c>
-      <c r="C6" s="83" t="s">
-        <v>447</v>
-      </c>
-      <c r="D6" s="84" t="s">
-        <v>454</v>
-      </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="91" t="s">
-        <v>455</v>
-      </c>
-      <c r="G6" s="92" t="s">
-        <v>456</v>
-      </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="88"/>
+      <c r="C6" s="87" t="s">
+        <v>469</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" s="78"/>
+      <c r="F6" s="95" t="s">
+        <v>477</v>
+      </c>
+      <c r="G6" s="96" t="s">
+        <v>478</v>
+      </c>
+      <c r="K6" s="97"/>
+      <c r="L6" s="92"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="74"/>
-      <c r="B7" s="94">
+      <c r="A7" s="78"/>
+      <c r="B7" s="98">
         <v>45672.0</v>
       </c>
-      <c r="C7" s="83" t="s">
-        <v>447</v>
-      </c>
-      <c r="D7" s="95" t="s">
-        <v>457</v>
-      </c>
-      <c r="E7" s="74"/>
-      <c r="F7" s="91" t="s">
-        <v>458</v>
-      </c>
-      <c r="G7" s="92" t="s">
-        <v>459</v>
-      </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="88"/>
+      <c r="C7" s="87" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" s="99" t="s">
+        <v>479</v>
+      </c>
+      <c r="E7" s="78"/>
+      <c r="F7" s="95" t="s">
+        <v>480</v>
+      </c>
+      <c r="G7" s="96" t="s">
+        <v>481</v>
+      </c>
+      <c r="K7" s="97"/>
+      <c r="L7" s="92"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="74"/>
-      <c r="B8" s="82">
+      <c r="A8" s="78"/>
+      <c r="B8" s="86">
         <v>45674.0</v>
       </c>
-      <c r="C8" s="83" t="s">
-        <v>447</v>
-      </c>
-      <c r="D8" s="84" t="s">
-        <v>460</v>
-      </c>
-      <c r="E8" s="74"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="92" t="s">
-        <v>461</v>
-      </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="88"/>
+      <c r="C8" s="87" t="s">
+        <v>469</v>
+      </c>
+      <c r="D8" s="88" t="s">
+        <v>482</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="96" t="s">
+        <v>483</v>
+      </c>
+      <c r="K8" s="97"/>
+      <c r="L8" s="92"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="94">
+      <c r="A9" s="78"/>
+      <c r="B9" s="98">
         <v>45731.0</v>
       </c>
-      <c r="C9" s="83" t="s">
-        <v>462</v>
-      </c>
-      <c r="D9" s="95" t="s">
-        <v>463</v>
-      </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="91" t="s">
-        <v>464</v>
-      </c>
-      <c r="G9" s="92" t="s">
-        <v>465</v>
-      </c>
-      <c r="K9" s="93"/>
-      <c r="L9" s="88"/>
+      <c r="C9" s="87" t="s">
+        <v>484</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>485</v>
+      </c>
+      <c r="E9" s="78"/>
+      <c r="F9" s="95" t="s">
+        <v>486</v>
+      </c>
+      <c r="G9" s="96" t="s">
+        <v>487</v>
+      </c>
+      <c r="K9" s="97"/>
+      <c r="L9" s="92"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="74"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="91" t="s">
-        <v>466</v>
-      </c>
-      <c r="G10" s="92" t="s">
-        <v>467</v>
-      </c>
-      <c r="K10" s="93"/>
-      <c r="L10" s="88"/>
+      <c r="A10" s="78"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="95" t="s">
+        <v>488</v>
+      </c>
+      <c r="G10" s="96" t="s">
+        <v>489</v>
+      </c>
+      <c r="K10" s="97"/>
+      <c r="L10" s="92"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="74"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="73"/>
+      <c r="A11" s="78"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="105"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="77"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="103"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="83"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="103"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="107"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="104"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="104"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="108"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="104"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="104"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="108"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="104"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="97"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="104"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="108"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="104"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="104"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="108"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="105"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="109"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="105"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="109"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="105"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="105"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="71"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="71"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="75"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="71"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="71"/>
+      <c r="A21" s="75"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="75"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="71"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="71"/>
+      <c r="A22" s="75"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="75"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="71"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="97"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="71"/>
+      <c r="A23" s="75"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="75"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="71"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="71"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="75"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="71"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="97"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="71"/>
+      <c r="A25" s="75"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="75"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="71"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="71"/>
+      <c r="A26" s="75"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="75"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="71"/>
-      <c r="B27" s="96"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="71"/>
+      <c r="A27" s="75"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="75"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="71"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="71"/>
+      <c r="A28" s="75"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="75"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="71"/>
-      <c r="B29" s="96"/>
-      <c r="C29" s="97"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="71"/>
+      <c r="A29" s="75"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="75"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="71"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="71"/>
+      <c r="A30" s="75"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="75"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="71"/>
-      <c r="B31" s="96"/>
-      <c r="C31" s="97"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="71"/>
+      <c r="A31" s="75"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="75"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="71"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
-      <c r="E32" s="71"/>
+      <c r="A32" s="75"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="75"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="71"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="71"/>
+      <c r="A33" s="75"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="75"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="71"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="83"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="71"/>
+      <c r="A34" s="75"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="88"/>
+      <c r="E34" s="75"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="98"/>
-      <c r="E35" s="71"/>
+      <c r="A35" s="75"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="101"/>
+      <c r="D35" s="102"/>
+      <c r="E35" s="75"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="71"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="83"/>
-      <c r="D36" s="84"/>
-      <c r="E36" s="71"/>
+      <c r="A36" s="75"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="87"/>
+      <c r="D36" s="88"/>
+      <c r="E36" s="75"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="71"/>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="98"/>
-      <c r="E37" s="71"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="101"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="75"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="71"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="71"/>
+      <c r="A38" s="75"/>
+      <c r="B38" s="110"/>
+      <c r="C38" s="111"/>
+      <c r="D38" s="112"/>
+      <c r="E38" s="75"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="72"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="76"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="75"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="72"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="71"/>
-      <c r="C41" s="109"/>
-      <c r="E41" s="71"/>
+      <c r="A41" s="75"/>
+      <c r="C41" s="113"/>
+      <c r="E41" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -952,7 +952,7 @@
     <t>41mm</t>
   </si>
   <si>
-    <t>products/venu3/s-41mm-pebblegray.png,products/venu3/s-41mm-sagegray.png,products/venu3/s-41mm-frenchgray.png,products/venu3/s-41mm-dustrose.png,products/venu3/s-45mm-ivory.png</t>
+    <t>products/venu3/s-41mm-pebblegray.png,products/venu3/s-41mm-sagegray.png,products/venu3/s-41mm-frenchgray.png,products/venu3/s-41mm-dustrose.png,products/venu3/s-41mm-ivory.png</t>
   </si>
   <si>
     <t>27g</t>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -6,8 +6,7 @@
     <sheet state="visible" name="Watch" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Cycling" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Sensor" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="시트4" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="⛔  Notice" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="⛔  Notice" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="497">
   <si>
     <t>id</t>
   </si>
@@ -916,6 +915,21 @@
     <t>산화피막 알루미늄</t>
   </si>
   <si>
+    <t>Vivoactive 6</t>
+  </si>
+  <si>
+    <t>비보액티브 6</t>
+  </si>
+  <si>
+    <t>블랙,루나골드,재스퍼그린,핑크던</t>
+  </si>
+  <si>
+    <t>#000000,#FBF8EF,#0B6138,#ffcccc</t>
+  </si>
+  <si>
+    <t>products/vivoactive6/basic-42mm-black.png,products/vivoactive6/basic-42mm-gold.png,products/vivoactive6/basic-42mm-green.png,products/vivoactive6/basic-42mm-pink.png</t>
+  </si>
+  <si>
     <t>Venu 3</t>
   </si>
   <si>
@@ -1030,364 +1044,370 @@
     <t>IPX7</t>
   </si>
   <si>
+    <t>Edge 540</t>
+  </si>
+  <si>
+    <t>products/edge540/basic-black.png</t>
+  </si>
+  <si>
+    <t>80.3g</t>
+  </si>
+  <si>
+    <t>Edge 540 Bundle</t>
+  </si>
+  <si>
+    <t>products/edge540/bundle-black.png</t>
+  </si>
+  <si>
+    <t>Edge 540 Solar</t>
+  </si>
+  <si>
+    <t>products/edge540/solar-black.png</t>
+  </si>
+  <si>
+    <t>84.9g</t>
+  </si>
+  <si>
+    <t>Edge 840 Bundle</t>
+  </si>
+  <si>
+    <t>products/edge840/bundle-black.png</t>
+  </si>
+  <si>
+    <t>84.8g</t>
+  </si>
+  <si>
+    <t>Edge 840 Solar</t>
+  </si>
+  <si>
+    <t>products/edge840/solar-black.png</t>
+  </si>
+  <si>
+    <t>88.9g</t>
+  </si>
+  <si>
+    <t>Edge 1040 Bundle</t>
+  </si>
+  <si>
+    <t>59.3 x 117.6 x 20.0 mm</t>
+  </si>
+  <si>
+    <t>products/edge1040/bundle-black.png</t>
+  </si>
+  <si>
+    <t>3.5inch</t>
+  </si>
+  <si>
+    <t>126g</t>
+  </si>
+  <si>
+    <t>Edge 1040 Solar</t>
+  </si>
+  <si>
+    <t>products/edge1040/solar-black.png</t>
+  </si>
+  <si>
+    <t>133g</t>
+  </si>
+  <si>
+    <t>Edge 1050, GPS</t>
+  </si>
+  <si>
+    <t>60.2 x 118.5 x 16.3mm</t>
+  </si>
+  <si>
+    <t>products/edge1050/basic-black.png</t>
+  </si>
+  <si>
+    <t>컬러 LCD</t>
+  </si>
+  <si>
+    <t>161g</t>
+  </si>
+  <si>
+    <t>Edge 1050 Bundle</t>
+  </si>
+  <si>
+    <t>products/edge1050/bundle-black.png</t>
+  </si>
+  <si>
+    <t>Rally RS100</t>
+  </si>
+  <si>
+    <t>사이클링 센서</t>
+  </si>
+  <si>
+    <t>싱글센서 페달형 파워미터</t>
+  </si>
+  <si>
+    <t>Q-팩터 53mm / 스택 높이 12.2mm</t>
+  </si>
+  <si>
+    <t>products/rally/rs100.png</t>
+  </si>
+  <si>
+    <t>320g</t>
+  </si>
+  <si>
+    <t>시마노 클릿 전용</t>
+  </si>
+  <si>
+    <t>Rally RS200</t>
+  </si>
+  <si>
+    <t>듀얼센서 페달형 파워미터</t>
+  </si>
+  <si>
+    <t>products/rally/rs200.png</t>
+  </si>
+  <si>
+    <t>328g</t>
+  </si>
+  <si>
+    <t>Rally RK100</t>
+  </si>
+  <si>
+    <t>products/rally/rk100.png</t>
+  </si>
+  <si>
+    <t>326g</t>
+  </si>
+  <si>
+    <t>룩케오 클릿 전용</t>
+  </si>
+  <si>
+    <t>Rally RK200</t>
+  </si>
+  <si>
+    <t>products/rally/rk200.png</t>
+  </si>
+  <si>
+    <t>334g</t>
+  </si>
+  <si>
+    <t>Rally XC100</t>
+  </si>
+  <si>
+    <t>Q-팩터 53mm / 스택 높이 13.5mm</t>
+  </si>
+  <si>
+    <t>products/rally/xc100.png</t>
+  </si>
+  <si>
+    <t>448g</t>
+  </si>
+  <si>
+    <t>시마노 클릿 전용(MTB)</t>
+  </si>
+  <si>
+    <t>Rally XC200</t>
+  </si>
+  <si>
+    <t>products/rally/xc200.png</t>
+  </si>
+  <si>
+    <t>455g</t>
+  </si>
+  <si>
+    <t>Varia Vue</t>
+  </si>
+  <si>
+    <t>전조등 &amp; 블랙박스</t>
+  </si>
+  <si>
+    <t>92 x 60 x 33 mm</t>
+  </si>
+  <si>
+    <t>products/varia/vue.png</t>
+  </si>
+  <si>
+    <t>200g</t>
+  </si>
+  <si>
+    <t>9 (1.25)</t>
+  </si>
+  <si>
+    <t>500lm (루멘)</t>
+  </si>
+  <si>
+    <t>Varia UT800</t>
+  </si>
+  <si>
+    <t>전조등</t>
+  </si>
+  <si>
+    <t>96.6 x 33.5 x 29.7</t>
+  </si>
+  <si>
+    <t>products/varia/UT800.png</t>
+  </si>
+  <si>
+    <t>130g</t>
+  </si>
+  <si>
+    <t>800lm (루멘)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varia RTL515 </t>
+  </si>
+  <si>
+    <t>후방레이더 &amp; 라이트</t>
+  </si>
+  <si>
+    <t>98.6 x 19.7 x 39.6</t>
+  </si>
+  <si>
+    <t>products/varia/RTL515.png</t>
+  </si>
+  <si>
+    <t>71g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Varia RCT715 </t>
+  </si>
+  <si>
+    <t>후방레이더 &amp; 라이트 &amp; 블랙박스</t>
+  </si>
+  <si>
+    <t>106.5 x 42.0 x 31.9</t>
+  </si>
+  <si>
+    <t>products/varia/RCT715.png</t>
+  </si>
+  <si>
+    <t>147g</t>
+  </si>
+  <si>
+    <t>화질 1080p/720p, with 30 FPS</t>
+  </si>
+  <si>
+    <t>batteryType</t>
+  </si>
+  <si>
+    <t>Speed Sensor 2</t>
+  </si>
+  <si>
+    <t>속도 센서</t>
+  </si>
+  <si>
+    <t>products/sensor/speed2.png</t>
+  </si>
+  <si>
+    <t>CR2032</t>
+  </si>
+  <si>
+    <t>1년</t>
+  </si>
+  <si>
+    <t>Cadence Sensor 2</t>
+  </si>
+  <si>
+    <t>케이던스 센서</t>
+  </si>
+  <si>
+    <t>products/sensor/cadence2.png</t>
+  </si>
+  <si>
+    <t>Speed &amp; Cadence Sensor 2 Bundle</t>
+  </si>
+  <si>
+    <t>속도 &amp; 케이던스 측정 센서 번들</t>
+  </si>
+  <si>
+    <t>products/sensor/speed-cadence2.png</t>
+  </si>
+  <si>
+    <t>HRM-Dual</t>
+  </si>
+  <si>
+    <t>심박 센서</t>
+  </si>
+  <si>
+    <t>심박수 모니터</t>
+  </si>
+  <si>
+    <t>130.8 x 3.3 x 1.9cm</t>
+  </si>
+  <si>
+    <t>54.4g</t>
+  </si>
+  <si>
+    <t>3.5년</t>
+  </si>
+  <si>
+    <t>HRM-Pro Plus</t>
+  </si>
+  <si>
+    <t>142.0 x 3.0 x 1.2cm</t>
+  </si>
+  <si>
+    <t>HRM-Fit</t>
+  </si>
+  <si>
+    <t>33.5 x 3.3 x 1.7cm</t>
+  </si>
+  <si>
+    <t>Approach CT10 - starter set</t>
+  </si>
+  <si>
+    <t>골프 센서</t>
+  </si>
+  <si>
+    <t>골프 트래킹 센서</t>
+  </si>
+  <si>
+    <t>27 x 13 mm</t>
+  </si>
+  <si>
+    <t>9g</t>
+  </si>
+  <si>
+    <t>4년</t>
+  </si>
+  <si>
+    <t>블루투스</t>
+  </si>
+  <si>
+    <t>Approach CT10 - full set</t>
+  </si>
+  <si>
+    <t>Approach CT1</t>
+  </si>
+  <si>
+    <t>21 x 23 mm</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>제한없음</t>
+  </si>
+  <si>
+    <t>NFC 태그형</t>
+  </si>
+  <si>
+    <t>Approach Z82</t>
+  </si>
+  <si>
+    <t>골프 측정기</t>
+  </si>
+  <si>
+    <t>골프 레이저 거리 측정기</t>
+  </si>
+  <si>
+    <t>122.9 x 80.0 x 42.1 mm</t>
+  </si>
+  <si>
+    <t>232g</t>
+  </si>
+  <si>
+    <t>내장배터리(충전식)</t>
+  </si>
+  <si>
     <t>20시간</t>
-  </si>
-  <si>
-    <t>Edge 540</t>
-  </si>
-  <si>
-    <t>products/edge540/basic-black.png</t>
-  </si>
-  <si>
-    <t>80.3g</t>
-  </si>
-  <si>
-    <t>26시간</t>
-  </si>
-  <si>
-    <t>Edge 540 Bundle</t>
-  </si>
-  <si>
-    <t>products/edge540/bundle-black.png</t>
-  </si>
-  <si>
-    <t>Edge 540 Solar</t>
-  </si>
-  <si>
-    <t>products/edge540/solar-black.png</t>
-  </si>
-  <si>
-    <t>84.9g</t>
-  </si>
-  <si>
-    <t>32시간</t>
-  </si>
-  <si>
-    <t>Edge 840 Bundle</t>
-  </si>
-  <si>
-    <t>products/edge840/bundle-black.png</t>
-  </si>
-  <si>
-    <t>84.8g</t>
-  </si>
-  <si>
-    <t>Edge 840 Solar</t>
-  </si>
-  <si>
-    <t>products/edge840/solar-black.png</t>
-  </si>
-  <si>
-    <t>88.9g</t>
-  </si>
-  <si>
-    <t>Edge 1040 Bundle</t>
-  </si>
-  <si>
-    <t>59.3 x 117.6 x 20.0 mm</t>
-  </si>
-  <si>
-    <t>products/edge1040/bundle-black.png</t>
-  </si>
-  <si>
-    <t>3.5inch</t>
-  </si>
-  <si>
-    <t>126g</t>
-  </si>
-  <si>
-    <t>35시간</t>
-  </si>
-  <si>
-    <t>Edge 1040 Solar</t>
-  </si>
-  <si>
-    <t>products/edge1040/solar-black.png</t>
-  </si>
-  <si>
-    <t>133g</t>
-  </si>
-  <si>
-    <t>45시간</t>
-  </si>
-  <si>
-    <t>Edge 1050, GPS</t>
-  </si>
-  <si>
-    <t>60.2 x 118.5 x 16.3mm</t>
-  </si>
-  <si>
-    <t>products/edge1050/basic-black.png</t>
-  </si>
-  <si>
-    <t>컬러 LCD</t>
-  </si>
-  <si>
-    <t>161g</t>
-  </si>
-  <si>
-    <t>Edge 1050 Bundle</t>
-  </si>
-  <si>
-    <t>products/edge1050/bundle-black.png</t>
-  </si>
-  <si>
-    <t>Rally RS100</t>
-  </si>
-  <si>
-    <t>사이클링 센서</t>
-  </si>
-  <si>
-    <t>싱글센서 페달형 파워미터</t>
-  </si>
-  <si>
-    <t>Q-팩터 53mm / 스택 높이 12.2mm</t>
-  </si>
-  <si>
-    <t>products/rally/rs100.png</t>
-  </si>
-  <si>
-    <t>320g</t>
-  </si>
-  <si>
-    <t>120시간</t>
-  </si>
-  <si>
-    <t>시마노 클릿 전용</t>
-  </si>
-  <si>
-    <t>Rally RS200</t>
-  </si>
-  <si>
-    <t>듀얼센서 페달형 파워미터</t>
-  </si>
-  <si>
-    <t>products/rally/rs200.png</t>
-  </si>
-  <si>
-    <t>328g</t>
-  </si>
-  <si>
-    <t>Rally RK100</t>
-  </si>
-  <si>
-    <t>products/rally/rk100.png</t>
-  </si>
-  <si>
-    <t>326g</t>
-  </si>
-  <si>
-    <t>룩케오 클릿 전용</t>
-  </si>
-  <si>
-    <t>Rally RK200</t>
-  </si>
-  <si>
-    <t>products/rally/rk200.png</t>
-  </si>
-  <si>
-    <t>334g</t>
-  </si>
-  <si>
-    <t>Rally XC100</t>
-  </si>
-  <si>
-    <t>Q-팩터 53mm / 스택 높이 13.5mm</t>
-  </si>
-  <si>
-    <t>products/rally/xc100.png</t>
-  </si>
-  <si>
-    <t>448g</t>
-  </si>
-  <si>
-    <t>시마노 클릿 전용(MTB)</t>
-  </si>
-  <si>
-    <t>Rally XC200</t>
-  </si>
-  <si>
-    <t>products/rally/xc200.png</t>
-  </si>
-  <si>
-    <t>455g</t>
-  </si>
-  <si>
-    <t>Varia UT800</t>
-  </si>
-  <si>
-    <t>전조등</t>
-  </si>
-  <si>
-    <t>96.6 x 33.5 x 29.7</t>
-  </si>
-  <si>
-    <t>products/varia/UT800.png</t>
-  </si>
-  <si>
-    <t>130g</t>
-  </si>
-  <si>
-    <t>800lm (루멘)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varia RTL515 </t>
-  </si>
-  <si>
-    <t>후방레이더 &amp; 라이트</t>
-  </si>
-  <si>
-    <t>98.6 x 19.7 x 39.6</t>
-  </si>
-  <si>
-    <t>products/varia/RTL515.png</t>
-  </si>
-  <si>
-    <t>71g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Varia RCT715 </t>
-  </si>
-  <si>
-    <t>후방레이더 &amp; 라이트 &amp; 블랙박스</t>
-  </si>
-  <si>
-    <t>106.5 x 42.0 x 31.9</t>
-  </si>
-  <si>
-    <t>products/varia/RCT715.png</t>
-  </si>
-  <si>
-    <t>147g</t>
-  </si>
-  <si>
-    <t>화질 1080p/720p, with 30 FPS</t>
-  </si>
-  <si>
-    <t>batteryType</t>
-  </si>
-  <si>
-    <t>Speed Sensor 2</t>
-  </si>
-  <si>
-    <t>속도 센서</t>
-  </si>
-  <si>
-    <t>products/sensor/speed2.png</t>
-  </si>
-  <si>
-    <t>CR2032</t>
-  </si>
-  <si>
-    <t>1년</t>
-  </si>
-  <si>
-    <t>Cadence Sensor 2</t>
-  </si>
-  <si>
-    <t>케이던스 센서</t>
-  </si>
-  <si>
-    <t>products/sensor/cadence2.png</t>
-  </si>
-  <si>
-    <t>Speed &amp; Cadence Sensor 2 Bundle</t>
-  </si>
-  <si>
-    <t>속도 &amp; 케이던스 측정 센서 번들</t>
-  </si>
-  <si>
-    <t>products/sensor/speed-cadence2.png</t>
-  </si>
-  <si>
-    <t>HRM-Dual</t>
-  </si>
-  <si>
-    <t>심박 센서</t>
-  </si>
-  <si>
-    <t>심박수 모니터</t>
-  </si>
-  <si>
-    <t>130.8 x 3.3 x 1.9cm</t>
-  </si>
-  <si>
-    <t>54.4g</t>
-  </si>
-  <si>
-    <t>3.5년</t>
-  </si>
-  <si>
-    <t>HRM-Pro Plus</t>
-  </si>
-  <si>
-    <t>142.0 x 3.0 x 1.2cm</t>
-  </si>
-  <si>
-    <t>HRM-Fit</t>
-  </si>
-  <si>
-    <t>33.5 x 3.3 x 1.7cm</t>
-  </si>
-  <si>
-    <t>Approach CT10 - starter set</t>
-  </si>
-  <si>
-    <t>골프 센서</t>
-  </si>
-  <si>
-    <t>골프 트래킹 센서</t>
-  </si>
-  <si>
-    <t>27 x 13 mm</t>
-  </si>
-  <si>
-    <t>9g</t>
-  </si>
-  <si>
-    <t>4년</t>
-  </si>
-  <si>
-    <t>블루투스</t>
-  </si>
-  <si>
-    <t>Approach CT10 - full set</t>
-  </si>
-  <si>
-    <t>Approach CT1</t>
-  </si>
-  <si>
-    <t>21 x 23 mm</t>
-  </si>
-  <si>
-    <t>2g</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>제한없음</t>
-  </si>
-  <si>
-    <t>NFC 태그형</t>
-  </si>
-  <si>
-    <t>Approach Z82</t>
-  </si>
-  <si>
-    <t>골프 측정기</t>
-  </si>
-  <si>
-    <t>골프 레이저 거리 측정기</t>
-  </si>
-  <si>
-    <t>122.9 x 80.0 x 42.1 mm</t>
-  </si>
-  <si>
-    <t>232g</t>
-  </si>
-  <si>
-    <t>내장배터리(충전식)</t>
   </si>
   <si>
     <t>Approach Z30</t>
@@ -1801,6 +1821,62 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
         <color rgb="FFF6F8F9"/>
       </right>
       <top style="thin">
@@ -1826,20 +1902,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF6F8F9"/>
       </left>
       <right style="thin">
@@ -1847,48 +1909,6 @@
       </right>
       <top style="thin">
         <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF284E3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -2120,7 +2140,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="113">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2275,7 +2295,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2341,9 +2361,6 @@
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2557,12 +2574,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AY39" displayName="표2" name="표2" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AY40" displayName="표2" name="표2" id="1">
   <tableColumns count="51">
     <tableColumn name="id" id="1"/>
     <tableColumn name="productNum" id="2"/>
@@ -2621,7 +2634,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:U20" displayName="표2_2" name="표2_2" id="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:U21" displayName="표2_2" name="표2_2" id="2">
   <tableColumns count="21">
     <tableColumn name="id" id="1"/>
     <tableColumn name="productNum" id="2"/>
@@ -7167,8 +7180,8 @@
       <c r="AN28" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AO28" s="17" t="b">
-        <v>0</v>
+      <c r="AO28" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AP28" s="14" t="b">
         <v>1</v>
@@ -7318,8 +7331,8 @@
       <c r="AN29" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AO29" s="17" t="b">
-        <v>0</v>
+      <c r="AO29" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="AP29" s="26" t="b">
         <v>1</v>
@@ -7469,8 +7482,8 @@
       <c r="AN30" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AO30" s="17" t="b">
-        <v>0</v>
+      <c r="AO30" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AP30" s="14" t="b">
         <v>1</v>
@@ -7620,8 +7633,8 @@
       <c r="AN31" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AO31" s="17" t="b">
-        <v>0</v>
+      <c r="AO31" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="AP31" s="26" t="b">
         <v>1</v>
@@ -7771,8 +7784,8 @@
       <c r="AN32" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AO32" s="17" t="b">
-        <v>0</v>
+      <c r="AO32" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AP32" s="14" t="b">
         <v>1</v>
@@ -7922,8 +7935,8 @@
       <c r="AN33" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AO33" s="17" t="b">
-        <v>0</v>
+      <c r="AO33" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="AP33" s="26" t="b">
         <v>1</v>
@@ -8075,8 +8088,8 @@
       <c r="AN34" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AO34" s="17" t="b">
-        <v>0</v>
+      <c r="AO34" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AP34" s="14" t="b">
         <v>1</v>
@@ -8410,16 +8423,14 @@
         <v>11.0</v>
       </c>
       <c r="AY36" s="19">
-        <v>11.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="37" ht="30.0" customHeight="1">
       <c r="A37" s="20">
         <v>36.0</v>
       </c>
-      <c r="B37" s="25">
-        <v>9.534769639E9</v>
-      </c>
+      <c r="B37" s="25"/>
       <c r="C37" s="21" t="s">
         <v>294</v>
       </c>
@@ -8433,23 +8444,23 @@
         <v>287</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>129</v>
+        <v>296</v>
       </c>
       <c r="H37" s="21" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="J37" s="22">
-        <v>659000.0</v>
+        <v>479000.0</v>
       </c>
       <c r="K37" s="49"/>
       <c r="L37" s="24">
-        <v>45245.0</v>
+        <v>45983.0</v>
       </c>
       <c r="M37" s="21" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N37" s="25" t="s">
         <v>59</v>
@@ -8461,7 +8472,7 @@
         <v>1</v>
       </c>
       <c r="Q37" s="21" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="R37" s="21" t="s">
         <v>140</v>
@@ -8470,17 +8481,17 @@
         <v>113</v>
       </c>
       <c r="T37" s="21" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="U37" s="21" t="s">
         <v>115</v>
       </c>
       <c r="V37" s="21"/>
       <c r="W37" s="21" t="s">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="X37" s="21" t="s">
-        <v>217</v>
+        <v>293</v>
       </c>
       <c r="Y37" s="50" t="b">
         <v>1</v>
@@ -8488,8 +8499,8 @@
       <c r="Z37" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AA37" s="48" t="b">
-        <v>0</v>
+      <c r="AA37" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="AB37" s="50" t="b">
         <v>1</v>
@@ -8497,14 +8508,14 @@
       <c r="AC37" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="AD37" s="50" t="b">
-        <v>1</v>
+      <c r="AD37" s="48" t="b">
+        <v>0</v>
       </c>
       <c r="AE37" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" s="50" t="b">
-        <v>1</v>
+      <c r="AF37" s="48" t="b">
+        <v>0</v>
       </c>
       <c r="AG37" s="27" t="b">
         <v>1</v>
@@ -8518,14 +8529,14 @@
       <c r="AJ37" s="18" t="b">
         <v>0</v>
       </c>
-      <c r="AK37" s="26" t="b">
-        <v>1</v>
+      <c r="AK37" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="AL37" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AM37" s="26" t="b">
-        <v>1</v>
+      <c r="AM37" s="18" t="b">
+        <v>0</v>
       </c>
       <c r="AN37" s="26" t="b">
         <v>1</v>
@@ -8533,17 +8544,17 @@
       <c r="AO37" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AP37" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ37" s="26" t="b">
-        <v>1</v>
+      <c r="AP37" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="17" t="b">
+        <v>0</v>
       </c>
       <c r="AR37" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AS37" s="17" t="b">
-        <v>0</v>
+      <c r="AS37" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="AT37" s="17" t="b">
         <v>0</v>
@@ -8558,10 +8569,10 @@
         <v>0</v>
       </c>
       <c r="AX37" s="21">
-        <v>14.0</v>
+        <v>11.0</v>
       </c>
       <c r="AY37" s="28">
-        <v>26.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="38" ht="30.0" customHeight="1">
@@ -8569,13 +8580,13 @@
         <v>37.0</v>
       </c>
       <c r="B38" s="13">
-        <v>9.534767189E9</v>
+        <v>9.534769639E9</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>286</v>
@@ -8584,13 +8595,13 @@
         <v>287</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>303</v>
+        <v>129</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="J38" s="10">
         <v>659000.0</v>
@@ -8600,7 +8611,7 @@
         <v>45245.0</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N38" s="13" t="s">
         <v>59</v>
@@ -8612,7 +8623,7 @@
         <v>1</v>
       </c>
       <c r="Q38" s="9" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="R38" s="9" t="s">
         <v>140</v>
@@ -8621,14 +8632,14 @@
         <v>113</v>
       </c>
       <c r="T38" s="9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="U38" s="9" t="s">
         <v>115</v>
       </c>
       <c r="V38" s="9"/>
       <c r="W38" s="9" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="X38" s="9" t="s">
         <v>217</v>
@@ -8709,174 +8720,325 @@
         <v>0</v>
       </c>
       <c r="AX38" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="AY38" s="19">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="39" ht="30.0" customHeight="1">
+      <c r="A39" s="20">
+        <v>38.0</v>
+      </c>
+      <c r="B39" s="25">
+        <v>9.534767189E9</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" s="22">
+        <v>659000.0</v>
+      </c>
+      <c r="K39" s="49"/>
+      <c r="L39" s="24">
+        <v>45245.0</v>
+      </c>
+      <c r="M39" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="N39" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="O39" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="R39" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="S39" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="T39" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="U39" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="X39" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Y39" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z39" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG39" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ39" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR39" s="26" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS39" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="21">
         <v>10.0</v>
       </c>
-      <c r="AY38" s="19">
+      <c r="AY39" s="28">
         <v>21.0</v>
       </c>
     </row>
-    <row r="39" ht="30.0" customHeight="1">
-      <c r="A39" s="51">
-        <v>38.0</v>
-      </c>
-      <c r="B39" s="52">
+    <row r="40" ht="30.0" customHeight="1">
+      <c r="A40" s="51">
+        <v>39.0</v>
+      </c>
+      <c r="B40" s="52">
         <v>1.1061289692E10</v>
       </c>
-      <c r="C39" s="53" t="s">
-        <v>309</v>
-      </c>
-      <c r="D39" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="E39" s="53" t="s">
+      <c r="C40" s="53" t="s">
+        <v>314</v>
+      </c>
+      <c r="D40" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="E40" s="53" t="s">
         <v>286</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F40" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="G39" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="I39" s="53" t="s">
+      <c r="G40" s="53" t="s">
+        <v>316</v>
+      </c>
+      <c r="H40" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="J40" s="54">
+        <v>459000.0</v>
+      </c>
+      <c r="K40" s="55"/>
+      <c r="L40" s="56">
+        <v>45594.0</v>
+      </c>
+      <c r="M40" s="53" t="s">
+        <v>319</v>
+      </c>
+      <c r="N40" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="O40" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="P40" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="R40" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="S40" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="T40" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="U40" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="V40" s="53"/>
+      <c r="W40" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="J39" s="54">
-        <v>459000.0</v>
-      </c>
-      <c r="K39" s="55"/>
-      <c r="L39" s="56">
-        <v>45594.0</v>
-      </c>
-      <c r="M39" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="N39" s="53" t="s">
-        <v>315</v>
-      </c>
-      <c r="O39" s="53" t="s">
-        <v>316</v>
-      </c>
-      <c r="P39" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q39" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="R39" s="53" t="s">
-        <v>318</v>
-      </c>
-      <c r="S39" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="T39" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="U39" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="V39" s="53"/>
-      <c r="W39" s="53" t="s">
-        <v>308</v>
-      </c>
-      <c r="X39" s="53" t="s">
+      <c r="X40" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="Y39" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z39" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA39" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB39" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD39" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AE39" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AF39" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG39" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH39" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI39" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL39" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM39" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN39" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO39" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AP39" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ39" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR39" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS39" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT39" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU39" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV39" s="62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW39" s="61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX39" s="53">
-        <v>14.0</v>
-      </c>
-      <c r="AY39" s="63">
+      <c r="Y40" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA40" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB40" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG40" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM40" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="61" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="53">
         <v>9.0</v>
       </c>
+      <c r="AY40" s="63">
+        <v>9.0</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AW39">
+  <conditionalFormatting sqref="A2:AW40">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH(("false"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L39">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="L2:L40">
       <formula1>OR(NOT(ISERROR(DATEVALUE(L2))), AND(ISNUMBER(L2), LEFT(CELL("format", L2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="J2:K39">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="J2:K40">
       <formula1>AND(ISNUMBER(J2),(NOT(OR(NOT(ISERROR(DATEVALUE(J2))), AND(ISNUMBER(J2), LEFT(CELL("format", J2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -8977,19 +9139,19 @@
         <v>48</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -9000,16 +9162,16 @@
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -9021,19 +9183,19 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O2" s="17" t="b">
         <v>0</v>
@@ -9050,8 +9212,8 @@
       <c r="S2" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="T2" s="9" t="s">
-        <v>332</v>
+      <c r="T2" s="9">
+        <v>20.0</v>
       </c>
       <c r="U2" s="19"/>
     </row>
@@ -9063,16 +9225,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G3" s="22">
         <v>519000.0</v>
@@ -9082,19 +9244,19 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="L3" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>329</v>
-      </c>
       <c r="M3" s="21" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N3" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O3" s="17" t="b">
         <v>0</v>
@@ -9111,8 +9273,8 @@
       <c r="S3" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="T3" s="21" t="s">
-        <v>336</v>
+      <c r="T3" s="21">
+        <v>26.0</v>
       </c>
       <c r="U3" s="28"/>
     </row>
@@ -9124,16 +9286,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G4" s="65">
         <v>659000.0</v>
@@ -9143,19 +9305,19 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O4" s="17" t="b">
         <v>0</v>
@@ -9172,8 +9334,8 @@
       <c r="S4" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="T4" s="32" t="s">
-        <v>336</v>
+      <c r="T4" s="32">
+        <v>26.0</v>
       </c>
       <c r="U4" s="36"/>
     </row>
@@ -9185,16 +9347,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G5" s="22">
         <v>659000.0</v>
@@ -9204,19 +9366,19 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L5" s="21" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M5" s="21" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O5" s="17" t="b">
         <v>0</v>
@@ -9233,8 +9395,8 @@
       <c r="S5" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="T5" s="21" t="s">
-        <v>342</v>
+      <c r="T5" s="21">
+        <v>32.0</v>
       </c>
       <c r="U5" s="28"/>
     </row>
@@ -9246,16 +9408,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -9265,19 +9427,19 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>1</v>
@@ -9294,8 +9456,8 @@
       <c r="S6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>336</v>
+      <c r="T6" s="9">
+        <v>26.0</v>
       </c>
       <c r="U6" s="19"/>
     </row>
@@ -9307,16 +9469,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="G7" s="22">
         <v>799000.0</v>
@@ -9326,19 +9488,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O7" s="21" t="b">
         <v>1</v>
@@ -9355,8 +9517,8 @@
       <c r="S7" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="T7" s="21" t="s">
-        <v>342</v>
+      <c r="T7" s="21">
+        <v>32.0</v>
       </c>
       <c r="U7" s="28"/>
     </row>
@@ -9368,16 +9530,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -9389,19 +9551,19 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
@@ -9418,8 +9580,8 @@
       <c r="S8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="T8" s="9" t="s">
-        <v>354</v>
+      <c r="T8" s="9">
+        <v>35.0</v>
       </c>
       <c r="U8" s="19"/>
     </row>
@@ -9431,16 +9593,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G9" s="22">
         <v>989000.0</v>
@@ -9452,19 +9614,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O9" s="21" t="b">
         <v>1</v>
@@ -9481,8 +9643,8 @@
       <c r="S9" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="T9" s="21" t="s">
-        <v>358</v>
+      <c r="T9" s="21">
+        <v>45.0</v>
       </c>
       <c r="U9" s="28"/>
     </row>
@@ -9497,10 +9659,10 @@
         <v>359</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>360</v>
@@ -9519,13 +9681,13 @@
         <v>362</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>363</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
@@ -9542,8 +9704,8 @@
       <c r="S10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>332</v>
+      <c r="T10" s="9">
+        <v>20.0</v>
       </c>
       <c r="U10" s="19"/>
     </row>
@@ -9558,10 +9720,10 @@
         <v>364</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>360</v>
@@ -9580,13 +9742,13 @@
         <v>362</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M11" s="21" t="s">
         <v>363</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O11" s="21" t="b">
         <v>1</v>
@@ -9603,8 +9765,8 @@
       <c r="S11" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="T11" s="21" t="s">
-        <v>332</v>
+      <c r="T11" s="21">
+        <v>20.0</v>
       </c>
       <c r="U11" s="28"/>
     </row>
@@ -9650,11 +9812,11 @@
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
       <c r="S12" s="14"/>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="9">
+        <v>120.0</v>
+      </c>
+      <c r="U12" s="19" t="s">
         <v>372</v>
-      </c>
-      <c r="U12" s="19" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -9665,13 +9827,13 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>367</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>369</v>
@@ -9686,12 +9848,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K13" s="66"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="26"/>
@@ -9699,11 +9861,11 @@
       <c r="Q13" s="26"/>
       <c r="R13" s="26"/>
       <c r="S13" s="26"/>
-      <c r="T13" s="21" t="s">
+      <c r="T13" s="21">
+        <v>120.0</v>
+      </c>
+      <c r="U13" s="28" t="s">
         <v>372</v>
-      </c>
-      <c r="U13" s="28" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
@@ -9714,7 +9876,7 @@
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>367</v>
@@ -9735,12 +9897,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -9748,11 +9910,11 @@
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
       <c r="S14" s="14"/>
-      <c r="T14" s="9" t="s">
-        <v>372</v>
+      <c r="T14" s="9">
+        <v>120.0</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -9763,13 +9925,13 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>367</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>369</v>
@@ -9784,12 +9946,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -9797,11 +9959,11 @@
       <c r="Q15" s="26"/>
       <c r="R15" s="26"/>
       <c r="S15" s="26"/>
-      <c r="T15" s="21" t="s">
-        <v>372</v>
+      <c r="T15" s="21">
+        <v>120.0</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
@@ -9812,7 +9974,7 @@
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>367</v>
@@ -9821,7 +9983,7 @@
         <v>368</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -9833,12 +9995,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -9846,11 +10008,11 @@
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
       <c r="S16" s="14"/>
-      <c r="T16" s="9" t="s">
-        <v>372</v>
+      <c r="T16" s="9">
+        <v>120.0</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -9861,16 +10023,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>367</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G17" s="22">
         <v>1590000.0</v>
@@ -9882,12 +10044,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K17" s="66"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="26"/>
@@ -9895,58 +10057,56 @@
       <c r="Q17" s="26"/>
       <c r="R17" s="26"/>
       <c r="S17" s="26"/>
-      <c r="T17" s="21" t="s">
-        <v>372</v>
+      <c r="T17" s="21">
+        <v>120.0</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
       <c r="A18" s="64">
         <v>17.0</v>
       </c>
-      <c r="B18" s="9">
-        <v>2.920696454E9</v>
-      </c>
+      <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E18" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="10">
+        <v>799000.0</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="12">
+        <v>45775.0</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="G18" s="10">
-        <v>199000.0</v>
-      </c>
-      <c r="H18" s="11">
-        <v>140000.0</v>
-      </c>
-      <c r="I18" s="12">
-        <v>42979.0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>396</v>
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
-      <c r="T18" s="9"/>
+      <c r="T18" s="9" t="s">
+        <v>397</v>
+      </c>
       <c r="U18" s="19" t="s">
         <v>398</v>
       </c>
@@ -9956,7 +10116,7 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="21">
-        <v>5.018655247E9</v>
+        <v>2.920696454E9</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>399</v>
@@ -9967,15 +10127,17 @@
       <c r="E19" s="21" t="s">
         <v>400</v>
       </c>
-      <c r="F19" s="66" t="s">
+      <c r="F19" s="21" t="s">
         <v>401</v>
       </c>
       <c r="G19" s="22">
-        <v>258000.0</v>
-      </c>
-      <c r="H19" s="23"/>
+        <v>199000.0</v>
+      </c>
+      <c r="H19" s="23">
+        <v>140000.0</v>
+      </c>
       <c r="I19" s="24">
-        <v>44013.0</v>
+        <v>42979.0</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>402</v>
@@ -9986,74 +10148,123 @@
         <v>403</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="26"/>
       <c r="S19" s="26"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="28"/>
+      <c r="T19" s="21">
+        <v>6.0</v>
+      </c>
+      <c r="U19" s="28" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="67">
+      <c r="A20" s="64">
         <v>19.0</v>
       </c>
-      <c r="B20" s="68">
+      <c r="B20" s="9">
+        <v>5.018655247E9</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>407</v>
+      </c>
+      <c r="G20" s="10">
+        <v>258000.0</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12">
+        <v>44013.0</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="K20" s="32"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="19"/>
+    </row>
+    <row r="21" ht="30.0" customHeight="1">
+      <c r="A21" s="67">
+        <v>20.0</v>
+      </c>
+      <c r="B21" s="68">
         <v>6.878093775E9</v>
       </c>
-      <c r="C20" s="68" t="s">
-        <v>404</v>
-      </c>
-      <c r="D20" s="68" t="s">
+      <c r="C21" s="68" t="s">
+        <v>410</v>
+      </c>
+      <c r="D21" s="68" t="s">
         <v>367</v>
       </c>
-      <c r="E20" s="68" t="s">
-        <v>405</v>
-      </c>
-      <c r="F20" s="68" t="s">
-        <v>406</v>
-      </c>
-      <c r="G20" s="69">
+      <c r="E21" s="68" t="s">
+        <v>411</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>412</v>
+      </c>
+      <c r="G21" s="69">
         <v>529000.0</v>
       </c>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71">
+      <c r="H21" s="70"/>
+      <c r="I21" s="71">
         <v>44682.0</v>
       </c>
-      <c r="J20" s="68" t="s">
-        <v>407</v>
-      </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68" t="s">
-        <v>408</v>
-      </c>
-      <c r="N20" s="68" t="s">
-        <v>331</v>
-      </c>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="68"/>
-      <c r="U20" s="73" t="s">
-        <v>409</v>
+      <c r="J21" s="68" t="s">
+        <v>413</v>
+      </c>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68" t="s">
+        <v>414</v>
+      </c>
+      <c r="N21" s="68" t="s">
+        <v>336</v>
+      </c>
+      <c r="O21" s="72"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="72"/>
+      <c r="R21" s="72"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="68"/>
+      <c r="U21" s="73" t="s">
+        <v>415</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:S20">
+  <conditionalFormatting sqref="A2:S21">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH(("false"),(A2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:I20">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="I2:I21">
       <formula1>OR(NOT(ISERROR(DATEVALUE(I2))), AND(ISNUMBER(I2), LEFT(CELL("format", I2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:H20">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="G2:H21">
       <formula1>AND(ISNUMBER(G2),(NOT(OR(NOT(ISERROR(DATEVALUE(G2))), AND(ISNUMBER(G2), LEFT(CELL("format", G2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -10143,13 +10354,13 @@
         <v>20</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>50</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -10160,13 +10371,13 @@
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>233</v>
@@ -10179,19 +10390,19 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q2" s="19"/>
     </row>
@@ -10203,13 +10414,13 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>367</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>233</v>
@@ -10222,19 +10433,19 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
@@ -10246,13 +10457,13 @@
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>367</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>233</v>
@@ -10265,19 +10476,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q4" s="36"/>
     </row>
@@ -10289,16 +10500,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="G5" s="22">
         <v>89000.0</v>
@@ -10311,16 +10522,16 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
@@ -10332,16 +10543,16 @@
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -10357,13 +10568,13 @@
         <v>258</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q6" s="19"/>
     </row>
@@ -10375,16 +10586,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>430</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>423</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>424</v>
-      </c>
       <c r="F7" s="21" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="G7" s="22">
         <v>225000.0</v>
@@ -10400,13 +10611,13 @@
         <v>157</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
@@ -10418,16 +10629,16 @@
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -10440,19 +10651,19 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q8" s="19" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -10463,16 +10674,16 @@
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>445</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>439</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>433</v>
-      </c>
       <c r="E9" s="21" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="G9" s="22">
         <v>398000.0</v>
@@ -10485,19 +10696,19 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O9" s="21" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="P9" s="21" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q9" s="28" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
@@ -10508,16 +10719,16 @@
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>440</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>434</v>
-      </c>
       <c r="F10" s="9" t="s">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -10530,19 +10741,19 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="Q10" s="19" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -10553,16 +10764,16 @@
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="G11" s="22">
         <v>789000.0</v>
@@ -10577,16 +10788,16 @@
       <c r="K11" s="66"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O11" s="21" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P11" s="21" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="Q11" s="28"/>
     </row>
@@ -10598,16 +10809,16 @@
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -10620,16 +10831,16 @@
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>332</v>
+        <v>458</v>
       </c>
       <c r="Q12" s="19"/>
     </row>
@@ -10641,16 +10852,16 @@
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="G13" s="22">
         <v>989000.0</v>
@@ -10665,16 +10876,16 @@
       <c r="K13" s="66"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="Q13" s="28"/>
     </row>
@@ -10826,25 +11037,25 @@
       <c r="Q20" s="19"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="51">
+      <c r="A21" s="67">
         <v>19.0</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="63"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="M21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="72"/>
+      <c r="P21" s="68"/>
+      <c r="Q21" s="73"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:O21">
@@ -10879,20 +11090,6 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <sheetData/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="4.63"/>
     <col customWidth="1" min="2" max="2" width="12.38"/>
@@ -10905,423 +11102,423 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="75"/>
-      <c r="B1" s="75"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
+      <c r="A1" s="74"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79" t="s">
-        <v>462</v>
-      </c>
-      <c r="C2" s="80" t="s">
-        <v>463</v>
-      </c>
-      <c r="D2" s="81" t="s">
-        <v>464</v>
-      </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="82" t="s">
-        <v>465</v>
-      </c>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="E2" s="77"/>
+      <c r="F2" s="81" t="s">
+        <v>472</v>
+      </c>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="84"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="78"/>
-      <c r="B3" s="86">
+      <c r="A3" s="77"/>
+      <c r="B3" s="85">
         <v>45671.0</v>
       </c>
-      <c r="C3" s="87" t="s">
-        <v>466</v>
-      </c>
-      <c r="D3" s="88" t="s">
-        <v>467</v>
-      </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="89" t="s">
-        <v>468</v>
-      </c>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="92"/>
+      <c r="C3" s="86" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>474</v>
+      </c>
+      <c r="E3" s="77"/>
+      <c r="F3" s="88" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="91"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="78"/>
-      <c r="B4" s="93">
+      <c r="A4" s="77"/>
+      <c r="B4" s="92">
         <v>45671.0</v>
       </c>
-      <c r="C4" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="D4" s="94" t="s">
-        <v>470</v>
-      </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="95" t="s">
+      <c r="C4" s="86" t="s">
+        <v>476</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>477</v>
+      </c>
+      <c r="E4" s="77"/>
+      <c r="F4" s="94" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="96" t="s">
-        <v>471</v>
-      </c>
-      <c r="K4" s="97"/>
-      <c r="L4" s="92"/>
+      <c r="G4" s="95" t="s">
+        <v>478</v>
+      </c>
+      <c r="K4" s="96"/>
+      <c r="L4" s="91"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="78"/>
-      <c r="B5" s="98">
+      <c r="A5" s="77"/>
+      <c r="B5" s="97">
         <v>45669.0</v>
       </c>
-      <c r="C5" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="D5" s="99" t="s">
-        <v>473</v>
-      </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="95" t="s">
-        <v>474</v>
-      </c>
-      <c r="G5" s="96" t="s">
-        <v>475</v>
-      </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="92"/>
+      <c r="C5" s="86" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>480</v>
+      </c>
+      <c r="E5" s="77"/>
+      <c r="F5" s="94" t="s">
+        <v>481</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>482</v>
+      </c>
+      <c r="K5" s="96"/>
+      <c r="L5" s="91"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="93">
+      <c r="A6" s="77"/>
+      <c r="B6" s="92">
         <v>45671.0</v>
       </c>
-      <c r="C6" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="86" t="s">
         <v>476</v>
       </c>
-      <c r="E6" s="78"/>
-      <c r="F6" s="95" t="s">
-        <v>477</v>
-      </c>
-      <c r="G6" s="96" t="s">
-        <v>478</v>
-      </c>
-      <c r="K6" s="97"/>
-      <c r="L6" s="92"/>
+      <c r="D6" s="87" t="s">
+        <v>483</v>
+      </c>
+      <c r="E6" s="77"/>
+      <c r="F6" s="94" t="s">
+        <v>484</v>
+      </c>
+      <c r="G6" s="95" t="s">
+        <v>485</v>
+      </c>
+      <c r="K6" s="96"/>
+      <c r="L6" s="91"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="78"/>
-      <c r="B7" s="98">
+      <c r="A7" s="77"/>
+      <c r="B7" s="97">
         <v>45672.0</v>
       </c>
-      <c r="C7" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="D7" s="99" t="s">
-        <v>479</v>
-      </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="95" t="s">
-        <v>480</v>
-      </c>
-      <c r="G7" s="96" t="s">
-        <v>481</v>
-      </c>
-      <c r="K7" s="97"/>
-      <c r="L7" s="92"/>
+      <c r="C7" s="86" t="s">
+        <v>476</v>
+      </c>
+      <c r="D7" s="98" t="s">
+        <v>486</v>
+      </c>
+      <c r="E7" s="77"/>
+      <c r="F7" s="94" t="s">
+        <v>487</v>
+      </c>
+      <c r="G7" s="95" t="s">
+        <v>488</v>
+      </c>
+      <c r="K7" s="96"/>
+      <c r="L7" s="91"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="78"/>
-      <c r="B8" s="86">
+      <c r="A8" s="77"/>
+      <c r="B8" s="85">
         <v>45674.0</v>
       </c>
-      <c r="C8" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="D8" s="88" t="s">
-        <v>482</v>
-      </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="96" t="s">
-        <v>483</v>
-      </c>
-      <c r="K8" s="97"/>
-      <c r="L8" s="92"/>
+      <c r="C8" s="86" t="s">
+        <v>476</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>489</v>
+      </c>
+      <c r="E8" s="77"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95" t="s">
+        <v>490</v>
+      </c>
+      <c r="K8" s="96"/>
+      <c r="L8" s="91"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="78"/>
-      <c r="B9" s="98">
+      <c r="A9" s="77"/>
+      <c r="B9" s="97">
         <v>45731.0</v>
       </c>
-      <c r="C9" s="87" t="s">
-        <v>484</v>
-      </c>
-      <c r="D9" s="99" t="s">
-        <v>485</v>
-      </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="95" t="s">
-        <v>486</v>
-      </c>
-      <c r="G9" s="96" t="s">
-        <v>487</v>
-      </c>
-      <c r="K9" s="97"/>
-      <c r="L9" s="92"/>
+      <c r="C9" s="86" t="s">
+        <v>491</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>492</v>
+      </c>
+      <c r="E9" s="77"/>
+      <c r="F9" s="94" t="s">
+        <v>493</v>
+      </c>
+      <c r="G9" s="95" t="s">
+        <v>494</v>
+      </c>
+      <c r="K9" s="96"/>
+      <c r="L9" s="91"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="78"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="95" t="s">
-        <v>488</v>
-      </c>
-      <c r="G10" s="96" t="s">
-        <v>489</v>
-      </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="92"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="94" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" s="95" t="s">
+        <v>496</v>
+      </c>
+      <c r="K10" s="96"/>
+      <c r="L10" s="91"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="78"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="77"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="105"/>
+      <c r="L11" s="76"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="107"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="107"/>
+      <c r="A12" s="106"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="86"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="106"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="108"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="108"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="107"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="108"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="108"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="107"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="108"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="108"/>
+      <c r="A15" s="107"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="107"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="108"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="108"/>
+      <c r="A16" s="107"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="107"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="109"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="109"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="108"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="109"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="109"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="108"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="109"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="109"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="108"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="75"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="75"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="74"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="75"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="75"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="74"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="75"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="75"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="74"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="75"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="75"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="74"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="75"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="75"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="74"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="75"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="75"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="74"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="75"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="75"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="74"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="75"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="75"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="74"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="75"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="75"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="74"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="75"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="75"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="74"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="75"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="75"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
+      <c r="E30" s="74"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="75"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="75"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="74"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="75"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="74"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="75"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="75"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="74"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="75"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="87"/>
-      <c r="D34" s="88"/>
-      <c r="E34" s="75"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="74"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="75"/>
-      <c r="B35" s="100"/>
-      <c r="C35" s="101"/>
-      <c r="D35" s="102"/>
-      <c r="E35" s="75"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="99"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="101"/>
+      <c r="E35" s="74"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="75"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="87"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="75"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="74"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="75"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="101"/>
-      <c r="D37" s="102"/>
-      <c r="E37" s="75"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="99"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="101"/>
+      <c r="E37" s="74"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="75"/>
-      <c r="B38" s="110"/>
-      <c r="C38" s="111"/>
-      <c r="D38" s="112"/>
-      <c r="E38" s="75"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="109"/>
+      <c r="C38" s="110"/>
+      <c r="D38" s="111"/>
+      <c r="E38" s="74"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="75"/>
-      <c r="C41" s="113"/>
-      <c r="E41" s="75"/>
+      <c r="A41" s="74"/>
+      <c r="C41" s="112"/>
+      <c r="E41" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -357,7 +357,7 @@
     <t>블랙,화이트,아쿠아,그레이</t>
   </si>
   <si>
-    <t>#000000,#FFFFFF,#53e9e4,#5c5c5c</t>
+    <t>#000000,#FFFFFF,#52d6d8,#5c5c5c</t>
   </si>
   <si>
     <t>42mm</t>
@@ -495,7 +495,7 @@
     <t>블랙,화이트,앰프옐로우</t>
   </si>
   <si>
-    <t>#000000,#FFFFFF,#f9ff4d</t>
+    <t>#000000,#FFFFFF,#e1e664</t>
   </si>
   <si>
     <t>products/forerunner965/basic-47mm-black.png,products/forerunner965/basic-47mm-white.png,products/forerunner965/basic-47mm-ampyellow.png</t>
@@ -609,7 +609,7 @@
     <t>블랙,오션에디션</t>
   </si>
   <si>
-    <t>#000000,#95e5ee</t>
+    <t>#000000,#bee7e8</t>
   </si>
   <si>
     <t>45mm</t>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -198,7 +198,7 @@
     <t>멀티스포츠,아웃도어</t>
   </si>
   <si>
-    <t xml:space="preserve">#프로를위한 Fenix 8 가민 플래그십 시리즈답게, 수백 종의 스포츠와 극한 환경에 최적화된 기능을 담았습니다. 선명한 AMOLED 디스플레이로, 데이터를 더 빠르게 읽고 몰입은 더 깊게. 진짜 전문가들이 고르는 선택, 그것이 피닉스. </t>
+    <t>#프로를위한 Fenix 8 가민 플래그십 시리즈. 수백 종의 스포츠와 극한 환경에 최적화된 기능. 더 선명해진 AMOLED 디스플레이, 모든 데이터가 눈앞에서 바로 읽힌다.</t>
   </si>
   <si>
     <t>프리미엄 GPS 멀티스포츠 스마트워치</t>
@@ -288,7 +288,7 @@
     <t>피닉스8 솔라</t>
   </si>
   <si>
-    <t>#프로를위한 Fenix 8 가민 플래그십 시리즈답게, 수백 종의 스포츠와 극한 환경에 최적화된 기능을 담았습니다. 태양광 충전으로 완성된 에너지 지속력, 한계를 미루는 전문가의 선택.</t>
+    <t>#프로를위한 Fenix 8 가민 플래그십 시리즈. 수백 종의 스포츠와 극한 환경에 최적화된 기능을 담았습니다. 빛을 에너지로 바꾸는 솔라 기술, 더 멀리 더 오래 버티는 퍼포먼스.</t>
   </si>
   <si>
     <t>블랙</t>
@@ -318,7 +318,7 @@
     <t>피닉스7 프로 사파이어 솔라</t>
   </si>
   <si>
-    <t>#정통하이엔드기어 Fenix 7 Pro Sapphire Solar 사파이어의 견고함, 태양광의 에너지, 그리고 가민의 최상위 기술. 극한의 환경을 위한 진짜 워치, 프로는 이걸 찬다.</t>
+    <t>#정통하이엔드 Fenix 7 Pro Sapphire Solar 사파이어의 견고함, 태양광의 에너지, 그리고 가민의 최상위 기술. 극한의 환경을 위한 진짜 워치, 전문가들의 선택.</t>
   </si>
   <si>
     <t>고급 GPS 멀티스포츠 스마트워치</t>
@@ -412,7 +412,7 @@
     <t>포러너 165 뮤직</t>
   </si>
   <si>
-    <t>#러닝의리듬까지 Forerunner 165 Music 포러너 165의 기능은 그대로. 선명한 AMOLED 화면과 음악까지 손목에 담았습니다. 폰 없이 듣고, 몰입하고, 더 멀리 달리는 러너의 워치.</t>
+    <t>#러닝의리듬까지 Forerunner 165 Music 기존 165의 기능은 그대로, 선명한 AMOLED 화면과 음악까지 손목에 담았습니다. 폰 없이 듣고, 몰입하고, 더 멀리 달리는 러너의 워치.</t>
   </si>
   <si>
     <t>블랙,화이트,아쿠아,라일락</t>
@@ -562,7 +562,7 @@
     <t>골프</t>
   </si>
   <si>
-    <t>#정교한라운드 Approach S70 선명한 AMOLED 디스플레이와 정밀한 거리 측정으로 전 세계 43,000개 코스를 손목 위에 담다. 당신의 샷 하나하나에 전략을 더하는 프리미엄 골프 워치.</t>
+    <t>#정교한라운드 Approach S70 선명한 AMOLED 디스플레이와 정밀한 거리 측정으로 코스를 손목 위에 담다. 당신의 샷 하나하나에 전략을 더하는 프리미엄 골프 워치.</t>
   </si>
   <si>
     <t>프리미엄 GPS 골프 스마트워치</t>
@@ -610,7 +610,7 @@
     <t>어프로치 S50</t>
   </si>
   <si>
-    <t>#처음을스마트하게 Approach S50 가벼운 착용감, 선명한 AMOLED 디스플레이, 그리고 골프의 핵심 기능만 담았습니다. 입문부터 중급까지—뉴 골퍼들의 부담없는 입문 골프 워치.</t>
+    <t>#처음을스마트하게 Approach S50 가벼운 착용감, 선명한 AMOLED 디스플레이, 골프의 핵심 기능들. 입문부터 중급까지—뉴 골퍼들의 부담없는 입문 골프 워치.</t>
   </si>
   <si>
     <t>고급 GPS 골프 스마트워치</t>
@@ -643,7 +643,7 @@
     <t>다이빙,수영</t>
   </si>
   <si>
-    <t>#실전다이버의선택 Descent G1 Solar 스쿠버·프리다이빙·테크니컬까지, 기록은 정확하고, 배터리는 오래 간다. 작고 강한 설계에 솔라 파워를 담은 스마트 다이브 워치.</t>
+    <t>#실전다이버의선택 Descent G1 Solar 스쿠버·프리다이빙·테크니컬까지, 기록은 정확하고, 배터리는 오래 간다. 솔라 파워를 담은 스마트 다이브 워치.</t>
   </si>
   <si>
     <t>고급 다이빙 GPS 스마트워치</t>
@@ -691,7 +691,7 @@
     <t>디센트 G2</t>
   </si>
   <si>
-    <t>#완성형다이브컴퓨터 Descent G2 풀컬러 AMOLED, 에어 연동, 고급 다이빙 분석. 모든 다이빙 데이터를 정밀하게 시각화하는 전문가용 플래그십. 바다를 수치로 해석하는 당신을 위한 워치.</t>
+    <t>#완성형다이브컴퓨터 Descent G2 풀컬러 AMOLED, 에어 연동, 고급 다이빙 분석. 바다를 수치로 해석하는 당신을 위한 워치.</t>
   </si>
   <si>
     <t>블랙,쉘핑크</t>
@@ -712,7 +712,7 @@
     <t>디센트 MK3</t>
   </si>
   <si>
-    <t>#스마트다이브컴퓨터 Descent Mk3 AMOLED 디스플레이, 멀티밴드 GNSS, 고급 다이빙 모드까지. 모든 실전 데이터를 갖춘 프리미엄 다이브 워치. 레저 다이버부터 테크니컬 입문자까지, 당신의 다이브 퍼포먼스를 위하여.</t>
+    <t>#스마트다이브컴퓨터 Descent Mk3 AMOLED 디스플레이, 멀티밴드 GNSS, 고급 다이빙 모드까지. 당신의 정확성있는 다이브 퍼포먼스를 위하여.</t>
   </si>
   <si>
     <t>프리미엄 GPS 다이빙 스마트워치</t>
@@ -742,7 +742,7 @@
     <t>디센트 MK3i</t>
   </si>
   <si>
-    <t>#완전한연동 Descent Mk3i SubWave™ 통신과 T1 트랜스미터로, 혼자가 아닌 다이빙을 가능하게 한다. 팀 다이빙을 완성하는 플래그십. 깊은 바다에서 나를 지키는 건 숫자가 아니라 연결이다.</t>
+    <t>#완전한연동 Descent Mk3i SubWave™ 통신과 T1 트랜스미터로, 혼자가 아닌 다이빙을 가능하게 한다. 깊은 바다에서 나를 지키는 건 숫자가 아니라 연결이다.</t>
   </si>
   <si>
     <t>products/descentMk3/i-51mm-black.png</t>
@@ -769,7 +769,7 @@
     <t>디센트 X50i</t>
   </si>
   <si>
-    <t>#다이빙의답 Descent X50i 공기량, 수심, 위치, 팀의 움직임까지—필요한 건 모두 여기 있다. 확장된 풀컬러 디스플레이와 SubWave™ 수중 통신. 당신이 헤엄칠수록, 깊어지는 시스템을 확인하세요.</t>
+    <t>#다이빙의정답 Descent X50i 공기량, 수심, 위치, 팀의 움직임까지— 확장된 풀컬러 디스플레이와 SubWave™ 수중 통신. 당신과 함께 깊어지는 시스템.</t>
   </si>
   <si>
     <t>프리미엄 GPS 다이빙 컴퓨터</t>
@@ -820,7 +820,7 @@
     <t>택틱스 8</t>
   </si>
   <si>
-    <t>#작전의시야 Tactix 8 전술 모드, 스텔스, 듀얼 포지션, 나이트비전, 풀컬러 맵. 넓어진 AMOLED 디스플레이에 작전의 모든 레이어가 겹쳐진다. 상황을 읽는 게 아니라, 통제하는 사람을 위한 장비.</t>
+    <t>#작전의시야 Tactix 8 전술 모드, 스텔스, 듀얼 포지션, 나이트비전, 풀컬러 맵. 넓어진 AMOLED 디스플레이에 작전의 모든 레이어가 겹쳐진다. 당신의 상황을 읽고, 통제하세요.</t>
   </si>
   <si>
     <t>products/tactix8/basic-51mm-black.png</t>
@@ -925,7 +925,7 @@
     <t>인스팅트 2X 솔라</t>
   </si>
   <si>
-    <t>#생존은지속이다 Instinct 2X Solar 광량이 쌓일수록, 에너지는 멈추지 않는다. MIL-STD 내구성과 멀티밴드 GPS, 그리고 확장된 태양광 충전. 탐험이 길어질수록, 당신의 본능도 강하게.</t>
+    <t>#생존은지속이다 Instinct 2X Solar 광량이 쌓일수록, 에너지는 멈추지 않는다. MIL-STD 내구성과 멀티밴드 GPS, 그리고 확장된 태양광 충전. 당신의 본능을 깨워보세요.</t>
   </si>
   <si>
     <t>그라파이트</t>
@@ -949,7 +949,7 @@
     <t>인스팅트 2X 솔라 택티컬</t>
   </si>
   <si>
-    <t>#생존은지속이다 Instinct 2X Solar 광량이 쌓일수록, 에너지는 멈추지 않는다. MIL-STD 내구성과 멀티밴드 GPS, 그리고 확장된 태양광 충전. 탐험위에 전술을 얹은, 살아 있는 아웃도어 워치.</t>
+    <t>#생존은지속이다 Instinct 2X Solar 광량이 쌓일수록, 에너지는 멈추지 않는다. MIL-STD 내구성과 멀티밴드 GPS, 그리고 확장된 태양광 충전. 탐험위에 전술을 얹어보세요.</t>
   </si>
   <si>
     <t>블랙,코요테탄</t>
@@ -1018,7 +1018,7 @@
     <t>베뉴3</t>
   </si>
   <si>
-    <t>#손목에서완성되는하루 Venu 3 전화, 메시지, 일정, 음성비서까지—일상이 손목 위에서 흐른다. AMOLED 디스플레이 속 선명한 헬스 데이터와 스마트 기능의 조화. 운동도, 일도, 대화도. 이젠 Venu 로 완성하세요.</t>
+    <t>#손목에서완성되는하루 Venu 3 전화, 메시지, 일정, 음성비서까지—손목 위에서 흐르는 일상. 운동도, 일도, 대화도. 이젠 Venu 로 완성하세요.</t>
   </si>
   <si>
     <t>#000000,#fff</t>
@@ -1066,7 +1066,7 @@
     <t>릴리 2 액티브</t>
   </si>
   <si>
-    <t>#디자인도기능도 Lily 2 Active 세련된 곡선과 은은한 컬러, 그 위에 헬스 모니터링과 운동 기능을 더하다. 스타일은 그대로, 라이프는 더 가볍고 유연하게. 움직이는 하루에도 어울리는 가장 감각적인 액세서리.</t>
+    <t>#디자인도기능도 Lily 2 Active 세련된 곡선과 은은한 컬러, 그 위에 헬스 모니터링과 운동 기능을 더하다. 감각적인 스타일은 그대로, 라이프는 더 가볍고 유연하게.</t>
   </si>
   <si>
     <t>재스퍼그린, 퍼플자스민, 루나골드</t>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -4367,8 +4367,8 @@
       <c r="Z9" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="AA9" s="27" t="b">
-        <v>1</v>
+      <c r="AA9" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AB9" s="27" t="b">
         <v>1</v>
@@ -5445,8 +5445,8 @@
       <c r="Z16" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AA16" s="15" t="b">
-        <v>1</v>
+      <c r="AA16" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AB16" s="15" t="b">
         <v>1</v>
@@ -5599,8 +5599,8 @@
       <c r="Z17" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="AA17" s="27" t="b">
-        <v>1</v>
+      <c r="AA17" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AB17" s="27" t="b">
         <v>1</v>
@@ -5753,8 +5753,8 @@
       <c r="Z18" s="15" t="b">
         <v>1</v>
       </c>
-      <c r="AA18" s="15" t="b">
-        <v>1</v>
+      <c r="AA18" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AB18" s="15" t="b">
         <v>1</v>
@@ -5907,8 +5907,8 @@
       <c r="Z19" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="AA19" s="27" t="b">
-        <v>1</v>
+      <c r="AA19" s="16" t="b">
+        <v>0</v>
       </c>
       <c r="AB19" s="27" t="b">
         <v>1</v>
@@ -8545,8 +8545,8 @@
       <c r="Z36" s="47" t="b">
         <v>1</v>
       </c>
-      <c r="AA36" s="47" t="b">
-        <v>1</v>
+      <c r="AA36" s="48" t="b">
+        <v>0</v>
       </c>
       <c r="AB36" s="47" t="b">
         <v>1</v>
@@ -8697,8 +8697,8 @@
       <c r="Z37" s="50" t="b">
         <v>1</v>
       </c>
-      <c r="AA37" s="50" t="b">
-        <v>1</v>
+      <c r="AA37" s="48" t="b">
+        <v>0</v>
       </c>
       <c r="AB37" s="50" t="b">
         <v>1</v>
@@ -8908,8 +8908,8 @@
       <c r="AS38" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AT38" s="17" t="b">
-        <v>0</v>
+      <c r="AT38" s="14" t="b">
+        <v>1</v>
       </c>
       <c r="AU38" s="17" t="b">
         <v>0</v>
@@ -9062,8 +9062,8 @@
       <c r="AS39" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AT39" s="17" t="b">
-        <v>0</v>
+      <c r="AT39" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="AU39" s="17" t="b">
         <v>0</v>
@@ -9159,8 +9159,8 @@
       <c r="Z40" s="58" t="b">
         <v>1</v>
       </c>
-      <c r="AA40" s="58" t="b">
-        <v>1</v>
+      <c r="AA40" s="59" t="b">
+        <v>0</v>
       </c>
       <c r="AB40" s="58" t="b">
         <v>1</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="525">
   <si>
     <t>id</t>
   </si>
@@ -237,7 +237,7 @@
     <t>10ATM</t>
   </si>
   <si>
-    <t>40M</t>
+    <t>40m</t>
   </si>
   <si>
     <t>퀵핏 26mm</t>
@@ -673,10 +673,7 @@
     <t>61g</t>
   </si>
   <si>
-    <t>10ATM 다이빙</t>
-  </si>
-  <si>
-    <t>100M</t>
+    <t>100m</t>
   </si>
   <si>
     <t>실리콘</t>
@@ -733,6 +730,9 @@
     <t>20 ATM 다이빙</t>
   </si>
   <si>
+    <t>200m</t>
+  </si>
+  <si>
     <t>스테인리스 스틸</t>
   </si>
   <si>
@@ -749,9 +749,6 @@
   </si>
   <si>
     <t>105.6g</t>
-  </si>
-  <si>
-    <t>200M</t>
   </si>
   <si>
     <t>블랙,브론즈</t>
@@ -6049,79 +6046,79 @@
         <v>212</v>
       </c>
       <c r="V20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="W20" s="9" t="s">
         <v>213</v>
-      </c>
-      <c r="W20" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="X20" s="9" t="s">
         <v>75</v>
       </c>
       <c r="Y20" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="Z20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AA20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH20" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="AI20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN20" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR20" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT20" s="9" t="s">
         <v>215</v>
-      </c>
-      <c r="Z20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AA20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AB20" s="16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AG20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AH20" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="AI20" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AM20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AN20" s="18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AQ20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AR20" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="AT20" s="9" t="s">
-        <v>216</v>
       </c>
       <c r="AU20" s="17" t="b">
         <v>0</v>
@@ -6150,25 +6147,25 @@
         <v>1.1466050722E10</v>
       </c>
       <c r="C21" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>218</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>202</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>204</v>
       </c>
       <c r="H21" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>220</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>221</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>207</v>
@@ -6181,7 +6178,7 @@
         <v>45701.0</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>61</v>
@@ -6205,16 +6202,16 @@
         <v>172</v>
       </c>
       <c r="V21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="W21" s="21" t="s">
         <v>213</v>
-      </c>
-      <c r="W21" s="21" t="s">
-        <v>214</v>
       </c>
       <c r="X21" s="21" t="s">
         <v>75</v>
       </c>
       <c r="Y21" s="21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Z21" s="27" t="b">
         <v>1</v>
@@ -6306,25 +6303,25 @@
         <v>9.832890652E9</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>224</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>225</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>202</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="I22" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>229</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>78</v>
@@ -6337,7 +6334,7 @@
         <v>45308.0</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O22" s="13" t="s">
         <v>61</v>
@@ -6358,13 +6355,13 @@
         <v>65</v>
       </c>
       <c r="U22" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V22" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="W22" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="X22" s="9" t="s">
         <v>82</v>
@@ -6474,7 +6471,7 @@
         <v>236</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>86</v>
@@ -6517,10 +6514,10 @@
         <v>238</v>
       </c>
       <c r="V23" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="W23" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="W23" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="X23" s="21" t="s">
         <v>69</v>
@@ -6630,13 +6627,13 @@
         <v>236</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H24" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>78</v>
@@ -6649,7 +6646,7 @@
         <v>45308.0</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O24" s="13" t="s">
         <v>61</v>
@@ -6670,13 +6667,13 @@
         <v>65</v>
       </c>
       <c r="U24" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="V24" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="W24" s="9" t="s">
         <v>232</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>239</v>
       </c>
       <c r="X24" s="9" t="s">
         <v>82</v>
@@ -6774,19 +6771,19 @@
         <v>1.1310815985E10</v>
       </c>
       <c r="C25" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>243</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>244</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>202</v>
       </c>
       <c r="F25" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>245</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>246</v>
       </c>
       <c r="H25" s="40" t="s">
         <v>86</v>
@@ -6795,7 +6792,7 @@
         <v>87</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K25" s="42">
         <v>2190000.0</v>
@@ -6805,7 +6802,7 @@
         <v>45638.0</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O25" s="25" t="s">
         <v>61</v>
@@ -6817,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="S25" s="21" t="s">
         <v>64</v>
@@ -6826,13 +6823,13 @@
         <v>65</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="V25" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="W25" s="21" t="s">
         <v>232</v>
-      </c>
-      <c r="W25" s="21" t="s">
-        <v>239</v>
       </c>
       <c r="X25" s="21" t="s">
         <v>82</v>
@@ -6916,7 +6913,7 @@
         <v>0</v>
       </c>
       <c r="AY25" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AZ25" s="28">
         <v>16.0</v>
@@ -6930,19 +6927,19 @@
         <v>9.599823621E9</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>86</v>
@@ -6963,7 +6960,7 @@
         <v>45259.0</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O26" s="13" t="s">
         <v>61</v>
@@ -6984,10 +6981,10 @@
         <v>65</v>
       </c>
       <c r="U26" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="V26" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>259</v>
       </c>
       <c r="W26" s="9"/>
       <c r="X26" s="9" t="s">
@@ -7086,19 +7083,19 @@
         <v>1.1520029652E10</v>
       </c>
       <c r="C27" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>262</v>
-      </c>
       <c r="G27" s="21" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>86</v>
@@ -7117,7 +7114,7 @@
         <v>45692.0</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>61</v>
@@ -7141,7 +7138,7 @@
         <v>66</v>
       </c>
       <c r="V27" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W27" s="21" t="s">
         <v>68</v>
@@ -7242,19 +7239,19 @@
         <v>1.1427676811E10</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>268</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>86</v>
@@ -7273,7 +7270,7 @@
         <v>45692.0</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O28" s="13" t="s">
         <v>61</v>
@@ -7285,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S28" s="14" t="s">
         <v>131</v>
@@ -7297,7 +7294,7 @@
         <v>167</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W28" s="9"/>
       <c r="X28" s="9" t="s">
@@ -7396,19 +7393,19 @@
         <v>1.1427677905E10</v>
       </c>
       <c r="C29" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="G29" s="21" t="s">
         <v>267</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>268</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>86</v>
@@ -7417,7 +7414,7 @@
         <v>87</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K29" s="22">
         <v>739000.0</v>
@@ -7427,7 +7424,7 @@
         <v>45692.0</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O29" s="25" t="s">
         <v>61</v>
@@ -7439,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="S29" s="26" t="s">
         <v>131</v>
@@ -7448,10 +7445,10 @@
         <v>65</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="V29" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21" t="s">
@@ -7550,19 +7547,19 @@
         <v>1.1427679735E10</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>277</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>86</v>
@@ -7581,7 +7578,7 @@
         <v>45692.0</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>209</v>
@@ -7593,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S30" s="14" t="s">
         <v>131</v>
@@ -7602,10 +7599,10 @@
         <v>65</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W30" s="9"/>
       <c r="X30" s="9" t="s">
@@ -7704,19 +7701,19 @@
         <v>1.1427682377E10</v>
       </c>
       <c r="C31" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="E31" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>277</v>
-      </c>
       <c r="G31" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>86</v>
@@ -7725,7 +7722,7 @@
         <v>87</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K31" s="22">
         <v>669000.0</v>
@@ -7735,7 +7732,7 @@
         <v>45692.0</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O31" s="21" t="s">
         <v>209</v>
@@ -7747,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S31" s="26" t="s">
         <v>131</v>
@@ -7756,10 +7753,10 @@
         <v>65</v>
       </c>
       <c r="U31" s="21" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V31" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W31" s="21"/>
       <c r="X31" s="21" t="s">
@@ -7858,19 +7855,19 @@
         <v>1.1427671305E10</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>286</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>287</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>86</v>
@@ -7879,7 +7876,7 @@
         <v>87</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K32" s="10">
         <v>459000.0</v>
@@ -7889,7 +7886,7 @@
         <v>45692.0</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>209</v>
@@ -7901,19 +7898,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="S32" s="14" t="s">
         <v>290</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>291</v>
       </c>
       <c r="T32" s="9" t="s">
         <v>119</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W32" s="9"/>
       <c r="X32" s="9" t="s">
@@ -8012,19 +8009,19 @@
         <v>1.142777123E10</v>
       </c>
       <c r="C33" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="E33" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="G33" s="21" t="s">
         <v>286</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>287</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>86</v>
@@ -8043,7 +8040,7 @@
         <v>45692.0</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O33" s="21" t="s">
         <v>209</v>
@@ -8055,19 +8052,19 @@
         <v>0</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="S33" s="26" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T33" s="21" t="s">
         <v>119</v>
       </c>
       <c r="U33" s="21" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="V33" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21" t="s">
@@ -8166,28 +8163,28 @@
         <v>9.280896681E9</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>299</v>
-      </c>
       <c r="J34" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K34" s="10">
         <v>599000.0</v>
@@ -8199,7 +8196,7 @@
         <v>45047.0</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>209</v>
@@ -8211,19 +8208,19 @@
         <v>0</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S34" s="14" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T34" s="14" t="s">
         <v>65</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W34" s="9"/>
       <c r="X34" s="9" t="s">
@@ -8293,7 +8290,7 @@
         <v>1</v>
       </c>
       <c r="AT34" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AU34" s="17" t="b">
         <v>0</v>
@@ -8322,28 +8319,28 @@
         <v>5.0074641E7</v>
       </c>
       <c r="C35" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="E35" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="G35" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="H35" s="21" t="s">
+      <c r="I35" s="21" t="s">
         <v>306</v>
       </c>
-      <c r="I35" s="21" t="s">
-        <v>307</v>
-      </c>
       <c r="J35" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K35" s="22">
         <v>719000.0</v>
@@ -8355,7 +8352,7 @@
         <v>45047.0</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="O35" s="21" t="s">
         <v>209</v>
@@ -8367,19 +8364,19 @@
         <v>0</v>
       </c>
       <c r="R35" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="S35" s="26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="T35" s="26" t="s">
         <v>65</v>
       </c>
       <c r="U35" s="21" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="V35" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="W35" s="21"/>
       <c r="X35" s="21" t="s">
@@ -8449,7 +8446,7 @@
         <v>1</v>
       </c>
       <c r="AT35" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AU35" s="17" t="b">
         <v>0</v>
@@ -8478,25 +8475,25 @@
         <v>9.53449277E9</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>115</v>
@@ -8509,7 +8506,7 @@
         <v>45245.0</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="O36" s="13" t="s">
         <v>61</v>
@@ -8521,7 +8518,7 @@
         <v>1</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S36" s="14" t="s">
         <v>131</v>
@@ -8530,7 +8527,7 @@
         <v>119</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V36" s="9" t="s">
         <v>121</v>
@@ -8540,7 +8537,7 @@
         <v>133</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z36" s="47" t="b">
         <v>1</v>
@@ -8630,25 +8627,25 @@
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="E37" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="F37" s="21" t="s">
+      <c r="G37" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="H37" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H37" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>323</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>324</v>
       </c>
       <c r="J37" s="21" t="s">
         <v>115</v>
@@ -8661,7 +8658,7 @@
         <v>45983.0</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O37" s="25" t="s">
         <v>61</v>
@@ -8673,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="R37" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S37" s="21" t="s">
         <v>149</v>
@@ -8682,7 +8679,7 @@
         <v>119</v>
       </c>
       <c r="U37" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="V37" s="21" t="s">
         <v>121</v>
@@ -8692,7 +8689,7 @@
         <v>133</v>
       </c>
       <c r="Y37" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z37" s="50" t="b">
         <v>1</v>
@@ -8784,25 +8781,25 @@
         <v>9.534769639E9</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>311</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>328</v>
-      </c>
       <c r="G38" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>137</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>207</v>
@@ -8815,7 +8812,7 @@
         <v>45245.0</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O38" s="13" t="s">
         <v>61</v>
@@ -8827,7 +8824,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="S38" s="9" t="s">
         <v>149</v>
@@ -8836,14 +8833,14 @@
         <v>119</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="V38" s="9" t="s">
         <v>121</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="Y38" s="9" t="s">
         <v>233</v>
@@ -8938,28 +8935,28 @@
         <v>9.534767189E9</v>
       </c>
       <c r="C39" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H39" s="21" t="s">
+      <c r="I39" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="J39" s="21" t="s">
         <v>337</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>338</v>
       </c>
       <c r="K39" s="22">
         <v>659000.0</v>
@@ -8969,7 +8966,7 @@
         <v>45245.0</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>61</v>
@@ -8981,7 +8978,7 @@
         <v>1</v>
       </c>
       <c r="R39" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="S39" s="21" t="s">
         <v>149</v>
@@ -8990,14 +8987,14 @@
         <v>119</v>
       </c>
       <c r="U39" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="V39" s="21" t="s">
         <v>121</v>
       </c>
       <c r="W39" s="21"/>
       <c r="X39" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y39" s="21" t="s">
         <v>233</v>
@@ -9092,28 +9089,28 @@
         <v>1.1061289692E10</v>
       </c>
       <c r="C40" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="D40" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="E40" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="F40" s="53" t="s">
         <v>343</v>
       </c>
-      <c r="E40" s="53" t="s">
-        <v>311</v>
-      </c>
-      <c r="F40" s="53" t="s">
+      <c r="G40" s="53" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="G40" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="H40" s="53" t="s">
+      <c r="I40" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="I40" s="53" t="s">
+      <c r="J40" s="53" t="s">
         <v>346</v>
-      </c>
-      <c r="J40" s="53" t="s">
-        <v>347</v>
       </c>
       <c r="K40" s="54">
         <v>459000.0</v>
@@ -9123,22 +9120,22 @@
         <v>45594.0</v>
       </c>
       <c r="N40" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="O40" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="O40" s="53" t="s">
+      <c r="P40" s="53" t="s">
         <v>349</v>
       </c>
-      <c r="P40" s="53" t="s">
+      <c r="Q40" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="Q40" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="R40" s="53" t="s">
+      <c r="S40" s="53" t="s">
         <v>351</v>
-      </c>
-      <c r="S40" s="53" t="s">
-        <v>352</v>
       </c>
       <c r="T40" s="53" t="s">
         <v>119</v>
@@ -9151,10 +9148,10 @@
       </c>
       <c r="W40" s="53"/>
       <c r="X40" s="53" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="Y40" s="53" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Z40" s="58" t="b">
         <v>1</v>
@@ -9349,19 +9346,19 @@
         <v>49</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>354</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>355</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -9372,16 +9369,16 @@
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -9393,19 +9390,19 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>364</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>365</v>
       </c>
       <c r="O2" s="17" t="b">
         <v>0</v>
@@ -9435,16 +9432,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>359</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>360</v>
       </c>
       <c r="G3" s="22">
         <v>519000.0</v>
@@ -9454,19 +9451,19 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="L3" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="M3" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="K3" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="L3" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>368</v>
-      </c>
       <c r="N3" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O3" s="17" t="b">
         <v>0</v>
@@ -9496,16 +9493,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="G4" s="65">
         <v>659000.0</v>
@@ -9515,19 +9512,19 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K4" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="L4" s="9" t="s">
-        <v>363</v>
-      </c>
       <c r="M4" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O4" s="17" t="b">
         <v>0</v>
@@ -9557,16 +9554,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>359</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>360</v>
       </c>
       <c r="G5" s="22">
         <v>659000.0</v>
@@ -9576,19 +9573,19 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="L5" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="M5" s="21" t="s">
         <v>372</v>
       </c>
-      <c r="K5" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>373</v>
-      </c>
       <c r="N5" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O5" s="17" t="b">
         <v>0</v>
@@ -9618,16 +9615,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>359</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>360</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -9637,19 +9634,19 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="M6" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="L6" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>376</v>
-      </c>
       <c r="N6" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>1</v>
@@ -9679,16 +9676,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="F7" s="21" t="s">
         <v>359</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>360</v>
       </c>
       <c r="G7" s="22">
         <v>799000.0</v>
@@ -9698,19 +9695,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="L7" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="M7" s="21" t="s">
         <v>378</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="L7" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>379</v>
-      </c>
       <c r="N7" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O7" s="21" t="b">
         <v>1</v>
@@ -9740,16 +9737,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>380</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>381</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -9761,19 +9758,19 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>384</v>
-      </c>
       <c r="N8" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
@@ -9803,16 +9800,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>359</v>
-      </c>
       <c r="F9" s="21" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G9" s="22">
         <v>989000.0</v>
@@ -9824,19 +9821,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="L9" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="M9" s="21" t="s">
         <v>386</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>387</v>
-      </c>
       <c r="N9" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O9" s="21" t="b">
         <v>1</v>
@@ -9866,16 +9863,16 @@
         <v>1.0632515323E10</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>389</v>
       </c>
       <c r="G10" s="10">
         <v>1089000.0</v>
@@ -9885,19 +9882,19 @@
         <v>45496.0</v>
       </c>
       <c r="J10" s="9" t="s">
+        <v>389</v>
+      </c>
+      <c r="K10" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="K10" s="32" t="s">
+      <c r="L10" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="L10" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>392</v>
-      </c>
       <c r="N10" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
@@ -9927,16 +9924,16 @@
         <v>1.0632516764E10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D11" s="21" t="s">
+        <v>357</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>359</v>
-      </c>
       <c r="F11" s="21" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G11" s="22">
         <v>1229000.0</v>
@@ -9946,19 +9943,19 @@
         <v>45496.0</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K11" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="L11" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="M11" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="L11" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="M11" s="21" t="s">
-        <v>392</v>
-      </c>
       <c r="N11" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O11" s="21" t="b">
         <v>1</v>
@@ -9988,16 +9985,16 @@
         <v>6.471040307E9</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="G12" s="10">
         <v>880000.0</v>
@@ -10009,12 +10006,12 @@
         <v>44256.0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -10026,7 +10023,7 @@
         <v>120.0</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -10037,16 +10034,16 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>402</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>403</v>
-      </c>
       <c r="F13" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G13" s="22">
         <v>1390000.0</v>
@@ -10058,12 +10055,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K13" s="66"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="26"/>
@@ -10075,7 +10072,7 @@
         <v>120.0</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
@@ -10086,16 +10083,16 @@
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>397</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>398</v>
       </c>
       <c r="G14" s="10">
         <v>880000.0</v>
@@ -10107,12 +10104,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -10124,7 +10121,7 @@
         <v>120.0</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -10135,16 +10132,16 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G15" s="22">
         <v>1390000.0</v>
@@ -10156,12 +10153,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -10173,7 +10170,7 @@
         <v>120.0</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
@@ -10184,16 +10181,16 @@
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>413</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>414</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -10205,12 +10202,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -10222,7 +10219,7 @@
         <v>120.0</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -10233,16 +10230,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G17" s="22">
         <v>1590000.0</v>
@@ -10254,12 +10251,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K17" s="66"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="26"/>
@@ -10271,7 +10268,7 @@
         <v>120.0</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
@@ -10280,16 +10277,16 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="D18" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>422</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>423</v>
       </c>
       <c r="G18" s="10">
         <v>799000.0</v>
@@ -10299,15 +10296,15 @@
         <v>45775.0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -10315,10 +10312,10 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="U18" s="19" t="s">
         <v>426</v>
-      </c>
-      <c r="U18" s="19" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -10329,16 +10326,16 @@
         <v>2.920696454E9</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E19" s="21" t="s">
         <v>428</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="E19" s="21" t="s">
+      <c r="F19" s="21" t="s">
         <v>429</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>430</v>
       </c>
       <c r="G19" s="22">
         <v>199000.0</v>
@@ -10350,15 +10347,15 @@
         <v>42979.0</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K19" s="66"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -10369,7 +10366,7 @@
         <v>6.0</v>
       </c>
       <c r="U19" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="1">
@@ -10380,16 +10377,16 @@
         <v>5.018655247E9</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="F20" s="32" t="s">
         <v>435</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>436</v>
       </c>
       <c r="G20" s="10">
         <v>258000.0</v>
@@ -10399,15 +10396,15 @@
         <v>44013.0</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -10425,16 +10422,16 @@
         <v>6.878093775E9</v>
       </c>
       <c r="C21" s="68" t="s">
+        <v>438</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>395</v>
+      </c>
+      <c r="E21" s="68" t="s">
         <v>439</v>
       </c>
-      <c r="D21" s="68" t="s">
-        <v>396</v>
-      </c>
-      <c r="E21" s="68" t="s">
+      <c r="F21" s="68" t="s">
         <v>440</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>441</v>
       </c>
       <c r="G21" s="69">
         <v>529000.0</v>
@@ -10444,15 +10441,15 @@
         <v>44682.0</v>
       </c>
       <c r="J21" s="68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
       <c r="M21" s="68" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="N21" s="68" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
@@ -10461,7 +10458,7 @@
       <c r="S21" s="72"/>
       <c r="T21" s="68"/>
       <c r="U21" s="73" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -10564,13 +10561,13 @@
         <v>21</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -10581,16 +10578,16 @@
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>447</v>
-      </c>
       <c r="F2" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G2" s="10">
         <v>69000.0</v>
@@ -10600,19 +10597,19 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O2" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="P2" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="Q2" s="19"/>
     </row>
@@ -10624,16 +10621,16 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>450</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>452</v>
-      </c>
       <c r="F3" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G3" s="22">
         <v>69000.0</v>
@@ -10643,19 +10640,19 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O3" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>449</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>450</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
@@ -10667,16 +10664,16 @@
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>453</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>455</v>
-      </c>
       <c r="F4" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G4" s="65">
         <v>121000.0</v>
@@ -10686,19 +10683,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O4" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="P4" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="Q4" s="36"/>
     </row>
@@ -10710,16 +10707,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>457</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="21" t="s">
         <v>458</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>459</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>460</v>
       </c>
       <c r="G5" s="22">
         <v>89000.0</v>
@@ -10732,16 +10729,16 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="N5" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="P5" s="21" t="s">
         <v>461</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="P5" s="21" t="s">
-        <v>462</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
@@ -10753,16 +10750,16 @@
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>463</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>458</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>459</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>464</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -10775,16 +10772,16 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O6" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="P6" s="9" t="s">
         <v>449</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>450</v>
       </c>
       <c r="Q6" s="19"/>
     </row>
@@ -10796,16 +10793,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>465</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>459</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>466</v>
       </c>
       <c r="G7" s="22">
         <v>225000.0</v>
@@ -10821,13 +10818,13 @@
         <v>167</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O7" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="P7" s="21" t="s">
         <v>449</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>450</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
@@ -10839,16 +10836,16 @@
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
         <v>468</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>469</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>470</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -10861,19 +10858,19 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="P8" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="P8" s="9" t="s">
+      <c r="Q8" s="19" t="s">
         <v>472</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -10884,16 +10881,16 @@
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="E9" s="21" t="s">
         <v>468</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="F9" s="21" t="s">
         <v>469</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>470</v>
       </c>
       <c r="G9" s="22">
         <v>398000.0</v>
@@ -10906,19 +10903,19 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="P9" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="N9" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>449</v>
-      </c>
-      <c r="P9" s="21" t="s">
+      <c r="Q9" s="28" t="s">
         <v>472</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
@@ -10929,16 +10926,16 @@
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>475</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>476</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -10951,19 +10948,19 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="O10" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="P10" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="Q10" s="19" t="s">
         <v>479</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -10974,16 +10971,16 @@
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>481</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="E11" s="21" t="s">
         <v>482</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>483</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>484</v>
       </c>
       <c r="G11" s="22">
         <v>789000.0</v>
@@ -10998,16 +10995,16 @@
       <c r="K11" s="66"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="O11" s="21" t="s">
         <v>485</v>
       </c>
-      <c r="N11" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="O11" s="21" t="s">
+      <c r="P11" s="21" t="s">
         <v>486</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>487</v>
       </c>
       <c r="Q11" s="28"/>
     </row>
@@ -11019,16 +11016,16 @@
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>488</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>489</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -11041,16 +11038,16 @@
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>490</v>
       </c>
-      <c r="N12" s="9" t="s">
-        <v>365</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>491</v>
-      </c>
       <c r="P12" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q12" s="19"/>
     </row>
@@ -11062,16 +11059,16 @@
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>492</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
         <v>493</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>494</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>495</v>
       </c>
       <c r="G13" s="22">
         <v>989000.0</v>
@@ -11086,16 +11083,16 @@
       <c r="K13" s="66"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
+        <v>495</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="P13" s="21" t="s">
         <v>496</v>
-      </c>
-      <c r="N13" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="O13" s="21" t="s">
-        <v>486</v>
-      </c>
-      <c r="P13" s="21" t="s">
-        <v>497</v>
       </c>
       <c r="Q13" s="28"/>
     </row>
@@ -11328,17 +11325,17 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="77"/>
       <c r="B2" s="78" t="s">
+        <v>497</v>
+      </c>
+      <c r="C2" s="79" t="s">
         <v>498</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="D2" s="80" t="s">
         <v>499</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>500</v>
       </c>
       <c r="E2" s="77"/>
       <c r="F2" s="81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G2" s="82"/>
       <c r="H2" s="82"/>
@@ -11353,14 +11350,14 @@
         <v>45671.0</v>
       </c>
       <c r="C3" s="86" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="87" t="s">
         <v>502</v>
-      </c>
-      <c r="D3" s="87" t="s">
-        <v>503</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="88" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
@@ -11375,17 +11372,17 @@
         <v>45671.0</v>
       </c>
       <c r="C4" s="86" t="s">
+        <v>504</v>
+      </c>
+      <c r="D4" s="93" t="s">
         <v>505</v>
-      </c>
-      <c r="D4" s="93" t="s">
-        <v>506</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="94" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="95" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K4" s="96"/>
       <c r="L4" s="91"/>
@@ -11396,17 +11393,17 @@
         <v>45669.0</v>
       </c>
       <c r="C5" s="86" t="s">
+        <v>507</v>
+      </c>
+      <c r="D5" s="98" t="s">
         <v>508</v>
-      </c>
-      <c r="D5" s="98" t="s">
-        <v>509</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="94" t="s">
+        <v>509</v>
+      </c>
+      <c r="G5" s="95" t="s">
         <v>510</v>
-      </c>
-      <c r="G5" s="95" t="s">
-        <v>511</v>
       </c>
       <c r="K5" s="96"/>
       <c r="L5" s="91"/>
@@ -11417,17 +11414,17 @@
         <v>45671.0</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="94" t="s">
+        <v>512</v>
+      </c>
+      <c r="G6" s="95" t="s">
         <v>513</v>
-      </c>
-      <c r="G6" s="95" t="s">
-        <v>514</v>
       </c>
       <c r="K6" s="96"/>
       <c r="L6" s="91"/>
@@ -11438,17 +11435,17 @@
         <v>45672.0</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D7" s="98" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="94" t="s">
+        <v>515</v>
+      </c>
+      <c r="G7" s="95" t="s">
         <v>516</v>
-      </c>
-      <c r="G7" s="95" t="s">
-        <v>517</v>
       </c>
       <c r="K7" s="96"/>
       <c r="L7" s="91"/>
@@ -11459,15 +11456,15 @@
         <v>45674.0</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="94"/>
       <c r="G8" s="95" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="K8" s="96"/>
       <c r="L8" s="91"/>
@@ -11478,17 +11475,17 @@
         <v>45731.0</v>
       </c>
       <c r="C9" s="86" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="98" t="s">
         <v>520</v>
-      </c>
-      <c r="D9" s="98" t="s">
-        <v>521</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="94" t="s">
+        <v>521</v>
+      </c>
+      <c r="G9" s="95" t="s">
         <v>522</v>
-      </c>
-      <c r="G9" s="95" t="s">
-        <v>523</v>
       </c>
       <c r="K9" s="96"/>
       <c r="L9" s="91"/>
@@ -11500,10 +11497,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="77"/>
       <c r="F10" s="94" t="s">
+        <v>523</v>
+      </c>
+      <c r="G10" s="95" t="s">
         <v>524</v>
-      </c>
-      <c r="G10" s="95" t="s">
-        <v>525</v>
       </c>
       <c r="K10" s="96"/>
       <c r="L10" s="91"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="523">
   <si>
     <t>id</t>
   </si>
@@ -400,7 +400,7 @@
     <t>5ATM</t>
   </si>
   <si>
-    <t>퀵릴리즈20mm</t>
+    <t>퀵릴리즈 20mm</t>
   </si>
   <si>
     <t>섬유 보강 폴리머 (FRP)</t>
@@ -433,9 +433,6 @@
     <t>39g</t>
   </si>
   <si>
-    <t>퀵릴리즈 20mm</t>
-  </si>
-  <si>
     <t>Forerunner 165</t>
   </si>
   <si>
@@ -487,6 +484,9 @@
     <t>47g</t>
   </si>
   <si>
+    <t>퀵릴리즈 22mm</t>
+  </si>
+  <si>
     <t>Forerunner 265s</t>
   </si>
   <si>
@@ -505,7 +505,7 @@
     <t>1.1” (28.1 mm)</t>
   </si>
   <si>
-    <t>퀵릴리즈18mm</t>
+    <t>퀵릴리즈 18mm</t>
   </si>
   <si>
     <t>Forerunner 965</t>
@@ -1030,9 +1030,6 @@
     <t>30g</t>
   </si>
   <si>
-    <t>퀵릴리즈 22mm</t>
-  </si>
-  <si>
     <t>Venu 3s</t>
   </si>
   <si>
@@ -1052,9 +1049,6 @@
   </si>
   <si>
     <t>27g</t>
-  </si>
-  <si>
-    <t>퀵릴리즈 18mm</t>
   </si>
   <si>
     <t>Lily 2 Active</t>
@@ -4510,7 +4504,7 @@
       </c>
       <c r="W10" s="9"/>
       <c r="X10" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Y10" s="9" t="s">
         <v>123</v>
@@ -4605,25 +4599,25 @@
         <v>1.0006842669E10</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>134</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>135</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>110</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G11" s="21" t="s">
         <v>112</v>
       </c>
       <c r="H11" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>138</v>
       </c>
       <c r="J11" s="21" t="s">
         <v>78</v>
@@ -4636,7 +4630,7 @@
         <v>45323.0</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O11" s="25" t="s">
         <v>61</v>
@@ -4664,7 +4658,7 @@
       </c>
       <c r="W11" s="21"/>
       <c r="X11" s="21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Y11" s="21" t="s">
         <v>123</v>
@@ -4759,28 +4753,28 @@
         <v>8.255898505E9</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="E12" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>142</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>143</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>112</v>
       </c>
       <c r="H12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="J12" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>146</v>
       </c>
       <c r="K12" s="10">
         <v>589000.0</v>
@@ -4790,7 +4784,7 @@
         <v>44986.0</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O12" s="13" t="s">
         <v>61</v>
@@ -4802,23 +4796,23 @@
         <v>1</v>
       </c>
       <c r="R12" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="S12" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="S12" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="T12" s="14" t="s">
         <v>65</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V12" s="9" t="s">
         <v>121</v>
       </c>
       <c r="W12" s="9"/>
       <c r="X12" s="9" t="s">
-        <v>122</v>
+        <v>150</v>
       </c>
       <c r="Y12" s="9" t="s">
         <v>123</v>
@@ -4919,10 +4913,10 @@
         <v>152</v>
       </c>
       <c r="E13" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>142</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>143</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>112</v>
@@ -4959,7 +4953,7 @@
         <v>156</v>
       </c>
       <c r="S13" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T13" s="26" t="s">
         <v>65</v>
@@ -5896,7 +5890,7 @@
       </c>
       <c r="W19" s="21"/>
       <c r="X19" s="21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Y19" s="21" t="s">
         <v>199</v>
@@ -8534,7 +8528,7 @@
       </c>
       <c r="W36" s="9"/>
       <c r="X36" s="9" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Y36" s="9" t="s">
         <v>318</v>
@@ -8673,7 +8667,7 @@
         <v>316</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T37" s="21" t="s">
         <v>119</v>
@@ -8686,7 +8680,7 @@
       </c>
       <c r="W37" s="21"/>
       <c r="X37" s="21" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="Y37" s="21" t="s">
         <v>318</v>
@@ -8796,7 +8790,7 @@
         <v>312</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I38" s="9" t="s">
         <v>328</v>
@@ -8827,7 +8821,7 @@
         <v>330</v>
       </c>
       <c r="S38" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T38" s="9" t="s">
         <v>119</v>
@@ -8840,7 +8834,7 @@
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="9" t="s">
-        <v>332</v>
+        <v>150</v>
       </c>
       <c r="Y38" s="9" t="s">
         <v>233</v>
@@ -8935,10 +8929,10 @@
         <v>9.534767189E9</v>
       </c>
       <c r="C39" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>333</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>334</v>
       </c>
       <c r="E39" s="21" t="s">
         <v>310</v>
@@ -8950,13 +8944,13 @@
         <v>312</v>
       </c>
       <c r="H39" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="I39" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="J39" s="21" t="s">
         <v>336</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>337</v>
       </c>
       <c r="K39" s="22">
         <v>659000.0</v>
@@ -8966,7 +8960,7 @@
         <v>45245.0</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>61</v>
@@ -8981,20 +8975,20 @@
         <v>316</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="T39" s="21" t="s">
         <v>119</v>
       </c>
       <c r="U39" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="V39" s="21" t="s">
         <v>121</v>
       </c>
       <c r="W39" s="21"/>
       <c r="X39" s="21" t="s">
-        <v>340</v>
+        <v>157</v>
       </c>
       <c r="Y39" s="21" t="s">
         <v>233</v>
@@ -9089,28 +9083,28 @@
         <v>1.1061289692E10</v>
       </c>
       <c r="C40" s="53" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D40" s="53" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E40" s="53" t="s">
         <v>310</v>
       </c>
       <c r="F40" s="53" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G40" s="53" t="s">
         <v>312</v>
       </c>
       <c r="H40" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="J40" s="53" t="s">
         <v>344</v>
-      </c>
-      <c r="I40" s="53" t="s">
-        <v>345</v>
-      </c>
-      <c r="J40" s="53" t="s">
-        <v>346</v>
       </c>
       <c r="K40" s="54">
         <v>459000.0</v>
@@ -9120,22 +9114,22 @@
         <v>45594.0</v>
       </c>
       <c r="N40" s="53" t="s">
+        <v>345</v>
+      </c>
+      <c r="O40" s="53" t="s">
+        <v>346</v>
+      </c>
+      <c r="P40" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="O40" s="53" t="s">
+      <c r="Q40" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="P40" s="53" t="s">
+      <c r="S40" s="53" t="s">
         <v>349</v>
-      </c>
-      <c r="Q40" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="R40" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="S40" s="53" t="s">
-        <v>351</v>
       </c>
       <c r="T40" s="53" t="s">
         <v>119</v>
@@ -9148,7 +9142,7 @@
       </c>
       <c r="W40" s="53"/>
       <c r="X40" s="53" t="s">
-        <v>340</v>
+        <v>157</v>
       </c>
       <c r="Y40" s="53" t="s">
         <v>318</v>
@@ -9346,19 +9340,19 @@
         <v>49</v>
       </c>
       <c r="Q1" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -9369,16 +9363,16 @@
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E2" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>359</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -9390,19 +9384,19 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="L2" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="O2" s="17" t="b">
         <v>0</v>
@@ -9432,16 +9426,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D3" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>357</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>359</v>
       </c>
       <c r="G3" s="22">
         <v>519000.0</v>
@@ -9451,19 +9445,19 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K3" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L3" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="M3" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="N3" s="21" t="s">
         <v>362</v>
-      </c>
-      <c r="M3" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="N3" s="21" t="s">
-        <v>364</v>
       </c>
       <c r="O3" s="17" t="b">
         <v>0</v>
@@ -9493,16 +9487,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>359</v>
       </c>
       <c r="G4" s="65">
         <v>659000.0</v>
@@ -9512,19 +9506,19 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L4" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="N4" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="O4" s="17" t="b">
         <v>0</v>
@@ -9554,16 +9548,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D5" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="F5" s="21" t="s">
         <v>357</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>359</v>
       </c>
       <c r="G5" s="22">
         <v>659000.0</v>
@@ -9573,19 +9567,19 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K5" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L5" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="N5" s="21" t="s">
         <v>362</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="N5" s="21" t="s">
-        <v>364</v>
       </c>
       <c r="O5" s="17" t="b">
         <v>0</v>
@@ -9615,16 +9609,16 @@
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>357</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>359</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -9634,19 +9628,19 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L6" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>362</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>1</v>
@@ -9676,16 +9670,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D7" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>356</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>357</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>358</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>359</v>
       </c>
       <c r="G7" s="22">
         <v>799000.0</v>
@@ -9695,19 +9689,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="21" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="K7" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L7" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="N7" s="21" t="s">
         <v>362</v>
-      </c>
-      <c r="M7" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="N7" s="21" t="s">
-        <v>364</v>
       </c>
       <c r="O7" s="21" t="b">
         <v>1</v>
@@ -9737,16 +9731,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -9758,19 +9752,19 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M8" s="9" t="s">
         <v>381</v>
       </c>
-      <c r="K8" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>383</v>
-      </c>
       <c r="N8" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
@@ -9800,16 +9794,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G9" s="22">
         <v>989000.0</v>
@@ -9821,19 +9815,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="L9" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="N9" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O9" s="21" t="b">
         <v>1</v>
@@ -9863,16 +9857,16 @@
         <v>1.0632515323E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G10" s="10">
         <v>1089000.0</v>
@@ -9882,19 +9876,19 @@
         <v>45496.0</v>
       </c>
       <c r="J10" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="M10" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="K10" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>391</v>
-      </c>
       <c r="N10" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
@@ -9924,16 +9918,16 @@
         <v>1.0632516764E10</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G11" s="22">
         <v>1229000.0</v>
@@ -9943,19 +9937,19 @@
         <v>45496.0</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="K11" s="66" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="L11" s="21" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M11" s="21" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="N11" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O11" s="21" t="b">
         <v>1</v>
@@ -9985,16 +9979,16 @@
         <v>6.471040307E9</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>397</v>
       </c>
       <c r="G12" s="10">
         <v>880000.0</v>
@@ -10006,12 +10000,12 @@
         <v>44256.0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="14"/>
@@ -10023,7 +10017,7 @@
         <v>120.0</v>
       </c>
       <c r="U12" s="19" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -10034,16 +10028,16 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D13" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>395</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>397</v>
       </c>
       <c r="G13" s="22">
         <v>1390000.0</v>
@@ -10055,12 +10049,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="K13" s="66"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="N13" s="21"/>
       <c r="O13" s="26"/>
@@ -10072,7 +10066,7 @@
         <v>120.0</v>
       </c>
       <c r="U13" s="28" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
@@ -10083,16 +10077,16 @@
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D14" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>395</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>397</v>
       </c>
       <c r="G14" s="10">
         <v>880000.0</v>
@@ -10104,12 +10098,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="K14" s="32"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="14"/>
@@ -10121,7 +10115,7 @@
         <v>120.0</v>
       </c>
       <c r="U14" s="19" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -10132,16 +10126,16 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D15" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="21" t="s">
         <v>395</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>397</v>
       </c>
       <c r="G15" s="22">
         <v>1390000.0</v>
@@ -10153,12 +10147,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
       <c r="M15" s="21" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
@@ -10170,7 +10164,7 @@
         <v>120.0</v>
       </c>
       <c r="U15" s="28" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
@@ -10181,16 +10175,16 @@
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -10202,12 +10196,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K16" s="32"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="14"/>
@@ -10219,7 +10213,7 @@
         <v>120.0</v>
       </c>
       <c r="U16" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -10230,16 +10224,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G17" s="22">
         <v>1590000.0</v>
@@ -10251,12 +10245,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="K17" s="66"/>
       <c r="L17" s="21"/>
       <c r="M17" s="21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="N17" s="21"/>
       <c r="O17" s="26"/>
@@ -10268,7 +10262,7 @@
         <v>120.0</v>
       </c>
       <c r="U17" s="28" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
@@ -10277,16 +10271,16 @@
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>420</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>422</v>
       </c>
       <c r="G18" s="10">
         <v>799000.0</v>
@@ -10296,15 +10290,15 @@
         <v>45775.0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="K18" s="32"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
@@ -10312,10 +10306,10 @@
       <c r="R18" s="14"/>
       <c r="S18" s="14"/>
       <c r="T18" s="9" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="U18" s="19" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -10326,16 +10320,16 @@
         <v>2.920696454E9</v>
       </c>
       <c r="C19" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="F19" s="21" t="s">
         <v>427</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>395</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>428</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>429</v>
       </c>
       <c r="G19" s="22">
         <v>199000.0</v>
@@ -10347,15 +10341,15 @@
         <v>42979.0</v>
       </c>
       <c r="J19" s="21" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K19" s="66"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="N19" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -10366,7 +10360,7 @@
         <v>6.0</v>
       </c>
       <c r="U19" s="28" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="1">
@@ -10377,16 +10371,16 @@
         <v>5.018655247E9</v>
       </c>
       <c r="C20" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>433</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>435</v>
       </c>
       <c r="G20" s="10">
         <v>258000.0</v>
@@ -10396,15 +10390,15 @@
         <v>44013.0</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K20" s="32"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
@@ -10422,16 +10416,16 @@
         <v>6.878093775E9</v>
       </c>
       <c r="C21" s="68" t="s">
+        <v>436</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>393</v>
+      </c>
+      <c r="E21" s="68" t="s">
+        <v>437</v>
+      </c>
+      <c r="F21" s="68" t="s">
         <v>438</v>
-      </c>
-      <c r="D21" s="68" t="s">
-        <v>395</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>439</v>
-      </c>
-      <c r="F21" s="68" t="s">
-        <v>440</v>
       </c>
       <c r="G21" s="69">
         <v>529000.0</v>
@@ -10441,15 +10435,15 @@
         <v>44682.0</v>
       </c>
       <c r="J21" s="68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K21" s="68"/>
       <c r="L21" s="68"/>
       <c r="M21" s="68" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="N21" s="68" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
@@ -10458,7 +10452,7 @@
       <c r="S21" s="72"/>
       <c r="T21" s="68"/>
       <c r="U21" s="73" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -10561,13 +10555,13 @@
         <v>21</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
@@ -10578,13 +10572,13 @@
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>250</v>
@@ -10597,19 +10591,19 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q2" s="19"/>
     </row>
@@ -10621,13 +10615,13 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F3" s="21" t="s">
         <v>250</v>
@@ -10640,19 +10634,19 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
       <c r="N3" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O3" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P3" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q3" s="28"/>
     </row>
@@ -10664,13 +10658,13 @@
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>250</v>
@@ -10683,19 +10677,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q4" s="36"/>
     </row>
@@ -10707,16 +10701,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>456</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="F5" s="21" t="s">
         <v>457</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>459</v>
       </c>
       <c r="G5" s="22">
         <v>89000.0</v>
@@ -10729,16 +10723,16 @@
       <c r="K5" s="21"/>
       <c r="L5" s="21"/>
       <c r="M5" s="21" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N5" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="28"/>
     </row>
@@ -10750,16 +10744,16 @@
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -10775,13 +10769,13 @@
         <v>279</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q6" s="19"/>
     </row>
@@ -10793,16 +10787,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G7" s="22">
         <v>225000.0</v>
@@ -10818,13 +10812,13 @@
         <v>167</v>
       </c>
       <c r="N7" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O7" s="21" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="P7" s="21" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="Q7" s="28"/>
     </row>
@@ -10836,16 +10830,16 @@
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>469</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -10858,19 +10852,19 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="P8" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q8" s="19" t="s">
         <v>470</v>
-      </c>
-      <c r="N8" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q8" s="19" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -10881,16 +10875,16 @@
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D9" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="F9" s="21" t="s">
         <v>467</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>469</v>
       </c>
       <c r="G9" s="22">
         <v>398000.0</v>
@@ -10903,19 +10897,19 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="N9" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>446</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q9" s="28" t="s">
         <v>470</v>
-      </c>
-      <c r="N9" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>448</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q9" s="28" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
@@ -10926,16 +10920,16 @@
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -10948,19 +10942,19 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="P10" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="N10" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="Q10" s="19" t="s">
         <v>477</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q10" s="19" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -10971,16 +10965,16 @@
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>478</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="E11" s="21" t="s">
         <v>480</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>481</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>482</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>483</v>
       </c>
       <c r="G11" s="22">
         <v>789000.0</v>
@@ -10995,16 +10989,16 @@
       <c r="K11" s="66"/>
       <c r="L11" s="21"/>
       <c r="M11" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="P11" s="21" t="s">
         <v>484</v>
-      </c>
-      <c r="N11" s="21" t="s">
-        <v>364</v>
-      </c>
-      <c r="O11" s="21" t="s">
-        <v>485</v>
-      </c>
-      <c r="P11" s="21" t="s">
-        <v>486</v>
       </c>
       <c r="Q11" s="28"/>
     </row>
@@ -11016,16 +11010,16 @@
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -11038,16 +11032,16 @@
       <c r="K12" s="32"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q12" s="19"/>
     </row>
@@ -11059,16 +11053,16 @@
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="E13" s="21" t="s">
         <v>491</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="F13" s="21" t="s">
         <v>492</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>493</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>494</v>
       </c>
       <c r="G13" s="22">
         <v>989000.0</v>
@@ -11083,16 +11077,16 @@
       <c r="K13" s="66"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="N13" s="21" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O13" s="21" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P13" s="21" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Q13" s="28"/>
     </row>
@@ -11325,17 +11319,17 @@
     <row r="2" ht="20.25" customHeight="1">
       <c r="A2" s="77"/>
       <c r="B2" s="78" t="s">
+        <v>495</v>
+      </c>
+      <c r="C2" s="79" t="s">
+        <v>496</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>497</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>498</v>
-      </c>
-      <c r="D2" s="80" t="s">
-        <v>499</v>
       </c>
       <c r="E2" s="77"/>
       <c r="F2" s="81" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G2" s="82"/>
       <c r="H2" s="82"/>
@@ -11350,14 +11344,14 @@
         <v>45671.0</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E3" s="77"/>
       <c r="F3" s="88" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="G3" s="89"/>
       <c r="H3" s="89"/>
@@ -11372,17 +11366,17 @@
         <v>45671.0</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D4" s="93" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E4" s="77"/>
       <c r="F4" s="94" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="95" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="K4" s="96"/>
       <c r="L4" s="91"/>
@@ -11393,17 +11387,17 @@
         <v>45669.0</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D5" s="98" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E5" s="77"/>
       <c r="F5" s="94" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G5" s="95" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="K5" s="96"/>
       <c r="L5" s="91"/>
@@ -11414,17 +11408,17 @@
         <v>45671.0</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D6" s="87" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E6" s="77"/>
       <c r="F6" s="94" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G6" s="95" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="K6" s="96"/>
       <c r="L6" s="91"/>
@@ -11435,17 +11429,17 @@
         <v>45672.0</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D7" s="98" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E7" s="77"/>
       <c r="F7" s="94" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G7" s="95" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="K7" s="96"/>
       <c r="L7" s="91"/>
@@ -11456,15 +11450,15 @@
         <v>45674.0</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D8" s="87" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E8" s="77"/>
       <c r="F8" s="94"/>
       <c r="G8" s="95" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K8" s="96"/>
       <c r="L8" s="91"/>
@@ -11475,17 +11469,17 @@
         <v>45731.0</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D9" s="98" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E9" s="77"/>
       <c r="F9" s="94" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="G9" s="95" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K9" s="96"/>
       <c r="L9" s="91"/>
@@ -11497,10 +11491,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="77"/>
       <c r="F10" s="94" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="G10" s="95" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="K10" s="96"/>
       <c r="L10" s="91"/>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="523">
   <si>
     <t>id</t>
   </si>
@@ -679,9 +679,6 @@
     <t>실리콘</t>
   </si>
   <si>
-    <t>별도센서 호환 시</t>
-  </si>
-  <si>
     <t>Descent G2</t>
   </si>
   <si>
@@ -1082,6 +1079,9 @@
   </si>
   <si>
     <t>14일간의 활동 데이터</t>
+  </si>
+  <si>
+    <t>퀵릴리즈 14mm</t>
   </si>
   <si>
     <t>voice</t>
@@ -6111,8 +6111,8 @@
       <c r="AS20" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AT20" s="9" t="s">
-        <v>215</v>
+      <c r="AT20" s="17" t="b">
+        <v>0</v>
       </c>
       <c r="AU20" s="17" t="b">
         <v>0</v>
@@ -6141,25 +6141,25 @@
         <v>1.1466050722E10</v>
       </c>
       <c r="C21" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>216</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>217</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>202</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>204</v>
       </c>
       <c r="H21" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="I21" s="21" t="s">
         <v>219</v>
-      </c>
-      <c r="I21" s="21" t="s">
-        <v>220</v>
       </c>
       <c r="J21" s="21" t="s">
         <v>207</v>
@@ -6172,7 +6172,7 @@
         <v>45701.0</v>
       </c>
       <c r="N21" s="21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O21" s="25" t="s">
         <v>61</v>
@@ -6205,7 +6205,7 @@
         <v>75</v>
       </c>
       <c r="Y21" s="21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Z21" s="27" t="b">
         <v>1</v>
@@ -6297,25 +6297,25 @@
         <v>9.832890652E9</v>
       </c>
       <c r="C22" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>223</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>224</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>202</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="I22" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>228</v>
       </c>
       <c r="J22" s="29" t="s">
         <v>78</v>
@@ -6328,7 +6328,7 @@
         <v>45308.0</v>
       </c>
       <c r="N22" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O22" s="13" t="s">
         <v>61</v>
@@ -6349,19 +6349,19 @@
         <v>65</v>
       </c>
       <c r="U22" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="V22" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="W22" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="W22" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="X22" s="9" t="s">
         <v>82</v>
       </c>
       <c r="Y22" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z22" s="15" t="b">
         <v>1</v>
@@ -6453,19 +6453,19 @@
         <v>9.855771903E9</v>
       </c>
       <c r="C23" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D23" s="25" t="s">
         <v>234</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>235</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>202</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G23" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H23" s="40" t="s">
         <v>86</v>
@@ -6484,7 +6484,7 @@
         <v>45308.0</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="O23" s="25" t="s">
         <v>61</v>
@@ -6505,13 +6505,13 @@
         <v>65</v>
       </c>
       <c r="U23" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="V23" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="W23" s="21" t="s">
         <v>231</v>
-      </c>
-      <c r="W23" s="21" t="s">
-        <v>232</v>
       </c>
       <c r="X23" s="21" t="s">
         <v>69</v>
@@ -6609,25 +6609,25 @@
         <v>5.0074635E7</v>
       </c>
       <c r="C24" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D24" s="13" t="s">
         <v>234</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>235</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>202</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H24" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="J24" s="13" t="s">
         <v>78</v>
@@ -6640,7 +6640,7 @@
         <v>45308.0</v>
       </c>
       <c r="N24" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O24" s="13" t="s">
         <v>61</v>
@@ -6661,13 +6661,13 @@
         <v>65</v>
       </c>
       <c r="U24" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="V24" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="W24" s="9" t="s">
         <v>231</v>
-      </c>
-      <c r="W24" s="9" t="s">
-        <v>232</v>
       </c>
       <c r="X24" s="9" t="s">
         <v>82</v>
@@ -6765,19 +6765,19 @@
         <v>1.1310815985E10</v>
       </c>
       <c r="C25" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="D25" s="25" t="s">
         <v>242</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>243</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>202</v>
       </c>
       <c r="F25" s="21" t="s">
+        <v>243</v>
+      </c>
+      <c r="G25" s="21" t="s">
         <v>244</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>245</v>
       </c>
       <c r="H25" s="40" t="s">
         <v>86</v>
@@ -6786,7 +6786,7 @@
         <v>87</v>
       </c>
       <c r="J25" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K25" s="42">
         <v>2190000.0</v>
@@ -6796,7 +6796,7 @@
         <v>45638.0</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O25" s="25" t="s">
         <v>61</v>
@@ -6808,7 +6808,7 @@
         <v>1</v>
       </c>
       <c r="R25" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="S25" s="21" t="s">
         <v>64</v>
@@ -6817,13 +6817,13 @@
         <v>65</v>
       </c>
       <c r="U25" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="V25" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="W25" s="21" t="s">
         <v>231</v>
-      </c>
-      <c r="W25" s="21" t="s">
-        <v>232</v>
       </c>
       <c r="X25" s="21" t="s">
         <v>82</v>
@@ -6907,7 +6907,7 @@
         <v>0</v>
       </c>
       <c r="AY25" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AZ25" s="28">
         <v>16.0</v>
@@ -6921,19 +6921,19 @@
         <v>9.599823621E9</v>
       </c>
       <c r="C26" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="E26" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>255</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>86</v>
@@ -6954,7 +6954,7 @@
         <v>45259.0</v>
       </c>
       <c r="N26" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O26" s="13" t="s">
         <v>61</v>
@@ -6975,10 +6975,10 @@
         <v>65</v>
       </c>
       <c r="U26" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="V26" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="V26" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="W26" s="9"/>
       <c r="X26" s="9" t="s">
@@ -7077,19 +7077,19 @@
         <v>1.1520029652E10</v>
       </c>
       <c r="C27" s="25" t="s">
+        <v>258</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="E27" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F27" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="E27" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>261</v>
-      </c>
       <c r="G27" s="21" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H27" s="21" t="s">
         <v>86</v>
@@ -7108,7 +7108,7 @@
         <v>45692.0</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O27" s="25" t="s">
         <v>61</v>
@@ -7132,7 +7132,7 @@
         <v>66</v>
       </c>
       <c r="V27" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W27" s="21" t="s">
         <v>68</v>
@@ -7233,19 +7233,19 @@
         <v>1.1427676811E10</v>
       </c>
       <c r="C28" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="E28" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>86</v>
@@ -7264,7 +7264,7 @@
         <v>45692.0</v>
       </c>
       <c r="N28" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O28" s="13" t="s">
         <v>61</v>
@@ -7276,7 +7276,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S28" s="14" t="s">
         <v>131</v>
@@ -7288,7 +7288,7 @@
         <v>167</v>
       </c>
       <c r="V28" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W28" s="9"/>
       <c r="X28" s="9" t="s">
@@ -7387,19 +7387,19 @@
         <v>1.1427677905E10</v>
       </c>
       <c r="C29" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="E29" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>265</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="G29" s="21" t="s">
         <v>266</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>267</v>
       </c>
       <c r="H29" s="21" t="s">
         <v>86</v>
@@ -7408,7 +7408,7 @@
         <v>87</v>
       </c>
       <c r="J29" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K29" s="22">
         <v>739000.0</v>
@@ -7418,7 +7418,7 @@
         <v>45692.0</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O29" s="25" t="s">
         <v>61</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S29" s="26" t="s">
         <v>131</v>
@@ -7439,10 +7439,10 @@
         <v>65</v>
       </c>
       <c r="U29" s="21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="V29" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W29" s="21"/>
       <c r="X29" s="21" t="s">
@@ -7541,19 +7541,19 @@
         <v>1.1427679735E10</v>
       </c>
       <c r="C30" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="D30" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="E30" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F30" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="E30" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>276</v>
-      </c>
       <c r="G30" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>86</v>
@@ -7572,7 +7572,7 @@
         <v>45692.0</v>
       </c>
       <c r="N30" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O30" s="9" t="s">
         <v>209</v>
@@ -7584,7 +7584,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S30" s="14" t="s">
         <v>131</v>
@@ -7593,10 +7593,10 @@
         <v>65</v>
       </c>
       <c r="U30" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="V30" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W30" s="9"/>
       <c r="X30" s="9" t="s">
@@ -7695,19 +7695,19 @@
         <v>1.1427682377E10</v>
       </c>
       <c r="C31" s="21" t="s">
+        <v>273</v>
+      </c>
+      <c r="D31" s="21" t="s">
         <v>274</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="E31" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F31" s="21" t="s">
         <v>275</v>
       </c>
-      <c r="E31" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>276</v>
-      </c>
       <c r="G31" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H31" s="21" t="s">
         <v>86</v>
@@ -7716,7 +7716,7 @@
         <v>87</v>
       </c>
       <c r="J31" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K31" s="22">
         <v>669000.0</v>
@@ -7726,7 +7726,7 @@
         <v>45692.0</v>
       </c>
       <c r="N31" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O31" s="21" t="s">
         <v>209</v>
@@ -7738,7 +7738,7 @@
         <v>0</v>
       </c>
       <c r="R31" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S31" s="26" t="s">
         <v>131</v>
@@ -7747,10 +7747,10 @@
         <v>65</v>
       </c>
       <c r="U31" s="21" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="V31" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W31" s="21"/>
       <c r="X31" s="21" t="s">
@@ -7849,19 +7849,19 @@
         <v>1.1427671305E10</v>
       </c>
       <c r="C32" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="E32" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F32" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="E32" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>286</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>86</v>
@@ -7870,7 +7870,7 @@
         <v>87</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K32" s="10">
         <v>459000.0</v>
@@ -7880,7 +7880,7 @@
         <v>45692.0</v>
       </c>
       <c r="N32" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O32" s="9" t="s">
         <v>209</v>
@@ -7892,19 +7892,19 @@
         <v>0</v>
       </c>
       <c r="R32" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="S32" s="14" t="s">
         <v>289</v>
-      </c>
-      <c r="S32" s="14" t="s">
-        <v>290</v>
       </c>
       <c r="T32" s="9" t="s">
         <v>119</v>
       </c>
       <c r="U32" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="V32" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W32" s="9"/>
       <c r="X32" s="9" t="s">
@@ -8003,19 +8003,19 @@
         <v>1.142777123E10</v>
       </c>
       <c r="C33" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="D33" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="E33" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="E33" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F33" s="21" t="s">
+      <c r="G33" s="21" t="s">
         <v>285</v>
-      </c>
-      <c r="G33" s="21" t="s">
-        <v>286</v>
       </c>
       <c r="H33" s="21" t="s">
         <v>86</v>
@@ -8034,7 +8034,7 @@
         <v>45692.0</v>
       </c>
       <c r="N33" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="O33" s="21" t="s">
         <v>209</v>
@@ -8046,19 +8046,19 @@
         <v>0</v>
       </c>
       <c r="R33" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S33" s="26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T33" s="21" t="s">
         <v>119</v>
       </c>
       <c r="U33" s="21" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="V33" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W33" s="21"/>
       <c r="X33" s="21" t="s">
@@ -8157,28 +8157,28 @@
         <v>9.280896681E9</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="E34" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="I34" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="I34" s="9" t="s">
-        <v>298</v>
-      </c>
       <c r="J34" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K34" s="10">
         <v>599000.0</v>
@@ -8190,7 +8190,7 @@
         <v>45047.0</v>
       </c>
       <c r="N34" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O34" s="9" t="s">
         <v>209</v>
@@ -8202,19 +8202,19 @@
         <v>0</v>
       </c>
       <c r="R34" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S34" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T34" s="14" t="s">
         <v>65</v>
       </c>
       <c r="U34" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V34" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W34" s="9"/>
       <c r="X34" s="9" t="s">
@@ -8283,8 +8283,8 @@
       <c r="AS34" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="AT34" s="9" t="s">
-        <v>215</v>
+      <c r="AT34" s="17" t="b">
+        <v>0</v>
       </c>
       <c r="AU34" s="17" t="b">
         <v>0</v>
@@ -8313,28 +8313,28 @@
         <v>5.0074641E7</v>
       </c>
       <c r="C35" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" s="21" t="s">
         <v>302</v>
       </c>
-      <c r="D35" s="21" t="s">
+      <c r="E35" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F35" s="21" t="s">
         <v>303</v>
       </c>
-      <c r="E35" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F35" s="21" t="s">
+      <c r="G35" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="H35" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="G35" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="H35" s="21" t="s">
+      <c r="I35" s="21" t="s">
         <v>305</v>
       </c>
-      <c r="I35" s="21" t="s">
-        <v>306</v>
-      </c>
       <c r="J35" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K35" s="22">
         <v>719000.0</v>
@@ -8346,7 +8346,7 @@
         <v>45047.0</v>
       </c>
       <c r="N35" s="21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O35" s="21" t="s">
         <v>209</v>
@@ -8358,19 +8358,19 @@
         <v>0</v>
       </c>
       <c r="R35" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S35" s="26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T35" s="26" t="s">
         <v>65</v>
       </c>
       <c r="U35" s="21" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="V35" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="W35" s="21"/>
       <c r="X35" s="21" t="s">
@@ -8439,8 +8439,8 @@
       <c r="AS35" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AT35" s="21" t="s">
-        <v>215</v>
+      <c r="AT35" s="17" t="b">
+        <v>0</v>
       </c>
       <c r="AU35" s="17" t="b">
         <v>0</v>
@@ -8469,25 +8469,25 @@
         <v>9.53449277E9</v>
       </c>
       <c r="C36" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="G36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="I36" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>314</v>
       </c>
       <c r="J36" s="9" t="s">
         <v>115</v>
@@ -8500,7 +8500,7 @@
         <v>45245.0</v>
       </c>
       <c r="N36" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="O36" s="13" t="s">
         <v>61</v>
@@ -8512,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="R36" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S36" s="14" t="s">
         <v>131</v>
@@ -8521,7 +8521,7 @@
         <v>119</v>
       </c>
       <c r="U36" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V36" s="9" t="s">
         <v>121</v>
@@ -8531,7 +8531,7 @@
         <v>122</v>
       </c>
       <c r="Y36" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z36" s="47" t="b">
         <v>1</v>
@@ -8554,8 +8554,8 @@
       <c r="AF36" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="AG36" s="48" t="b">
-        <v>0</v>
+      <c r="AG36" s="47" t="b">
+        <v>1</v>
       </c>
       <c r="AH36" s="15" t="b">
         <v>1</v>
@@ -8621,25 +8621,25 @@
       </c>
       <c r="B37" s="25"/>
       <c r="C37" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="D37" s="21" t="s">
+      <c r="E37" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="F37" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E37" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="F37" s="21" t="s">
+      <c r="G37" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="H37" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="G37" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="H37" s="21" t="s">
+      <c r="I37" s="21" t="s">
         <v>322</v>
-      </c>
-      <c r="I37" s="21" t="s">
-        <v>323</v>
       </c>
       <c r="J37" s="21" t="s">
         <v>115</v>
@@ -8652,7 +8652,7 @@
         <v>45983.0</v>
       </c>
       <c r="N37" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O37" s="25" t="s">
         <v>61</v>
@@ -8664,7 +8664,7 @@
         <v>1</v>
       </c>
       <c r="R37" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S37" s="21" t="s">
         <v>148</v>
@@ -8673,7 +8673,7 @@
         <v>119</v>
       </c>
       <c r="U37" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="V37" s="21" t="s">
         <v>121</v>
@@ -8683,7 +8683,7 @@
         <v>122</v>
       </c>
       <c r="Y37" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z37" s="50" t="b">
         <v>1</v>
@@ -8706,8 +8706,8 @@
       <c r="AF37" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="AG37" s="48" t="b">
-        <v>0</v>
+      <c r="AG37" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="AH37" s="27" t="b">
         <v>1</v>
@@ -8775,25 +8775,25 @@
         <v>9.534769639E9</v>
       </c>
       <c r="C38" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E38" s="9" t="s">
-        <v>310</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>327</v>
-      </c>
       <c r="G38" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H38" s="9" t="s">
         <v>136</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J38" s="9" t="s">
         <v>207</v>
@@ -8806,7 +8806,7 @@
         <v>45245.0</v>
       </c>
       <c r="N38" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O38" s="13" t="s">
         <v>61</v>
@@ -8818,7 +8818,7 @@
         <v>1</v>
       </c>
       <c r="R38" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="S38" s="9" t="s">
         <v>148</v>
@@ -8827,7 +8827,7 @@
         <v>119</v>
       </c>
       <c r="U38" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="V38" s="9" t="s">
         <v>121</v>
@@ -8837,7 +8837,7 @@
         <v>150</v>
       </c>
       <c r="Y38" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z38" s="47" t="b">
         <v>1</v>
@@ -8929,28 +8929,28 @@
         <v>9.534767189E9</v>
       </c>
       <c r="C39" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="D39" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="E39" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="E39" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="H39" s="21" t="s">
+      <c r="I39" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="I39" s="21" t="s">
+      <c r="J39" s="21" t="s">
         <v>335</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>336</v>
       </c>
       <c r="K39" s="22">
         <v>659000.0</v>
@@ -8960,7 +8960,7 @@
         <v>45245.0</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O39" s="25" t="s">
         <v>61</v>
@@ -8972,7 +8972,7 @@
         <v>1</v>
       </c>
       <c r="R39" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="S39" s="21" t="s">
         <v>148</v>
@@ -8981,7 +8981,7 @@
         <v>119</v>
       </c>
       <c r="U39" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="V39" s="21" t="s">
         <v>121</v>
@@ -8991,7 +8991,7 @@
         <v>157</v>
       </c>
       <c r="Y39" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="Z39" s="50" t="b">
         <v>1</v>
@@ -9083,28 +9083,28 @@
         <v>1.1061289692E10</v>
       </c>
       <c r="C40" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="E40" s="53" t="s">
+        <v>309</v>
+      </c>
+      <c r="F40" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="E40" s="53" t="s">
-        <v>310</v>
-      </c>
-      <c r="F40" s="53" t="s">
+      <c r="G40" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="H40" s="53" t="s">
         <v>341</v>
       </c>
-      <c r="G40" s="53" t="s">
-        <v>312</v>
-      </c>
-      <c r="H40" s="53" t="s">
+      <c r="I40" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="I40" s="53" t="s">
+      <c r="J40" s="53" t="s">
         <v>343</v>
-      </c>
-      <c r="J40" s="53" t="s">
-        <v>344</v>
       </c>
       <c r="K40" s="54">
         <v>459000.0</v>
@@ -9114,22 +9114,22 @@
         <v>45594.0</v>
       </c>
       <c r="N40" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="O40" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="O40" s="53" t="s">
+      <c r="P40" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="P40" s="53" t="s">
+      <c r="Q40" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="R40" s="53" t="s">
         <v>347</v>
       </c>
-      <c r="Q40" s="57" t="b">
-        <v>1</v>
-      </c>
-      <c r="R40" s="53" t="s">
+      <c r="S40" s="53" t="s">
         <v>348</v>
-      </c>
-      <c r="S40" s="53" t="s">
-        <v>349</v>
       </c>
       <c r="T40" s="53" t="s">
         <v>119</v>
@@ -9142,10 +9142,10 @@
       </c>
       <c r="W40" s="53"/>
       <c r="X40" s="53" t="s">
-        <v>157</v>
+        <v>349</v>
       </c>
       <c r="Y40" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Z40" s="58" t="b">
         <v>1</v>
@@ -10581,7 +10581,7 @@
         <v>444</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G2" s="10">
         <v>69000.0</v>
@@ -10624,7 +10624,7 @@
         <v>449</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G3" s="22">
         <v>69000.0</v>
@@ -10667,7 +10667,7 @@
         <v>452</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G4" s="65">
         <v>121000.0</v>
@@ -10766,7 +10766,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>362</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -724,7 +724,7 @@
     <t>72g</t>
   </si>
   <si>
-    <t>20 ATM 다이빙</t>
+    <t>20 ATM</t>
   </si>
   <si>
     <t>200m</t>
@@ -6891,8 +6891,8 @@
       <c r="AS25" s="26" t="b">
         <v>1</v>
       </c>
-      <c r="AT25" s="17" t="b">
-        <v>0</v>
+      <c r="AT25" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="AU25" s="17" t="b">
         <v>0</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8700,8 +8700,8 @@
       <c r="AD37" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="AE37" s="48" t="b">
-        <v>0</v>
+      <c r="AE37" s="50" t="b">
+        <v>1</v>
       </c>
       <c r="AF37" s="48" t="b">
         <v>0</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -8619,7 +8619,9 @@
       <c r="A37" s="20">
         <v>36.0</v>
       </c>
-      <c r="B37" s="25"/>
+      <c r="B37" s="25">
+        <v>1.174985834E10</v>
+      </c>
       <c r="C37" s="21" t="s">
         <v>318</v>
       </c>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -195,7 +195,7 @@
     <t>피닉스8 아몰레드</t>
   </si>
   <si>
-    <t>멀티스포츠,아웃도어</t>
+    <t>멀티스포츠,아웃도어,철인3종,등산,듀애슬론, 트라이애슬론, 아쿠애슬론, 크로스핏, 복합운동, 복합트레이닝</t>
   </si>
   <si>
     <t>#프로를위한 Fenix 8 가민 플래그십 시리즈. 수백 종의 스포츠와 극한 환경에 최적화된 기능. 더 선명해진 AMOLED 디스플레이, 모든 데이터가 눈앞에서 바로 읽힌다.</t>
@@ -364,7 +364,7 @@
     <t>포러너 55</t>
   </si>
   <si>
-    <t>러닝</t>
+    <t>러닝, 달리기, 마라톤, 조깅, 트레일러닝, 트랙러닝, 로드러닝, 장거리달리기, 단거리달리기, 하프마라톤, 풀마라톤, 인터벌달리기, 템포런, LSD러닝, 스피드런, 나이트런, 모닝런, 거리주, 페이스런</t>
   </si>
   <si>
     <t>#첫러닝워치 Forerunner 55 가민 러닝 시리즈의 시작을 책임지는 베스트 입문 모델. 가볍고 똑똑하게, 당신의 러닝을 습관으로 만들어줍니다.</t>
@@ -457,7 +457,7 @@
     <t>포러너 265</t>
   </si>
   <si>
-    <t>러닝,멀티스포츠</t>
+    <t>러닝,멀티스포츠,달리기,마라톤,조깅,트레일러닝,트랙러닝,로드러닝,장거리달리기,단거리달리기,하프마라톤, 풀마라톤,인터벌달리기,템포런,LSD러닝,스피드런,나이트런,모닝런,거리주,페이스런,아웃도어,철인3종,등산,듀애슬론,트라이애슬론,아쿠애슬론,크로스핏,복합운동,복합트레이닝</t>
   </si>
   <si>
     <t>#러닝을넘어서 Forerunner 265 러닝, 사이클링, 요가, 트라이애슬론까지. 멀티밴드 GPS를 통한 정밀한 트래킹. 중급 러너를 위한 기능의 폭, 이제는 습관에서 ─ 루틴으로.</t>
@@ -514,7 +514,7 @@
     <t>포러너 965</t>
   </si>
   <si>
-    <t>멀티스포츠</t>
+    <t>멀티스포츠,아웃도어,철인3종,등산,듀애슬론,트라이애슬론,아쿠애슬론,크로스핏,복합운동,복합트레이닝,트래킹,하이킹</t>
   </si>
   <si>
     <t>#러닝의정점 Forerunner 965 멀티밴드 GNSS와 풀컬러 지도. 러닝, 사이클, 철인3종까지 커버하는 퍼포먼스 플래그십. 지금도 잘 달리는 당신이라면, 이제는 ‘완성도’의 차이입니다.</t>
@@ -559,7 +559,7 @@
     <t>어프로치 S70</t>
   </si>
   <si>
-    <t>골프</t>
+    <t>골프,필드골프,라운딩</t>
   </si>
   <si>
     <t>#정교한라운드 Approach S70 선명한 AMOLED 디스플레이와 정밀한 거리 측정으로 코스를 손목 위에 담다. 당신의 샷 하나하나에 전략을 더하는 프리미엄 골프 워치.</t>
@@ -640,7 +640,7 @@
     <t>디센트 G1 솔라</t>
   </si>
   <si>
-    <t>다이빙,수영</t>
+    <t>다이빙,수영,스쿠버다이빙,프리다이빙,스노클링,딥다이빙,오픈워터수영,수영장수영,자유형,평영,배영,접영,장거리수영,속도수영,수중운동</t>
   </si>
   <si>
     <t>#실전다이버의선택 Descent G1 Solar 스쿠버·프리다이빙·테크니컬까지, 기록은 정확하고, 배터리는 오래 간다. 솔라 파워를 담은 스마트 다이브 워치.</t>
@@ -790,7 +790,7 @@
     <t>택틱스7</t>
   </si>
   <si>
-    <t>아웃도어,멀티스포츠</t>
+    <t>멀티스포츠,아웃도어,전술,철인3종,등산,듀애슬론,트라이애슬론,아쿠애슬론,크로스핏,복합운동,복합트레이닝,트래킹,하이킹</t>
   </si>
   <si>
     <t>#전술의시작 Tactix 7 스텔스 모드, 듀얼 포지션, NV 호환, 나침반보다 정확한 GPS. 조작보다 반응이 먼저여야 하는 순간에, 믿고 움직이도록. 손목 위에 놓인 작전 매뉴얼.</t>
@@ -826,7 +826,7 @@
     <t>인스팅트3 아몰레드</t>
   </si>
   <si>
-    <t>아웃도어</t>
+    <t>아웃도어,등산,트레일러닝,하이킹,트래킹</t>
   </si>
   <si>
     <t xml:space="preserve">#본능에기술을더하다 Instinct 3 – AMOLED 모험은 감각으로, 생존은 데이터로. 선명한 화면과 멀티밴드 GPS, MIL-STD 내구성. 자연을 직감하는 이들을 위한 기술적 본능. </t>
@@ -961,7 +961,7 @@
     <t>비보액티브 5</t>
   </si>
   <si>
-    <t>피트니스</t>
+    <t>피트니스,요가,웰니스,웨이트트레이닝,근력운동,코어운동,크로스핏,바디웨이트운동,HIIT,트레이닝,헬스,명상,필라테스</t>
   </si>
   <si>
     <t>#일상을데이터로 Vivoactive 5 수면, 스트레스, 운동, 에너지—당신의 하루를 숫자로 읽는다. 심플하고 가벼운 디자인에 담긴 헬스 케어의 중심. 운동이 루틴이라면, 관리도 스마트해야 하니까.</t>
@@ -2331,9 +2331,6 @@
     <xf borderId="7" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2345,6 +2342,9 @@
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="9" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -2990,7 +2990,7 @@
     <col customWidth="1" min="1" max="1" width="6.38"/>
     <col customWidth="1" min="2" max="2" width="11.75"/>
     <col customWidth="1" min="3" max="4" width="16.38"/>
-    <col customWidth="1" min="5" max="5" width="16.13"/>
+    <col customWidth="1" min="5" max="5" width="39.13"/>
     <col customWidth="1" min="6" max="6" width="26.13"/>
     <col customWidth="1" min="7" max="7" width="16.5"/>
     <col customWidth="1" min="8" max="8" width="15.25"/>
@@ -3516,7 +3516,7 @@
       <c r="D4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="9" t="s">
         <v>54</v>
       </c>
       <c r="F4" s="9" t="s">
@@ -3672,7 +3672,7 @@
       <c r="D5" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="25" t="s">
@@ -5221,7 +5221,7 @@
         <v>169</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>170</v>
@@ -6311,7 +6311,7 @@
       <c r="G22" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H22" s="38" t="s">
+      <c r="H22" s="37" t="s">
         <v>226</v>
       </c>
       <c r="I22" s="9" t="s">
@@ -6320,7 +6320,7 @@
       <c r="J22" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="K22" s="39">
+      <c r="K22" s="38">
         <v>1790000.0</v>
       </c>
       <c r="L22" s="11"/>
@@ -6467,7 +6467,7 @@
       <c r="G23" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="39" t="s">
         <v>86</v>
       </c>
       <c r="I23" s="26" t="s">
@@ -6476,7 +6476,7 @@
       <c r="J23" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="40">
         <v>2390000.0</v>
       </c>
       <c r="L23" s="23"/>
@@ -6623,7 +6623,7 @@
       <c r="G24" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="37" t="s">
         <v>238</v>
       </c>
       <c r="I24" s="9" t="s">
@@ -6764,7 +6764,7 @@
       <c r="B25" s="25">
         <v>1.1310815985E10</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="41" t="s">
         <v>241</v>
       </c>
       <c r="D25" s="25" t="s">
@@ -6779,13 +6779,13 @@
       <c r="G25" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="39" t="s">
         <v>86</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="39" t="s">
         <v>245</v>
       </c>
       <c r="K25" s="42">

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="14">
-        <v>45983.0</v>
+        <v>45769.0</v>
       </c>
       <c r="P40" s="9" t="s">
         <v>376</v>

--- a/data/products.xlsx
+++ b/data/products.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1214" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="599">
   <si>
     <t>id</t>
   </si>
@@ -1253,6 +1253,63 @@
   </si>
   <si>
     <t>퀵릴리즈 14mm</t>
+  </si>
+  <si>
+    <t>Forerunner 570</t>
+  </si>
+  <si>
+    <t>포러너 570</t>
+  </si>
+  <si>
+    <t>러닝,멀티스포츠,마라톤,조깅,트레일러닝,트랙러닝,로드러닝,장거리달리기,단거리달리기,하프마라톤, 풀마라톤,인터벌달리기,템포런,LSD러닝,스피드런,나이트런,모닝런,거리주,페이스런,아웃도어,철인3종,등산,듀애슬론,트라이애슬론,아쿠애슬론,크로스핏,복합운동,복합트레이닝</t>
+  </si>
+  <si>
+    <t>블랙, 앰프옐로우</t>
+  </si>
+  <si>
+    <t>#000000,#f5f7f7</t>
+  </si>
+  <si>
+    <t>products/forerunner570/basic-47mm-black.png,products/forerunner570/basic-47mm-white.png</t>
+  </si>
+  <si>
+    <t>1.4" (35.3 mm)</t>
+  </si>
+  <si>
+    <t>50g</t>
+  </si>
+  <si>
+    <t>알루미늄</t>
+  </si>
+  <si>
+    <t>포러너 570s</t>
+  </si>
+  <si>
+    <t>블랙, 클라우드블루</t>
+  </si>
+  <si>
+    <t>products/forerunner570/basic-42mm-black.png,products/forerunner570/basic-42mm-white.png</t>
+  </si>
+  <si>
+    <t>42g</t>
+  </si>
+  <si>
+    <t>Forerunner 970</t>
+  </si>
+  <si>
+    <t>포러너 970</t>
+  </si>
+  <si>
+    <t>러닝,멀티스포츠,철인3종,아웃도어,등산,듀애슬론,트라이애슬론,아쿠애슬론,크로스핏,복합운동,복합트레이닝,트래킹,하이킹,트레일러닝,트랙러닝,로드러닝,장거리달리기,단거리달리기,하프마라톤, 풀마라톤,인터벌달리기,템포런,LSD러닝,스피드런,나이트런,모닝런,거리주,페이스런</t>
+  </si>
+  <si>
+    <t>블랙, 화이트스톤</t>
+  </si>
+  <si>
+    <t>products/forerunner970/basic-47mm-black.png,products/forerunner970/basic-47mm-white.png</t>
+  </si>
+  <si>
+    <t>32 GB</t>
   </si>
   <si>
     <t>voice</t>
@@ -1809,7 +1866,7 @@
     <numFmt numFmtId="167" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="168" formatCode="m&quot;월 &quot;d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -1879,12 +1936,6 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF0000FF"/>
-      <name val="Malgun Gothic"/>
     </font>
     <font>
       <b/>
@@ -1972,7 +2023,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border/>
     <border>
       <left style="thin">
@@ -2133,6 +2184,76 @@
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9EAD3"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9EAD3"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9EAD3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF284E3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD9D9D9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD9D9D9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF284E3F"/>
+      </left>
+      <right style="thin">
         <color rgb="FFF6F8F9"/>
       </right>
       <top style="thin">
@@ -2158,20 +2279,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFD9EAD3"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9EAD3"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9EAD3"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFF6F8F9"/>
       </left>
       <right style="thin">
@@ -2182,20 +2289,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFD9D9D9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFD9D9D9"/>
       </bottom>
     </border>
     <border>
@@ -2424,7 +2517,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="124">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -2609,7 +2702,7 @@
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2622,9 +2715,6 @@
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -2662,124 +2752,142 @@
     <xf borderId="9" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="17" fillId="3" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="20" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="21" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="22" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="20" fillId="4" fontId="18" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="23" fillId="4" fontId="17" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="24" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="22" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="25" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="23" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="26" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="24" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="25" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="28" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="26" fillId="0" fontId="18" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="29" fillId="0" fontId="17" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="27" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="30" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="28" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="29" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="32" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="18" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="33" fillId="0" fontId="17" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="30" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="33" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="21" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="24" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="31" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="34" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="32" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="33" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="36" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="34" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="21" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="2" fontId="20" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="35" fillId="4" fontId="18" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="38" fillId="4" fontId="17" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="36" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="39" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="37" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2912,7 +3020,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BB43" displayName="표2" name="표2" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BB46" displayName="표2" name="표2" id="1">
   <tableColumns count="54">
     <tableColumn name="id" id="1"/>
     <tableColumn name="productNum" id="2"/>
@@ -10054,186 +10162,648 @@
       </c>
     </row>
     <row r="43" ht="30.0" customHeight="1">
-      <c r="A43" s="61">
+      <c r="A43" s="21">
         <v>42.0</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="28">
         <v>1.1061289692E10</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="22" t="s">
         <v>393</v>
       </c>
-      <c r="D43" s="63" t="s">
+      <c r="D43" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="E43" s="63" t="s">
+      <c r="E43" s="22" t="s">
         <v>395</v>
       </c>
-      <c r="F43" s="63" t="s">
+      <c r="F43" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="G43" s="63" t="s">
+      <c r="G43" s="22" t="s">
         <v>362</v>
       </c>
-      <c r="H43" s="63" t="s">
+      <c r="H43" s="22" t="s">
         <v>397</v>
       </c>
-      <c r="I43" s="63" t="s">
+      <c r="I43" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="J43" s="63" t="s">
+      <c r="J43" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="K43" s="64">
+      <c r="K43" s="23">
         <v>459000.0</v>
       </c>
-      <c r="L43" s="65"/>
-      <c r="M43" s="66" t="s">
+      <c r="L43" s="56"/>
+      <c r="M43" s="40" t="s">
         <v>400</v>
       </c>
-      <c r="N43" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="O43" s="68">
+      <c r="N43" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O43" s="27">
         <v>45594.0</v>
       </c>
-      <c r="P43" s="63" t="s">
+      <c r="P43" s="22" t="s">
         <v>401</v>
       </c>
-      <c r="Q43" s="63" t="s">
+      <c r="Q43" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="R43" s="63" t="s">
+      <c r="R43" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="S43" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="T43" s="63" t="s">
+      <c r="S43" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T43" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="U43" s="63" t="s">
+      <c r="U43" s="22" t="s">
         <v>405</v>
       </c>
-      <c r="V43" s="63" t="s">
+      <c r="V43" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="W43" s="63" t="s">
+      <c r="W43" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="X43" s="63" t="s">
+      <c r="X43" s="22" t="s">
         <v>131</v>
       </c>
-      <c r="Y43" s="63"/>
-      <c r="Z43" s="63" t="s">
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="AA43" s="63" t="s">
+      <c r="AA43" s="22" t="s">
         <v>369</v>
       </c>
-      <c r="AB43" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AD43" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AG43" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH43" s="71" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI43" s="70" t="b">
-        <v>1</v>
-      </c>
-      <c r="AJ43" s="72" t="b">
-        <v>1</v>
-      </c>
-      <c r="AK43" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="AL43" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="AM43" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="AN43" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="AO43" s="73" t="b">
-        <v>1</v>
-      </c>
-      <c r="AP43" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="AQ43" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR43" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AT43" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AU43" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AV43" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AX43" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AY43" s="63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AZ43" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA43" s="63">
+      <c r="AB43" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="22">
         <v>9.0</v>
       </c>
-      <c r="BB43" s="74">
+      <c r="BB43" s="30">
         <v>9.0</v>
+      </c>
+    </row>
+    <row r="44" ht="30.0" customHeight="1">
+      <c r="A44" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="B44" s="15"/>
+      <c r="C44" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>411</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="K44" s="10">
+        <v>799000.0</v>
+      </c>
+      <c r="L44" s="59"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="O44" s="14">
+        <v>45799.0</v>
+      </c>
+      <c r="P44" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="R44" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="S44" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="T44" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="U44" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="V44" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="W44" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="X44" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="AA44" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB44" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG44" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH44" s="60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM44" s="16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="BB44" s="20">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="45" ht="30.0" customHeight="1">
+      <c r="A45" s="21">
+        <v>44.0</v>
+      </c>
+      <c r="B45" s="28"/>
+      <c r="C45" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>417</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="K45" s="23">
+        <v>799000.0</v>
+      </c>
+      <c r="L45" s="56"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O45" s="27">
+        <v>45799.0</v>
+      </c>
+      <c r="P45" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q45" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="R45" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="S45" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="T45" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="U45" s="22" t="s">
+        <v>161</v>
+      </c>
+      <c r="V45" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="W45" s="22" t="s">
+        <v>419</v>
+      </c>
+      <c r="X45" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA45" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="AB45" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG45" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH45" s="58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="17" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK45" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM45" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW45" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="18" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY45" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA45" s="22">
+        <v>11.0</v>
+      </c>
+      <c r="BB45" s="30">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="46" ht="30.0" customHeight="1">
+      <c r="A46" s="61">
+        <v>45.0</v>
+      </c>
+      <c r="B46" s="62"/>
+      <c r="C46" s="63" t="s">
+        <v>420</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>421</v>
+      </c>
+      <c r="E46" s="63" t="s">
+        <v>422</v>
+      </c>
+      <c r="F46" s="63"/>
+      <c r="G46" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="63" t="s">
+        <v>423</v>
+      </c>
+      <c r="I46" s="63" t="s">
+        <v>411</v>
+      </c>
+      <c r="J46" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="K46" s="64">
+        <v>1089000.0</v>
+      </c>
+      <c r="L46" s="65"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="66" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="67">
+        <v>45799.0</v>
+      </c>
+      <c r="P46" s="63" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q46" s="63" t="s">
+        <v>64</v>
+      </c>
+      <c r="R46" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="S46" s="68" t="b">
+        <v>1</v>
+      </c>
+      <c r="T46" s="63" t="s">
+        <v>413</v>
+      </c>
+      <c r="U46" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="V46" s="68" t="s">
+        <v>68</v>
+      </c>
+      <c r="W46" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="X46" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y46" s="63"/>
+      <c r="Z46" s="63" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA46" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB46" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AG46" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AH46" s="70" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="69" t="b">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="71" t="b">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AL46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AM46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AN46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AO46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AU46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AV46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AW46" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="AX46" s="72" t="b">
+        <v>1</v>
+      </c>
+      <c r="AY46" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="63" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA46" s="63">
+        <v>15.0</v>
+      </c>
+      <c r="BB46" s="73">
+        <v>26.0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2:L43">
+  <conditionalFormatting sqref="L2:L46">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(L2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N2:N43">
+  <conditionalFormatting sqref="N2:N46">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH(("true"),(N2))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB2:AZ43">
+  <conditionalFormatting sqref="AB2:AZ46">
     <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="true">
       <formula>NOT(ISERROR(SEARCH(("true"),(AB2))))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="O2:O43">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="O2:O46">
       <formula1>OR(NOT(ISERROR(DATEVALUE(O2))), AND(ISNUMBER(O2), LEFT(CELL("format", O2))="D"))</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="K2:L43">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="K2:L46">
       <formula1>AND(ISNUMBER(K2),(NOT(OR(NOT(ISERROR(DATEVALUE(K2))), AND(ISNUMBER(K2), LEFT(CELL("format", K2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -10378,39 +10948,39 @@
         <v>51</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>409</v>
+        <v>428</v>
       </c>
       <c r="T1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="U1" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="75">
+      <c r="A2" s="74">
         <v>1.0</v>
       </c>
       <c r="B2" s="9">
         <v>4.542740487E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="G2" s="10">
         <v>430000.0</v>
@@ -10422,33 +10992,33 @@
         <v>43623.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>418</v>
+        <v>437</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="O2" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="P2" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="R2" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="S2" s="76" t="b">
+        <v>438</v>
+      </c>
+      <c r="O2" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" s="75" t="b">
         <v>0</v>
       </c>
       <c r="T2" s="9">
@@ -10464,16 +11034,16 @@
         <v>8.392279003E9</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>420</v>
+        <v>439</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="G3" s="23">
         <v>519000.0</v>
@@ -10483,30 +11053,30 @@
         <v>45029.0</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>421</v>
+        <v>440</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="M3" s="22" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="N3" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O3" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="P3" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="R3" s="76" t="b">
+        <v>438</v>
+      </c>
+      <c r="O3" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="P3" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="R3" s="75" t="b">
         <v>0</v>
       </c>
       <c r="S3" s="22" t="b">
@@ -10518,25 +11088,25 @@
       <c r="U3" s="30"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="75">
+      <c r="A4" s="74">
         <v>3.0</v>
       </c>
       <c r="B4" s="35">
         <v>8.392279317E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="G4" s="77">
+        <v>433</v>
+      </c>
+      <c r="G4" s="76">
         <v>659000.0</v>
       </c>
       <c r="H4" s="11"/>
@@ -10544,30 +11114,30 @@
         <v>45029.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>422</v>
+        <v>441</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="O4" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="P4" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="R4" s="76" t="b">
+        <v>438</v>
+      </c>
+      <c r="O4" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="R4" s="75" t="b">
         <v>0</v>
       </c>
       <c r="S4" s="9" t="b">
@@ -10586,16 +11156,16 @@
         <v>8.392279385E9</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>425</v>
+        <v>444</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="G5" s="23">
         <v>659000.0</v>
@@ -10605,30 +11175,30 @@
         <v>45029.0</v>
       </c>
       <c r="J5" s="22" t="s">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>427</v>
+        <v>446</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>419</v>
-      </c>
-      <c r="O5" s="76" t="b">
+        <v>438</v>
+      </c>
+      <c r="O5" s="75" t="b">
         <v>0</v>
       </c>
       <c r="P5" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="Q5" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="R5" s="76" t="b">
+      <c r="Q5" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="R5" s="75" t="b">
         <v>0</v>
       </c>
       <c r="S5" s="22" t="b">
@@ -10640,23 +11210,23 @@
       <c r="U5" s="30"/>
     </row>
     <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="75">
+      <c r="A6" s="74">
         <v>5.0</v>
       </c>
       <c r="B6" s="9">
         <v>8.392279317E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="G6" s="10">
         <v>799000.0</v>
@@ -10666,27 +11236,27 @@
         <v>45029.0</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>430</v>
+        <v>449</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O6" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="P6" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="76" t="b">
+      <c r="P6" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="75" t="b">
         <v>0</v>
       </c>
       <c r="R6" s="9" t="b">
@@ -10708,16 +11278,16 @@
         <v>9.49502038E9</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>450</v>
+      </c>
+      <c r="D7" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>412</v>
-      </c>
       <c r="E7" s="22" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>414</v>
+        <v>433</v>
       </c>
       <c r="G7" s="23">
         <v>799000.0</v>
@@ -10727,19 +11297,19 @@
         <v>45029.0</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>432</v>
+        <v>451</v>
       </c>
       <c r="K7" s="22" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L7" s="22" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>433</v>
+        <v>452</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O7" s="22" t="b">
         <v>1</v>
@@ -10747,7 +11317,7 @@
       <c r="P7" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="Q7" s="76" t="b">
+      <c r="Q7" s="75" t="b">
         <v>0</v>
       </c>
       <c r="R7" s="22" t="b">
@@ -10762,23 +11332,23 @@
       <c r="U7" s="30"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="75">
+      <c r="A8" s="74">
         <v>7.0</v>
       </c>
       <c r="B8" s="9">
         <v>8.392279385E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>434</v>
+        <v>453</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="G8" s="10">
         <v>919000.0</v>
@@ -10790,27 +11360,27 @@
         <v>44713.0</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>436</v>
+        <v>455</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="M8" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="N8" s="9" t="s">
-        <v>419</v>
-      </c>
       <c r="O8" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="P8" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="76" t="b">
+      <c r="P8" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="75" t="b">
         <v>0</v>
       </c>
       <c r="R8" s="9" t="b">
@@ -10832,16 +11402,16 @@
         <v>3.827472527E9</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>439</v>
+        <v>458</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>435</v>
+        <v>454</v>
       </c>
       <c r="G9" s="23">
         <v>989000.0</v>
@@ -10853,19 +11423,19 @@
         <v>44713.0</v>
       </c>
       <c r="J9" s="22" t="s">
-        <v>440</v>
+        <v>459</v>
       </c>
       <c r="K9" s="22" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="L9" s="22" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>441</v>
+        <v>460</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O9" s="22" t="b">
         <v>1</v>
@@ -10873,7 +11443,7 @@
       <c r="P9" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="Q9" s="76" t="b">
+      <c r="Q9" s="75" t="b">
         <v>0</v>
       </c>
       <c r="R9" s="22" t="b">
@@ -10888,23 +11458,23 @@
       <c r="U9" s="30"/>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="75">
+      <c r="A10" s="74">
         <v>9.0</v>
       </c>
       <c r="B10" s="9">
         <v>1.0632515323E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>442</v>
+        <v>461</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="G10" s="10">
         <v>1089000.0</v>
@@ -10914,27 +11484,27 @@
         <v>45496.0</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>444</v>
+        <v>463</v>
       </c>
       <c r="K10" s="35" t="s">
-        <v>445</v>
+        <v>464</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O10" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="76" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="76" t="b">
+      <c r="P10" s="75" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="75" t="b">
         <v>0</v>
       </c>
       <c r="R10" s="9" t="b">
@@ -10956,16 +11526,16 @@
         <v>1.0632516764E10</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>447</v>
+        <v>466</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>412</v>
+        <v>431</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="G11" s="23">
         <v>1229000.0</v>
@@ -10975,24 +11545,24 @@
         <v>45496.0</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="K11" s="78" t="s">
-        <v>445</v>
+        <v>467</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>464</v>
       </c>
       <c r="L11" s="22" t="s">
-        <v>437</v>
+        <v>456</v>
       </c>
       <c r="M11" s="22" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O11" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="P11" s="76" t="b">
+      <c r="P11" s="75" t="b">
         <v>0</v>
       </c>
       <c r="Q11" s="22" t="b">
@@ -11010,23 +11580,23 @@
       <c r="U11" s="30"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="75">
+      <c r="A12" s="74">
         <v>11.0</v>
       </c>
       <c r="B12" s="9">
         <v>6.471040307E9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>449</v>
+        <v>468</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="G12" s="10">
         <v>880000.0</v>
@@ -11038,12 +11608,12 @@
         <v>44256.0</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>453</v>
+        <v>472</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>454</v>
+        <v>473</v>
       </c>
       <c r="N12" s="9"/>
       <c r="O12" s="16"/>
@@ -11055,7 +11625,7 @@
         <v>120.0</v>
       </c>
       <c r="U12" s="20" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
     </row>
     <row r="13" ht="30.0" customHeight="1">
@@ -11066,16 +11636,16 @@
         <v>5.477973752E9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="G13" s="23">
         <v>1390000.0</v>
@@ -11087,12 +11657,12 @@
         <v>44256.0</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>458</v>
-      </c>
-      <c r="K13" s="78"/>
+        <v>477</v>
+      </c>
+      <c r="K13" s="77"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="N13" s="22"/>
       <c r="O13" s="29"/>
@@ -11104,27 +11674,27 @@
         <v>120.0</v>
       </c>
       <c r="U13" s="30" t="s">
-        <v>455</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="75">
+      <c r="A14" s="74">
         <v>13.0</v>
       </c>
       <c r="B14" s="9">
         <v>6.471016619E9</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="G14" s="10">
         <v>880000.0</v>
@@ -11136,12 +11706,12 @@
         <v>44256.0</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
       <c r="K14" s="35"/>
       <c r="L14" s="9"/>
       <c r="M14" s="9" t="s">
-        <v>462</v>
+        <v>481</v>
       </c>
       <c r="N14" s="9"/>
       <c r="O14" s="16"/>
@@ -11153,7 +11723,7 @@
         <v>120.0</v>
       </c>
       <c r="U14" s="20" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="15" ht="30.0" customHeight="1">
@@ -11164,16 +11734,16 @@
         <v>6.471030358E9</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>464</v>
+        <v>483</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>452</v>
+        <v>471</v>
       </c>
       <c r="G15" s="23">
         <v>1390000.0</v>
@@ -11185,12 +11755,12 @@
         <v>44256.0</v>
       </c>
       <c r="J15" s="22" t="s">
-        <v>465</v>
+        <v>484</v>
       </c>
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22" t="s">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="N15" s="29"/>
       <c r="O15" s="29"/>
@@ -11202,27 +11772,27 @@
         <v>120.0</v>
       </c>
       <c r="U15" s="30" t="s">
-        <v>463</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="75">
+      <c r="A16" s="74">
         <v>15.0</v>
       </c>
       <c r="B16" s="9">
         <v>6.355395186E9</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>467</v>
+        <v>486</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="G16" s="10">
         <v>990000.0</v>
@@ -11234,12 +11804,12 @@
         <v>44621.0</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="K16" s="35"/>
       <c r="L16" s="9"/>
       <c r="M16" s="9" t="s">
-        <v>470</v>
+        <v>489</v>
       </c>
       <c r="N16" s="9"/>
       <c r="O16" s="16"/>
@@ -11251,7 +11821,7 @@
         <v>120.0</v>
       </c>
       <c r="U16" s="20" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" ht="30.0" customHeight="1">
@@ -11262,16 +11832,16 @@
         <v>6.355410737E9</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>472</v>
+        <v>491</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E17" s="22" t="s">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="F17" s="22" t="s">
-        <v>468</v>
+        <v>487</v>
       </c>
       <c r="G17" s="23">
         <v>1590000.0</v>
@@ -11283,12 +11853,12 @@
         <v>44621.0</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>473</v>
-      </c>
-      <c r="K17" s="78"/>
+        <v>492</v>
+      </c>
+      <c r="K17" s="77"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22" t="s">
-        <v>474</v>
+        <v>493</v>
       </c>
       <c r="N17" s="22"/>
       <c r="O17" s="29"/>
@@ -11300,25 +11870,25 @@
         <v>120.0</v>
       </c>
       <c r="U17" s="30" t="s">
-        <v>471</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="75">
+      <c r="A18" s="74">
         <v>17.0</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9" t="s">
-        <v>475</v>
+        <v>494</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>477</v>
+        <v>496</v>
       </c>
       <c r="G18" s="10">
         <v>799000.0</v>
@@ -11328,15 +11898,15 @@
         <v>45775.0</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>478</v>
+        <v>497</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="9"/>
       <c r="M18" s="9" t="s">
-        <v>479</v>
+        <v>498</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
@@ -11344,10 +11914,10 @@
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
       <c r="T18" s="9" t="s">
-        <v>480</v>
+        <v>499</v>
       </c>
       <c r="U18" s="20" t="s">
-        <v>481</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" ht="30.0" customHeight="1">
@@ -11358,16 +11928,16 @@
         <v>2.920696454E9</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>484</v>
+        <v>503</v>
       </c>
       <c r="G19" s="23">
         <v>199000.0</v>
@@ -11379,15 +11949,15 @@
         <v>42979.0</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>485</v>
-      </c>
-      <c r="K19" s="78"/>
+        <v>504</v>
+      </c>
+      <c r="K19" s="77"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22" t="s">
-        <v>486</v>
+        <v>505</v>
       </c>
       <c r="N19" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O19" s="29"/>
       <c r="P19" s="29"/>
@@ -11398,27 +11968,27 @@
         <v>6.0</v>
       </c>
       <c r="U19" s="30" t="s">
-        <v>487</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="75">
+      <c r="A20" s="74">
         <v>19.0</v>
       </c>
       <c r="B20" s="9">
         <v>5.018655247E9</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>488</v>
+        <v>507</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>489</v>
+        <v>508</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>490</v>
+        <v>509</v>
       </c>
       <c r="G20" s="10">
         <v>258000.0</v>
@@ -11428,15 +11998,15 @@
         <v>44013.0</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>491</v>
+        <v>510</v>
       </c>
       <c r="K20" s="35"/>
       <c r="L20" s="9"/>
       <c r="M20" s="9" t="s">
-        <v>492</v>
+        <v>511</v>
       </c>
       <c r="N20" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -11447,50 +12017,50 @@
       <c r="U20" s="20"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="61">
+      <c r="A21" s="78">
         <v>20.0</v>
       </c>
-      <c r="B21" s="63">
+      <c r="B21" s="79">
         <v>6.878093775E9</v>
       </c>
-      <c r="C21" s="63" t="s">
-        <v>493</v>
-      </c>
-      <c r="D21" s="63" t="s">
-        <v>450</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>494</v>
-      </c>
-      <c r="F21" s="63" t="s">
-        <v>495</v>
-      </c>
-      <c r="G21" s="64">
+      <c r="C21" s="79" t="s">
+        <v>512</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>513</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>514</v>
+      </c>
+      <c r="G21" s="80">
         <v>529000.0</v>
       </c>
-      <c r="H21" s="79"/>
-      <c r="I21" s="68">
+      <c r="H21" s="81"/>
+      <c r="I21" s="82">
         <v>44682.0</v>
       </c>
-      <c r="J21" s="63" t="s">
-        <v>496</v>
-      </c>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63" t="s">
-        <v>497</v>
-      </c>
-      <c r="N21" s="63" t="s">
-        <v>419</v>
-      </c>
-      <c r="O21" s="69"/>
-      <c r="P21" s="69"/>
-      <c r="Q21" s="69"/>
-      <c r="R21" s="69"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="63"/>
-      <c r="U21" s="74" t="s">
-        <v>498</v>
+      <c r="J21" s="79" t="s">
+        <v>515</v>
+      </c>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79" t="s">
+        <v>516</v>
+      </c>
+      <c r="N21" s="79" t="s">
+        <v>438</v>
+      </c>
+      <c r="O21" s="83"/>
+      <c r="P21" s="83"/>
+      <c r="Q21" s="83"/>
+      <c r="R21" s="83"/>
+      <c r="S21" s="83"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="84" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -11593,30 +12163,30 @@
         <v>23</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>499</v>
+        <v>518</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="Q1" s="7" t="s">
-        <v>410</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2" ht="30.0" customHeight="1">
-      <c r="A2" s="75">
+      <c r="A2" s="74">
         <v>1.0</v>
       </c>
       <c r="B2" s="9">
         <v>3.552492399E9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>500</v>
+        <v>519</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>501</v>
+        <v>520</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>277</v>
@@ -11629,19 +12199,19 @@
         <v>43495.0</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>502</v>
+        <v>521</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="P2" s="9" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="Q2" s="20"/>
     </row>
@@ -11653,13 +12223,13 @@
         <v>3.552383891E9</v>
       </c>
       <c r="C3" s="22" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E3" s="22" t="s">
-        <v>506</v>
+        <v>525</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>277</v>
@@ -11672,42 +12242,42 @@
         <v>43495.0</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>507</v>
+        <v>526</v>
       </c>
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
       <c r="N3" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="Q3" s="30"/>
     </row>
     <row r="4" ht="30.0" customHeight="1">
-      <c r="A4" s="75">
+      <c r="A4" s="74">
         <v>3.0</v>
       </c>
       <c r="B4" s="35">
         <v>3.552555627E9</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>450</v>
+        <v>469</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>509</v>
+        <v>528</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="G4" s="77">
+      <c r="G4" s="76">
         <v>121000.0</v>
       </c>
       <c r="H4" s="11"/>
@@ -11715,19 +12285,19 @@
         <v>43495.0</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>510</v>
+        <v>529</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="Q4" s="39"/>
     </row>
@@ -11739,16 +12309,16 @@
         <v>3.552909431E9</v>
       </c>
       <c r="C5" s="28" t="s">
-        <v>511</v>
+        <v>530</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="E5" s="22" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>514</v>
+        <v>533</v>
       </c>
       <c r="G5" s="23">
         <v>89000.0</v>
@@ -11761,37 +12331,37 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22" t="s">
-        <v>515</v>
+        <v>534</v>
       </c>
       <c r="N5" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O5" s="22" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="P5" s="22" t="s">
-        <v>516</v>
+        <v>535</v>
       </c>
       <c r="Q5" s="30"/>
     </row>
     <row r="6" ht="30.0" customHeight="1">
-      <c r="A6" s="75">
+      <c r="A6" s="74">
         <v>5.0</v>
       </c>
       <c r="B6" s="9">
         <v>7.237132388E9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>517</v>
+        <v>536</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>518</v>
+        <v>537</v>
       </c>
       <c r="G6" s="10">
         <v>203000.0</v>
@@ -11807,13 +12377,13 @@
         <v>312</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="P6" s="9" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="Q6" s="20"/>
     </row>
@@ -11825,16 +12395,16 @@
         <v>1.0430117253E10</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>512</v>
+        <v>531</v>
       </c>
       <c r="E7" s="22" t="s">
-        <v>513</v>
+        <v>532</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>520</v>
+        <v>539</v>
       </c>
       <c r="G7" s="23">
         <v>225000.0</v>
@@ -11850,34 +12420,34 @@
         <v>182</v>
       </c>
       <c r="N7" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O7" s="22" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="P7" s="22" t="s">
-        <v>504</v>
+        <v>523</v>
       </c>
       <c r="Q7" s="30"/>
     </row>
     <row r="8" ht="30.0" customHeight="1">
-      <c r="A8" s="75">
+      <c r="A8" s="74">
         <v>7.0</v>
       </c>
       <c r="B8" s="9">
         <v>3.427865636E9</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>521</v>
+        <v>540</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="G8" s="10">
         <v>108000.0</v>
@@ -11890,19 +12460,19 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="P8" s="9" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="Q8" s="20" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
     </row>
     <row r="9" ht="30.0" customHeight="1">
@@ -11913,16 +12483,16 @@
         <v>3.427863984E9</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>528</v>
+        <v>547</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>524</v>
+        <v>543</v>
       </c>
       <c r="G9" s="23">
         <v>398000.0</v>
@@ -11935,39 +12505,39 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22" t="s">
-        <v>525</v>
+        <v>544</v>
       </c>
       <c r="N9" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O9" s="22" t="s">
-        <v>503</v>
+        <v>522</v>
       </c>
       <c r="P9" s="22" t="s">
-        <v>526</v>
+        <v>545</v>
       </c>
       <c r="Q9" s="30" t="s">
-        <v>527</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10" ht="30.0" customHeight="1">
-      <c r="A10" s="75">
+      <c r="A10" s="74">
         <v>9.0</v>
       </c>
       <c r="B10" s="9">
         <v>1.1549210445E10</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>529</v>
+        <v>548</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>522</v>
+        <v>541</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>523</v>
+        <v>542</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>530</v>
+        <v>549</v>
       </c>
       <c r="G10" s="10">
         <v>149000.0</v>
@@ -11980,19 +12550,19 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="9" t="s">
-        <v>531</v>
+        <v>550</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>532</v>
+        <v>551</v>
       </c>
       <c r="P10" s="9" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="Q10" s="20" t="s">
-        <v>534</v>
+        <v>553</v>
       </c>
     </row>
     <row r="11" ht="30.0" customHeight="1">
@@ -12003,16 +12573,16 @@
         <v>4.927076051E9</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>535</v>
+        <v>554</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="E11" s="22" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="F11" s="22" t="s">
-        <v>538</v>
+        <v>557</v>
       </c>
       <c r="G11" s="23">
         <v>789000.0</v>
@@ -12024,40 +12594,40 @@
         <v>43952.0</v>
       </c>
       <c r="J11" s="22"/>
-      <c r="K11" s="78"/>
+      <c r="K11" s="77"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22" t="s">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="N11" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O11" s="22" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="P11" s="22" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="Q11" s="30"/>
     </row>
     <row r="12" ht="30.0" customHeight="1">
-      <c r="A12" s="75">
+      <c r="A12" s="74">
         <v>11.0</v>
       </c>
       <c r="B12" s="9">
         <v>1.0565335919E10</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>536</v>
+        <v>555</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>543</v>
+        <v>562</v>
       </c>
       <c r="G12" s="10">
         <v>589000.0</v>
@@ -12070,16 +12640,16 @@
       <c r="K12" s="35"/>
       <c r="L12" s="9"/>
       <c r="M12" s="9" t="s">
-        <v>544</v>
+        <v>563</v>
       </c>
       <c r="N12" s="9" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O12" s="9" t="s">
-        <v>545</v>
+        <v>564</v>
       </c>
       <c r="P12" s="9" t="s">
-        <v>541</v>
+        <v>560</v>
       </c>
       <c r="Q12" s="20"/>
     </row>
@@ -12091,16 +12661,16 @@
         <v>7.902943713E9</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>546</v>
+        <v>565</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>547</v>
+        <v>566</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
       <c r="G13" s="23">
         <v>989000.0</v>
@@ -12112,24 +12682,24 @@
         <v>44927.0</v>
       </c>
       <c r="J13" s="22"/>
-      <c r="K13" s="78"/>
+      <c r="K13" s="77"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22" t="s">
-        <v>550</v>
+        <v>569</v>
       </c>
       <c r="N13" s="22" t="s">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="O13" s="22" t="s">
-        <v>540</v>
+        <v>559</v>
       </c>
       <c r="P13" s="22" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="Q13" s="30"/>
     </row>
     <row r="14" ht="30.0" customHeight="1">
-      <c r="A14" s="75">
+      <c r="A14" s="74">
         <v>13.0</v>
       </c>
       <c r="B14" s="9"/>
@@ -12162,7 +12732,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="27"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="78"/>
+      <c r="K15" s="77"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -12171,7 +12741,7 @@
       <c r="Q15" s="30"/>
     </row>
     <row r="16" ht="30.0" customHeight="1">
-      <c r="A16" s="75">
+      <c r="A16" s="74">
         <v>15.0</v>
       </c>
       <c r="B16" s="9"/>
@@ -12204,7 +12774,7 @@
       <c r="H17" s="24"/>
       <c r="I17" s="27"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="78"/>
+      <c r="K17" s="77"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
@@ -12213,7 +12783,7 @@
       <c r="Q17" s="30"/>
     </row>
     <row r="18" ht="30.0" customHeight="1">
-      <c r="A18" s="75">
+      <c r="A18" s="74">
         <v>16.0</v>
       </c>
       <c r="B18" s="9"/>
@@ -12246,7 +12816,7 @@
       <c r="H19" s="24"/>
       <c r="I19" s="27"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="78"/>
+      <c r="K19" s="77"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
       <c r="N19" s="22"/>
@@ -12255,7 +12825,7 @@
       <c r="Q19" s="30"/>
     </row>
     <row r="20" ht="30.0" customHeight="1">
-      <c r="A20" s="75">
+      <c r="A20" s="74">
         <v>18.0</v>
       </c>
       <c r="B20" s="9"/>
@@ -12276,25 +12846,25 @@
       <c r="Q20" s="20"/>
     </row>
     <row r="21" ht="30.0" customHeight="1">
-      <c r="A21" s="61">
+      <c r="A21" s="78">
         <v>19.0</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="68"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="69"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="74"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="81"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="83"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="84"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:O21">
@@ -12341,423 +12911,423 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1">
-      <c r="A1" s="80"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
+      <c r="A1" s="85"/>
+      <c r="B1" s="85"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84" t="s">
-        <v>552</v>
-      </c>
-      <c r="C2" s="85" t="s">
-        <v>553</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>554</v>
-      </c>
-      <c r="E2" s="83"/>
-      <c r="F2" s="87" t="s">
-        <v>555</v>
-      </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="90"/>
+      <c r="A2" s="88"/>
+      <c r="B2" s="89" t="s">
+        <v>571</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>572</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>573</v>
+      </c>
+      <c r="E2" s="88"/>
+      <c r="F2" s="92" t="s">
+        <v>574</v>
+      </c>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
     </row>
     <row r="3" ht="18.75" customHeight="1">
-      <c r="A3" s="83"/>
-      <c r="B3" s="91">
+      <c r="A3" s="88"/>
+      <c r="B3" s="96">
         <v>45671.0</v>
       </c>
-      <c r="C3" s="92" t="s">
-        <v>556</v>
-      </c>
-      <c r="D3" s="93" t="s">
-        <v>557</v>
-      </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="94" t="s">
-        <v>558</v>
-      </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="97"/>
+      <c r="C3" s="97" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" s="98" t="s">
+        <v>576</v>
+      </c>
+      <c r="E3" s="88"/>
+      <c r="F3" s="99" t="s">
+        <v>577</v>
+      </c>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="101"/>
+      <c r="L3" s="102"/>
     </row>
     <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" s="83"/>
-      <c r="B4" s="98">
+      <c r="A4" s="88"/>
+      <c r="B4" s="103">
         <v>45671.0</v>
       </c>
-      <c r="C4" s="92" t="s">
-        <v>559</v>
-      </c>
-      <c r="D4" s="99" t="s">
-        <v>560</v>
-      </c>
-      <c r="E4" s="83"/>
-      <c r="F4" s="100" t="s">
+      <c r="C4" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="D4" s="104" t="s">
+        <v>579</v>
+      </c>
+      <c r="E4" s="88"/>
+      <c r="F4" s="105" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="101" t="s">
-        <v>561</v>
-      </c>
-      <c r="K4" s="102"/>
-      <c r="L4" s="97"/>
+      <c r="G4" s="106" t="s">
+        <v>580</v>
+      </c>
+      <c r="K4" s="107"/>
+      <c r="L4" s="102"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="103">
+      <c r="A5" s="88"/>
+      <c r="B5" s="108">
         <v>45669.0</v>
       </c>
-      <c r="C5" s="92" t="s">
-        <v>562</v>
-      </c>
-      <c r="D5" s="104" t="s">
-        <v>563</v>
-      </c>
-      <c r="E5" s="83"/>
-      <c r="F5" s="100" t="s">
-        <v>564</v>
-      </c>
-      <c r="G5" s="101" t="s">
-        <v>565</v>
-      </c>
-      <c r="K5" s="102"/>
-      <c r="L5" s="97"/>
+      <c r="C5" s="97" t="s">
+        <v>581</v>
+      </c>
+      <c r="D5" s="109" t="s">
+        <v>582</v>
+      </c>
+      <c r="E5" s="88"/>
+      <c r="F5" s="105" t="s">
+        <v>583</v>
+      </c>
+      <c r="G5" s="106" t="s">
+        <v>584</v>
+      </c>
+      <c r="K5" s="107"/>
+      <c r="L5" s="102"/>
     </row>
     <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" s="83"/>
-      <c r="B6" s="98">
+      <c r="A6" s="88"/>
+      <c r="B6" s="103">
         <v>45671.0</v>
       </c>
-      <c r="C6" s="92" t="s">
-        <v>559</v>
-      </c>
-      <c r="D6" s="93" t="s">
-        <v>566</v>
-      </c>
-      <c r="E6" s="83"/>
-      <c r="F6" s="100" t="s">
-        <v>567</v>
-      </c>
-      <c r="G6" s="101" t="s">
-        <v>568</v>
-      </c>
-      <c r="K6" s="102"/>
-      <c r="L6" s="97"/>
+      <c r="C6" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>585</v>
+      </c>
+      <c r="E6" s="88"/>
+      <c r="F6" s="105" t="s">
+        <v>586</v>
+      </c>
+      <c r="G6" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="K6" s="107"/>
+      <c r="L6" s="102"/>
     </row>
     <row r="7" ht="18.75" customHeight="1">
-      <c r="A7" s="83"/>
-      <c r="B7" s="103">
+      <c r="A7" s="88"/>
+      <c r="B7" s="108">
         <v>45672.0</v>
       </c>
-      <c r="C7" s="92" t="s">
-        <v>559</v>
-      </c>
-      <c r="D7" s="104" t="s">
-        <v>569</v>
-      </c>
-      <c r="E7" s="83"/>
-      <c r="F7" s="100" t="s">
-        <v>570</v>
-      </c>
-      <c r="G7" s="101" t="s">
-        <v>571</v>
-      </c>
-      <c r="K7" s="102"/>
-      <c r="L7" s="97"/>
+      <c r="C7" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="D7" s="109" t="s">
+        <v>588</v>
+      </c>
+      <c r="E7" s="88"/>
+      <c r="F7" s="105" t="s">
+        <v>589</v>
+      </c>
+      <c r="G7" s="106" t="s">
+        <v>590</v>
+      </c>
+      <c r="K7" s="107"/>
+      <c r="L7" s="102"/>
     </row>
     <row r="8" ht="18.75" customHeight="1">
-      <c r="A8" s="83"/>
-      <c r="B8" s="91">
+      <c r="A8" s="88"/>
+      <c r="B8" s="96">
         <v>45674.0</v>
       </c>
-      <c r="C8" s="92" t="s">
-        <v>559</v>
-      </c>
-      <c r="D8" s="93" t="s">
-        <v>572</v>
-      </c>
-      <c r="E8" s="83"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="101" t="s">
-        <v>573</v>
-      </c>
-      <c r="K8" s="102"/>
-      <c r="L8" s="97"/>
+      <c r="C8" s="97" t="s">
+        <v>578</v>
+      </c>
+      <c r="D8" s="98" t="s">
+        <v>591</v>
+      </c>
+      <c r="E8" s="88"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106" t="s">
+        <v>592</v>
+      </c>
+      <c r="K8" s="107"/>
+      <c r="L8" s="102"/>
     </row>
     <row r="9" ht="18.75" customHeight="1">
-      <c r="A9" s="83"/>
-      <c r="B9" s="103">
+      <c r="A9" s="88"/>
+      <c r="B9" s="108">
         <v>45731.0</v>
       </c>
-      <c r="C9" s="92" t="s">
-        <v>574</v>
-      </c>
-      <c r="D9" s="104" t="s">
-        <v>575</v>
-      </c>
-      <c r="E9" s="83"/>
-      <c r="F9" s="100" t="s">
-        <v>576</v>
-      </c>
-      <c r="G9" s="101" t="s">
-        <v>577</v>
-      </c>
-      <c r="K9" s="102"/>
-      <c r="L9" s="97"/>
+      <c r="C9" s="97" t="s">
+        <v>593</v>
+      </c>
+      <c r="D9" s="109" t="s">
+        <v>594</v>
+      </c>
+      <c r="E9" s="88"/>
+      <c r="F9" s="105" t="s">
+        <v>595</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>596</v>
+      </c>
+      <c r="K9" s="107"/>
+      <c r="L9" s="102"/>
     </row>
     <row r="10" ht="18.75" customHeight="1">
-      <c r="A10" s="83"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="100" t="s">
-        <v>578</v>
-      </c>
-      <c r="G10" s="101" t="s">
-        <v>579</v>
-      </c>
-      <c r="K10" s="102"/>
-      <c r="L10" s="97"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="105" t="s">
+        <v>597</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>598</v>
+      </c>
+      <c r="K10" s="107"/>
+      <c r="L10" s="102"/>
     </row>
     <row r="11" ht="18.75" customHeight="1">
-      <c r="A11" s="83"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="110"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="82"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="87"/>
     </row>
     <row r="12" ht="18.75" customHeight="1">
-      <c r="A12" s="112"/>
-      <c r="B12" s="91"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="112"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="117"/>
     </row>
     <row r="13" ht="18.75" customHeight="1">
-      <c r="A13" s="113"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="113"/>
+      <c r="A13" s="118"/>
+      <c r="B13" s="110"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="118"/>
     </row>
     <row r="14" ht="18.75" customHeight="1">
-      <c r="A14" s="113"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="113"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="118"/>
     </row>
     <row r="15" ht="18.75" customHeight="1">
-      <c r="A15" s="113"/>
-      <c r="B15" s="105"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
-      <c r="E15" s="113"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="110"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="118"/>
     </row>
     <row r="16" ht="18.75" customHeight="1">
-      <c r="A16" s="113"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="113"/>
+      <c r="A16" s="118"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="118"/>
     </row>
     <row r="17" ht="18.75" customHeight="1">
-      <c r="A17" s="114"/>
-      <c r="B17" s="105"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="114"/>
+      <c r="A17" s="119"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="119"/>
     </row>
     <row r="18" ht="18.75" customHeight="1">
-      <c r="A18" s="114"/>
-      <c r="B18" s="91"/>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="114"/>
+      <c r="A18" s="119"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="119"/>
     </row>
     <row r="19" ht="18.75" customHeight="1">
-      <c r="A19" s="114"/>
-      <c r="B19" s="105"/>
-      <c r="C19" s="106"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="114"/>
+      <c r="A19" s="119"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="111"/>
+      <c r="D19" s="112"/>
+      <c r="E19" s="119"/>
     </row>
     <row r="20" ht="18.75" customHeight="1">
-      <c r="A20" s="80"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="92"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="80"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="85"/>
     </row>
     <row r="21" ht="18.75" customHeight="1">
-      <c r="A21" s="80"/>
-      <c r="B21" s="105"/>
-      <c r="C21" s="106"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="80"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="85"/>
     </row>
     <row r="22" ht="18.75" customHeight="1">
-      <c r="A22" s="80"/>
-      <c r="B22" s="91"/>
-      <c r="C22" s="92"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="80"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="85"/>
     </row>
     <row r="23" ht="18.75" customHeight="1">
-      <c r="A23" s="80"/>
-      <c r="B23" s="105"/>
-      <c r="C23" s="106"/>
-      <c r="D23" s="107"/>
-      <c r="E23" s="80"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="112"/>
+      <c r="E23" s="85"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="80"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="92"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="80"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="96"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="85"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="80"/>
-      <c r="B25" s="105"/>
-      <c r="C25" s="106"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="80"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="85"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="80"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="80"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="96"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="85"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="80"/>
-      <c r="B27" s="105"/>
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="80"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="111"/>
+      <c r="D27" s="112"/>
+      <c r="E27" s="85"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="80"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="80"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="85"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="80"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="80"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="85"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="80"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="80"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="85"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="80"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="80"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="110"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="112"/>
+      <c r="E31" s="85"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="80"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="80"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="96"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="85"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="80"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="80"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="111"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="85"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="80"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="80"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="96"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="85"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="80"/>
-      <c r="B35" s="105"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="80"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="85"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="80"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="80"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="96"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="98"/>
+      <c r="E36" s="85"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="80"/>
-      <c r="B37" s="105"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="80"/>
+      <c r="A37" s="85"/>
+      <c r="B37" s="110"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="85"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="80"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="80"/>
+      <c r="A38" s="85"/>
+      <c r="B38" s="120"/>
+      <c r="C38" s="121"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="85"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="85"/>
+      <c r="E40" s="85"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="80"/>
-      <c r="C41" s="118"/>
-      <c r="E41" s="80"/>
+      <c r="A41" s="85"/>
+      <c r="C41" s="123"/>
+      <c r="E41" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="10">
